--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="144" windowWidth="19176" windowHeight="8004" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="150" windowWidth="19170" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181103year_gp2" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="42">
   <si>
     <t>阿里山</t>
   </si>
@@ -148,16 +148,24 @@
     <t>月平均</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>平均年降雨量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有測站</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -165,7 +173,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -174,7 +182,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -183,7 +191,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -192,7 +200,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -201,7 +209,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -209,7 +217,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -217,7 +225,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -225,7 +233,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -233,7 +241,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -242,7 +250,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -251,7 +259,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -259,7 +267,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -268,7 +276,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -276,7 +284,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -285,7 +293,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -294,7 +302,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -302,15 +310,23 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -740,8 +756,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,29 +784,29 @@
     <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -802,7 +821,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -847,64 +866,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6782.0583333333343</c:v>
+                  <c:v>4031.2916666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4412.4333333333325</c:v>
+                  <c:v>2679.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5633.5749999999998</c:v>
+                  <c:v>3442.0416666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5711.6333333333323</c:v>
+                  <c:v>3386.2416666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3631.4499999999994</c:v>
+                  <c:v>2363.3833333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3327.2749999999992</c:v>
+                  <c:v>2198.6416666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5472.2833333333338</c:v>
+                  <c:v>3443.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6963.6333333333341</c:v>
+                  <c:v>4199.7750000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6141.1916666666666</c:v>
+                  <c:v>3852.4166666666661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6482.8750000000009</c:v>
+                  <c:v>4118.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6306.6416666666664</c:v>
+                  <c:v>3911.9500000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5085.8499999999995</c:v>
+                  <c:v>3148.9499999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5329.3583333333336</c:v>
+                  <c:v>3340.5000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5109.4000000000015</c:v>
+                  <c:v>3307.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6444.4000000000015</c:v>
+                  <c:v>3973.3083333333338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5980.1500000000015</c:v>
+                  <c:v>3795.4833333333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4360.7416666666659</c:v>
+                  <c:v>2774.1416666666669</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4790.958333333333</c:v>
+                  <c:v>2898.7833333333328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6664.6250000000009</c:v>
+                  <c:v>4064.9500000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5544.0833333333321</c:v>
+                  <c:v>3584.1499999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,11 +940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40653952"/>
-        <c:axId val="40655488"/>
+        <c:axId val="89629696"/>
+        <c:axId val="76056832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40653952"/>
+        <c:axId val="89629696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40655488"/>
+        <c:crossAx val="76056832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -942,7 +961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40655488"/>
+        <c:axId val="76056832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40653952"/>
+        <c:crossAx val="89629696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,9 +1322,9 @@
       <selection activeCell="D547" sqref="D547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1316,7 +1335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1998</v>
       </c>
@@ -1327,7 +1346,7 @@
         <v>4364.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -1338,7 +1357,7 @@
         <v>6046.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1998</v>
       </c>
@@ -1349,7 +1368,7 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -1360,7 +1379,7 @@
         <v>2446.6999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1371,7 +1390,7 @@
         <v>2847.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -1382,7 +1401,7 @@
         <v>1689.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1998</v>
       </c>
@@ -1393,7 +1412,7 @@
         <v>2650.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1998</v>
       </c>
@@ -1404,7 +1423,7 @@
         <v>2088.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -1415,7 +1434,7 @@
         <v>3557.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1998</v>
       </c>
@@ -1426,7 +1445,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -1437,7 +1456,7 @@
         <v>5438.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1998</v>
       </c>
@@ -1448,7 +1467,7 @@
         <v>4341.3999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -1459,7 +1478,7 @@
         <v>1258.4000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -1470,7 +1489,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1998</v>
       </c>
@@ -1481,7 +1500,7 @@
         <v>7205.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -1492,7 +1511,7 @@
         <v>3063.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -1503,7 +1522,7 @@
         <v>2177.3000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1998</v>
       </c>
@@ -1514,7 +1533,7 @@
         <v>1840.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -1525,7 +1544,7 @@
         <v>4404.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -1536,7 +1555,7 @@
         <v>2418.9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>1998</v>
       </c>
@@ -1547,7 +1566,7 @@
         <v>2865.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1558,7 +1577,7 @@
         <v>1605.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>1998</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>4945.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>1998</v>
       </c>
@@ -1580,7 +1599,7 @@
         <v>5828.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>1999</v>
       </c>
@@ -1591,7 +1610,7 @@
         <v>3074.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>1999</v>
       </c>
@@ -1602,7 +1621,7 @@
         <v>3788.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>1999</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>2132.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>1999</v>
       </c>
@@ -1624,7 +1643,7 @@
         <v>1603.6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -1635,7 +1654,7 @@
         <v>2405.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>1999</v>
       </c>
@@ -1646,7 +1665,7 @@
         <v>1309.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>1999</v>
       </c>
@@ -1657,7 +1676,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>1999</v>
       </c>
@@ -1668,7 +1687,7 @@
         <v>1157.0999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -1679,7 +1698,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>1999</v>
       </c>
@@ -1690,7 +1709,7 @@
         <v>2763.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>1999</v>
       </c>
@@ -1701,7 +1720,7 @@
         <v>2746.7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>1999</v>
       </c>
@@ -1712,7 +1731,7 @@
         <v>2908.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>1999</v>
       </c>
@@ -1723,7 +1742,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>1999</v>
       </c>
@@ -1734,7 +1753,7 @@
         <v>1312.8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>1999</v>
       </c>
@@ -1745,7 +1764,7 @@
         <v>3952.1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>1999</v>
       </c>
@@ -1756,7 +1775,7 @@
         <v>2333.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>1999</v>
       </c>
@@ -1767,7 +1786,7 @@
         <v>1390.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>1999</v>
       </c>
@@ -1778,7 +1797,7 @@
         <v>2135.1999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>1999</v>
       </c>
@@ -1789,7 +1808,7 @@
         <v>1958.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>1999</v>
       </c>
@@ -1800,7 +1819,7 @@
         <v>2107.1999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>1999</v>
       </c>
@@ -1811,7 +1830,7 @@
         <v>1373.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>1999</v>
       </c>
@@ -1822,7 +1841,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>1999</v>
       </c>
@@ -1833,7 +1852,7 @@
         <v>2196.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>1999</v>
       </c>
@@ -1844,7 +1863,7 @@
         <v>3495.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>2000</v>
       </c>
@@ -1855,7 +1874,7 @@
         <v>3093.4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -1866,7 +1885,7 @@
         <v>6592.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>2000</v>
       </c>
@@ -1877,7 +1896,7 @@
         <v>2487.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>2000</v>
       </c>
@@ -1888,7 +1907,7 @@
         <v>1351.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>2000</v>
       </c>
@@ -1899,7 +1918,7 @@
         <v>2425.4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>2000</v>
       </c>
@@ -1910,7 +1929,7 @@
         <v>1023.3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -1921,7 +1940,7 @@
         <v>2327.1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>2000</v>
       </c>
@@ -1932,7 +1951,7 @@
         <v>1756.1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>2000</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>2460.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>2000</v>
       </c>
@@ -1954,7 +1973,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>2000</v>
       </c>
@@ -1965,7 +1984,7 @@
         <v>5404.4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>2000</v>
       </c>
@@ -1976,7 +1995,7 @@
         <v>3242.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>2000</v>
       </c>
@@ -1987,7 +2006,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>2000</v>
       </c>
@@ -1998,7 +2017,7 @@
         <v>2435.9</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>2000</v>
       </c>
@@ -2009,7 +2028,7 @@
         <v>6595.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>2000</v>
       </c>
@@ -2020,7 +2039,7 @@
         <v>1955.4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>2000</v>
       </c>
@@ -2031,7 +2050,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>2000</v>
       </c>
@@ -2042,7 +2061,7 @@
         <v>1754.4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>2000</v>
       </c>
@@ -2053,7 +2072,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>2000</v>
       </c>
@@ -2064,7 +2083,7 @@
         <v>2105.6999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>2000</v>
       </c>
@@ -2075,7 +2094,7 @@
         <v>2643.7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>2000</v>
       </c>
@@ -2086,7 +2105,7 @@
         <v>1244.7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>2000</v>
       </c>
@@ -2097,7 +2116,7 @@
         <v>4211.8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>2000</v>
       </c>
@@ -2108,7 +2127,7 @@
         <v>5238.2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>2001</v>
       </c>
@@ -2119,7 +2138,7 @@
         <v>4017.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>2001</v>
       </c>
@@ -2130,7 +2149,7 @@
         <v>5714.2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>2001</v>
       </c>
@@ -2141,7 +2160,7 @@
         <v>2161.6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>2001</v>
       </c>
@@ -2152,7 +2171,7 @@
         <v>2979.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>2001</v>
       </c>
@@ -2163,7 +2182,7 @@
         <v>2214.1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>2001</v>
       </c>
@@ -2174,7 +2193,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>2001</v>
       </c>
@@ -2185,7 +2204,7 @@
         <v>2494.6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>2001</v>
       </c>
@@ -2196,7 +2215,7 @@
         <v>2293.1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>2001</v>
       </c>
@@ -2207,7 +2226,7 @@
         <v>2568.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>2001</v>
       </c>
@@ -2218,7 +2237,7 @@
         <v>2556.5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>2001</v>
       </c>
@@ -2229,7 +2248,7 @@
         <v>3642.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>2001</v>
       </c>
@@ -2240,7 +2259,7 @@
         <v>3390.9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>2001</v>
       </c>
@@ -2251,7 +2270,7 @@
         <v>1459.7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>2001</v>
       </c>
@@ -2262,7 +2281,7 @@
         <v>2352.3000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>2001</v>
       </c>
@@ -2273,7 +2292,7 @@
         <v>5105.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>2001</v>
       </c>
@@ -2284,7 +2303,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>2001</v>
       </c>
@@ -2295,7 +2314,7 @@
         <v>1981.2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>2001</v>
       </c>
@@ -2306,7 +2325,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>2001</v>
       </c>
@@ -2317,7 +2336,7 @@
         <v>2862.1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>2001</v>
       </c>
@@ -2328,7 +2347,7 @@
         <v>1933.1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>2001</v>
       </c>
@@ -2339,7 +2358,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>2001</v>
       </c>
@@ -2350,7 +2369,7 @@
         <v>1949.1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>2001</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>3521.9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>2001</v>
       </c>
@@ -2372,7 +2391,7 @@
         <v>5080.1000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>2002</v>
       </c>
@@ -2383,7 +2402,7 @@
         <v>2196.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>2002</v>
       </c>
@@ -2394,7 +2413,7 @@
         <v>3113.7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>2002</v>
       </c>
@@ -2405,7 +2424,7 @@
         <v>1325.7</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>2002</v>
       </c>
@@ -2416,7 +2435,7 @@
         <v>2086.1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>2002</v>
       </c>
@@ -2427,7 +2446,7 @@
         <v>1392.1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>2002</v>
       </c>
@@ -2438,7 +2457,7 @@
         <v>1702.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>2002</v>
       </c>
@@ -2449,7 +2468,7 @@
         <v>769.5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>2002</v>
       </c>
@@ -2460,7 +2479,7 @@
         <v>1613.9</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>2002</v>
       </c>
@@ -2471,7 +2490,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>2002</v>
       </c>
@@ -2482,7 +2501,7 @@
         <v>1062.3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>2002</v>
       </c>
@@ -2493,7 +2512,7 @@
         <v>1037.5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>2002</v>
       </c>
@@ -2504,7 +2523,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>2002</v>
       </c>
@@ -2515,7 +2534,7 @@
         <v>2778.5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>2002</v>
       </c>
@@ -2526,7 +2545,7 @@
         <v>940.6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>2002</v>
       </c>
@@ -2537,7 +2556,7 @@
         <v>1965.1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>2002</v>
       </c>
@@ -2548,7 +2567,7 @@
         <v>2662.3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>2002</v>
       </c>
@@ -2559,7 +2578,7 @@
         <v>1455.8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>2002</v>
       </c>
@@ -2570,7 +2589,7 @@
         <v>1315.6</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>2002</v>
       </c>
@@ -2581,7 +2600,7 @@
         <v>1212.0999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>2002</v>
       </c>
@@ -2592,7 +2611,7 @@
         <v>1346.4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>2002</v>
       </c>
@@ -2603,7 +2622,7 @@
         <v>1560.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>2002</v>
       </c>
@@ -2614,7 +2633,7 @@
         <v>1177.8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>2002</v>
       </c>
@@ -2625,7 +2644,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>2002</v>
       </c>
@@ -2636,7 +2655,7 @@
         <v>1651.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>2002</v>
       </c>
@@ -2647,7 +2666,7 @@
         <v>1702.7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>2002</v>
       </c>
@@ -2658,7 +2677,7 @@
         <v>2730.9</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>2003</v>
       </c>
@@ -2669,7 +2688,7 @@
         <v>2298.8000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>2003</v>
       </c>
@@ -2680,7 +2699,7 @@
         <v>2514.1999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>2003</v>
       </c>
@@ -2691,7 +2710,7 @@
         <v>1191.2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>2003</v>
       </c>
@@ -2702,7 +2721,7 @@
         <v>1912.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>2003</v>
       </c>
@@ -2713,7 +2732,7 @@
         <v>941.1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>2003</v>
       </c>
@@ -2724,7 +2743,7 @@
         <v>2186.4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>2003</v>
       </c>
@@ -2735,7 +2754,7 @@
         <v>619.5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>2003</v>
       </c>
@@ -2746,7 +2765,7 @@
         <v>1881.5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>2003</v>
       </c>
@@ -2757,7 +2776,7 @@
         <v>877.7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>2003</v>
       </c>
@@ -2768,7 +2787,7 @@
         <v>1348.5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>2003</v>
       </c>
@@ -2779,7 +2798,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>2003</v>
       </c>
@@ -2790,7 +2809,7 @@
         <v>2155.8000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>2003</v>
       </c>
@@ -2801,7 +2820,7 @@
         <v>3126.5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>2003</v>
       </c>
@@ -2812,7 +2831,7 @@
         <v>786.1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>2003</v>
       </c>
@@ -2823,7 +2842,7 @@
         <v>871.3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>2003</v>
       </c>
@@ -2834,7 +2853,7 @@
         <v>2698.6</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>2003</v>
       </c>
@@ -2845,7 +2864,7 @@
         <v>1479.2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>2003</v>
       </c>
@@ -2856,7 +2875,7 @@
         <v>930.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>2003</v>
       </c>
@@ -2867,7 +2886,7 @@
         <v>898.5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>2003</v>
       </c>
@@ -2878,7 +2897,7 @@
         <v>1192.5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>2003</v>
       </c>
@@ -2889,7 +2908,7 @@
         <v>1674.1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>2003</v>
       </c>
@@ -2900,7 +2919,7 @@
         <v>967.6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>2003</v>
       </c>
@@ -2911,7 +2930,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>2003</v>
       </c>
@@ -2922,7 +2941,7 @@
         <v>1412.7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>2003</v>
       </c>
@@ -2933,7 +2952,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>2003</v>
       </c>
@@ -2944,7 +2963,7 @@
         <v>2400.6</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>2004</v>
       </c>
@@ -2955,7 +2974,7 @@
         <v>4192.3999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>2004</v>
       </c>
@@ -2966,7 +2985,7 @@
         <v>5976.6</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152">
         <v>2004</v>
       </c>
@@ -2977,7 +2996,7 @@
         <v>2992.3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153">
         <v>2004</v>
       </c>
@@ -2988,7 +3007,7 @@
         <v>1814.6</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154">
         <v>2004</v>
       </c>
@@ -2999,7 +3018,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155">
         <v>2004</v>
       </c>
@@ -3010,7 +3029,7 @@
         <v>2166.4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156">
         <v>2004</v>
       </c>
@@ -3021,7 +3040,7 @@
         <v>1457.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157">
         <v>2004</v>
       </c>
@@ -3032,7 +3051,7 @@
         <v>1549.5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158">
         <v>2004</v>
       </c>
@@ -3043,7 +3062,7 @@
         <v>2261.8000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159">
         <v>2004</v>
       </c>
@@ -3054,7 +3073,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160">
         <v>2004</v>
       </c>
@@ -3065,7 +3084,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>2004</v>
       </c>
@@ -3076,7 +3095,7 @@
         <v>3886.2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162">
         <v>2004</v>
       </c>
@@ -3087,7 +3106,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163">
         <v>2004</v>
       </c>
@@ -3098,7 +3117,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164">
         <v>2004</v>
       </c>
@@ -3109,7 +3128,7 @@
         <v>1015.8</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165">
         <v>2004</v>
       </c>
@@ -3120,7 +3139,7 @@
         <v>1215.5999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166">
         <v>2004</v>
       </c>
@@ -3131,7 +3150,7 @@
         <v>1927.4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>2004</v>
       </c>
@@ -3142,7 +3161,7 @@
         <v>3207.1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168">
         <v>2004</v>
       </c>
@@ -3153,7 +3172,7 @@
         <v>2404.8000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>2004</v>
       </c>
@@ -3164,7 +3183,7 @@
         <v>2260.6999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170">
         <v>2004</v>
       </c>
@@ -3175,7 +3194,7 @@
         <v>1107.9000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171">
         <v>2004</v>
       </c>
@@ -3186,7 +3205,7 @@
         <v>2829.8</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>2004</v>
       </c>
@@ -3197,7 +3216,7 @@
         <v>1445.6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173">
         <v>2004</v>
       </c>
@@ -3208,7 +3227,7 @@
         <v>2301.8000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>2004</v>
       </c>
@@ -3219,7 +3238,7 @@
         <v>1325.1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>2004</v>
       </c>
@@ -3230,7 +3249,7 @@
         <v>2556.5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>2004</v>
       </c>
@@ -3241,7 +3260,7 @@
         <v>2938.2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>2004</v>
       </c>
@@ -3252,7 +3271,7 @@
         <v>4878.3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>2005</v>
       </c>
@@ -3263,7 +3282,7 @@
         <v>5800.5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>2005</v>
       </c>
@@ -3274,7 +3293,7 @@
         <v>5356.5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>2005</v>
       </c>
@@ -3285,7 +3304,7 @@
         <v>3099.4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>2005</v>
       </c>
@@ -3296,7 +3315,7 @@
         <v>1877.9</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182">
         <v>2005</v>
       </c>
@@ -3307,7 +3326,7 @@
         <v>2985.6</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>2005</v>
       </c>
@@ -3318,7 +3337,7 @@
         <v>3530.5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>2005</v>
       </c>
@@ -3329,7 +3348,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -3340,7 +3359,7 @@
         <v>2339.1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -3351,7 +3370,7 @@
         <v>2384.1999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -3362,7 +3381,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -3373,7 +3392,7 @@
         <v>2821.4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -3384,7 +3403,7 @@
         <v>4240.8999999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -3395,7 +3414,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -3406,7 +3425,7 @@
         <v>2655.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -3417,7 +3436,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -3428,7 +3447,7 @@
         <v>1589.5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -3439,7 +3458,7 @@
         <v>2655.8</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -3450,7 +3469,7 @@
         <v>4075.8</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -3461,7 +3480,7 @@
         <v>3004.8</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -3472,7 +3491,7 @@
         <v>2574.5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>2005</v>
       </c>
@@ -3483,7 +3502,7 @@
         <v>3148.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>2005</v>
       </c>
@@ -3494,7 +3513,7 @@
         <v>3027.8</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>2005</v>
       </c>
@@ -3505,7 +3524,7 @@
         <v>1577.1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201">
         <v>2005</v>
       </c>
@@ -3516,7 +3535,7 @@
         <v>2777.5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
       <c r="A202">
         <v>2005</v>
       </c>
@@ -3527,7 +3546,7 @@
         <v>1784.4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>2005</v>
       </c>
@@ -3538,7 +3557,7 @@
         <v>3329.8</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204">
         <v>2005</v>
       </c>
@@ -3549,7 +3568,7 @@
         <v>4696.7</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205">
         <v>2005</v>
       </c>
@@ -3560,7 +3579,7 @@
         <v>4961.8999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206">
         <v>2006</v>
       </c>
@@ -3571,7 +3590,7 @@
         <v>5330.8</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207">
         <v>2006</v>
       </c>
@@ -3582,7 +3601,7 @@
         <v>5367.7</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208">
         <v>2006</v>
       </c>
@@ -3593,7 +3612,7 @@
         <v>2285.3000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>2006</v>
       </c>
@@ -3604,7 +3623,7 @@
         <v>1936.8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>2006</v>
       </c>
@@ -3615,7 +3634,7 @@
         <v>2317.8000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="A211">
         <v>2006</v>
       </c>
@@ -3626,7 +3645,7 @@
         <v>2473.8000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3">
       <c r="A212">
         <v>2006</v>
       </c>
@@ -3637,7 +3656,7 @@
         <v>1244.5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>2006</v>
       </c>
@@ -3648,7 +3667,7 @@
         <v>1690.1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>2006</v>
       </c>
@@ -3659,7 +3678,7 @@
         <v>2127.5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215">
         <v>2006</v>
       </c>
@@ -3670,7 +3689,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3">
       <c r="A216">
         <v>2006</v>
       </c>
@@ -3681,7 +3700,7 @@
         <v>2045.5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217">
         <v>2006</v>
       </c>
@@ -3692,7 +3711,7 @@
         <v>3723.5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>2006</v>
       </c>
@@ -3703,7 +3722,7 @@
         <v>1544.5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>2006</v>
       </c>
@@ -3714,7 +3733,7 @@
         <v>2917.5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>2006</v>
       </c>
@@ -3725,7 +3744,7 @@
         <v>1468.5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221">
         <v>2006</v>
       </c>
@@ -3736,7 +3755,7 @@
         <v>1506.8</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>2006</v>
       </c>
@@ -3747,7 +3766,7 @@
         <v>2283.9</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>2006</v>
       </c>
@@ -3758,7 +3777,7 @@
         <v>4548.3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224">
         <v>2006</v>
       </c>
@@ -3769,7 +3788,7 @@
         <v>3228.8</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>2006</v>
       </c>
@@ -3780,7 +3799,7 @@
         <v>2171.9</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -3791,7 +3810,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -3802,7 +3821,7 @@
         <v>2288.4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -3813,7 +3832,7 @@
         <v>1772.3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -3824,7 +3843,7 @@
         <v>2590.5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -3835,7 +3854,7 @@
         <v>1372.6</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -3846,7 +3865,7 @@
         <v>2730.4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -3857,7 +3876,7 @@
         <v>4519.2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -3868,7 +3887,7 @@
         <v>4439.2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>2007</v>
       </c>
@@ -3879,7 +3898,7 @@
         <v>5042.8</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>2007</v>
       </c>
@@ -3890,7 +3909,7 @@
         <v>5889.1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236">
         <v>2007</v>
       </c>
@@ -3901,7 +3920,7 @@
         <v>3018.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237">
         <v>2007</v>
       </c>
@@ -3912,7 +3931,7 @@
         <v>2302.5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3">
       <c r="A238">
         <v>2007</v>
       </c>
@@ -3923,7 +3942,7 @@
         <v>2063.9</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3">
       <c r="A239">
         <v>2007</v>
       </c>
@@ -3934,7 +3953,7 @@
         <v>2755.4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>2007</v>
       </c>
@@ -3945,7 +3964,7 @@
         <v>1065.8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241">
         <v>2007</v>
       </c>
@@ -3956,7 +3975,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242">
         <v>2007</v>
       </c>
@@ -3967,7 +3986,7 @@
         <v>1963.9</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243">
         <v>2007</v>
       </c>
@@ -3978,7 +3997,7 @@
         <v>2525.5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244">
         <v>2007</v>
       </c>
@@ -3989,7 +4008,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>2007</v>
       </c>
@@ -4000,7 +4019,7 @@
         <v>4063.7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246">
         <v>2007</v>
       </c>
@@ -4011,7 +4030,7 @@
         <v>994.1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247">
         <v>2007</v>
       </c>
@@ -4022,7 +4041,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248">
         <v>2007</v>
       </c>
@@ -4033,7 +4052,7 @@
         <v>1088.7</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>2007</v>
       </c>
@@ -4044,7 +4063,7 @@
         <v>979.4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250">
         <v>2007</v>
       </c>
@@ -4055,7 +4074,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3">
       <c r="A251">
         <v>2007</v>
       </c>
@@ -4066,7 +4085,7 @@
         <v>5466.3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3">
       <c r="A252">
         <v>2007</v>
       </c>
@@ -4077,7 +4096,7 @@
         <v>2822.4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>2007</v>
       </c>
@@ -4088,7 +4107,7 @@
         <v>2432.9</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254">
         <v>2007</v>
       </c>
@@ -4099,7 +4118,7 @@
         <v>2207.3000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255">
         <v>2007</v>
       </c>
@@ -4110,7 +4129,7 @@
         <v>3015.9</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3">
       <c r="A256">
         <v>2007</v>
       </c>
@@ -4121,7 +4140,7 @@
         <v>1732.3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3">
       <c r="A257">
         <v>2007</v>
       </c>
@@ -4132,7 +4151,7 @@
         <v>2672.6</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258">
         <v>2007</v>
       </c>
@@ -4143,7 +4162,7 @@
         <v>2203.6999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259">
         <v>2007</v>
       </c>
@@ -4154,7 +4173,7 @@
         <v>3115.1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260">
         <v>2007</v>
       </c>
@@ -4165,7 +4184,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3">
       <c r="A261">
         <v>2007</v>
       </c>
@@ -4176,7 +4195,7 @@
         <v>5287.7</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3">
       <c r="A262">
         <v>2008</v>
       </c>
@@ -4187,7 +4206,7 @@
         <v>5886.7</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3">
       <c r="A263">
         <v>2008</v>
       </c>
@@ -4198,7 +4217,7 @@
         <v>5355.3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3">
       <c r="A264">
         <v>2008</v>
       </c>
@@ -4209,7 +4228,7 @@
         <v>2720.4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3">
       <c r="A265">
         <v>2008</v>
       </c>
@@ -4220,7 +4239,7 @@
         <v>1718.3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3">
       <c r="A266">
         <v>2008</v>
       </c>
@@ -4231,7 +4250,7 @@
         <v>2510.6</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267">
         <v>2008</v>
       </c>
@@ -4242,7 +4261,7 @@
         <v>2081.5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3">
       <c r="A268">
         <v>2008</v>
       </c>
@@ -4253,7 +4272,7 @@
         <v>1096.9000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3">
       <c r="A269">
         <v>2008</v>
       </c>
@@ -4264,7 +4283,7 @@
         <v>2004.5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3">
       <c r="A270">
         <v>2008</v>
       </c>
@@ -4275,7 +4294,7 @@
         <v>2166.6</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3">
       <c r="A271">
         <v>2008</v>
       </c>
@@ -4286,7 +4305,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3">
       <c r="A272">
         <v>2008</v>
       </c>
@@ -4297,7 +4316,7 @@
         <v>2591.3000000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3">
       <c r="A273">
         <v>2008</v>
       </c>
@@ -4308,7 +4327,7 @@
         <v>3673.6</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3">
       <c r="A274">
         <v>2008</v>
       </c>
@@ -4319,7 +4338,7 @@
         <v>1025.2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3">
       <c r="A275">
         <v>2008</v>
       </c>
@@ -4330,7 +4349,7 @@
         <v>3017.6</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3">
       <c r="A276">
         <v>2008</v>
       </c>
@@ -4341,7 +4360,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3">
       <c r="A277">
         <v>2008</v>
       </c>
@@ -4352,7 +4371,7 @@
         <v>1512.6</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3">
       <c r="A278">
         <v>2008</v>
       </c>
@@ -4363,7 +4382,7 @@
         <v>2153.1999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3">
       <c r="A279">
         <v>2008</v>
       </c>
@@ -4374,7 +4393,7 @@
         <v>3990.9</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3">
       <c r="A280">
         <v>2008</v>
       </c>
@@ -4385,7 +4404,7 @@
         <v>3851.3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3">
       <c r="A281">
         <v>2008</v>
       </c>
@@ -4396,7 +4415,7 @@
         <v>2477.8000000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3">
       <c r="A282">
         <v>2008</v>
       </c>
@@ -4407,7 +4426,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3">
       <c r="A283">
         <v>2008</v>
       </c>
@@ -4418,7 +4437,7 @@
         <v>2969.2</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3">
       <c r="A284">
         <v>2008</v>
       </c>
@@ -4429,7 +4448,7 @@
         <v>1642.4</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3">
       <c r="A285">
         <v>2008</v>
       </c>
@@ -4440,7 +4459,7 @@
         <v>2575.5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3">
       <c r="A286">
         <v>2008</v>
       </c>
@@ -4451,7 +4470,7 @@
         <v>1613.5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3">
       <c r="A287">
         <v>2008</v>
       </c>
@@ -4462,7 +4481,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3">
       <c r="A288">
         <v>2008</v>
       </c>
@@ -4473,7 +4492,7 @@
         <v>4063.8</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3">
       <c r="A289">
         <v>2008</v>
       </c>
@@ -4484,7 +4503,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3">
       <c r="A290">
         <v>2009</v>
       </c>
@@ -4495,7 +4514,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3">
       <c r="A291">
         <v>2009</v>
       </c>
@@ -4506,7 +4525,7 @@
         <v>3860.5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3">
       <c r="A292">
         <v>2009</v>
       </c>
@@ -4517,7 +4536,7 @@
         <v>1616.5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3">
       <c r="A293">
         <v>2009</v>
       </c>
@@ -4528,7 +4547,7 @@
         <v>1814.1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3">
       <c r="A294">
         <v>2009</v>
       </c>
@@ -4539,7 +4558,7 @@
         <v>1826.5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3">
       <c r="A295">
         <v>2009</v>
       </c>
@@ -4550,7 +4569,7 @@
         <v>2684.8</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3">
       <c r="A296">
         <v>2009</v>
       </c>
@@ -4561,7 +4580,7 @@
         <v>1197.3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3">
       <c r="A297">
         <v>2009</v>
       </c>
@@ -4572,7 +4591,7 @@
         <v>1854.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3">
       <c r="A298">
         <v>2009</v>
       </c>
@@ -4583,7 +4602,7 @@
         <v>1119.5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3">
       <c r="A299">
         <v>2009</v>
       </c>
@@ -4594,7 +4613,7 @@
         <v>2535.6</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3">
       <c r="A300">
         <v>2009</v>
       </c>
@@ -4605,7 +4624,7 @@
         <v>1756.3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3">
       <c r="A301">
         <v>2009</v>
       </c>
@@ -4616,7 +4635,7 @@
         <v>3654.6</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3">
       <c r="A302">
         <v>2009</v>
       </c>
@@ -4627,7 +4646,7 @@
         <v>884.3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3">
       <c r="A303">
         <v>2009</v>
       </c>
@@ -4638,7 +4657,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3">
       <c r="A304">
         <v>2009</v>
       </c>
@@ -4649,7 +4668,7 @@
         <v>1170.5999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3">
       <c r="A305">
         <v>2009</v>
       </c>
@@ -4660,7 +4679,7 @@
         <v>969.8</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3">
       <c r="A306">
         <v>2009</v>
       </c>
@@ -4671,7 +4690,7 @@
         <v>1426.8</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3">
       <c r="A307">
         <v>2009</v>
       </c>
@@ -4682,7 +4701,7 @@
         <v>4682.3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3">
       <c r="A308">
         <v>2009</v>
       </c>
@@ -4693,7 +4712,7 @@
         <v>1797.8</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3">
       <c r="A309">
         <v>2009</v>
       </c>
@@ -4704,7 +4723,7 @@
         <v>1978.7</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3">
       <c r="A310">
         <v>2009</v>
       </c>
@@ -4715,7 +4734,7 @@
         <v>1366.6</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3">
       <c r="A311">
         <v>2009</v>
       </c>
@@ -4726,7 +4745,7 @@
         <v>1669.2</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3">
       <c r="A312">
         <v>2009</v>
       </c>
@@ -4737,7 +4756,7 @@
         <v>1380.9</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3">
       <c r="A313">
         <v>2009</v>
       </c>
@@ -4748,7 +4767,7 @@
         <v>1321.6</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3">
       <c r="A314">
         <v>2009</v>
       </c>
@@ -4759,7 +4778,7 @@
         <v>997.3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3">
       <c r="A315">
         <v>2009</v>
       </c>
@@ -4770,7 +4789,7 @@
         <v>2930.2</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3">
       <c r="A316">
         <v>2009</v>
       </c>
@@ -4781,7 +4800,7 @@
         <v>3588.9</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3">
       <c r="A317">
         <v>2009</v>
       </c>
@@ -4792,7 +4811,7 @@
         <v>3403.2</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3">
       <c r="A318">
         <v>2010</v>
       </c>
@@ -4803,7 +4822,7 @@
         <v>3654.6</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3">
       <c r="A319">
         <v>2010</v>
       </c>
@@ -4814,7 +4833,7 @@
         <v>4915.1000000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3">
       <c r="A320">
         <v>2010</v>
       </c>
@@ -4825,7 +4844,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3">
       <c r="A321">
         <v>2010</v>
       </c>
@@ -4836,7 +4855,7 @@
         <v>2042.4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3">
       <c r="A322">
         <v>2010</v>
       </c>
@@ -4847,7 +4866,7 @@
         <v>1532.5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323">
         <v>2010</v>
       </c>
@@ -4858,7 +4877,7 @@
         <v>2529.9</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
       <c r="A324">
         <v>2010</v>
       </c>
@@ -4869,7 +4888,7 @@
         <v>770.2</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3">
       <c r="A325">
         <v>2010</v>
       </c>
@@ -4880,7 +4899,7 @@
         <v>2421.1999999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3">
       <c r="A326">
         <v>2010</v>
       </c>
@@ -4891,7 +4910,7 @@
         <v>1605.1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3">
       <c r="A327">
         <v>2010</v>
       </c>
@@ -4902,7 +4921,7 @@
         <v>1769.3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3">
       <c r="A328">
         <v>2010</v>
       </c>
@@ -4913,7 +4932,7 @@
         <v>2160.6999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3">
       <c r="A329">
         <v>2010</v>
       </c>
@@ -4924,7 +4943,7 @@
         <v>3303.6</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3">
       <c r="A330">
         <v>2010</v>
       </c>
@@ -4935,7 +4954,7 @@
         <v>972.6</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3">
       <c r="A331">
         <v>2010</v>
       </c>
@@ -4946,7 +4965,7 @@
         <v>2950.4</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3">
       <c r="A332">
         <v>2010</v>
       </c>
@@ -4957,7 +4976,7 @@
         <v>1206.2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3">
       <c r="A333">
         <v>2010</v>
       </c>
@@ -4968,7 +4987,7 @@
         <v>688.2</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3">
       <c r="A334">
         <v>2010</v>
       </c>
@@ -4979,7 +4998,7 @@
         <v>2093.9</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3">
       <c r="A335">
         <v>2010</v>
       </c>
@@ -4990,7 +5009,7 @@
         <v>4738.2</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3">
       <c r="A336">
         <v>2010</v>
       </c>
@@ -5001,7 +5020,7 @@
         <v>1932.1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3">
       <c r="A337">
         <v>2010</v>
       </c>
@@ -5012,7 +5031,7 @@
         <v>2054.4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3">
       <c r="A338">
         <v>2010</v>
       </c>
@@ -5023,7 +5042,7 @@
         <v>1779.2</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3">
       <c r="A339">
         <v>2010</v>
       </c>
@@ -5034,7 +5053,7 @@
         <v>2278.3000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3">
       <c r="A340">
         <v>2010</v>
       </c>
@@ -5045,7 +5064,7 @@
         <v>1973.8</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3">
       <c r="A341">
         <v>2010</v>
       </c>
@@ -5056,7 +5075,7 @@
         <v>2070.3000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3">
       <c r="A342">
         <v>2010</v>
       </c>
@@ -5067,7 +5086,7 @@
         <v>1182.4000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3">
       <c r="A343">
         <v>2010</v>
       </c>
@@ -5078,7 +5097,7 @@
         <v>2542.4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3">
       <c r="A344">
         <v>2010</v>
       </c>
@@ -5089,7 +5108,7 @@
         <v>2423.8000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3">
       <c r="A345">
         <v>2010</v>
       </c>
@@ -5100,7 +5119,7 @@
         <v>4070.5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3">
       <c r="A346">
         <v>2011</v>
       </c>
@@ -5111,7 +5130,7 @@
         <v>3655.6</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3">
       <c r="A347">
         <v>2011</v>
       </c>
@@ -5122,7 +5141,7 @@
         <v>4879</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3">
       <c r="A348">
         <v>2011</v>
       </c>
@@ -5133,7 +5152,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3">
       <c r="A349">
         <v>2011</v>
       </c>
@@ -5144,7 +5163,7 @@
         <v>2720.6</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3">
       <c r="A350">
         <v>2011</v>
       </c>
@@ -5155,7 +5174,7 @@
         <v>1021.7</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3">
       <c r="A351">
         <v>2011</v>
       </c>
@@ -5166,7 +5185,7 @@
         <v>2687.2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3">
       <c r="A352">
         <v>2011</v>
       </c>
@@ -5177,7 +5196,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3">
       <c r="A353">
         <v>2011</v>
       </c>
@@ -5188,7 +5207,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3">
       <c r="A354">
         <v>2011</v>
       </c>
@@ -5199,7 +5218,7 @@
         <v>1222.5999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3">
       <c r="A355">
         <v>2011</v>
       </c>
@@ -5210,7 +5229,7 @@
         <v>2199.5</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3">
       <c r="A356">
         <v>2011</v>
       </c>
@@ -5221,7 +5240,7 @@
         <v>1796.7</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3">
       <c r="A357">
         <v>2011</v>
       </c>
@@ -5232,7 +5251,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3">
       <c r="A358">
         <v>2011</v>
       </c>
@@ -5243,7 +5262,7 @@
         <v>780.3</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3">
       <c r="A359">
         <v>2011</v>
       </c>
@@ -5254,7 +5273,7 @@
         <v>3605.7</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3">
       <c r="A360">
         <v>2011</v>
       </c>
@@ -5265,7 +5284,7 @@
         <v>792.8</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3">
       <c r="A361">
         <v>2011</v>
       </c>
@@ -5276,7 +5295,7 @@
         <v>609.4</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3">
       <c r="A362">
         <v>2011</v>
       </c>
@@ -5287,7 +5306,7 @@
         <v>1553.5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3">
       <c r="A363">
         <v>2011</v>
       </c>
@@ -5298,7 +5317,7 @@
         <v>4443.8</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3">
       <c r="A364">
         <v>2011</v>
       </c>
@@ -5309,7 +5328,7 @@
         <v>1725.3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3">
       <c r="A365">
         <v>2011</v>
       </c>
@@ -5320,7 +5339,7 @@
         <v>1204.9000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3">
       <c r="A366">
         <v>2011</v>
       </c>
@@ -5331,7 +5350,7 @@
         <v>1218.8</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3">
       <c r="A367">
         <v>2011</v>
       </c>
@@ -5342,7 +5361,7 @@
         <v>1758.6</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3">
       <c r="A368">
         <v>2011</v>
       </c>
@@ -5353,7 +5372,7 @@
         <v>2510.6</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3">
       <c r="A369">
         <v>2011</v>
       </c>
@@ -5364,7 +5383,7 @@
         <v>1713.8</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3">
       <c r="A370">
         <v>2011</v>
       </c>
@@ -5375,7 +5394,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3">
       <c r="A371">
         <v>2011</v>
       </c>
@@ -5386,7 +5405,7 @@
         <v>2781.9</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3">
       <c r="A372">
         <v>2011</v>
       </c>
@@ -5397,7 +5416,7 @@
         <v>2548.3000000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3">
       <c r="A373">
         <v>2011</v>
       </c>
@@ -5408,7 +5427,7 @@
         <v>4111.2</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3">
       <c r="A374">
         <v>2012</v>
       </c>
@@ -5419,7 +5438,7 @@
         <v>5166.3</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3">
       <c r="A375">
         <v>2012</v>
       </c>
@@ -5430,7 +5449,7 @@
         <v>4911.5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3">
       <c r="A376">
         <v>2012</v>
       </c>
@@ -5441,7 +5460,7 @@
         <v>3083.3</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3">
       <c r="A377">
         <v>2012</v>
       </c>
@@ -5452,7 +5471,7 @@
         <v>2473.3000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3">
       <c r="A378">
         <v>2012</v>
       </c>
@@ -5463,7 +5482,7 @@
         <v>2201.3000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3">
       <c r="A379">
         <v>2012</v>
       </c>
@@ -5474,7 +5493,7 @@
         <v>3031.1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3">
       <c r="A380">
         <v>2012</v>
       </c>
@@ -5485,7 +5504,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3">
       <c r="A381">
         <v>2012</v>
       </c>
@@ -5496,7 +5515,7 @@
         <v>2938.4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3">
       <c r="A382">
         <v>2012</v>
       </c>
@@ -5507,7 +5526,7 @@
         <v>2741.2</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3">
       <c r="A383">
         <v>2012</v>
       </c>
@@ -5518,7 +5537,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3">
       <c r="A384">
         <v>2012</v>
       </c>
@@ -5529,7 +5548,7 @@
         <v>2196.6999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3">
       <c r="A385">
         <v>2012</v>
       </c>
@@ -5540,7 +5559,7 @@
         <v>3908.8</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3">
       <c r="A386">
         <v>2012</v>
       </c>
@@ -5551,7 +5570,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3">
       <c r="A387">
         <v>2012</v>
       </c>
@@ -5562,7 +5581,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3">
       <c r="A388">
         <v>2012</v>
       </c>
@@ -5573,7 +5592,7 @@
         <v>1914.4</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3">
       <c r="A389">
         <v>2012</v>
       </c>
@@ -5584,7 +5603,7 @@
         <v>921.9</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3">
       <c r="A390">
         <v>2012</v>
       </c>
@@ -5595,7 +5614,7 @@
         <v>1960.3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3">
       <c r="A391">
         <v>2012</v>
       </c>
@@ -5606,7 +5625,7 @@
         <v>4732.8999999999996</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3">
       <c r="A392">
         <v>2012</v>
       </c>
@@ -5617,7 +5636,7 @@
         <v>3090.9</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3">
       <c r="A393">
         <v>2012</v>
       </c>
@@ -5628,7 +5647,7 @@
         <v>2202.5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3">
       <c r="A394">
         <v>2012</v>
       </c>
@@ -5639,7 +5658,7 @@
         <v>2425.6999999999998</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3">
       <c r="A395">
         <v>2012</v>
       </c>
@@ -5650,7 +5669,7 @@
         <v>2910.3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3">
       <c r="A396">
         <v>2012</v>
       </c>
@@ -5661,7 +5680,7 @@
         <v>2118.1999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3">
       <c r="A397">
         <v>2012</v>
       </c>
@@ -5672,7 +5691,7 @@
         <v>2993.5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3">
       <c r="A398">
         <v>2012</v>
       </c>
@@ -5683,7 +5702,7 @@
         <v>1660.8</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3">
       <c r="A399">
         <v>2012</v>
       </c>
@@ -5694,7 +5713,7 @@
         <v>2916.1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3">
       <c r="A400">
         <v>2012</v>
       </c>
@@ -5705,7 +5724,7 @@
         <v>3583.8</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3">
       <c r="A401">
         <v>2012</v>
       </c>
@@ -5716,7 +5735,7 @@
         <v>3904.6</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3">
       <c r="A402">
         <v>2013</v>
       </c>
@@ -5727,7 +5746,7 @@
         <v>4966.1000000000004</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3">
       <c r="A403">
         <v>2013</v>
       </c>
@@ -5738,7 +5757,7 @@
         <v>5205.5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3">
       <c r="A404">
         <v>2013</v>
       </c>
@@ -5749,7 +5768,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3">
       <c r="A405">
         <v>2013</v>
       </c>
@@ -5760,7 +5779,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3">
       <c r="A406">
         <v>2013</v>
       </c>
@@ -5771,7 +5790,7 @@
         <v>2580.5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3">
       <c r="A407">
         <v>2013</v>
       </c>
@@ -5782,7 +5801,7 @@
         <v>2563.3000000000002</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3">
       <c r="A408">
         <v>2013</v>
       </c>
@@ -5793,7 +5812,7 @@
         <v>970.8</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3">
       <c r="A409">
         <v>2013</v>
       </c>
@@ -5804,7 +5823,7 @@
         <v>2098.1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3">
       <c r="A410">
         <v>2013</v>
       </c>
@@ -5815,7 +5834,7 @@
         <v>2043.5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3">
       <c r="A411">
         <v>2013</v>
       </c>
@@ -5826,7 +5845,7 @@
         <v>1970.9</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3">
       <c r="A412">
         <v>2013</v>
       </c>
@@ -5837,7 +5856,7 @@
         <v>1688.2</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3">
       <c r="A413">
         <v>2013</v>
       </c>
@@ -5848,7 +5867,7 @@
         <v>3768.2</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3">
       <c r="A414">
         <v>2013</v>
       </c>
@@ -5859,7 +5878,7 @@
         <v>1400.8</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3">
       <c r="A415">
         <v>2013</v>
       </c>
@@ -5870,7 +5889,7 @@
         <v>3318.3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3">
       <c r="A416">
         <v>2013</v>
       </c>
@@ -5881,7 +5900,7 @@
         <v>1033.4000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3">
       <c r="A417">
         <v>2013</v>
       </c>
@@ -5892,7 +5911,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3">
       <c r="A418">
         <v>2013</v>
       </c>
@@ -5903,7 +5922,7 @@
         <v>2020.4</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3">
       <c r="A419">
         <v>2013</v>
       </c>
@@ -5914,7 +5933,7 @@
         <v>4265.1000000000004</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3">
       <c r="A420">
         <v>2013</v>
       </c>
@@ -5925,7 +5944,7 @@
         <v>2933.8</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3">
       <c r="A421">
         <v>2013</v>
       </c>
@@ -5936,7 +5955,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3">
       <c r="A422">
         <v>2013</v>
       </c>
@@ -5947,7 +5966,7 @@
         <v>1688.5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3">
       <c r="A423">
         <v>2013</v>
       </c>
@@ -5958,7 +5977,7 @@
         <v>2541.4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3">
       <c r="A424">
         <v>2013</v>
       </c>
@@ -5969,7 +5988,7 @@
         <v>1867.8</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3">
       <c r="A425">
         <v>2013</v>
       </c>
@@ -5980,7 +5999,7 @@
         <v>2343.5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3">
       <c r="A426">
         <v>2013</v>
       </c>
@@ -5991,7 +6010,7 @@
         <v>1921.4</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3">
       <c r="A427">
         <v>2013</v>
       </c>
@@ -6002,7 +6021,7 @@
         <v>866.4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3">
       <c r="A428">
         <v>2013</v>
       </c>
@@ -6013,7 +6032,7 @@
         <v>2552.8000000000002</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3">
       <c r="A429">
         <v>2013</v>
       </c>
@@ -6024,7 +6043,7 @@
         <v>3535.1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3">
       <c r="A430">
         <v>2013</v>
       </c>
@@ -6035,7 +6054,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3">
       <c r="A431">
         <v>2014</v>
       </c>
@@ -6046,7 +6065,7 @@
         <v>3172.4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3">
       <c r="A432">
         <v>2014</v>
       </c>
@@ -6057,7 +6076,7 @@
         <v>3887.7</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3">
       <c r="A433">
         <v>2014</v>
       </c>
@@ -6068,7 +6087,7 @@
         <v>2369.1999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3">
       <c r="A434">
         <v>2014</v>
       </c>
@@ -6079,7 +6098,7 @@
         <v>1653.6</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3">
       <c r="A435">
         <v>2014</v>
       </c>
@@ -6090,7 +6109,7 @@
         <v>1342.1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3">
       <c r="A436">
         <v>2014</v>
       </c>
@@ -6101,7 +6120,7 @@
         <v>1263.8</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3">
       <c r="A437">
         <v>2014</v>
       </c>
@@ -6112,7 +6131,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3">
       <c r="A438">
         <v>2014</v>
       </c>
@@ -6123,7 +6142,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3">
       <c r="A439">
         <v>2014</v>
       </c>
@@ -6134,7 +6153,7 @@
         <v>1150.3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3">
       <c r="A440">
         <v>2014</v>
       </c>
@@ -6145,7 +6164,7 @@
         <v>1226.5999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3">
       <c r="A441">
         <v>2014</v>
       </c>
@@ -6156,7 +6175,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3">
       <c r="A442">
         <v>2014</v>
       </c>
@@ -6167,7 +6186,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3">
       <c r="A443">
         <v>2014</v>
       </c>
@@ -6178,7 +6197,7 @@
         <v>905.8</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3">
       <c r="A444">
         <v>2014</v>
       </c>
@@ -6189,7 +6208,7 @@
         <v>2960.3</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3">
       <c r="A445">
         <v>2014</v>
       </c>
@@ -6200,7 +6219,7 @@
         <v>908.2</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3">
       <c r="A446">
         <v>2014</v>
       </c>
@@ -6211,7 +6230,7 @@
         <v>819.5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3">
       <c r="A447">
         <v>2014</v>
       </c>
@@ -6222,7 +6241,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3">
       <c r="A448">
         <v>2014</v>
       </c>
@@ -6233,7 +6252,7 @@
         <v>2723.4</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3">
       <c r="A449">
         <v>2014</v>
       </c>
@@ -6244,7 +6263,7 @@
         <v>2191.1999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3">
       <c r="A450">
         <v>2014</v>
       </c>
@@ -6255,7 +6274,7 @@
         <v>1466.1</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3">
       <c r="A451">
         <v>2014</v>
       </c>
@@ -6266,7 +6285,7 @@
         <v>1268.0999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3">
       <c r="A452">
         <v>2014</v>
       </c>
@@ -6277,7 +6296,7 @@
         <v>2147.3000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3">
       <c r="A453">
         <v>2014</v>
       </c>
@@ -6288,7 +6307,7 @@
         <v>1194.2</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3">
       <c r="A454">
         <v>2014</v>
       </c>
@@ -6299,7 +6318,7 @@
         <v>1893.3</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3">
       <c r="A455">
         <v>2014</v>
       </c>
@@ -6310,7 +6329,7 @@
         <v>1154.2</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3">
       <c r="A456">
         <v>2014</v>
       </c>
@@ -6321,7 +6340,7 @@
         <v>1259.5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3">
       <c r="A457">
         <v>2014</v>
       </c>
@@ -6332,7 +6351,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3">
       <c r="A458">
         <v>2014</v>
       </c>
@@ -6343,7 +6362,7 @@
         <v>2149.4</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3">
       <c r="A459">
         <v>2014</v>
       </c>
@@ -6354,7 +6373,7 @@
         <v>3206.7</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3">
       <c r="A460">
         <v>2015</v>
       </c>
@@ -6365,7 +6384,7 @@
         <v>3413.3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3">
       <c r="A461">
         <v>2015</v>
       </c>
@@ -6376,7 +6395,7 @@
         <v>3500.1</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3">
       <c r="A462">
         <v>2015</v>
       </c>
@@ -6387,7 +6406,7 @@
         <v>2132.1999999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3">
       <c r="A463">
         <v>2015</v>
       </c>
@@ -6398,7 +6417,7 @@
         <v>1506.8</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3">
       <c r="A464">
         <v>2015</v>
       </c>
@@ -6409,7 +6428,7 @@
         <v>1790.3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3">
       <c r="A465">
         <v>2015</v>
       </c>
@@ -6420,7 +6439,7 @@
         <v>1915.4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3">
       <c r="A466">
         <v>2015</v>
       </c>
@@ -6431,7 +6450,7 @@
         <v>1468.8</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3">
       <c r="A467">
         <v>2015</v>
       </c>
@@ -6442,7 +6461,7 @@
         <v>1480.1</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3">
       <c r="A468">
         <v>2015</v>
       </c>
@@ -6453,7 +6472,7 @@
         <v>1417.8</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3">
       <c r="A469">
         <v>2015</v>
       </c>
@@ -6464,7 +6483,7 @@
         <v>1784.6</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3">
       <c r="A470">
         <v>2015</v>
       </c>
@@ -6475,7 +6494,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3">
       <c r="A471">
         <v>2015</v>
       </c>
@@ -6486,7 +6505,7 @@
         <v>3151.6</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3">
       <c r="A472">
         <v>2015</v>
       </c>
@@ -6497,7 +6516,7 @@
         <v>1109.5999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3">
       <c r="A473">
         <v>2015</v>
       </c>
@@ -6508,7 +6527,7 @@
         <v>2693.7</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3">
       <c r="A474">
         <v>2015</v>
       </c>
@@ -6519,7 +6538,7 @@
         <v>1026.8</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3">
       <c r="A475">
         <v>2015</v>
       </c>
@@ -6530,7 +6549,7 @@
         <v>1752.7</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3">
       <c r="A476">
         <v>2015</v>
       </c>
@@ -6541,7 +6560,7 @@
         <v>1148.5999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3">
       <c r="A477">
         <v>2015</v>
       </c>
@@ -6552,7 +6571,7 @@
         <v>4069.1</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3">
       <c r="A478">
         <v>2015</v>
       </c>
@@ -6563,7 +6582,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3">
       <c r="A479">
         <v>2015</v>
       </c>
@@ -6574,7 +6593,7 @@
         <v>1526.3</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3">
       <c r="A480">
         <v>2015</v>
       </c>
@@ -6585,7 +6604,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3">
       <c r="A481">
         <v>2015</v>
       </c>
@@ -6596,7 +6615,7 @@
         <v>2519.1999999999998</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3">
       <c r="A482">
         <v>2015</v>
       </c>
@@ -6607,7 +6626,7 @@
         <v>1222.8</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3">
       <c r="A483">
         <v>2015</v>
       </c>
@@ -6618,7 +6637,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3">
       <c r="A484">
         <v>2015</v>
       </c>
@@ -6629,7 +6648,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3">
       <c r="A485">
         <v>2015</v>
       </c>
@@ -6640,7 +6659,7 @@
         <v>1215.9000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3">
       <c r="A486">
         <v>2015</v>
       </c>
@@ -6651,7 +6670,7 @@
         <v>2579.4</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3">
       <c r="A487">
         <v>2015</v>
       </c>
@@ -6662,7 +6681,7 @@
         <v>2317.4</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3">
       <c r="A488">
         <v>2015</v>
       </c>
@@ -6673,7 +6692,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3">
       <c r="A489">
         <v>2016</v>
       </c>
@@ -6684,7 +6703,7 @@
         <v>4061.7</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3">
       <c r="A490">
         <v>2016</v>
       </c>
@@ -6695,7 +6714,7 @@
         <v>4756.5</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3">
       <c r="A491">
         <v>2016</v>
       </c>
@@ -6706,7 +6725,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3">
       <c r="A492">
         <v>2016</v>
       </c>
@@ -6717,7 +6736,7 @@
         <v>3475.2</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3">
       <c r="A493">
         <v>2016</v>
       </c>
@@ -6728,7 +6747,7 @@
         <v>1885.7</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3">
       <c r="A494">
         <v>2016</v>
       </c>
@@ -6739,7 +6758,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3">
       <c r="A495">
         <v>2016</v>
       </c>
@@ -6750,7 +6769,7 @@
         <v>1922.1</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3">
       <c r="A496">
         <v>2016</v>
       </c>
@@ -6761,7 +6780,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3">
       <c r="A497">
         <v>2016</v>
       </c>
@@ -6772,7 +6791,7 @@
         <v>2027.5</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3">
       <c r="A498">
         <v>2016</v>
       </c>
@@ -6783,7 +6802,7 @@
         <v>3109.2</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3">
       <c r="A499">
         <v>2016</v>
       </c>
@@ -6794,7 +6813,7 @@
         <v>3103.5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3">
       <c r="A500">
         <v>2016</v>
       </c>
@@ -6805,7 +6824,7 @@
         <v>3841.4</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3">
       <c r="A501">
         <v>2016</v>
       </c>
@@ -6816,7 +6835,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3">
       <c r="A502">
         <v>2016</v>
       </c>
@@ -6827,7 +6846,7 @@
         <v>3684.1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3">
       <c r="A503">
         <v>2016</v>
       </c>
@@ -6838,7 +6857,7 @@
         <v>1354.9</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3">
       <c r="A504">
         <v>2016</v>
       </c>
@@ -6849,7 +6868,7 @@
         <v>1795.4</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3">
       <c r="A505">
         <v>2016</v>
       </c>
@@ -6860,7 +6879,7 @@
         <v>1820.5</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3">
       <c r="A506">
         <v>2016</v>
       </c>
@@ -6871,7 +6890,7 @@
         <v>4724.1000000000004</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3">
       <c r="A507">
         <v>2016</v>
       </c>
@@ -6882,7 +6901,7 @@
         <v>2293.4</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3">
       <c r="A508">
         <v>2016</v>
       </c>
@@ -6893,7 +6912,7 @@
         <v>1522.3</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3">
       <c r="A509">
         <v>2016</v>
       </c>
@@ -6904,7 +6923,7 @@
         <v>2720.9</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3">
       <c r="A510">
         <v>2016</v>
       </c>
@@ -6915,7 +6934,7 @@
         <v>2431.6999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3">
       <c r="A511">
         <v>2016</v>
       </c>
@@ -6926,7 +6945,7 @@
         <v>2852.5</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3">
       <c r="A512">
         <v>2016</v>
       </c>
@@ -6937,7 +6956,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3">
       <c r="A513">
         <v>2016</v>
       </c>
@@ -6948,7 +6967,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3">
       <c r="A514">
         <v>2016</v>
       </c>
@@ -6959,7 +6978,7 @@
         <v>1864.6</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3">
       <c r="A515">
         <v>2016</v>
       </c>
@@ -6970,7 +6989,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3">
       <c r="A516">
         <v>2016</v>
       </c>
@@ -6981,7 +7000,7 @@
         <v>3264.3</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3">
       <c r="A517">
         <v>2016</v>
       </c>
@@ -6992,7 +7011,7 @@
         <v>4348.3</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3">
       <c r="A518">
         <v>2017</v>
       </c>
@@ -7003,7 +7022,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3">
       <c r="A519">
         <v>2017</v>
       </c>
@@ -7014,7 +7033,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3">
       <c r="A520">
         <v>2017</v>
       </c>
@@ -7025,7 +7044,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3">
       <c r="A521">
         <v>2017</v>
       </c>
@@ -7036,7 +7055,7 @@
         <v>2048.9</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3">
       <c r="A522">
         <v>2017</v>
       </c>
@@ -7047,7 +7066,7 @@
         <v>1854.8</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3">
       <c r="A523">
         <v>2017</v>
       </c>
@@ -7058,7 +7077,7 @@
         <v>2190.6</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3">
       <c r="A524">
         <v>2017</v>
       </c>
@@ -7069,7 +7088,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3">
       <c r="A525">
         <v>2017</v>
       </c>
@@ -7080,7 +7099,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3">
       <c r="A526">
         <v>2017</v>
       </c>
@@ -7091,7 +7110,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3">
       <c r="A527">
         <v>2017</v>
       </c>
@@ -7102,7 +7121,7 @@
         <v>1948.2</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3">
       <c r="A528">
         <v>2017</v>
       </c>
@@ -7113,7 +7132,7 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3">
       <c r="A529">
         <v>2017</v>
       </c>
@@ -7124,7 +7143,7 @@
         <v>3857.6</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3">
       <c r="A530">
         <v>2017</v>
       </c>
@@ -7135,7 +7154,7 @@
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3">
       <c r="A531">
         <v>2017</v>
       </c>
@@ -7146,7 +7165,7 @@
         <v>2993.7</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3">
       <c r="A532">
         <v>2017</v>
       </c>
@@ -7157,7 +7176,7 @@
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3">
       <c r="A533">
         <v>2017</v>
       </c>
@@ -7168,7 +7187,7 @@
         <v>953.8</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3">
       <c r="A534">
         <v>2017</v>
       </c>
@@ -7179,7 +7198,7 @@
         <v>1613.1</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3">
       <c r="A535">
         <v>2017</v>
       </c>
@@ -7190,7 +7209,7 @@
         <v>4765.3</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3">
       <c r="A536">
         <v>2017</v>
       </c>
@@ -7201,7 +7220,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3">
       <c r="A537">
         <v>2017</v>
       </c>
@@ -7212,7 +7231,7 @@
         <v>1652.2</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3">
       <c r="A538">
         <v>2017</v>
       </c>
@@ -7223,7 +7242,7 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3">
       <c r="A539">
         <v>2017</v>
       </c>
@@ -7234,7 +7253,7 @@
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3">
       <c r="A540">
         <v>2017</v>
       </c>
@@ -7245,7 +7264,7 @@
         <v>1971.5</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3">
       <c r="A541">
         <v>2017</v>
       </c>
@@ -7256,7 +7275,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3">
       <c r="A542">
         <v>2017</v>
       </c>
@@ -7267,7 +7286,7 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3">
       <c r="A543">
         <v>2017</v>
       </c>
@@ -7278,7 +7297,7 @@
         <v>1592.2</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3">
       <c r="A544">
         <v>2017</v>
       </c>
@@ -7289,7 +7308,7 @@
         <v>3327.9</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3">
       <c r="A545">
         <v>2017</v>
       </c>
@@ -7300,7 +7319,7 @@
         <v>2641.5</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3">
       <c r="A546">
         <v>2017</v>
       </c>
@@ -7319,19 +7338,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -7339,67 +7358,67 @@
         <v>30</v>
       </c>
       <c r="C1">
-        <v>1998</v>
+        <v>87</v>
       </c>
       <c r="D1">
-        <v>1999</v>
+        <v>88</v>
       </c>
       <c r="E1">
-        <v>2000</v>
+        <v>89</v>
       </c>
       <c r="F1">
-        <v>2001</v>
+        <v>90</v>
       </c>
       <c r="G1">
-        <v>2002</v>
+        <v>91</v>
       </c>
       <c r="H1">
-        <v>2003</v>
+        <v>92</v>
       </c>
       <c r="I1">
-        <v>2004</v>
+        <v>93</v>
       </c>
       <c r="J1">
-        <v>2005</v>
+        <v>94</v>
       </c>
       <c r="K1">
-        <v>2006</v>
+        <v>95</v>
       </c>
       <c r="L1">
-        <v>2007</v>
+        <v>96</v>
       </c>
       <c r="M1">
-        <v>2008</v>
+        <v>97</v>
       </c>
       <c r="N1">
-        <v>2009</v>
+        <v>98</v>
       </c>
       <c r="O1">
-        <v>2010</v>
+        <v>99</v>
       </c>
       <c r="P1">
-        <v>2011</v>
+        <v>100</v>
       </c>
       <c r="Q1">
-        <v>2012</v>
+        <v>101</v>
       </c>
       <c r="R1">
-        <v>2013</v>
+        <v>102</v>
       </c>
       <c r="S1">
-        <v>2014</v>
+        <v>103</v>
       </c>
       <c r="T1">
-        <v>2015</v>
+        <v>104</v>
       </c>
       <c r="U1">
-        <v>2016</v>
+        <v>105</v>
       </c>
       <c r="V1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7467,7 +7486,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7535,7 +7554,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -7591,7 +7610,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7659,1611 +7678,1699 @@
         <v>2048.9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>2446.6999999999998</v>
+        <v>2847.4</v>
       </c>
       <c r="D6">
-        <v>1603.6</v>
+        <v>2405.1</v>
       </c>
       <c r="E6">
-        <v>1351.5</v>
+        <v>2425.4</v>
       </c>
       <c r="F6">
-        <v>2979.7</v>
+        <v>2214.1</v>
       </c>
       <c r="G6">
-        <v>1392.1</v>
+        <v>1702.1</v>
       </c>
       <c r="H6">
-        <v>941.1</v>
+        <v>2186.4</v>
       </c>
       <c r="I6">
-        <v>1411</v>
+        <v>2166.4</v>
       </c>
       <c r="J6">
-        <v>2985.6</v>
+        <v>3530.5</v>
       </c>
       <c r="K6">
-        <v>2317.8000000000002</v>
+        <v>2473.8000000000002</v>
       </c>
       <c r="L6">
-        <v>2063.9</v>
+        <v>2755.4</v>
       </c>
       <c r="M6">
-        <v>2510.6</v>
+        <v>2081.5</v>
       </c>
       <c r="N6">
-        <v>1826.5</v>
+        <v>2684.8</v>
       </c>
       <c r="O6">
-        <v>1532.5</v>
+        <v>2529.9</v>
       </c>
       <c r="P6">
-        <v>1021.7</v>
+        <v>2687.2</v>
       </c>
       <c r="Q6">
-        <v>2201.3000000000002</v>
+        <v>3031.1</v>
       </c>
       <c r="R6">
-        <v>2580.5</v>
+        <v>2563.3000000000002</v>
       </c>
       <c r="S6">
-        <v>1342.1</v>
+        <v>1263.8</v>
       </c>
       <c r="T6">
-        <v>1790.3</v>
+        <v>1915.4</v>
       </c>
       <c r="U6">
-        <v>1885.7</v>
+        <v>3336</v>
       </c>
       <c r="V6">
-        <v>1854.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2190.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7">
-        <v>2847.4</v>
+        <v>1689.3</v>
       </c>
       <c r="D7">
-        <v>2405.1</v>
+        <v>1309.2</v>
       </c>
       <c r="E7">
-        <v>2425.4</v>
+        <v>1023.3</v>
       </c>
       <c r="F7">
-        <v>2214.1</v>
+        <v>1270</v>
       </c>
       <c r="G7">
-        <v>1702.1</v>
+        <v>769.5</v>
       </c>
       <c r="H7">
-        <v>2186.4</v>
+        <v>619.5</v>
       </c>
       <c r="I7">
-        <v>2166.4</v>
+        <v>1457.5</v>
       </c>
       <c r="J7">
-        <v>3530.5</v>
+        <v>1781</v>
       </c>
       <c r="K7">
-        <v>2473.8000000000002</v>
+        <v>1244.5</v>
       </c>
       <c r="L7">
-        <v>2755.4</v>
+        <v>1065.8</v>
       </c>
       <c r="M7">
-        <v>2081.5</v>
+        <v>1096.9000000000001</v>
       </c>
       <c r="N7">
-        <v>2684.8</v>
+        <v>1197.3</v>
       </c>
       <c r="O7">
-        <v>2529.9</v>
+        <v>770.2</v>
       </c>
       <c r="P7">
-        <v>2687.2</v>
+        <v>933</v>
       </c>
       <c r="Q7">
-        <v>3031.1</v>
+        <v>895</v>
       </c>
       <c r="R7">
-        <v>2563.3000000000002</v>
+        <v>970.8</v>
       </c>
       <c r="S7">
-        <v>1263.8</v>
+        <v>658</v>
       </c>
       <c r="T7">
-        <v>1915.4</v>
+        <v>1468.8</v>
       </c>
       <c r="U7">
-        <v>3336</v>
+        <v>1922.1</v>
       </c>
       <c r="V7">
-        <v>2190.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8">
-        <v>1689.3</v>
+        <v>2650.3</v>
       </c>
       <c r="D8">
-        <v>1309.2</v>
+        <v>3100</v>
       </c>
       <c r="E8">
-        <v>1023.3</v>
+        <v>2327.1</v>
       </c>
       <c r="F8">
-        <v>1270</v>
+        <v>2494.6</v>
       </c>
       <c r="G8">
-        <v>769.5</v>
+        <v>1613.9</v>
       </c>
       <c r="H8">
-        <v>619.5</v>
+        <v>1881.5</v>
       </c>
       <c r="I8">
-        <v>1457.5</v>
+        <v>1549.5</v>
       </c>
       <c r="J8">
-        <v>1781</v>
+        <v>2339.1</v>
       </c>
       <c r="K8">
-        <v>1244.5</v>
+        <v>1690.1</v>
       </c>
       <c r="L8">
-        <v>1065.8</v>
+        <v>2139.8000000000002</v>
       </c>
       <c r="M8">
-        <v>1096.9000000000001</v>
+        <v>2004.5</v>
       </c>
       <c r="N8">
-        <v>1197.3</v>
+        <v>1854.3</v>
       </c>
       <c r="O8">
-        <v>770.2</v>
+        <v>2421.1999999999998</v>
       </c>
       <c r="P8">
-        <v>933</v>
+        <v>2597</v>
       </c>
       <c r="Q8">
-        <v>895</v>
+        <v>2938.4</v>
       </c>
       <c r="R8">
-        <v>970.8</v>
+        <v>2098.1</v>
       </c>
       <c r="S8">
-        <v>658</v>
+        <v>1489</v>
       </c>
       <c r="T8">
-        <v>1468.8</v>
+        <v>1480.1</v>
       </c>
       <c r="U8">
-        <v>1922.1</v>
+        <v>2723.8</v>
       </c>
       <c r="V8">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9">
-        <v>2650.3</v>
+        <v>4341.3999999999996</v>
       </c>
       <c r="D9">
-        <v>3100</v>
+        <v>2908.5</v>
       </c>
       <c r="E9">
-        <v>2327.1</v>
+        <v>3242.1</v>
       </c>
       <c r="F9">
-        <v>2494.6</v>
+        <v>3390.9</v>
       </c>
       <c r="G9">
-        <v>1613.9</v>
+        <v>2778.5</v>
       </c>
       <c r="H9">
-        <v>1881.5</v>
+        <v>3126.5</v>
       </c>
       <c r="I9">
-        <v>1549.5</v>
+        <v>2187</v>
       </c>
       <c r="J9">
-        <v>2339.1</v>
+        <v>2655.5</v>
       </c>
       <c r="K9">
-        <v>1690.1</v>
+        <v>2917.5</v>
       </c>
       <c r="L9">
-        <v>2139.8000000000002</v>
+        <v>2829</v>
       </c>
       <c r="M9">
-        <v>2004.5</v>
+        <v>3017.6</v>
       </c>
       <c r="N9">
-        <v>1854.3</v>
+        <v>2320</v>
       </c>
       <c r="O9">
-        <v>2421.1999999999998</v>
+        <v>2950.4</v>
       </c>
       <c r="P9">
-        <v>2597</v>
+        <v>3605.7</v>
       </c>
       <c r="Q9">
-        <v>2938.4</v>
+        <v>3254</v>
       </c>
       <c r="R9">
-        <v>2098.1</v>
+        <v>3318.3</v>
       </c>
       <c r="S9">
-        <v>1489</v>
+        <v>2960.3</v>
       </c>
       <c r="T9">
-        <v>1480.1</v>
+        <v>2693.7</v>
       </c>
       <c r="U9">
-        <v>2723.8</v>
+        <v>3684.1</v>
       </c>
       <c r="V9">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2993.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>2088.3000000000002</v>
+        <v>2544</v>
       </c>
       <c r="D10">
-        <v>1157.0999999999999</v>
+        <v>1312.8</v>
       </c>
       <c r="E10">
-        <v>1756.1</v>
+        <v>2435.9</v>
       </c>
       <c r="F10">
-        <v>2293.1</v>
+        <v>2352.3000000000002</v>
       </c>
       <c r="G10">
-        <v>1091</v>
+        <v>1965.1</v>
       </c>
       <c r="H10">
-        <v>877.7</v>
+        <v>871.3</v>
       </c>
       <c r="I10">
-        <v>2261.8000000000002</v>
+        <v>1927.4</v>
       </c>
       <c r="J10">
-        <v>2384.1999999999998</v>
+        <v>2655.8</v>
       </c>
       <c r="K10">
-        <v>2127.5</v>
+        <v>2283.9</v>
       </c>
       <c r="L10">
-        <v>1963.9</v>
+        <v>2075</v>
       </c>
       <c r="M10">
-        <v>2166.6</v>
+        <v>2153.1999999999998</v>
       </c>
       <c r="N10">
-        <v>1119.5</v>
+        <v>1426.8</v>
       </c>
       <c r="O10">
-        <v>1605.1</v>
+        <v>2093.9</v>
       </c>
       <c r="P10">
-        <v>1222.5999999999999</v>
+        <v>1553.5</v>
       </c>
       <c r="Q10">
-        <v>2741.2</v>
+        <v>1960.3</v>
       </c>
       <c r="R10">
-        <v>2043.5</v>
+        <v>2020.4</v>
       </c>
       <c r="S10">
-        <v>1150.3</v>
+        <v>1258</v>
       </c>
       <c r="T10">
-        <v>1417.8</v>
+        <v>1148.5999999999999</v>
       </c>
       <c r="U10">
-        <v>2027.5</v>
+        <v>1820.5</v>
       </c>
       <c r="V10">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1613.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>3557.5</v>
+        <v>7205.1</v>
       </c>
       <c r="D11">
-        <v>1677</v>
+        <v>3952.1</v>
       </c>
       <c r="E11">
-        <v>2460.5</v>
+        <v>6595.7</v>
       </c>
       <c r="F11">
-        <v>2568.5</v>
+        <v>5105.3</v>
       </c>
       <c r="G11">
-        <v>1062.3</v>
+        <v>2662.3</v>
       </c>
       <c r="H11">
-        <v>1348.5</v>
+        <v>2698.6</v>
       </c>
       <c r="I11">
-        <v>1983</v>
+        <v>3207.1</v>
       </c>
       <c r="J11">
-        <v>2777</v>
+        <v>4075.8</v>
       </c>
       <c r="K11">
-        <v>1901</v>
+        <v>4548.3</v>
       </c>
       <c r="L11">
-        <v>2525.5</v>
+        <v>5466.3</v>
       </c>
       <c r="M11">
-        <v>2312</v>
+        <v>3990.9</v>
       </c>
       <c r="N11">
-        <v>2535.6</v>
+        <v>4682.3</v>
       </c>
       <c r="O11">
-        <v>1769.3</v>
+        <v>4738.2</v>
       </c>
       <c r="P11">
-        <v>2199.5</v>
+        <v>4443.8</v>
       </c>
       <c r="Q11">
-        <v>2303</v>
+        <v>4732.8999999999996</v>
       </c>
       <c r="R11">
-        <v>1970.9</v>
+        <v>4265.1000000000004</v>
       </c>
       <c r="S11">
-        <v>1226.5999999999999</v>
+        <v>2723.4</v>
       </c>
       <c r="T11">
-        <v>1784.6</v>
+        <v>4069.1</v>
       </c>
       <c r="U11">
-        <v>3109.2</v>
+        <v>4724.1000000000004</v>
       </c>
       <c r="V11">
-        <v>1948.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>4765.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>2433.9</v>
+        <v>3063.4</v>
       </c>
       <c r="D12">
-        <v>2763.6</v>
+        <v>2333.9</v>
       </c>
       <c r="E12">
-        <v>1569</v>
+        <v>1955.4</v>
       </c>
       <c r="F12">
-        <v>2556.5</v>
+        <v>2206.4</v>
       </c>
       <c r="G12">
-        <v>1037.5</v>
+        <v>1455.8</v>
       </c>
       <c r="H12">
-        <v>1326</v>
+        <v>1479.2</v>
       </c>
       <c r="I12">
-        <v>1439.5</v>
+        <v>2404.8000000000002</v>
       </c>
       <c r="J12">
-        <v>2821.4</v>
+        <v>3004.8</v>
       </c>
       <c r="K12">
-        <v>2045.5</v>
+        <v>3228.8</v>
       </c>
       <c r="L12">
-        <v>2194</v>
+        <v>2822.4</v>
       </c>
       <c r="M12">
-        <v>2591.3000000000002</v>
+        <v>3851.3</v>
       </c>
       <c r="N12">
-        <v>1756.3</v>
+        <v>1797.8</v>
       </c>
       <c r="O12">
-        <v>2160.6999999999998</v>
+        <v>1932.1</v>
       </c>
       <c r="P12">
-        <v>1796.7</v>
+        <v>1725.3</v>
       </c>
       <c r="Q12">
-        <v>2196.6999999999998</v>
+        <v>3090.9</v>
       </c>
       <c r="R12">
-        <v>1688.2</v>
+        <v>2933.8</v>
       </c>
       <c r="S12">
-        <v>1942</v>
+        <v>2191.1999999999998</v>
       </c>
       <c r="T12">
-        <v>1344</v>
+        <v>1878</v>
       </c>
       <c r="U12">
-        <v>3103.5</v>
+        <v>2293.4</v>
       </c>
       <c r="V12">
-        <v>1124.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>5438.1</v>
+        <v>2865.1</v>
       </c>
       <c r="D13">
-        <v>2746.7</v>
+        <v>1373.2</v>
       </c>
       <c r="E13">
-        <v>5404.4</v>
+        <v>2643.7</v>
       </c>
       <c r="F13">
-        <v>3642.4</v>
+        <v>2679</v>
       </c>
       <c r="G13">
-        <v>2607.3000000000002</v>
+        <v>1177.8</v>
       </c>
       <c r="H13">
-        <v>2155.8000000000002</v>
+        <v>967.6</v>
       </c>
       <c r="I13">
-        <v>3886.2</v>
+        <v>2301.8000000000002</v>
       </c>
       <c r="J13">
-        <v>4240.8999999999996</v>
+        <v>2777.5</v>
       </c>
       <c r="K13">
-        <v>3723.5</v>
+        <v>2590.5</v>
       </c>
       <c r="L13">
-        <v>4063.7</v>
+        <v>2672.6</v>
       </c>
       <c r="M13">
-        <v>3673.6</v>
+        <v>2575.5</v>
       </c>
       <c r="N13">
-        <v>3654.6</v>
+        <v>1321.6</v>
       </c>
       <c r="O13">
-        <v>3303.6</v>
+        <v>2070.3000000000002</v>
       </c>
       <c r="P13">
-        <v>3727</v>
+        <v>1713.8</v>
       </c>
       <c r="Q13">
-        <v>3908.8</v>
+        <v>2993.5</v>
       </c>
       <c r="R13">
-        <v>3768.2</v>
+        <v>2343.5</v>
       </c>
       <c r="S13">
-        <v>2574</v>
+        <v>1893.3</v>
       </c>
       <c r="T13">
-        <v>3151.6</v>
+        <v>1571</v>
       </c>
       <c r="U13">
-        <v>3841.4</v>
+        <v>2211</v>
       </c>
       <c r="V13">
-        <v>3857.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>1605.6</v>
+      </c>
+      <c r="D14">
+        <v>973</v>
+      </c>
+      <c r="E14">
+        <v>1244.7</v>
+      </c>
+      <c r="F14">
+        <v>1949.1</v>
+      </c>
+      <c r="G14">
+        <v>1080</v>
+      </c>
+      <c r="H14">
+        <v>513</v>
       </c>
       <c r="I14">
-        <v>935</v>
+        <v>1325.1</v>
       </c>
       <c r="J14">
-        <v>1502</v>
+        <v>1784.4</v>
       </c>
       <c r="K14">
-        <v>1544.5</v>
+        <v>1372.6</v>
       </c>
       <c r="L14">
-        <v>994.1</v>
+        <v>2203.6999999999998</v>
       </c>
       <c r="M14">
-        <v>1025.2</v>
+        <v>1613.5</v>
       </c>
       <c r="N14">
-        <v>884.3</v>
+        <v>997.3</v>
       </c>
       <c r="O14">
-        <v>972.6</v>
+        <v>1182.4000000000001</v>
       </c>
       <c r="P14">
-        <v>780.3</v>
+        <v>605</v>
       </c>
       <c r="Q14">
-        <v>893</v>
+        <v>1660.8</v>
       </c>
       <c r="R14">
-        <v>1400.8</v>
+        <v>1921.4</v>
       </c>
       <c r="S14">
-        <v>905.8</v>
+        <v>1154.2</v>
       </c>
       <c r="T14">
-        <v>1109.5999999999999</v>
+        <v>1148</v>
       </c>
       <c r="U14">
-        <v>1873.1</v>
+        <v>1452.8</v>
       </c>
       <c r="V14">
-        <v>649.20000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>955.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15">
-        <v>4341.3999999999996</v>
-      </c>
-      <c r="D15">
-        <v>2908.5</v>
-      </c>
-      <c r="E15">
-        <v>3242.1</v>
-      </c>
-      <c r="F15">
-        <v>3390.9</v>
-      </c>
-      <c r="G15">
-        <v>2778.5</v>
-      </c>
-      <c r="H15">
-        <v>3126.5</v>
-      </c>
-      <c r="I15">
-        <v>2187</v>
-      </c>
-      <c r="J15">
-        <v>2655.5</v>
-      </c>
-      <c r="K15">
-        <v>2917.5</v>
-      </c>
-      <c r="L15">
-        <v>2829</v>
-      </c>
-      <c r="M15">
-        <v>3017.6</v>
-      </c>
-      <c r="N15">
-        <v>2320</v>
-      </c>
-      <c r="O15">
-        <v>2950.4</v>
-      </c>
-      <c r="P15">
-        <v>3605.7</v>
-      </c>
-      <c r="Q15">
-        <v>3254</v>
-      </c>
       <c r="R15">
-        <v>3318.3</v>
+        <v>866.4</v>
       </c>
       <c r="S15">
-        <v>2960.3</v>
+        <v>1259.5</v>
       </c>
       <c r="T15">
-        <v>2693.7</v>
+        <v>1215.9000000000001</v>
       </c>
       <c r="U15">
-        <v>3684.1</v>
+        <v>1864.6</v>
       </c>
       <c r="V15">
-        <v>2993.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1592.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>1702.7</v>
+      </c>
+      <c r="H16">
+        <v>1723</v>
+      </c>
+      <c r="I16">
+        <v>2938.2</v>
+      </c>
+      <c r="J16">
+        <v>4696.7</v>
+      </c>
+      <c r="K16">
+        <v>4519.2</v>
+      </c>
+      <c r="L16">
+        <v>3847</v>
+      </c>
+      <c r="M16">
+        <v>4063.8</v>
+      </c>
+      <c r="N16">
+        <v>3588.9</v>
+      </c>
+      <c r="O16">
+        <v>2423.8000000000002</v>
+      </c>
+      <c r="P16">
+        <v>2548.3000000000002</v>
+      </c>
+      <c r="Q16">
+        <v>3583.8</v>
+      </c>
+      <c r="R16">
+        <v>3535.1</v>
+      </c>
+      <c r="S16">
+        <v>2149.4</v>
+      </c>
+      <c r="T16">
+        <v>2317.4</v>
+      </c>
+      <c r="U16">
+        <v>3264.3</v>
+      </c>
+      <c r="V16">
+        <v>2641.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>5828.8</v>
+      </c>
+      <c r="D17">
+        <v>3495.4</v>
+      </c>
+      <c r="E17">
+        <v>5238.2</v>
+      </c>
+      <c r="F17">
+        <v>5080.1000000000004</v>
+      </c>
+      <c r="G17">
+        <v>2730.9</v>
+      </c>
+      <c r="H17">
+        <v>2400.6</v>
+      </c>
+      <c r="I17">
+        <v>4878.3</v>
+      </c>
+      <c r="J17">
+        <v>4961.8999999999996</v>
+      </c>
+      <c r="K17">
+        <v>4439.2</v>
+      </c>
+      <c r="L17">
+        <v>5287.7</v>
+      </c>
+      <c r="M17">
+        <v>4814</v>
+      </c>
+      <c r="N17">
+        <v>3403.2</v>
+      </c>
+      <c r="O17">
+        <v>4070.5</v>
+      </c>
+      <c r="P17">
+        <v>4111.2</v>
+      </c>
+      <c r="Q17">
+        <v>3904.6</v>
+      </c>
+      <c r="R17">
+        <v>4078</v>
+      </c>
+      <c r="S17">
+        <v>3206.7</v>
+      </c>
+      <c r="T17">
+        <v>3327</v>
+      </c>
+      <c r="U17">
+        <v>4348.3</v>
+      </c>
+      <c r="V17">
+        <v>4808.3999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="I16">
-        <v>1015.8</v>
-      </c>
-      <c r="J16">
-        <v>1208</v>
-      </c>
-      <c r="K16">
-        <v>1468.5</v>
-      </c>
-      <c r="L16">
-        <v>1088.7</v>
-      </c>
-      <c r="M16">
-        <v>1059</v>
-      </c>
-      <c r="N16">
-        <v>1170.5999999999999</v>
-      </c>
-      <c r="O16">
-        <v>1206.2</v>
-      </c>
-      <c r="P16">
-        <v>792.8</v>
-      </c>
-      <c r="Q16">
-        <v>1914.4</v>
-      </c>
-      <c r="R16">
-        <v>1033.4000000000001</v>
-      </c>
-      <c r="S16">
-        <v>908.2</v>
-      </c>
-      <c r="T16">
-        <v>1026.8</v>
-      </c>
-      <c r="U16">
-        <v>1354.9</v>
-      </c>
-      <c r="V16">
-        <v>1250.5999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18">
+        <v>2446.6999999999998</v>
+      </c>
+      <c r="D18">
+        <v>1603.6</v>
+      </c>
+      <c r="E18">
+        <v>1351.5</v>
+      </c>
+      <c r="F18">
+        <v>2979.7</v>
+      </c>
+      <c r="G18">
+        <v>1392.1</v>
+      </c>
+      <c r="H18">
+        <v>941.1</v>
+      </c>
+      <c r="I18">
+        <v>1411</v>
+      </c>
+      <c r="J18">
+        <v>2985.6</v>
+      </c>
+      <c r="K18">
+        <v>2317.8000000000002</v>
+      </c>
+      <c r="L18">
+        <v>2063.9</v>
+      </c>
+      <c r="M18">
+        <v>2510.6</v>
+      </c>
+      <c r="N18">
+        <v>1826.5</v>
+      </c>
+      <c r="O18">
+        <v>1532.5</v>
+      </c>
+      <c r="P18">
+        <v>1021.7</v>
+      </c>
+      <c r="Q18">
+        <v>2201.3000000000002</v>
+      </c>
+      <c r="R18">
+        <v>2580.5</v>
+      </c>
+      <c r="S18">
+        <v>1342.1</v>
+      </c>
+      <c r="T18">
+        <v>1790.3</v>
+      </c>
+      <c r="U18">
+        <v>1885.7</v>
+      </c>
+      <c r="V18">
+        <v>1854.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
-        <v>1258.4000000000001</v>
-      </c>
-      <c r="D17">
-        <v>1054.5999999999999</v>
-      </c>
-      <c r="E17">
-        <v>1144</v>
-      </c>
-      <c r="F17">
-        <v>1459.7</v>
-      </c>
-      <c r="G17">
-        <v>940.6</v>
-      </c>
-      <c r="H17">
-        <v>786.1</v>
-      </c>
-      <c r="I17">
-        <v>1215.5999999999999</v>
-      </c>
-      <c r="J17">
-        <v>1589.5</v>
-      </c>
-      <c r="K17">
-        <v>1506.8</v>
-      </c>
-      <c r="L17">
-        <v>979.4</v>
-      </c>
-      <c r="M17">
-        <v>1512.6</v>
-      </c>
-      <c r="N17">
-        <v>969.8</v>
-      </c>
-      <c r="O17">
-        <v>688.2</v>
-      </c>
-      <c r="P17">
-        <v>609.4</v>
-      </c>
-      <c r="Q17">
-        <v>921.9</v>
-      </c>
-      <c r="R17">
-        <v>947</v>
-      </c>
-      <c r="S17">
-        <v>819.5</v>
-      </c>
-      <c r="T17">
-        <v>1752.7</v>
-      </c>
-      <c r="U17">
-        <v>1795.4</v>
-      </c>
-      <c r="V17">
-        <v>953.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18">
-        <v>2544</v>
-      </c>
-      <c r="D18">
-        <v>1312.8</v>
-      </c>
-      <c r="E18">
-        <v>2435.9</v>
-      </c>
-      <c r="F18">
-        <v>2352.3000000000002</v>
-      </c>
-      <c r="G18">
-        <v>1965.1</v>
-      </c>
-      <c r="H18">
-        <v>871.3</v>
-      </c>
-      <c r="I18">
-        <v>1927.4</v>
-      </c>
-      <c r="J18">
-        <v>2655.8</v>
-      </c>
-      <c r="K18">
-        <v>2283.9</v>
-      </c>
-      <c r="L18">
-        <v>2075</v>
-      </c>
-      <c r="M18">
-        <v>2153.1999999999998</v>
-      </c>
-      <c r="N18">
-        <v>1426.8</v>
-      </c>
-      <c r="O18">
-        <v>2093.9</v>
-      </c>
-      <c r="P18">
-        <v>1553.5</v>
-      </c>
-      <c r="Q18">
-        <v>1960.3</v>
-      </c>
-      <c r="R18">
-        <v>2020.4</v>
-      </c>
-      <c r="S18">
-        <v>1258</v>
-      </c>
-      <c r="T18">
-        <v>1148.5999999999999</v>
-      </c>
-      <c r="U18">
-        <v>1820.5</v>
-      </c>
-      <c r="V18">
-        <v>1613.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="C19">
-        <v>7205.1</v>
+        <v>2088.3000000000002</v>
       </c>
       <c r="D19">
-        <v>3952.1</v>
+        <v>1157.0999999999999</v>
       </c>
       <c r="E19">
-        <v>6595.7</v>
+        <v>1756.1</v>
       </c>
       <c r="F19">
-        <v>5105.3</v>
+        <v>2293.1</v>
       </c>
       <c r="G19">
-        <v>2662.3</v>
+        <v>1091</v>
       </c>
       <c r="H19">
-        <v>2698.6</v>
+        <v>877.7</v>
       </c>
       <c r="I19">
-        <v>3207.1</v>
+        <v>2261.8000000000002</v>
       </c>
       <c r="J19">
-        <v>4075.8</v>
+        <v>2384.1999999999998</v>
       </c>
       <c r="K19">
-        <v>4548.3</v>
+        <v>2127.5</v>
       </c>
       <c r="L19">
-        <v>5466.3</v>
+        <v>1963.9</v>
       </c>
       <c r="M19">
-        <v>3990.9</v>
+        <v>2166.6</v>
       </c>
       <c r="N19">
-        <v>4682.3</v>
+        <v>1119.5</v>
       </c>
       <c r="O19">
-        <v>4738.2</v>
+        <v>1605.1</v>
       </c>
       <c r="P19">
-        <v>4443.8</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="Q19">
-        <v>4732.8999999999996</v>
+        <v>2741.2</v>
       </c>
       <c r="R19">
-        <v>4265.1000000000004</v>
+        <v>2043.5</v>
       </c>
       <c r="S19">
-        <v>2723.4</v>
+        <v>1150.3</v>
       </c>
       <c r="T19">
-        <v>4069.1</v>
+        <v>1417.8</v>
       </c>
       <c r="U19">
-        <v>4724.1000000000004</v>
+        <v>2027.5</v>
       </c>
       <c r="V19">
-        <v>4765.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>3063.4</v>
+        <v>3557.5</v>
       </c>
       <c r="D20">
-        <v>2333.9</v>
+        <v>1677</v>
       </c>
       <c r="E20">
-        <v>1955.4</v>
+        <v>2460.5</v>
       </c>
       <c r="F20">
-        <v>2206.4</v>
+        <v>2568.5</v>
       </c>
       <c r="G20">
-        <v>1455.8</v>
+        <v>1062.3</v>
       </c>
       <c r="H20">
-        <v>1479.2</v>
+        <v>1348.5</v>
       </c>
       <c r="I20">
-        <v>2404.8000000000002</v>
+        <v>1983</v>
       </c>
       <c r="J20">
-        <v>3004.8</v>
+        <v>2777</v>
       </c>
       <c r="K20">
-        <v>3228.8</v>
+        <v>1901</v>
       </c>
       <c r="L20">
-        <v>2822.4</v>
+        <v>2525.5</v>
       </c>
       <c r="M20">
-        <v>3851.3</v>
+        <v>2312</v>
       </c>
       <c r="N20">
-        <v>1797.8</v>
+        <v>2535.6</v>
       </c>
       <c r="O20">
-        <v>1932.1</v>
+        <v>1769.3</v>
       </c>
       <c r="P20">
-        <v>1725.3</v>
+        <v>2199.5</v>
       </c>
       <c r="Q20">
-        <v>3090.9</v>
+        <v>2303</v>
       </c>
       <c r="R20">
-        <v>2933.8</v>
+        <v>1970.9</v>
       </c>
       <c r="S20">
-        <v>2191.1999999999998</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="T20">
-        <v>1878</v>
+        <v>1784.6</v>
       </c>
       <c r="U20">
-        <v>2293.4</v>
+        <v>3109.2</v>
       </c>
       <c r="V20">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1948.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21">
-        <v>2177.3000000000002</v>
+        <v>2433.9</v>
       </c>
       <c r="D21">
-        <v>1390.4</v>
+        <v>2763.6</v>
       </c>
       <c r="E21">
-        <v>1797</v>
+        <v>1569</v>
       </c>
       <c r="F21">
-        <v>1981.2</v>
+        <v>2556.5</v>
       </c>
       <c r="G21">
-        <v>1315.6</v>
+        <v>1037.5</v>
       </c>
       <c r="H21">
-        <v>930.6</v>
+        <v>1326</v>
       </c>
       <c r="I21">
-        <v>2260.6999999999998</v>
+        <v>1439.5</v>
       </c>
       <c r="J21">
-        <v>2574.5</v>
+        <v>2821.4</v>
       </c>
       <c r="K21">
-        <v>2171.9</v>
+        <v>2045.5</v>
       </c>
       <c r="L21">
-        <v>2432.9</v>
+        <v>2194</v>
       </c>
       <c r="M21">
-        <v>2477.8000000000002</v>
+        <v>2591.3000000000002</v>
       </c>
       <c r="N21">
-        <v>1978.7</v>
+        <v>1756.3</v>
       </c>
       <c r="O21">
-        <v>2054.4</v>
+        <v>2160.6999999999998</v>
       </c>
       <c r="P21">
-        <v>1204.9000000000001</v>
+        <v>1796.7</v>
       </c>
       <c r="Q21">
-        <v>2202.5</v>
+        <v>2196.6999999999998</v>
       </c>
       <c r="R21">
-        <v>2133</v>
+        <v>1688.2</v>
       </c>
       <c r="S21">
-        <v>1466.1</v>
+        <v>1942</v>
       </c>
       <c r="T21">
-        <v>1526.3</v>
+        <v>1344</v>
       </c>
       <c r="U21">
-        <v>1522.3</v>
+        <v>3103.5</v>
       </c>
       <c r="V21">
-        <v>1652.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1124.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="12" customHeight="1">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22">
-        <v>1840.1</v>
+        <v>5438.1</v>
       </c>
       <c r="D22">
-        <v>2135.1999999999998</v>
+        <v>2746.7</v>
       </c>
       <c r="E22">
-        <v>1754.4</v>
+        <v>5404.4</v>
       </c>
       <c r="F22">
-        <v>2106.5</v>
+        <v>3642.4</v>
       </c>
       <c r="G22">
-        <v>1212.0999999999999</v>
+        <v>2607.3000000000002</v>
       </c>
       <c r="H22">
-        <v>898.5</v>
+        <v>2155.8000000000002</v>
       </c>
       <c r="I22">
-        <v>1107.9000000000001</v>
+        <v>3886.2</v>
       </c>
       <c r="J22">
-        <v>3148.5</v>
+        <v>4240.8999999999996</v>
       </c>
       <c r="K22">
-        <v>1867.2</v>
+        <v>3723.5</v>
       </c>
       <c r="L22">
-        <v>2207.3000000000002</v>
+        <v>4063.7</v>
       </c>
       <c r="M22">
-        <v>1950</v>
+        <v>3673.6</v>
       </c>
       <c r="N22">
-        <v>1366.6</v>
+        <v>3654.6</v>
       </c>
       <c r="O22">
-        <v>1779.2</v>
+        <v>3303.6</v>
       </c>
       <c r="P22">
-        <v>1218.8</v>
+        <v>3727</v>
       </c>
       <c r="Q22">
-        <v>2425.6999999999998</v>
+        <v>3908.8</v>
       </c>
       <c r="R22">
-        <v>1688.5</v>
+        <v>3768.2</v>
       </c>
       <c r="S22">
-        <v>1268.0999999999999</v>
+        <v>2574</v>
       </c>
       <c r="T22">
-        <v>1481</v>
+        <v>3151.6</v>
       </c>
       <c r="U22">
-        <v>2720.9</v>
+        <v>3841.4</v>
       </c>
       <c r="V22">
-        <v>1195.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <v>3857.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23">
-        <v>4404.7</v>
-      </c>
-      <c r="D23">
-        <v>1958.1</v>
-      </c>
-      <c r="E23">
-        <v>2744</v>
-      </c>
-      <c r="F23">
-        <v>2862.1</v>
-      </c>
-      <c r="G23">
-        <v>1346.4</v>
-      </c>
-      <c r="H23">
-        <v>1192.5</v>
-      </c>
       <c r="I23">
-        <v>2829.8</v>
+        <v>935</v>
       </c>
       <c r="J23">
-        <v>3027.8</v>
+        <v>1502</v>
       </c>
       <c r="K23">
-        <v>2288.4</v>
+        <v>1544.5</v>
       </c>
       <c r="L23">
-        <v>3015.9</v>
+        <v>994.1</v>
       </c>
       <c r="M23">
-        <v>2969.2</v>
+        <v>1025.2</v>
       </c>
       <c r="N23">
-        <v>1669.2</v>
+        <v>884.3</v>
       </c>
       <c r="O23">
-        <v>2278.3000000000002</v>
+        <v>972.6</v>
       </c>
       <c r="P23">
-        <v>1758.6</v>
+        <v>780.3</v>
       </c>
       <c r="Q23">
-        <v>2910.3</v>
+        <v>893</v>
       </c>
       <c r="R23">
-        <v>2541.4</v>
+        <v>1400.8</v>
       </c>
       <c r="S23">
-        <v>2147.3000000000002</v>
+        <v>905.8</v>
       </c>
       <c r="T23">
-        <v>2519.1999999999998</v>
+        <v>1109.5999999999999</v>
       </c>
       <c r="U23">
-        <v>2431.6999999999998</v>
+        <v>1873.1</v>
       </c>
       <c r="V23">
-        <v>2339.6999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+        <v>649.20000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24">
-        <v>2418.9</v>
-      </c>
-      <c r="D24">
-        <v>2107.1999999999998</v>
-      </c>
-      <c r="E24">
-        <v>2105.6999999999998</v>
-      </c>
-      <c r="F24">
-        <v>1933.1</v>
-      </c>
-      <c r="G24">
-        <v>1560.6</v>
-      </c>
-      <c r="H24">
-        <v>1674.1</v>
-      </c>
       <c r="I24">
-        <v>1445.6</v>
+        <v>1015.8</v>
       </c>
       <c r="J24">
-        <v>1577.1</v>
+        <v>1208</v>
       </c>
       <c r="K24">
-        <v>1772.3</v>
+        <v>1468.5</v>
       </c>
       <c r="L24">
-        <v>1732.3</v>
+        <v>1088.7</v>
       </c>
       <c r="M24">
-        <v>1642.4</v>
+        <v>1059</v>
       </c>
       <c r="N24">
-        <v>1380.9</v>
+        <v>1170.5999999999999</v>
       </c>
       <c r="O24">
-        <v>1973.8</v>
+        <v>1206.2</v>
       </c>
       <c r="P24">
-        <v>2510.6</v>
+        <v>792.8</v>
       </c>
       <c r="Q24">
-        <v>2118.1999999999998</v>
+        <v>1914.4</v>
       </c>
       <c r="R24">
-        <v>1867.8</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="S24">
-        <v>1194.2</v>
+        <v>908.2</v>
       </c>
       <c r="T24">
-        <v>1222.8</v>
+        <v>1026.8</v>
       </c>
       <c r="U24">
-        <v>2852.5</v>
+        <v>1354.9</v>
       </c>
       <c r="V24">
-        <v>1971.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1250.5999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>2865.1</v>
+        <v>1258.4000000000001</v>
       </c>
       <c r="D25">
-        <v>1373.2</v>
+        <v>1054.5999999999999</v>
       </c>
       <c r="E25">
-        <v>2643.7</v>
+        <v>1144</v>
       </c>
       <c r="F25">
-        <v>2679</v>
+        <v>1459.7</v>
       </c>
       <c r="G25">
-        <v>1177.8</v>
+        <v>940.6</v>
       </c>
       <c r="H25">
-        <v>967.6</v>
+        <v>786.1</v>
       </c>
       <c r="I25">
-        <v>2301.8000000000002</v>
+        <v>1215.5999999999999</v>
       </c>
       <c r="J25">
-        <v>2777.5</v>
+        <v>1589.5</v>
       </c>
       <c r="K25">
-        <v>2590.5</v>
+        <v>1506.8</v>
       </c>
       <c r="L25">
-        <v>2672.6</v>
+        <v>979.4</v>
       </c>
       <c r="M25">
-        <v>2575.5</v>
+        <v>1512.6</v>
       </c>
       <c r="N25">
-        <v>1321.6</v>
+        <v>969.8</v>
       </c>
       <c r="O25">
-        <v>2070.3000000000002</v>
+        <v>688.2</v>
       </c>
       <c r="P25">
-        <v>1713.8</v>
+        <v>609.4</v>
       </c>
       <c r="Q25">
-        <v>2993.5</v>
+        <v>921.9</v>
       </c>
       <c r="R25">
-        <v>2343.5</v>
+        <v>947</v>
       </c>
       <c r="S25">
-        <v>1893.3</v>
+        <v>819.5</v>
       </c>
       <c r="T25">
-        <v>1571</v>
+        <v>1752.7</v>
       </c>
       <c r="U25">
-        <v>2211</v>
+        <v>1795.4</v>
       </c>
       <c r="V25">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+        <v>953.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>1605.6</v>
+        <v>2177.3000000000002</v>
       </c>
       <c r="D26">
-        <v>973</v>
+        <v>1390.4</v>
       </c>
       <c r="E26">
-        <v>1244.7</v>
+        <v>1797</v>
       </c>
       <c r="F26">
-        <v>1949.1</v>
+        <v>1981.2</v>
       </c>
       <c r="G26">
-        <v>1080</v>
+        <v>1315.6</v>
       </c>
       <c r="H26">
-        <v>513</v>
+        <v>930.6</v>
       </c>
       <c r="I26">
-        <v>1325.1</v>
+        <v>2260.6999999999998</v>
       </c>
       <c r="J26">
-        <v>1784.4</v>
+        <v>2574.5</v>
       </c>
       <c r="K26">
-        <v>1372.6</v>
+        <v>2171.9</v>
       </c>
       <c r="L26">
-        <v>2203.6999999999998</v>
+        <v>2432.9</v>
       </c>
       <c r="M26">
-        <v>1613.5</v>
+        <v>2477.8000000000002</v>
       </c>
       <c r="N26">
-        <v>997.3</v>
+        <v>1978.7</v>
       </c>
       <c r="O26">
-        <v>1182.4000000000001</v>
+        <v>2054.4</v>
       </c>
       <c r="P26">
-        <v>605</v>
+        <v>1204.9000000000001</v>
       </c>
       <c r="Q26">
-        <v>1660.8</v>
+        <v>2202.5</v>
       </c>
       <c r="R26">
-        <v>1921.4</v>
+        <v>2133</v>
       </c>
       <c r="S26">
-        <v>1154.2</v>
+        <v>1466.1</v>
       </c>
       <c r="T26">
-        <v>1148</v>
+        <v>1526.3</v>
       </c>
       <c r="U26">
-        <v>1452.8</v>
+        <v>1522.3</v>
       </c>
       <c r="V26">
-        <v>955.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1652.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="11.25" customHeight="1">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>1840.1</v>
+      </c>
+      <c r="D27">
+        <v>2135.1999999999998</v>
+      </c>
+      <c r="E27">
+        <v>1754.4</v>
+      </c>
+      <c r="F27">
+        <v>2106.5</v>
+      </c>
+      <c r="G27">
+        <v>1212.0999999999999</v>
+      </c>
+      <c r="H27">
+        <v>898.5</v>
+      </c>
+      <c r="I27">
+        <v>1107.9000000000001</v>
+      </c>
+      <c r="J27">
+        <v>3148.5</v>
+      </c>
+      <c r="K27">
+        <v>1867.2</v>
+      </c>
+      <c r="L27">
+        <v>2207.3000000000002</v>
+      </c>
+      <c r="M27">
+        <v>1950</v>
+      </c>
+      <c r="N27">
+        <v>1366.6</v>
+      </c>
+      <c r="O27">
+        <v>1779.2</v>
+      </c>
+      <c r="P27">
+        <v>1218.8</v>
+      </c>
+      <c r="Q27">
+        <v>2425.6999999999998</v>
       </c>
       <c r="R27">
-        <v>866.4</v>
+        <v>1688.5</v>
       </c>
       <c r="S27">
-        <v>1259.5</v>
+        <v>1268.0999999999999</v>
       </c>
       <c r="T27">
-        <v>1215.9000000000001</v>
+        <v>1481</v>
       </c>
       <c r="U27">
-        <v>1864.6</v>
+        <v>2720.9</v>
       </c>
       <c r="V27">
-        <v>1592.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1195.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28">
+        <v>4404.7</v>
+      </c>
+      <c r="D28">
+        <v>1958.1</v>
+      </c>
+      <c r="E28">
+        <v>2744</v>
+      </c>
+      <c r="F28">
+        <v>2862.1</v>
+      </c>
+      <c r="G28">
+        <v>1346.4</v>
+      </c>
+      <c r="H28">
+        <v>1192.5</v>
+      </c>
+      <c r="I28">
+        <v>2829.8</v>
+      </c>
+      <c r="J28">
+        <v>3027.8</v>
+      </c>
+      <c r="K28">
+        <v>2288.4</v>
+      </c>
+      <c r="L28">
+        <v>3015.9</v>
+      </c>
+      <c r="M28">
+        <v>2969.2</v>
+      </c>
+      <c r="N28">
+        <v>1669.2</v>
+      </c>
+      <c r="O28">
+        <v>2278.3000000000002</v>
+      </c>
+      <c r="P28">
+        <v>1758.6</v>
+      </c>
+      <c r="Q28">
+        <v>2910.3</v>
+      </c>
+      <c r="R28">
+        <v>2541.4</v>
+      </c>
+      <c r="S28">
+        <v>2147.3000000000002</v>
+      </c>
+      <c r="T28">
+        <v>2519.1999999999998</v>
+      </c>
+      <c r="U28">
+        <v>2431.6999999999998</v>
+      </c>
+      <c r="V28">
+        <v>2339.6999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>2418.9</v>
+      </c>
+      <c r="D29">
+        <v>2107.1999999999998</v>
+      </c>
+      <c r="E29">
+        <v>2105.6999999999998</v>
+      </c>
+      <c r="F29">
+        <v>1933.1</v>
+      </c>
+      <c r="G29">
+        <v>1560.6</v>
+      </c>
+      <c r="H29">
+        <v>1674.1</v>
+      </c>
+      <c r="I29">
+        <v>1445.6</v>
+      </c>
+      <c r="J29">
+        <v>1577.1</v>
+      </c>
+      <c r="K29">
+        <v>1772.3</v>
+      </c>
+      <c r="L29">
+        <v>1732.3</v>
+      </c>
+      <c r="M29">
+        <v>1642.4</v>
+      </c>
+      <c r="N29">
+        <v>1380.9</v>
+      </c>
+      <c r="O29">
+        <v>1973.8</v>
+      </c>
+      <c r="P29">
+        <v>2510.6</v>
+      </c>
+      <c r="Q29">
+        <v>2118.1999999999998</v>
+      </c>
+      <c r="R29">
+        <v>1867.8</v>
+      </c>
+      <c r="S29">
+        <v>1194.2</v>
+      </c>
+      <c r="T29">
+        <v>1222.8</v>
+      </c>
+      <c r="U29">
+        <v>2852.5</v>
+      </c>
+      <c r="V29">
+        <v>1971.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
         <v>4945.3</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>2196.9</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>4211.8</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>3521.9</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <v>1651.3</v>
       </c>
-      <c r="H28">
+      <c r="H30">
         <v>1412.7</v>
       </c>
-      <c r="I28">
+      <c r="I30">
         <v>2556.5</v>
       </c>
-      <c r="J28">
+      <c r="J30">
         <v>3329.8</v>
       </c>
-      <c r="K28">
+      <c r="K30">
         <v>2730.4</v>
       </c>
-      <c r="L28">
+      <c r="L30">
         <v>3115.1</v>
       </c>
-      <c r="M28">
+      <c r="M30">
         <v>2846</v>
       </c>
-      <c r="N28">
+      <c r="N30">
         <v>2930.2</v>
       </c>
-      <c r="O28">
+      <c r="O30">
         <v>2542.4</v>
       </c>
-      <c r="P28">
+      <c r="P30">
         <v>2781.9</v>
       </c>
-      <c r="Q28">
+      <c r="Q30">
         <v>2916.1</v>
       </c>
-      <c r="R28">
+      <c r="R30">
         <v>2552.8000000000002</v>
       </c>
-      <c r="S28">
+      <c r="S30">
         <v>2095</v>
       </c>
-      <c r="T28">
+      <c r="T30">
         <v>2579.4</v>
       </c>
-      <c r="U28">
+      <c r="U30">
         <v>2678</v>
       </c>
-      <c r="V28">
+      <c r="V30">
         <v>3327.9</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29">
-        <v>1702.7</v>
-      </c>
-      <c r="H29">
-        <v>1723</v>
-      </c>
-      <c r="I29">
-        <v>2938.2</v>
-      </c>
-      <c r="J29">
-        <v>4696.7</v>
-      </c>
-      <c r="K29">
-        <v>4519.2</v>
-      </c>
-      <c r="L29">
-        <v>3847</v>
-      </c>
-      <c r="M29">
-        <v>4063.8</v>
-      </c>
-      <c r="N29">
-        <v>3588.9</v>
-      </c>
-      <c r="O29">
-        <v>2423.8000000000002</v>
-      </c>
-      <c r="P29">
-        <v>2548.3000000000002</v>
-      </c>
-      <c r="Q29">
-        <v>3583.8</v>
-      </c>
-      <c r="R29">
-        <v>3535.1</v>
-      </c>
-      <c r="S29">
-        <v>2149.4</v>
-      </c>
-      <c r="T29">
-        <v>2317.4</v>
-      </c>
-      <c r="U29">
-        <v>3264.3</v>
-      </c>
-      <c r="V29">
-        <v>2641.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>5828.8</v>
-      </c>
-      <c r="D30">
-        <v>3495.4</v>
-      </c>
-      <c r="E30">
-        <v>5238.2</v>
-      </c>
-      <c r="F30">
-        <v>5080.1000000000004</v>
-      </c>
-      <c r="G30">
-        <v>2730.9</v>
-      </c>
-      <c r="H30">
-        <v>2400.6</v>
-      </c>
-      <c r="I30">
-        <v>4878.3</v>
-      </c>
-      <c r="J30">
-        <v>4961.8999999999996</v>
-      </c>
-      <c r="K30">
-        <v>4439.2</v>
-      </c>
-      <c r="L30">
-        <v>5287.7</v>
-      </c>
-      <c r="M30">
-        <v>4814</v>
-      </c>
-      <c r="N30">
-        <v>3403.2</v>
-      </c>
-      <c r="O30">
-        <v>4070.5</v>
-      </c>
-      <c r="P30">
-        <v>4111.2</v>
-      </c>
-      <c r="Q30">
-        <v>3904.6</v>
-      </c>
-      <c r="R30">
-        <v>4078</v>
-      </c>
-      <c r="S30">
-        <v>3206.7</v>
-      </c>
-      <c r="T30">
-        <v>3327</v>
-      </c>
-      <c r="U30">
-        <v>4348.3</v>
-      </c>
-      <c r="V30">
-        <v>4808.3999999999996</v>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C2:C30)/29</f>
+        <v>2806.3689655172411</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D2:D30)/29</f>
+        <v>1825.8344827586204</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E2:E30)/29</f>
+        <v>2331.1344827586204</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F2:F30)/29</f>
+        <v>2363.4344827586201</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G2:G30)/29</f>
+        <v>1502.6689655172415</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H2:H30)/29</f>
+        <v>1376.8034482758617</v>
+      </c>
+      <c r="I31">
+        <f>SUM(I2:I30)/29</f>
+        <v>2264.3931034482757</v>
+      </c>
+      <c r="J31">
+        <f>SUM(J2:J30)/29</f>
+        <v>2881.5034482758624</v>
+      </c>
+      <c r="K31">
+        <f>SUM(K2:K30)/29</f>
+        <v>2541.1827586206891</v>
+      </c>
+      <c r="L31">
+        <f>SUM(L2:L30)/29</f>
+        <v>2682.5689655172414</v>
+      </c>
+      <c r="M31">
+        <f>SUM(M2:M30)/29</f>
+        <v>2609.6448275862062</v>
+      </c>
+      <c r="N31">
+        <f>SUM(N2:N30)/29</f>
+        <v>2104.4896551724132</v>
+      </c>
+      <c r="O31">
+        <f>SUM(O2:O30)/29</f>
+        <v>2205.251724137931</v>
+      </c>
+      <c r="P31">
+        <f>SUM(P2:P30)/29</f>
+        <v>2114.2344827586207</v>
+      </c>
+      <c r="Q31">
+        <f>SUM(Q2:Q30)/29</f>
+        <v>2666.6482758620691</v>
+      </c>
+      <c r="R31">
+        <f>SUM(R2:R30)/29</f>
+        <v>2474.5448275862068</v>
+      </c>
+      <c r="S31">
+        <f>SUM(S2:S30)/29</f>
+        <v>1804.4448275862069</v>
+      </c>
+      <c r="T31">
+        <f>SUM(T2:T30)/29</f>
+        <v>1982.4655172413793</v>
+      </c>
+      <c r="U31">
+        <f>SUM(U2:U30)/29</f>
+        <v>2757.7758620689651</v>
+      </c>
+      <c r="V31">
+        <f>SUM(V2:V30)/29</f>
+        <v>2294.1034482758614</v>
       </c>
     </row>
   </sheetData>
@@ -9277,16 +9384,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="B8:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -9354,7 +9461,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -9362,87 +9469,87 @@
         <v>37</v>
       </c>
       <c r="C2">
-        <f>SUM('20181103year_gp3'!C2:C30)</f>
-        <v>81384.700000000012</v>
+        <f>SUM('20181103year_gp3'!C2:C17)</f>
+        <v>48375.5</v>
       </c>
       <c r="D2">
-        <f>SUM('20181103year_gp3'!D2:D30)</f>
-        <v>52949.19999999999</v>
+        <f>SUM('20181103year_gp3'!D2:D17)</f>
+        <v>32158.800000000003</v>
       </c>
       <c r="E2">
-        <f>SUM('20181103year_gp3'!E2:E30)</f>
-        <v>67602.899999999994</v>
+        <f>SUM('20181103year_gp3'!E2:E17)</f>
+        <v>41304.499999999993</v>
       </c>
       <c r="F2">
-        <f>SUM('20181103year_gp3'!F2:F30)</f>
-        <v>68539.599999999991</v>
+        <f>SUM('20181103year_gp3'!F2:F17)</f>
+        <v>40634.899999999994</v>
       </c>
       <c r="G2">
-        <f>SUM('20181103year_gp3'!G2:G30)</f>
-        <v>43577.399999999994</v>
+        <f>SUM('20181103year_gp3'!G2:G17)</f>
+        <v>28360.6</v>
       </c>
       <c r="H2">
-        <f>SUM('20181103year_gp3'!H2:H30)</f>
-        <v>39927.299999999988</v>
+        <f>SUM('20181103year_gp3'!H2:H17)</f>
+        <v>26383.699999999997</v>
       </c>
       <c r="I2">
-        <f>SUM('20181103year_gp3'!I2:I30)</f>
-        <v>65667.400000000009</v>
+        <f>SUM('20181103year_gp3'!I2:I17)</f>
+        <v>41319</v>
       </c>
       <c r="J2">
-        <f>SUM('20181103year_gp3'!J2:J30)</f>
-        <v>83563.600000000006</v>
+        <f>SUM('20181103year_gp3'!J2:J17)</f>
+        <v>50397.3</v>
       </c>
       <c r="K2">
-        <f>SUM('20181103year_gp3'!K2:K30)</f>
-        <v>73694.3</v>
+        <f>SUM('20181103year_gp3'!K2:K17)</f>
+        <v>46228.999999999993</v>
       </c>
       <c r="L2">
-        <f>SUM('20181103year_gp3'!L2:L30)</f>
-        <v>77794.500000000015</v>
+        <f>SUM('20181103year_gp3'!L2:L17)</f>
+        <v>49417.799999999996</v>
       </c>
       <c r="M2">
-        <f>SUM('20181103year_gp3'!M2:M30)</f>
-        <v>75679.7</v>
+        <f>SUM('20181103year_gp3'!M2:M17)</f>
+        <v>46943.4</v>
       </c>
       <c r="N2">
-        <f>SUM('20181103year_gp3'!N2:N30)</f>
-        <v>61030.2</v>
+        <f>SUM('20181103year_gp3'!N2:N17)</f>
+        <v>37787.399999999994</v>
       </c>
       <c r="O2">
-        <f>SUM('20181103year_gp3'!O2:O30)</f>
-        <v>63952.3</v>
+        <f>SUM('20181103year_gp3'!O2:O17)</f>
+        <v>40086.000000000007</v>
       </c>
       <c r="P2">
-        <f>SUM('20181103year_gp3'!P2:P30)</f>
-        <v>61312.800000000017</v>
+        <f>SUM('20181103year_gp3'!P2:P17)</f>
+        <v>39688</v>
       </c>
       <c r="Q2">
-        <f>SUM('20181103year_gp3'!Q2:Q30)</f>
-        <v>77332.800000000017</v>
+        <f>SUM('20181103year_gp3'!Q2:Q17)</f>
+        <v>47679.700000000004</v>
       </c>
       <c r="R2">
-        <f>SUM('20181103year_gp3'!R2:R30)</f>
-        <v>71761.800000000017</v>
+        <f>SUM('20181103year_gp3'!R2:R17)</f>
+        <v>45545.8</v>
       </c>
       <c r="S2">
-        <f>SUM('20181103year_gp3'!S2:S30)</f>
-        <v>52328.899999999994</v>
+        <f>SUM('20181103year_gp3'!S2:S17)</f>
+        <v>33289.700000000004</v>
       </c>
       <c r="T2">
-        <f>SUM('20181103year_gp3'!T2:T30)</f>
-        <v>57491.5</v>
+        <f>SUM('20181103year_gp3'!T2:T17)</f>
+        <v>34785.399999999994</v>
       </c>
       <c r="U2">
-        <f>SUM('20181103year_gp3'!U2:U30)</f>
-        <v>79975.500000000015</v>
+        <f>SUM('20181103year_gp3'!U2:U17)</f>
+        <v>48779.400000000009</v>
       </c>
       <c r="V2">
-        <f>SUM('20181103year_gp3'!V2:V30)</f>
-        <v>66528.999999999985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM('20181103year_gp3'!V2:V17)</f>
+        <v>43009.799999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -9451,83 +9558,83 @@
       </c>
       <c r="C3">
         <f>C2/12</f>
-        <v>6782.0583333333343</v>
+        <v>4031.2916666666665</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:V3" si="0">D2/12</f>
-        <v>4412.4333333333325</v>
+        <v>2679.9</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>5633.5749999999998</v>
+        <v>3442.0416666666661</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>5711.6333333333323</v>
+        <v>3386.2416666666663</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>3631.4499999999994</v>
+        <v>2363.3833333333332</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>3327.2749999999992</v>
+        <v>2198.6416666666664</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>5472.2833333333338</v>
+        <v>3443.25</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>6963.6333333333341</v>
+        <v>4199.7750000000005</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>6141.1916666666666</v>
+        <v>3852.4166666666661</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>6482.8750000000009</v>
+        <v>4118.1499999999996</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>6306.6416666666664</v>
+        <v>3911.9500000000003</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>5085.8499999999995</v>
+        <v>3148.9499999999994</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>5329.3583333333336</v>
+        <v>3340.5000000000005</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>5109.4000000000015</v>
+        <v>3307.3333333333335</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>6444.4000000000015</v>
+        <v>3973.3083333333338</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>5980.1500000000015</v>
+        <v>3795.4833333333336</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>4360.7416666666659</v>
+        <v>2774.1416666666669</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>4790.958333333333</v>
+        <v>2898.7833333333328</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>6664.6250000000009</v>
+        <v>4064.9500000000007</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>5544.0833333333321</v>
+        <v>3584.1499999999996</v>
       </c>
     </row>
   </sheetData>

--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -113,10 +113,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>年降雨量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>縣市</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -149,11 +145,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>平均年降雨量</t>
+    <t>台灣</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>所有測站</t>
+    <t>其他測站</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -833,7 +833,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -940,11 +939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89629696"/>
-        <c:axId val="76056832"/>
+        <c:axId val="93701120"/>
+        <c:axId val="75024064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89629696"/>
+        <c:axId val="93701120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76056832"/>
+        <c:crossAx val="75024064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -961,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76056832"/>
+        <c:axId val="75024064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,14 +971,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89629696"/>
+        <c:crossAx val="93701120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1326,13 +1324,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7340,8 +7338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7422,8 +7420,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C2">
         <v>4364.2</v>
@@ -7490,8 +7488,8 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C3">
         <v>6046.6</v>
@@ -7558,8 +7556,8 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1325.7</v>
@@ -7614,8 +7612,8 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C5">
         <v>3324.3</v>
@@ -7682,8 +7680,8 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C6">
         <v>2847.4</v>
@@ -7750,8 +7748,8 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C7">
         <v>1689.3</v>
@@ -7818,8 +7816,8 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C8">
         <v>2650.3</v>
@@ -7886,8 +7884,8 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C9">
         <v>4341.3999999999996</v>
@@ -7954,8 +7952,8 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C10">
         <v>2544</v>
@@ -8022,8 +8020,8 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C11">
         <v>7205.1</v>
@@ -8090,8 +8088,8 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C12">
         <v>3063.4</v>
@@ -8158,8 +8156,8 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C13">
         <v>2865.1</v>
@@ -8226,8 +8224,8 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C14">
         <v>1605.6</v>
@@ -8294,8 +8292,8 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="R15">
         <v>866.4</v>
@@ -8317,8 +8315,8 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="G16">
         <v>1702.7</v>
@@ -8373,8 +8371,8 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C17">
         <v>5828.8</v>
@@ -8442,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>2446.6999999999998</v>
@@ -8510,7 +8508,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>2088.3000000000002</v>
@@ -8578,7 +8576,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>3557.5</v>
@@ -8646,7 +8644,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>2433.9</v>
@@ -8714,7 +8712,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>5438.1</v>
@@ -8782,7 +8780,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23">
         <v>935</v>
@@ -8832,7 +8830,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I24">
         <v>1015.8</v>
@@ -8882,7 +8880,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>1258.4000000000001</v>
@@ -8950,7 +8948,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>2177.3000000000002</v>
@@ -9018,7 +9016,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>1840.1</v>
@@ -9086,7 +9084,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>4404.7</v>
@@ -9154,7 +9152,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>2418.9</v>
@@ -9222,7 +9220,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>4945.3</v>
@@ -9287,89 +9285,89 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C31">
-        <f>SUM(C2:C30)/29</f>
+        <f t="shared" ref="C31:V31" si="0">SUM(C2:C30)/29</f>
         <v>2806.3689655172411</v>
       </c>
       <c r="D31">
-        <f>SUM(D2:D30)/29</f>
+        <f t="shared" si="0"/>
         <v>1825.8344827586204</v>
       </c>
       <c r="E31">
-        <f>SUM(E2:E30)/29</f>
+        <f t="shared" si="0"/>
         <v>2331.1344827586204</v>
       </c>
       <c r="F31">
-        <f>SUM(F2:F30)/29</f>
+        <f t="shared" si="0"/>
         <v>2363.4344827586201</v>
       </c>
       <c r="G31">
-        <f>SUM(G2:G30)/29</f>
+        <f t="shared" si="0"/>
         <v>1502.6689655172415</v>
       </c>
       <c r="H31">
-        <f>SUM(H2:H30)/29</f>
+        <f t="shared" si="0"/>
         <v>1376.8034482758617</v>
       </c>
       <c r="I31">
-        <f>SUM(I2:I30)/29</f>
+        <f t="shared" si="0"/>
         <v>2264.3931034482757</v>
       </c>
       <c r="J31">
-        <f>SUM(J2:J30)/29</f>
+        <f t="shared" si="0"/>
         <v>2881.5034482758624</v>
       </c>
       <c r="K31">
-        <f>SUM(K2:K30)/29</f>
+        <f t="shared" si="0"/>
         <v>2541.1827586206891</v>
       </c>
       <c r="L31">
-        <f>SUM(L2:L30)/29</f>
+        <f t="shared" si="0"/>
         <v>2682.5689655172414</v>
       </c>
       <c r="M31">
-        <f>SUM(M2:M30)/29</f>
+        <f t="shared" si="0"/>
         <v>2609.6448275862062</v>
       </c>
       <c r="N31">
-        <f>SUM(N2:N30)/29</f>
+        <f t="shared" si="0"/>
         <v>2104.4896551724132</v>
       </c>
       <c r="O31">
-        <f>SUM(O2:O30)/29</f>
+        <f t="shared" si="0"/>
         <v>2205.251724137931</v>
       </c>
       <c r="P31">
-        <f>SUM(P2:P30)/29</f>
+        <f t="shared" si="0"/>
         <v>2114.2344827586207</v>
       </c>
       <c r="Q31">
-        <f>SUM(Q2:Q30)/29</f>
+        <f t="shared" si="0"/>
         <v>2666.6482758620691</v>
       </c>
       <c r="R31">
-        <f>SUM(R2:R30)/29</f>
+        <f t="shared" si="0"/>
         <v>2474.5448275862068</v>
       </c>
       <c r="S31">
-        <f>SUM(S2:S30)/29</f>
+        <f t="shared" si="0"/>
         <v>1804.4448275862069</v>
       </c>
       <c r="T31">
-        <f>SUM(T2:T30)/29</f>
+        <f t="shared" si="0"/>
         <v>1982.4655172413793</v>
       </c>
       <c r="U31">
-        <f>SUM(U2:U30)/29</f>
+        <f t="shared" si="0"/>
         <v>2757.7758620689651</v>
       </c>
       <c r="V31">
-        <f>SUM(V2:V30)/29</f>
+        <f t="shared" si="0"/>
         <v>2294.1034482758614</v>
       </c>
     </row>
@@ -9463,10 +9461,10 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
       <c r="C2">
         <f>SUM('20181103year_gp3'!C2:C17)</f>
@@ -9551,10 +9549,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
       </c>
       <c r="C3">
         <f>C2/12</f>

--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -153,7 +153,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>全部</t>
+    <t>全台</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -939,11 +939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93701120"/>
-        <c:axId val="75024064"/>
+        <c:axId val="94880768"/>
+        <c:axId val="94643904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93701120"/>
+        <c:axId val="94880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75024064"/>
+        <c:crossAx val="94643904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -960,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75024064"/>
+        <c:axId val="94643904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93701120"/>
+        <c:crossAx val="94880768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -153,7 +153,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>全台</t>
+    <t>全台各測站</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -939,11 +939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94880768"/>
-        <c:axId val="94643904"/>
+        <c:axId val="92652544"/>
+        <c:axId val="77129408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94880768"/>
+        <c:axId val="92652544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94643904"/>
+        <c:crossAx val="77129408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -960,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94643904"/>
+        <c:axId val="77129408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94880768"/>
+        <c:crossAx val="92652544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7338,7 +7338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="150" windowWidth="19170" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="156" windowWidth="19176" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181103year_gp2" sheetId="1" r:id="rId1"/>
     <sheet name="20181103year_gp3" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
+    <sheet name="區域整理" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="55">
   <si>
     <t>阿里山</t>
   </si>
@@ -153,7 +154,59 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>全台各測站</t>
+    <t>全台各測站平均</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北部</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中部</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南部</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>東部</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>離島</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>東</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>籬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合計</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -161,11 +214,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -173,7 +226,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -182,7 +235,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -191,7 +244,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -200,7 +253,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -209,7 +262,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -217,7 +270,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -225,7 +278,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -233,7 +286,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -241,7 +294,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -250,7 +303,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -259,7 +312,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -267,7 +320,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -276,7 +329,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -284,7 +337,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -293,7 +346,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -302,7 +355,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -310,14 +363,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -325,7 +378,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -784,29 +837,29 @@
     <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -821,7 +874,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -833,7 +886,18 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -939,11 +1003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92652544"/>
-        <c:axId val="77129408"/>
+        <c:axId val="217975808"/>
+        <c:axId val="145017088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92652544"/>
+        <c:axId val="217975808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +1016,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77129408"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145017088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -960,7 +1034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77129408"/>
+        <c:axId val="145017088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,14 +1045,35 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92652544"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217975808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1320,9 +1415,9 @@
       <selection activeCell="D547" sqref="D547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +1428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1998</v>
       </c>
@@ -1344,7 +1439,7 @@
         <v>4364.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -1355,7 +1450,7 @@
         <v>6046.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1998</v>
       </c>
@@ -1366,7 +1461,7 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -1377,7 +1472,7 @@
         <v>2446.6999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1388,7 +1483,7 @@
         <v>2847.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -1399,7 +1494,7 @@
         <v>1689.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1998</v>
       </c>
@@ -1410,7 +1505,7 @@
         <v>2650.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1998</v>
       </c>
@@ -1421,7 +1516,7 @@
         <v>2088.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -1432,7 +1527,7 @@
         <v>3557.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1998</v>
       </c>
@@ -1443,7 +1538,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -1454,7 +1549,7 @@
         <v>5438.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1998</v>
       </c>
@@ -1465,7 +1560,7 @@
         <v>4341.3999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -1476,7 +1571,7 @@
         <v>1258.4000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -1487,7 +1582,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1998</v>
       </c>
@@ -1498,7 +1593,7 @@
         <v>7205.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -1509,7 +1604,7 @@
         <v>3063.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -1520,7 +1615,7 @@
         <v>2177.3000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1998</v>
       </c>
@@ -1531,7 +1626,7 @@
         <v>1840.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -1542,7 +1637,7 @@
         <v>4404.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -1553,7 +1648,7 @@
         <v>2418.9</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1998</v>
       </c>
@@ -1564,7 +1659,7 @@
         <v>2865.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1575,7 +1670,7 @@
         <v>1605.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1998</v>
       </c>
@@ -1586,7 +1681,7 @@
         <v>4945.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1998</v>
       </c>
@@ -1597,7 +1692,7 @@
         <v>5828.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1999</v>
       </c>
@@ -1608,7 +1703,7 @@
         <v>3074.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1999</v>
       </c>
@@ -1619,7 +1714,7 @@
         <v>3788.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1999</v>
       </c>
@@ -1630,7 +1725,7 @@
         <v>2132.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1999</v>
       </c>
@@ -1641,7 +1736,7 @@
         <v>1603.6</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -1652,7 +1747,7 @@
         <v>2405.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1999</v>
       </c>
@@ -1663,7 +1758,7 @@
         <v>1309.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1999</v>
       </c>
@@ -1674,7 +1769,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1999</v>
       </c>
@@ -1685,7 +1780,7 @@
         <v>1157.0999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -1696,7 +1791,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1999</v>
       </c>
@@ -1707,7 +1802,7 @@
         <v>2763.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1999</v>
       </c>
@@ -1718,7 +1813,7 @@
         <v>2746.7</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1999</v>
       </c>
@@ -1729,7 +1824,7 @@
         <v>2908.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1999</v>
       </c>
@@ -1740,7 +1835,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1999</v>
       </c>
@@ -1751,7 +1846,7 @@
         <v>1312.8</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1999</v>
       </c>
@@ -1762,7 +1857,7 @@
         <v>3952.1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1999</v>
       </c>
@@ -1773,7 +1868,7 @@
         <v>2333.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1999</v>
       </c>
@@ -1784,7 +1879,7 @@
         <v>1390.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1999</v>
       </c>
@@ -1795,7 +1890,7 @@
         <v>2135.1999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1999</v>
       </c>
@@ -1806,7 +1901,7 @@
         <v>1958.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1999</v>
       </c>
@@ -1817,7 +1912,7 @@
         <v>2107.1999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1999</v>
       </c>
@@ -1828,7 +1923,7 @@
         <v>1373.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1999</v>
       </c>
@@ -1839,7 +1934,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1999</v>
       </c>
@@ -1850,7 +1945,7 @@
         <v>2196.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1999</v>
       </c>
@@ -1861,7 +1956,7 @@
         <v>3495.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2000</v>
       </c>
@@ -1872,7 +1967,7 @@
         <v>3093.4</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -1883,7 +1978,7 @@
         <v>6592.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2000</v>
       </c>
@@ -1894,7 +1989,7 @@
         <v>2487.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2000</v>
       </c>
@@ -1905,7 +2000,7 @@
         <v>1351.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2000</v>
       </c>
@@ -1916,7 +2011,7 @@
         <v>2425.4</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2000</v>
       </c>
@@ -1927,7 +2022,7 @@
         <v>1023.3</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -1938,7 +2033,7 @@
         <v>2327.1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2000</v>
       </c>
@@ -1949,7 +2044,7 @@
         <v>1756.1</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2000</v>
       </c>
@@ -1960,7 +2055,7 @@
         <v>2460.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2000</v>
       </c>
@@ -1971,7 +2066,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2000</v>
       </c>
@@ -1982,7 +2077,7 @@
         <v>5404.4</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2000</v>
       </c>
@@ -1993,7 +2088,7 @@
         <v>3242.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2000</v>
       </c>
@@ -2004,7 +2099,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2000</v>
       </c>
@@ -2015,7 +2110,7 @@
         <v>2435.9</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2000</v>
       </c>
@@ -2026,7 +2121,7 @@
         <v>6595.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2000</v>
       </c>
@@ -2037,7 +2132,7 @@
         <v>1955.4</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2000</v>
       </c>
@@ -2048,7 +2143,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2000</v>
       </c>
@@ -2059,7 +2154,7 @@
         <v>1754.4</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2000</v>
       </c>
@@ -2070,7 +2165,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2000</v>
       </c>
@@ -2081,7 +2176,7 @@
         <v>2105.6999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2000</v>
       </c>
@@ -2092,7 +2187,7 @@
         <v>2643.7</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2000</v>
       </c>
@@ -2103,7 +2198,7 @@
         <v>1244.7</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2000</v>
       </c>
@@ -2114,7 +2209,7 @@
         <v>4211.8</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2000</v>
       </c>
@@ -2125,7 +2220,7 @@
         <v>5238.2</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2001</v>
       </c>
@@ -2136,7 +2231,7 @@
         <v>4017.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2001</v>
       </c>
@@ -2147,7 +2242,7 @@
         <v>5714.2</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2001</v>
       </c>
@@ -2158,7 +2253,7 @@
         <v>2161.6</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2001</v>
       </c>
@@ -2169,7 +2264,7 @@
         <v>2979.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2001</v>
       </c>
@@ -2180,7 +2275,7 @@
         <v>2214.1</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2001</v>
       </c>
@@ -2191,7 +2286,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2001</v>
       </c>
@@ -2202,7 +2297,7 @@
         <v>2494.6</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2001</v>
       </c>
@@ -2213,7 +2308,7 @@
         <v>2293.1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2001</v>
       </c>
@@ -2224,7 +2319,7 @@
         <v>2568.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2001</v>
       </c>
@@ -2235,7 +2330,7 @@
         <v>2556.5</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2001</v>
       </c>
@@ -2246,7 +2341,7 @@
         <v>3642.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2001</v>
       </c>
@@ -2257,7 +2352,7 @@
         <v>3390.9</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2001</v>
       </c>
@@ -2268,7 +2363,7 @@
         <v>1459.7</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2001</v>
       </c>
@@ -2279,7 +2374,7 @@
         <v>2352.3000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2001</v>
       </c>
@@ -2290,7 +2385,7 @@
         <v>5105.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2001</v>
       </c>
@@ -2301,7 +2396,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2001</v>
       </c>
@@ -2312,7 +2407,7 @@
         <v>1981.2</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2001</v>
       </c>
@@ -2323,7 +2418,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2001</v>
       </c>
@@ -2334,7 +2429,7 @@
         <v>2862.1</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2001</v>
       </c>
@@ -2345,7 +2440,7 @@
         <v>1933.1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2001</v>
       </c>
@@ -2356,7 +2451,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2001</v>
       </c>
@@ -2367,7 +2462,7 @@
         <v>1949.1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2001</v>
       </c>
@@ -2378,7 +2473,7 @@
         <v>3521.9</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2001</v>
       </c>
@@ -2389,7 +2484,7 @@
         <v>5080.1000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2002</v>
       </c>
@@ -2400,7 +2495,7 @@
         <v>2196.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2002</v>
       </c>
@@ -2411,7 +2506,7 @@
         <v>3113.7</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2002</v>
       </c>
@@ -2422,7 +2517,7 @@
         <v>1325.7</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2002</v>
       </c>
@@ -2433,7 +2528,7 @@
         <v>2086.1</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2002</v>
       </c>
@@ -2444,7 +2539,7 @@
         <v>1392.1</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2002</v>
       </c>
@@ -2455,7 +2550,7 @@
         <v>1702.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2002</v>
       </c>
@@ -2466,7 +2561,7 @@
         <v>769.5</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2002</v>
       </c>
@@ -2477,7 +2572,7 @@
         <v>1613.9</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2002</v>
       </c>
@@ -2488,7 +2583,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2002</v>
       </c>
@@ -2499,7 +2594,7 @@
         <v>1062.3</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2002</v>
       </c>
@@ -2510,7 +2605,7 @@
         <v>1037.5</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2002</v>
       </c>
@@ -2521,7 +2616,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2002</v>
       </c>
@@ -2532,7 +2627,7 @@
         <v>2778.5</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2002</v>
       </c>
@@ -2543,7 +2638,7 @@
         <v>940.6</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2002</v>
       </c>
@@ -2554,7 +2649,7 @@
         <v>1965.1</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2002</v>
       </c>
@@ -2565,7 +2660,7 @@
         <v>2662.3</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2002</v>
       </c>
@@ -2576,7 +2671,7 @@
         <v>1455.8</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2002</v>
       </c>
@@ -2587,7 +2682,7 @@
         <v>1315.6</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2002</v>
       </c>
@@ -2598,7 +2693,7 @@
         <v>1212.0999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2002</v>
       </c>
@@ -2609,7 +2704,7 @@
         <v>1346.4</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2002</v>
       </c>
@@ -2620,7 +2715,7 @@
         <v>1560.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2002</v>
       </c>
@@ -2631,7 +2726,7 @@
         <v>1177.8</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2002</v>
       </c>
@@ -2642,7 +2737,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2002</v>
       </c>
@@ -2653,7 +2748,7 @@
         <v>1651.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2002</v>
       </c>
@@ -2664,7 +2759,7 @@
         <v>1702.7</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2002</v>
       </c>
@@ -2675,7 +2770,7 @@
         <v>2730.9</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2003</v>
       </c>
@@ -2686,7 +2781,7 @@
         <v>2298.8000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2003</v>
       </c>
@@ -2697,7 +2792,7 @@
         <v>2514.1999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2003</v>
       </c>
@@ -2708,7 +2803,7 @@
         <v>1191.2</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2003</v>
       </c>
@@ -2719,7 +2814,7 @@
         <v>1912.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2003</v>
       </c>
@@ -2730,7 +2825,7 @@
         <v>941.1</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2003</v>
       </c>
@@ -2741,7 +2836,7 @@
         <v>2186.4</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2003</v>
       </c>
@@ -2752,7 +2847,7 @@
         <v>619.5</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2003</v>
       </c>
@@ -2763,7 +2858,7 @@
         <v>1881.5</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2003</v>
       </c>
@@ -2774,7 +2869,7 @@
         <v>877.7</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2003</v>
       </c>
@@ -2785,7 +2880,7 @@
         <v>1348.5</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2003</v>
       </c>
@@ -2796,7 +2891,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2003</v>
       </c>
@@ -2807,7 +2902,7 @@
         <v>2155.8000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2003</v>
       </c>
@@ -2818,7 +2913,7 @@
         <v>3126.5</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2003</v>
       </c>
@@ -2829,7 +2924,7 @@
         <v>786.1</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2003</v>
       </c>
@@ -2840,7 +2935,7 @@
         <v>871.3</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2003</v>
       </c>
@@ -2851,7 +2946,7 @@
         <v>2698.6</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2003</v>
       </c>
@@ -2862,7 +2957,7 @@
         <v>1479.2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2003</v>
       </c>
@@ -2873,7 +2968,7 @@
         <v>930.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2003</v>
       </c>
@@ -2884,7 +2979,7 @@
         <v>898.5</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2003</v>
       </c>
@@ -2895,7 +2990,7 @@
         <v>1192.5</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2003</v>
       </c>
@@ -2906,7 +3001,7 @@
         <v>1674.1</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2003</v>
       </c>
@@ -2917,7 +3012,7 @@
         <v>967.6</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2003</v>
       </c>
@@ -2928,7 +3023,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2003</v>
       </c>
@@ -2939,7 +3034,7 @@
         <v>1412.7</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2003</v>
       </c>
@@ -2950,7 +3045,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2003</v>
       </c>
@@ -2961,7 +3056,7 @@
         <v>2400.6</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2004</v>
       </c>
@@ -2972,7 +3067,7 @@
         <v>4192.3999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2004</v>
       </c>
@@ -2983,7 +3078,7 @@
         <v>5976.6</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2004</v>
       </c>
@@ -2994,7 +3089,7 @@
         <v>2992.3</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2004</v>
       </c>
@@ -3005,7 +3100,7 @@
         <v>1814.6</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2004</v>
       </c>
@@ -3016,7 +3111,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2004</v>
       </c>
@@ -3027,7 +3122,7 @@
         <v>2166.4</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2004</v>
       </c>
@@ -3038,7 +3133,7 @@
         <v>1457.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2004</v>
       </c>
@@ -3049,7 +3144,7 @@
         <v>1549.5</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2004</v>
       </c>
@@ -3060,7 +3155,7 @@
         <v>2261.8000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2004</v>
       </c>
@@ -3071,7 +3166,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2004</v>
       </c>
@@ -3082,7 +3177,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2004</v>
       </c>
@@ -3093,7 +3188,7 @@
         <v>3886.2</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2004</v>
       </c>
@@ -3104,7 +3199,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2004</v>
       </c>
@@ -3115,7 +3210,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2004</v>
       </c>
@@ -3126,7 +3221,7 @@
         <v>1015.8</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2004</v>
       </c>
@@ -3137,7 +3232,7 @@
         <v>1215.5999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2004</v>
       </c>
@@ -3148,7 +3243,7 @@
         <v>1927.4</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2004</v>
       </c>
@@ -3159,7 +3254,7 @@
         <v>3207.1</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2004</v>
       </c>
@@ -3170,7 +3265,7 @@
         <v>2404.8000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2004</v>
       </c>
@@ -3181,7 +3276,7 @@
         <v>2260.6999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2004</v>
       </c>
@@ -3192,7 +3287,7 @@
         <v>1107.9000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2004</v>
       </c>
@@ -3203,7 +3298,7 @@
         <v>2829.8</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2004</v>
       </c>
@@ -3214,7 +3309,7 @@
         <v>1445.6</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2004</v>
       </c>
@@ -3225,7 +3320,7 @@
         <v>2301.8000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2004</v>
       </c>
@@ -3236,7 +3331,7 @@
         <v>1325.1</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2004</v>
       </c>
@@ -3247,7 +3342,7 @@
         <v>2556.5</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2004</v>
       </c>
@@ -3258,7 +3353,7 @@
         <v>2938.2</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2004</v>
       </c>
@@ -3269,7 +3364,7 @@
         <v>4878.3</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2005</v>
       </c>
@@ -3280,7 +3375,7 @@
         <v>5800.5</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2005</v>
       </c>
@@ -3291,7 +3386,7 @@
         <v>5356.5</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2005</v>
       </c>
@@ -3302,7 +3397,7 @@
         <v>3099.4</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2005</v>
       </c>
@@ -3313,7 +3408,7 @@
         <v>1877.9</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2005</v>
       </c>
@@ -3324,7 +3419,7 @@
         <v>2985.6</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2005</v>
       </c>
@@ -3335,7 +3430,7 @@
         <v>3530.5</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2005</v>
       </c>
@@ -3346,7 +3441,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -3357,7 +3452,7 @@
         <v>2339.1</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -3368,7 +3463,7 @@
         <v>2384.1999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -3379,7 +3474,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -3390,7 +3485,7 @@
         <v>2821.4</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -3401,7 +3496,7 @@
         <v>4240.8999999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -3412,7 +3507,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -3423,7 +3518,7 @@
         <v>2655.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -3434,7 +3529,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -3445,7 +3540,7 @@
         <v>1589.5</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -3456,7 +3551,7 @@
         <v>2655.8</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -3467,7 +3562,7 @@
         <v>4075.8</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -3478,7 +3573,7 @@
         <v>3004.8</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -3489,7 +3584,7 @@
         <v>2574.5</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2005</v>
       </c>
@@ -3500,7 +3595,7 @@
         <v>3148.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2005</v>
       </c>
@@ -3511,7 +3606,7 @@
         <v>3027.8</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2005</v>
       </c>
@@ -3522,7 +3617,7 @@
         <v>1577.1</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2005</v>
       </c>
@@ -3533,7 +3628,7 @@
         <v>2777.5</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2005</v>
       </c>
@@ -3544,7 +3639,7 @@
         <v>1784.4</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2005</v>
       </c>
@@ -3555,7 +3650,7 @@
         <v>3329.8</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2005</v>
       </c>
@@ -3566,7 +3661,7 @@
         <v>4696.7</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2005</v>
       </c>
@@ -3577,7 +3672,7 @@
         <v>4961.8999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2006</v>
       </c>
@@ -3588,7 +3683,7 @@
         <v>5330.8</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2006</v>
       </c>
@@ -3599,7 +3694,7 @@
         <v>5367.7</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2006</v>
       </c>
@@ -3610,7 +3705,7 @@
         <v>2285.3000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2006</v>
       </c>
@@ -3621,7 +3716,7 @@
         <v>1936.8</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2006</v>
       </c>
@@ -3632,7 +3727,7 @@
         <v>2317.8000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2006</v>
       </c>
@@ -3643,7 +3738,7 @@
         <v>2473.8000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2006</v>
       </c>
@@ -3654,7 +3749,7 @@
         <v>1244.5</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2006</v>
       </c>
@@ -3665,7 +3760,7 @@
         <v>1690.1</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2006</v>
       </c>
@@ -3676,7 +3771,7 @@
         <v>2127.5</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2006</v>
       </c>
@@ -3687,7 +3782,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2006</v>
       </c>
@@ -3698,7 +3793,7 @@
         <v>2045.5</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2006</v>
       </c>
@@ -3709,7 +3804,7 @@
         <v>3723.5</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2006</v>
       </c>
@@ -3720,7 +3815,7 @@
         <v>1544.5</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2006</v>
       </c>
@@ -3731,7 +3826,7 @@
         <v>2917.5</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2006</v>
       </c>
@@ -3742,7 +3837,7 @@
         <v>1468.5</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2006</v>
       </c>
@@ -3753,7 +3848,7 @@
         <v>1506.8</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2006</v>
       </c>
@@ -3764,7 +3859,7 @@
         <v>2283.9</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2006</v>
       </c>
@@ -3775,7 +3870,7 @@
         <v>4548.3</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2006</v>
       </c>
@@ -3786,7 +3881,7 @@
         <v>3228.8</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2006</v>
       </c>
@@ -3797,7 +3892,7 @@
         <v>2171.9</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -3808,7 +3903,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -3819,7 +3914,7 @@
         <v>2288.4</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -3830,7 +3925,7 @@
         <v>1772.3</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -3841,7 +3936,7 @@
         <v>2590.5</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -3852,7 +3947,7 @@
         <v>1372.6</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -3863,7 +3958,7 @@
         <v>2730.4</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -3874,7 +3969,7 @@
         <v>4519.2</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -3885,7 +3980,7 @@
         <v>4439.2</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2007</v>
       </c>
@@ -3896,7 +3991,7 @@
         <v>5042.8</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2007</v>
       </c>
@@ -3907,7 +4002,7 @@
         <v>5889.1</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2007</v>
       </c>
@@ -3918,7 +4013,7 @@
         <v>3018.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2007</v>
       </c>
@@ -3929,7 +4024,7 @@
         <v>2302.5</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2007</v>
       </c>
@@ -3940,7 +4035,7 @@
         <v>2063.9</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2007</v>
       </c>
@@ -3951,7 +4046,7 @@
         <v>2755.4</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2007</v>
       </c>
@@ -3962,7 +4057,7 @@
         <v>1065.8</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2007</v>
       </c>
@@ -3973,7 +4068,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2007</v>
       </c>
@@ -3984,7 +4079,7 @@
         <v>1963.9</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2007</v>
       </c>
@@ -3995,7 +4090,7 @@
         <v>2525.5</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2007</v>
       </c>
@@ -4006,7 +4101,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2007</v>
       </c>
@@ -4017,7 +4112,7 @@
         <v>4063.7</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2007</v>
       </c>
@@ -4028,7 +4123,7 @@
         <v>994.1</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2007</v>
       </c>
@@ -4039,7 +4134,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2007</v>
       </c>
@@ -4050,7 +4145,7 @@
         <v>1088.7</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2007</v>
       </c>
@@ -4061,7 +4156,7 @@
         <v>979.4</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2007</v>
       </c>
@@ -4072,7 +4167,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2007</v>
       </c>
@@ -4083,7 +4178,7 @@
         <v>5466.3</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2007</v>
       </c>
@@ -4094,7 +4189,7 @@
         <v>2822.4</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2007</v>
       </c>
@@ -4105,7 +4200,7 @@
         <v>2432.9</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2007</v>
       </c>
@@ -4116,7 +4211,7 @@
         <v>2207.3000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2007</v>
       </c>
@@ -4127,7 +4222,7 @@
         <v>3015.9</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2007</v>
       </c>
@@ -4138,7 +4233,7 @@
         <v>1732.3</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2007</v>
       </c>
@@ -4149,7 +4244,7 @@
         <v>2672.6</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2007</v>
       </c>
@@ -4160,7 +4255,7 @@
         <v>2203.6999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2007</v>
       </c>
@@ -4171,7 +4266,7 @@
         <v>3115.1</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2007</v>
       </c>
@@ -4182,7 +4277,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2007</v>
       </c>
@@ -4193,7 +4288,7 @@
         <v>5287.7</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2008</v>
       </c>
@@ -4204,7 +4299,7 @@
         <v>5886.7</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2008</v>
       </c>
@@ -4215,7 +4310,7 @@
         <v>5355.3</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2008</v>
       </c>
@@ -4226,7 +4321,7 @@
         <v>2720.4</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2008</v>
       </c>
@@ -4237,7 +4332,7 @@
         <v>1718.3</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2008</v>
       </c>
@@ -4248,7 +4343,7 @@
         <v>2510.6</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2008</v>
       </c>
@@ -4259,7 +4354,7 @@
         <v>2081.5</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2008</v>
       </c>
@@ -4270,7 +4365,7 @@
         <v>1096.9000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2008</v>
       </c>
@@ -4281,7 +4376,7 @@
         <v>2004.5</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2008</v>
       </c>
@@ -4292,7 +4387,7 @@
         <v>2166.6</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2008</v>
       </c>
@@ -4303,7 +4398,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2008</v>
       </c>
@@ -4314,7 +4409,7 @@
         <v>2591.3000000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2008</v>
       </c>
@@ -4325,7 +4420,7 @@
         <v>3673.6</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2008</v>
       </c>
@@ -4336,7 +4431,7 @@
         <v>1025.2</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2008</v>
       </c>
@@ -4347,7 +4442,7 @@
         <v>3017.6</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2008</v>
       </c>
@@ -4358,7 +4453,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2008</v>
       </c>
@@ -4369,7 +4464,7 @@
         <v>1512.6</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2008</v>
       </c>
@@ -4380,7 +4475,7 @@
         <v>2153.1999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2008</v>
       </c>
@@ -4391,7 +4486,7 @@
         <v>3990.9</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2008</v>
       </c>
@@ -4402,7 +4497,7 @@
         <v>3851.3</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2008</v>
       </c>
@@ -4413,7 +4508,7 @@
         <v>2477.8000000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2008</v>
       </c>
@@ -4424,7 +4519,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2008</v>
       </c>
@@ -4435,7 +4530,7 @@
         <v>2969.2</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2008</v>
       </c>
@@ -4446,7 +4541,7 @@
         <v>1642.4</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2008</v>
       </c>
@@ -4457,7 +4552,7 @@
         <v>2575.5</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2008</v>
       </c>
@@ -4468,7 +4563,7 @@
         <v>1613.5</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2008</v>
       </c>
@@ -4479,7 +4574,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2008</v>
       </c>
@@ -4490,7 +4585,7 @@
         <v>4063.8</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2008</v>
       </c>
@@ -4501,7 +4596,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2009</v>
       </c>
@@ -4512,7 +4607,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2009</v>
       </c>
@@ -4523,7 +4618,7 @@
         <v>3860.5</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2009</v>
       </c>
@@ -4534,7 +4629,7 @@
         <v>1616.5</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2009</v>
       </c>
@@ -4545,7 +4640,7 @@
         <v>1814.1</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2009</v>
       </c>
@@ -4556,7 +4651,7 @@
         <v>1826.5</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2009</v>
       </c>
@@ -4567,7 +4662,7 @@
         <v>2684.8</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2009</v>
       </c>
@@ -4578,7 +4673,7 @@
         <v>1197.3</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2009</v>
       </c>
@@ -4589,7 +4684,7 @@
         <v>1854.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2009</v>
       </c>
@@ -4600,7 +4695,7 @@
         <v>1119.5</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2009</v>
       </c>
@@ -4611,7 +4706,7 @@
         <v>2535.6</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2009</v>
       </c>
@@ -4622,7 +4717,7 @@
         <v>1756.3</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2009</v>
       </c>
@@ -4633,7 +4728,7 @@
         <v>3654.6</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2009</v>
       </c>
@@ -4644,7 +4739,7 @@
         <v>884.3</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2009</v>
       </c>
@@ -4655,7 +4750,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2009</v>
       </c>
@@ -4666,7 +4761,7 @@
         <v>1170.5999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2009</v>
       </c>
@@ -4677,7 +4772,7 @@
         <v>969.8</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2009</v>
       </c>
@@ -4688,7 +4783,7 @@
         <v>1426.8</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2009</v>
       </c>
@@ -4699,7 +4794,7 @@
         <v>4682.3</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2009</v>
       </c>
@@ -4710,7 +4805,7 @@
         <v>1797.8</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2009</v>
       </c>
@@ -4721,7 +4816,7 @@
         <v>1978.7</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2009</v>
       </c>
@@ -4732,7 +4827,7 @@
         <v>1366.6</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2009</v>
       </c>
@@ -4743,7 +4838,7 @@
         <v>1669.2</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2009</v>
       </c>
@@ -4754,7 +4849,7 @@
         <v>1380.9</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2009</v>
       </c>
@@ -4765,7 +4860,7 @@
         <v>1321.6</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2009</v>
       </c>
@@ -4776,7 +4871,7 @@
         <v>997.3</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2009</v>
       </c>
@@ -4787,7 +4882,7 @@
         <v>2930.2</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2009</v>
       </c>
@@ -4798,7 +4893,7 @@
         <v>3588.9</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2009</v>
       </c>
@@ -4809,7 +4904,7 @@
         <v>3403.2</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2010</v>
       </c>
@@ -4820,7 +4915,7 @@
         <v>3654.6</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2010</v>
       </c>
@@ -4831,7 +4926,7 @@
         <v>4915.1000000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2010</v>
       </c>
@@ -4842,7 +4937,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2010</v>
       </c>
@@ -4853,7 +4948,7 @@
         <v>2042.4</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2010</v>
       </c>
@@ -4864,7 +4959,7 @@
         <v>1532.5</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2010</v>
       </c>
@@ -4875,7 +4970,7 @@
         <v>2529.9</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2010</v>
       </c>
@@ -4886,7 +4981,7 @@
         <v>770.2</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2010</v>
       </c>
@@ -4897,7 +4992,7 @@
         <v>2421.1999999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2010</v>
       </c>
@@ -4908,7 +5003,7 @@
         <v>1605.1</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2010</v>
       </c>
@@ -4919,7 +5014,7 @@
         <v>1769.3</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2010</v>
       </c>
@@ -4930,7 +5025,7 @@
         <v>2160.6999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2010</v>
       </c>
@@ -4941,7 +5036,7 @@
         <v>3303.6</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2010</v>
       </c>
@@ -4952,7 +5047,7 @@
         <v>972.6</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2010</v>
       </c>
@@ -4963,7 +5058,7 @@
         <v>2950.4</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2010</v>
       </c>
@@ -4974,7 +5069,7 @@
         <v>1206.2</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2010</v>
       </c>
@@ -4985,7 +5080,7 @@
         <v>688.2</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2010</v>
       </c>
@@ -4996,7 +5091,7 @@
         <v>2093.9</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2010</v>
       </c>
@@ -5007,7 +5102,7 @@
         <v>4738.2</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2010</v>
       </c>
@@ -5018,7 +5113,7 @@
         <v>1932.1</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2010</v>
       </c>
@@ -5029,7 +5124,7 @@
         <v>2054.4</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2010</v>
       </c>
@@ -5040,7 +5135,7 @@
         <v>1779.2</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2010</v>
       </c>
@@ -5051,7 +5146,7 @@
         <v>2278.3000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2010</v>
       </c>
@@ -5062,7 +5157,7 @@
         <v>1973.8</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2010</v>
       </c>
@@ -5073,7 +5168,7 @@
         <v>2070.3000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2010</v>
       </c>
@@ -5084,7 +5179,7 @@
         <v>1182.4000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2010</v>
       </c>
@@ -5095,7 +5190,7 @@
         <v>2542.4</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2010</v>
       </c>
@@ -5106,7 +5201,7 @@
         <v>2423.8000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2010</v>
       </c>
@@ -5117,7 +5212,7 @@
         <v>4070.5</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2011</v>
       </c>
@@ -5128,7 +5223,7 @@
         <v>3655.6</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2011</v>
       </c>
@@ -5139,7 +5234,7 @@
         <v>4879</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2011</v>
       </c>
@@ -5150,7 +5245,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2011</v>
       </c>
@@ -5161,7 +5256,7 @@
         <v>2720.6</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2011</v>
       </c>
@@ -5172,7 +5267,7 @@
         <v>1021.7</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2011</v>
       </c>
@@ -5183,7 +5278,7 @@
         <v>2687.2</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2011</v>
       </c>
@@ -5194,7 +5289,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2011</v>
       </c>
@@ -5205,7 +5300,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2011</v>
       </c>
@@ -5216,7 +5311,7 @@
         <v>1222.5999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2011</v>
       </c>
@@ -5227,7 +5322,7 @@
         <v>2199.5</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2011</v>
       </c>
@@ -5238,7 +5333,7 @@
         <v>1796.7</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2011</v>
       </c>
@@ -5249,7 +5344,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2011</v>
       </c>
@@ -5260,7 +5355,7 @@
         <v>780.3</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2011</v>
       </c>
@@ -5271,7 +5366,7 @@
         <v>3605.7</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2011</v>
       </c>
@@ -5282,7 +5377,7 @@
         <v>792.8</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2011</v>
       </c>
@@ -5293,7 +5388,7 @@
         <v>609.4</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2011</v>
       </c>
@@ -5304,7 +5399,7 @@
         <v>1553.5</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2011</v>
       </c>
@@ -5315,7 +5410,7 @@
         <v>4443.8</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2011</v>
       </c>
@@ -5326,7 +5421,7 @@
         <v>1725.3</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2011</v>
       </c>
@@ -5337,7 +5432,7 @@
         <v>1204.9000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2011</v>
       </c>
@@ -5348,7 +5443,7 @@
         <v>1218.8</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2011</v>
       </c>
@@ -5359,7 +5454,7 @@
         <v>1758.6</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2011</v>
       </c>
@@ -5370,7 +5465,7 @@
         <v>2510.6</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2011</v>
       </c>
@@ -5381,7 +5476,7 @@
         <v>1713.8</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2011</v>
       </c>
@@ -5392,7 +5487,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2011</v>
       </c>
@@ -5403,7 +5498,7 @@
         <v>2781.9</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2011</v>
       </c>
@@ -5414,7 +5509,7 @@
         <v>2548.3000000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2011</v>
       </c>
@@ -5425,7 +5520,7 @@
         <v>4111.2</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2012</v>
       </c>
@@ -5436,7 +5531,7 @@
         <v>5166.3</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2012</v>
       </c>
@@ -5447,7 +5542,7 @@
         <v>4911.5</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2012</v>
       </c>
@@ -5458,7 +5553,7 @@
         <v>3083.3</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2012</v>
       </c>
@@ -5469,7 +5564,7 @@
         <v>2473.3000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2012</v>
       </c>
@@ -5480,7 +5575,7 @@
         <v>2201.3000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2012</v>
       </c>
@@ -5491,7 +5586,7 @@
         <v>3031.1</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2012</v>
       </c>
@@ -5502,7 +5597,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2012</v>
       </c>
@@ -5513,7 +5608,7 @@
         <v>2938.4</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2012</v>
       </c>
@@ -5524,7 +5619,7 @@
         <v>2741.2</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2012</v>
       </c>
@@ -5535,7 +5630,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2012</v>
       </c>
@@ -5546,7 +5641,7 @@
         <v>2196.6999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2012</v>
       </c>
@@ -5557,7 +5652,7 @@
         <v>3908.8</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2012</v>
       </c>
@@ -5568,7 +5663,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2012</v>
       </c>
@@ -5579,7 +5674,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2012</v>
       </c>
@@ -5590,7 +5685,7 @@
         <v>1914.4</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2012</v>
       </c>
@@ -5601,7 +5696,7 @@
         <v>921.9</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2012</v>
       </c>
@@ -5612,7 +5707,7 @@
         <v>1960.3</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2012</v>
       </c>
@@ -5623,7 +5718,7 @@
         <v>4732.8999999999996</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2012</v>
       </c>
@@ -5634,7 +5729,7 @@
         <v>3090.9</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2012</v>
       </c>
@@ -5645,7 +5740,7 @@
         <v>2202.5</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2012</v>
       </c>
@@ -5656,7 +5751,7 @@
         <v>2425.6999999999998</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2012</v>
       </c>
@@ -5667,7 +5762,7 @@
         <v>2910.3</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2012</v>
       </c>
@@ -5678,7 +5773,7 @@
         <v>2118.1999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2012</v>
       </c>
@@ -5689,7 +5784,7 @@
         <v>2993.5</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2012</v>
       </c>
@@ -5700,7 +5795,7 @@
         <v>1660.8</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2012</v>
       </c>
@@ -5711,7 +5806,7 @@
         <v>2916.1</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2012</v>
       </c>
@@ -5722,7 +5817,7 @@
         <v>3583.8</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2012</v>
       </c>
@@ -5733,7 +5828,7 @@
         <v>3904.6</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2013</v>
       </c>
@@ -5744,7 +5839,7 @@
         <v>4966.1000000000004</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2013</v>
       </c>
@@ -5755,7 +5850,7 @@
         <v>5205.5</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2013</v>
       </c>
@@ -5766,7 +5861,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2013</v>
       </c>
@@ -5777,7 +5872,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2013</v>
       </c>
@@ -5788,7 +5883,7 @@
         <v>2580.5</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2013</v>
       </c>
@@ -5799,7 +5894,7 @@
         <v>2563.3000000000002</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2013</v>
       </c>
@@ -5810,7 +5905,7 @@
         <v>970.8</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2013</v>
       </c>
@@ -5821,7 +5916,7 @@
         <v>2098.1</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2013</v>
       </c>
@@ -5832,7 +5927,7 @@
         <v>2043.5</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2013</v>
       </c>
@@ -5843,7 +5938,7 @@
         <v>1970.9</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2013</v>
       </c>
@@ -5854,7 +5949,7 @@
         <v>1688.2</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2013</v>
       </c>
@@ -5865,7 +5960,7 @@
         <v>3768.2</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2013</v>
       </c>
@@ -5876,7 +5971,7 @@
         <v>1400.8</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2013</v>
       </c>
@@ -5887,7 +5982,7 @@
         <v>3318.3</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2013</v>
       </c>
@@ -5898,7 +5993,7 @@
         <v>1033.4000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2013</v>
       </c>
@@ -5909,7 +6004,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2013</v>
       </c>
@@ -5920,7 +6015,7 @@
         <v>2020.4</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2013</v>
       </c>
@@ -5931,7 +6026,7 @@
         <v>4265.1000000000004</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2013</v>
       </c>
@@ -5942,7 +6037,7 @@
         <v>2933.8</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2013</v>
       </c>
@@ -5953,7 +6048,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2013</v>
       </c>
@@ -5964,7 +6059,7 @@
         <v>1688.5</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2013</v>
       </c>
@@ -5975,7 +6070,7 @@
         <v>2541.4</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2013</v>
       </c>
@@ -5986,7 +6081,7 @@
         <v>1867.8</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2013</v>
       </c>
@@ -5997,7 +6092,7 @@
         <v>2343.5</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2013</v>
       </c>
@@ -6008,7 +6103,7 @@
         <v>1921.4</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2013</v>
       </c>
@@ -6019,7 +6114,7 @@
         <v>866.4</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2013</v>
       </c>
@@ -6030,7 +6125,7 @@
         <v>2552.8000000000002</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2013</v>
       </c>
@@ -6041,7 +6136,7 @@
         <v>3535.1</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2013</v>
       </c>
@@ -6052,7 +6147,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2014</v>
       </c>
@@ -6063,7 +6158,7 @@
         <v>3172.4</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2014</v>
       </c>
@@ -6074,7 +6169,7 @@
         <v>3887.7</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2014</v>
       </c>
@@ -6085,7 +6180,7 @@
         <v>2369.1999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2014</v>
       </c>
@@ -6096,7 +6191,7 @@
         <v>1653.6</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2014</v>
       </c>
@@ -6107,7 +6202,7 @@
         <v>1342.1</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2014</v>
       </c>
@@ -6118,7 +6213,7 @@
         <v>1263.8</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2014</v>
       </c>
@@ -6129,7 +6224,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2014</v>
       </c>
@@ -6140,7 +6235,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2014</v>
       </c>
@@ -6151,7 +6246,7 @@
         <v>1150.3</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2014</v>
       </c>
@@ -6162,7 +6257,7 @@
         <v>1226.5999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2014</v>
       </c>
@@ -6173,7 +6268,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2014</v>
       </c>
@@ -6184,7 +6279,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2014</v>
       </c>
@@ -6195,7 +6290,7 @@
         <v>905.8</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2014</v>
       </c>
@@ -6206,7 +6301,7 @@
         <v>2960.3</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2014</v>
       </c>
@@ -6217,7 +6312,7 @@
         <v>908.2</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2014</v>
       </c>
@@ -6228,7 +6323,7 @@
         <v>819.5</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2014</v>
       </c>
@@ -6239,7 +6334,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2014</v>
       </c>
@@ -6250,7 +6345,7 @@
         <v>2723.4</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2014</v>
       </c>
@@ -6261,7 +6356,7 @@
         <v>2191.1999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2014</v>
       </c>
@@ -6272,7 +6367,7 @@
         <v>1466.1</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2014</v>
       </c>
@@ -6283,7 +6378,7 @@
         <v>1268.0999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2014</v>
       </c>
@@ -6294,7 +6389,7 @@
         <v>2147.3000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2014</v>
       </c>
@@ -6305,7 +6400,7 @@
         <v>1194.2</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2014</v>
       </c>
@@ -6316,7 +6411,7 @@
         <v>1893.3</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2014</v>
       </c>
@@ -6327,7 +6422,7 @@
         <v>1154.2</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2014</v>
       </c>
@@ -6338,7 +6433,7 @@
         <v>1259.5</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2014</v>
       </c>
@@ -6349,7 +6444,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2014</v>
       </c>
@@ -6360,7 +6455,7 @@
         <v>2149.4</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2014</v>
       </c>
@@ -6371,7 +6466,7 @@
         <v>3206.7</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2015</v>
       </c>
@@ -6382,7 +6477,7 @@
         <v>3413.3</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2015</v>
       </c>
@@ -6393,7 +6488,7 @@
         <v>3500.1</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2015</v>
       </c>
@@ -6404,7 +6499,7 @@
         <v>2132.1999999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2015</v>
       </c>
@@ -6415,7 +6510,7 @@
         <v>1506.8</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2015</v>
       </c>
@@ -6426,7 +6521,7 @@
         <v>1790.3</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2015</v>
       </c>
@@ -6437,7 +6532,7 @@
         <v>1915.4</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2015</v>
       </c>
@@ -6448,7 +6543,7 @@
         <v>1468.8</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2015</v>
       </c>
@@ -6459,7 +6554,7 @@
         <v>1480.1</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2015</v>
       </c>
@@ -6470,7 +6565,7 @@
         <v>1417.8</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2015</v>
       </c>
@@ -6481,7 +6576,7 @@
         <v>1784.6</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2015</v>
       </c>
@@ -6492,7 +6587,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2015</v>
       </c>
@@ -6503,7 +6598,7 @@
         <v>3151.6</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2015</v>
       </c>
@@ -6514,7 +6609,7 @@
         <v>1109.5999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2015</v>
       </c>
@@ -6525,7 +6620,7 @@
         <v>2693.7</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2015</v>
       </c>
@@ -6536,7 +6631,7 @@
         <v>1026.8</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2015</v>
       </c>
@@ -6547,7 +6642,7 @@
         <v>1752.7</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2015</v>
       </c>
@@ -6558,7 +6653,7 @@
         <v>1148.5999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2015</v>
       </c>
@@ -6569,7 +6664,7 @@
         <v>4069.1</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2015</v>
       </c>
@@ -6580,7 +6675,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2015</v>
       </c>
@@ -6591,7 +6686,7 @@
         <v>1526.3</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2015</v>
       </c>
@@ -6602,7 +6697,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2015</v>
       </c>
@@ -6613,7 +6708,7 @@
         <v>2519.1999999999998</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2015</v>
       </c>
@@ -6624,7 +6719,7 @@
         <v>1222.8</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2015</v>
       </c>
@@ -6635,7 +6730,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2015</v>
       </c>
@@ -6646,7 +6741,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2015</v>
       </c>
@@ -6657,7 +6752,7 @@
         <v>1215.9000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2015</v>
       </c>
@@ -6668,7 +6763,7 @@
         <v>2579.4</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2015</v>
       </c>
@@ -6679,7 +6774,7 @@
         <v>2317.4</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2015</v>
       </c>
@@ -6690,7 +6785,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2016</v>
       </c>
@@ -6701,7 +6796,7 @@
         <v>4061.7</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2016</v>
       </c>
@@ -6712,7 +6807,7 @@
         <v>4756.5</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2016</v>
       </c>
@@ -6723,7 +6818,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2016</v>
       </c>
@@ -6734,7 +6829,7 @@
         <v>3475.2</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2016</v>
       </c>
@@ -6745,7 +6840,7 @@
         <v>1885.7</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2016</v>
       </c>
@@ -6756,7 +6851,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2016</v>
       </c>
@@ -6767,7 +6862,7 @@
         <v>1922.1</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2016</v>
       </c>
@@ -6778,7 +6873,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2016</v>
       </c>
@@ -6789,7 +6884,7 @@
         <v>2027.5</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2016</v>
       </c>
@@ -6800,7 +6895,7 @@
         <v>3109.2</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2016</v>
       </c>
@@ -6811,7 +6906,7 @@
         <v>3103.5</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2016</v>
       </c>
@@ -6822,7 +6917,7 @@
         <v>3841.4</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2016</v>
       </c>
@@ -6833,7 +6928,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2016</v>
       </c>
@@ -6844,7 +6939,7 @@
         <v>3684.1</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2016</v>
       </c>
@@ -6855,7 +6950,7 @@
         <v>1354.9</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2016</v>
       </c>
@@ -6866,7 +6961,7 @@
         <v>1795.4</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2016</v>
       </c>
@@ -6877,7 +6972,7 @@
         <v>1820.5</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2016</v>
       </c>
@@ -6888,7 +6983,7 @@
         <v>4724.1000000000004</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2016</v>
       </c>
@@ -6899,7 +6994,7 @@
         <v>2293.4</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2016</v>
       </c>
@@ -6910,7 +7005,7 @@
         <v>1522.3</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2016</v>
       </c>
@@ -6921,7 +7016,7 @@
         <v>2720.9</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2016</v>
       </c>
@@ -6932,7 +7027,7 @@
         <v>2431.6999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2016</v>
       </c>
@@ -6943,7 +7038,7 @@
         <v>2852.5</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2016</v>
       </c>
@@ -6954,7 +7049,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2016</v>
       </c>
@@ -6965,7 +7060,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2016</v>
       </c>
@@ -6976,7 +7071,7 @@
         <v>1864.6</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2016</v>
       </c>
@@ -6987,7 +7082,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2016</v>
       </c>
@@ -6998,7 +7093,7 @@
         <v>3264.3</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2016</v>
       </c>
@@ -7009,7 +7104,7 @@
         <v>4348.3</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2017</v>
       </c>
@@ -7020,7 +7115,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2017</v>
       </c>
@@ -7031,7 +7126,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2017</v>
       </c>
@@ -7042,7 +7137,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2017</v>
       </c>
@@ -7053,7 +7148,7 @@
         <v>2048.9</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2017</v>
       </c>
@@ -7064,7 +7159,7 @@
         <v>1854.8</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2017</v>
       </c>
@@ -7075,7 +7170,7 @@
         <v>2190.6</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2017</v>
       </c>
@@ -7086,7 +7181,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2017</v>
       </c>
@@ -7097,7 +7192,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2017</v>
       </c>
@@ -7108,7 +7203,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2017</v>
       </c>
@@ -7119,7 +7214,7 @@
         <v>1948.2</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2017</v>
       </c>
@@ -7130,7 +7225,7 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2017</v>
       </c>
@@ -7141,7 +7236,7 @@
         <v>3857.6</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2017</v>
       </c>
@@ -7152,7 +7247,7 @@
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2017</v>
       </c>
@@ -7163,7 +7258,7 @@
         <v>2993.7</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2017</v>
       </c>
@@ -7174,7 +7269,7 @@
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2017</v>
       </c>
@@ -7185,7 +7280,7 @@
         <v>953.8</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2017</v>
       </c>
@@ -7196,7 +7291,7 @@
         <v>1613.1</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2017</v>
       </c>
@@ -7207,7 +7302,7 @@
         <v>4765.3</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2017</v>
       </c>
@@ -7218,7 +7313,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2017</v>
       </c>
@@ -7229,7 +7324,7 @@
         <v>1652.2</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2017</v>
       </c>
@@ -7240,7 +7335,7 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2017</v>
       </c>
@@ -7251,7 +7346,7 @@
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2017</v>
       </c>
@@ -7262,7 +7357,7 @@
         <v>1971.5</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2017</v>
       </c>
@@ -7273,7 +7368,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2017</v>
       </c>
@@ -7284,7 +7379,7 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2017</v>
       </c>
@@ -7295,7 +7390,7 @@
         <v>1592.2</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2017</v>
       </c>
@@ -7306,7 +7401,7 @@
         <v>3327.9</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2017</v>
       </c>
@@ -7317,7 +7412,7 @@
         <v>2641.5</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2017</v>
       </c>
@@ -7336,19 +7431,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -7416,7 +7511,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7484,7 +7579,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7552,7 +7647,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -7608,7 +7703,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7676,7 +7771,7 @@
         <v>2048.9</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7744,7 +7839,7 @@
         <v>2190.6</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7812,7 +7907,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7880,7 +7975,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7948,7 +8043,7 @@
         <v>2993.7</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -8016,7 +8111,7 @@
         <v>1613.1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -8084,7 +8179,7 @@
         <v>4765.3</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8152,7 +8247,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -8220,7 +8315,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -8288,7 +8383,7 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -8311,7 +8406,7 @@
         <v>1592.2</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -8367,7 +8462,7 @@
         <v>2641.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -8435,7 +8530,7 @@
         <v>4808.3999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -8503,7 +8598,7 @@
         <v>1854.8</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -8571,7 +8666,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8639,7 +8734,7 @@
         <v>1948.2</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -8707,7 +8802,7 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="12" customHeight="1">
+    <row r="22" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -8775,7 +8870,7 @@
         <v>3857.6</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -8825,7 +8920,7 @@
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -8875,7 +8970,7 @@
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -8943,7 +9038,7 @@
         <v>953.8</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -9011,7 +9106,7 @@
         <v>1652.2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="11.25" customHeight="1">
+    <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -9079,7 +9174,7 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -9147,7 +9242,7 @@
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -9215,7 +9310,7 @@
         <v>1971.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -9283,7 +9378,7 @@
         <v>3327.9</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -9370,6 +9465,369 @@
         <f t="shared" si="0"/>
         <v>2294.1034482758614</v>
       </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>29215.600000000002</v>
+      </c>
+      <c r="D32">
+        <v>15831.6</v>
+      </c>
+      <c r="E32">
+        <v>26814.799999999996</v>
+      </c>
+      <c r="F32">
+        <v>24623.200000000001</v>
+      </c>
+      <c r="G32">
+        <v>15357.9</v>
+      </c>
+      <c r="H32">
+        <v>12170.900000000001</v>
+      </c>
+      <c r="I32">
+        <v>27054.2</v>
+      </c>
+      <c r="J32">
+        <v>28503.999999999996</v>
+      </c>
+      <c r="K32">
+        <v>25106</v>
+      </c>
+      <c r="L32">
+        <v>27986.600000000002</v>
+      </c>
+      <c r="M32">
+        <v>26427.8</v>
+      </c>
+      <c r="N32">
+        <v>18071.899999999998</v>
+      </c>
+      <c r="O32">
+        <v>22627.799999999996</v>
+      </c>
+      <c r="P32">
+        <v>20874.699999999997</v>
+      </c>
+      <c r="Q32">
+        <v>26413.5</v>
+      </c>
+      <c r="R32">
+        <v>25354.9</v>
+      </c>
+      <c r="S32">
+        <v>19745.999999999996</v>
+      </c>
+      <c r="T32">
+        <v>19983.399999999998</v>
+      </c>
+      <c r="U32">
+        <v>26142.500000000004</v>
+      </c>
+      <c r="V32">
+        <v>25540.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>13657.2</v>
+      </c>
+      <c r="D33">
+        <v>9375.7999999999993</v>
+      </c>
+      <c r="E33">
+        <v>9442</v>
+      </c>
+      <c r="F33">
+        <v>13133.7</v>
+      </c>
+      <c r="G33">
+        <v>9142.7000000000007</v>
+      </c>
+      <c r="H33">
+        <v>7885.7000000000007</v>
+      </c>
+      <c r="I33">
+        <v>14532.2</v>
+      </c>
+      <c r="J33">
+        <v>20846.499999999996</v>
+      </c>
+      <c r="K33">
+        <v>18941.100000000002</v>
+      </c>
+      <c r="L33">
+        <v>18412.7</v>
+      </c>
+      <c r="M33">
+        <v>20403.699999999997</v>
+      </c>
+      <c r="N33">
+        <v>15411.2</v>
+      </c>
+      <c r="O33">
+        <v>12779.800000000001</v>
+      </c>
+      <c r="P33">
+        <v>10760.800000000001</v>
+      </c>
+      <c r="Q33">
+        <v>17905.599999999999</v>
+      </c>
+      <c r="R33">
+        <v>18069.900000000001</v>
+      </c>
+      <c r="S33">
+        <v>11475.400000000001</v>
+      </c>
+      <c r="T33">
+        <v>12073.3</v>
+      </c>
+      <c r="U33">
+        <v>14480.2</v>
+      </c>
+      <c r="V33">
+        <v>14034.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>6924.3000000000011</v>
+      </c>
+      <c r="D34">
+        <v>7998.8</v>
+      </c>
+      <c r="E34">
+        <v>5650.5</v>
+      </c>
+      <c r="F34">
+        <v>7157.6</v>
+      </c>
+      <c r="G34">
+        <v>3863.5</v>
+      </c>
+      <c r="H34">
+        <v>4106</v>
+      </c>
+      <c r="I34">
+        <v>4096.8999999999996</v>
+      </c>
+      <c r="J34">
+        <v>8309</v>
+      </c>
+      <c r="K34">
+        <v>5602.8</v>
+      </c>
+      <c r="L34">
+        <v>6541.1</v>
+      </c>
+      <c r="M34">
+        <v>6545.8</v>
+      </c>
+      <c r="N34">
+        <v>4977.2</v>
+      </c>
+      <c r="O34">
+        <v>6361.0999999999995</v>
+      </c>
+      <c r="P34">
+        <v>5612.5</v>
+      </c>
+      <c r="Q34">
+        <v>7560.8</v>
+      </c>
+      <c r="R34">
+        <v>5474.8</v>
+      </c>
+      <c r="S34">
+        <v>4699.1000000000004</v>
+      </c>
+      <c r="T34">
+        <v>4305.1000000000004</v>
+      </c>
+      <c r="U34">
+        <v>8548.2000000000007</v>
+      </c>
+      <c r="V34">
+        <v>4039.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>28639.9</v>
+      </c>
+      <c r="D35">
+        <v>17379.2</v>
+      </c>
+      <c r="E35">
+        <v>23528.3</v>
+      </c>
+      <c r="F35">
+        <v>20895.400000000001</v>
+      </c>
+      <c r="G35">
+        <v>13503.199999999999</v>
+      </c>
+      <c r="H35">
+        <v>14359.1</v>
+      </c>
+      <c r="I35">
+        <v>15360.2</v>
+      </c>
+      <c r="J35">
+        <v>19823.599999999999</v>
+      </c>
+      <c r="K35">
+        <v>18280.100000000002</v>
+      </c>
+      <c r="L35">
+        <v>20726.099999999999</v>
+      </c>
+      <c r="M35">
+        <v>17608.699999999997</v>
+      </c>
+      <c r="N35">
+        <v>18347.900000000001</v>
+      </c>
+      <c r="O35">
+        <v>18546.400000000001</v>
+      </c>
+      <c r="P35">
+        <v>20949.3</v>
+      </c>
+      <c r="Q35">
+        <v>20828.599999999999</v>
+      </c>
+      <c r="R35">
+        <v>18510.2</v>
+      </c>
+      <c r="S35">
+        <v>13116.900000000001</v>
+      </c>
+      <c r="T35">
+        <v>15771.8</v>
+      </c>
+      <c r="U35">
+        <v>23859.1</v>
+      </c>
+      <c r="V35">
+        <v>19246.100000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <f>SUM(C32:C35)</f>
+        <v>78437</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:V36" si="1">SUM(D32:D35)</f>
+        <v>50585.400000000009</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>65435.599999999991</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>65809.899999999994</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>41867.299999999996</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>38521.700000000004</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>61043.5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>77483.099999999991</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>67930.000000000015</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>73666.5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>70986</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>56808.2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>60315.1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>58197.3</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>72708.5</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>67409.8</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>49037.4</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>52133.599999999991</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>73030</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>62860.399999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -9386,12 +9844,12 @@
       <selection activeCell="C8" sqref="B8:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -9459,7 +9917,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -9547,7 +10005,7 @@
         <v>43009.799999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -9641,4 +10099,2523 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1">
+        <v>87</v>
+      </c>
+      <c r="D1">
+        <v>88</v>
+      </c>
+      <c r="E1">
+        <v>89</v>
+      </c>
+      <c r="F1">
+        <v>90</v>
+      </c>
+      <c r="G1">
+        <v>91</v>
+      </c>
+      <c r="H1">
+        <v>92</v>
+      </c>
+      <c r="I1">
+        <v>93</v>
+      </c>
+      <c r="J1">
+        <v>94</v>
+      </c>
+      <c r="K1">
+        <v>95</v>
+      </c>
+      <c r="L1">
+        <v>96</v>
+      </c>
+      <c r="M1">
+        <v>97</v>
+      </c>
+      <c r="N1">
+        <v>98</v>
+      </c>
+      <c r="O1">
+        <v>99</v>
+      </c>
+      <c r="P1">
+        <v>100</v>
+      </c>
+      <c r="Q1">
+        <v>101</v>
+      </c>
+      <c r="R1">
+        <v>102</v>
+      </c>
+      <c r="S1">
+        <v>103</v>
+      </c>
+      <c r="T1">
+        <v>104</v>
+      </c>
+      <c r="U1">
+        <v>105</v>
+      </c>
+      <c r="V1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>6046.6</v>
+      </c>
+      <c r="D2">
+        <v>3788.3</v>
+      </c>
+      <c r="E2">
+        <v>6592.5</v>
+      </c>
+      <c r="F2">
+        <v>5714.2</v>
+      </c>
+      <c r="G2">
+        <v>3113.7</v>
+      </c>
+      <c r="H2">
+        <v>2514.1999999999998</v>
+      </c>
+      <c r="I2">
+        <v>5976.6</v>
+      </c>
+      <c r="J2">
+        <v>5356.5</v>
+      </c>
+      <c r="K2">
+        <v>5367.7</v>
+      </c>
+      <c r="L2">
+        <v>5889.1</v>
+      </c>
+      <c r="M2">
+        <v>5355.3</v>
+      </c>
+      <c r="N2">
+        <v>3860.5</v>
+      </c>
+      <c r="O2">
+        <v>4915.1000000000004</v>
+      </c>
+      <c r="P2">
+        <v>4879</v>
+      </c>
+      <c r="Q2">
+        <v>4911.5</v>
+      </c>
+      <c r="R2">
+        <v>5205.5</v>
+      </c>
+      <c r="S2">
+        <v>3887.7</v>
+      </c>
+      <c r="T2">
+        <v>3500.1</v>
+      </c>
+      <c r="U2">
+        <v>4756.5</v>
+      </c>
+      <c r="V2">
+        <v>5375.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>1325.7</v>
+      </c>
+      <c r="H3">
+        <v>1191.2</v>
+      </c>
+      <c r="I3">
+        <v>2992.3</v>
+      </c>
+      <c r="J3">
+        <v>3099.4</v>
+      </c>
+      <c r="K3">
+        <v>2285.3000000000002</v>
+      </c>
+      <c r="L3">
+        <v>3018.7</v>
+      </c>
+      <c r="M3">
+        <v>2720.4</v>
+      </c>
+      <c r="N3">
+        <v>1616.5</v>
+      </c>
+      <c r="O3">
+        <v>2291</v>
+      </c>
+      <c r="P3">
+        <v>1909</v>
+      </c>
+      <c r="Q3">
+        <v>3083.3</v>
+      </c>
+      <c r="R3">
+        <v>2488</v>
+      </c>
+      <c r="S3">
+        <v>2369.1999999999998</v>
+      </c>
+      <c r="T3">
+        <v>2132.1999999999998</v>
+      </c>
+      <c r="U3">
+        <v>2841</v>
+      </c>
+      <c r="V3">
+        <v>2254.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>2544</v>
+      </c>
+      <c r="D4">
+        <v>1312.8</v>
+      </c>
+      <c r="E4">
+        <v>2435.9</v>
+      </c>
+      <c r="F4">
+        <v>2352.3000000000002</v>
+      </c>
+      <c r="G4">
+        <v>1965.1</v>
+      </c>
+      <c r="H4">
+        <v>871.3</v>
+      </c>
+      <c r="I4">
+        <v>1927.4</v>
+      </c>
+      <c r="J4">
+        <v>2655.8</v>
+      </c>
+      <c r="K4">
+        <v>2283.9</v>
+      </c>
+      <c r="L4">
+        <v>2075</v>
+      </c>
+      <c r="M4">
+        <v>2153.1999999999998</v>
+      </c>
+      <c r="N4">
+        <v>1426.8</v>
+      </c>
+      <c r="O4">
+        <v>2093.9</v>
+      </c>
+      <c r="P4">
+        <v>1553.5</v>
+      </c>
+      <c r="Q4">
+        <v>1960.3</v>
+      </c>
+      <c r="R4">
+        <v>2020.4</v>
+      </c>
+      <c r="S4">
+        <v>1258</v>
+      </c>
+      <c r="T4">
+        <v>1148.5999999999999</v>
+      </c>
+      <c r="U4">
+        <v>1820.5</v>
+      </c>
+      <c r="V4">
+        <v>1613.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>2865.1</v>
+      </c>
+      <c r="D5">
+        <v>1373.2</v>
+      </c>
+      <c r="E5">
+        <v>2643.7</v>
+      </c>
+      <c r="F5">
+        <v>2679</v>
+      </c>
+      <c r="G5">
+        <v>1177.8</v>
+      </c>
+      <c r="H5">
+        <v>967.6</v>
+      </c>
+      <c r="I5">
+        <v>2301.8000000000002</v>
+      </c>
+      <c r="J5">
+        <v>2777.5</v>
+      </c>
+      <c r="K5">
+        <v>2590.5</v>
+      </c>
+      <c r="L5">
+        <v>2672.6</v>
+      </c>
+      <c r="M5">
+        <v>2575.5</v>
+      </c>
+      <c r="N5">
+        <v>1321.6</v>
+      </c>
+      <c r="O5">
+        <v>2070.3000000000002</v>
+      </c>
+      <c r="P5">
+        <v>1713.8</v>
+      </c>
+      <c r="Q5">
+        <v>2993.5</v>
+      </c>
+      <c r="R5">
+        <v>2343.5</v>
+      </c>
+      <c r="S5">
+        <v>1893.3</v>
+      </c>
+      <c r="T5">
+        <v>1571</v>
+      </c>
+      <c r="U5">
+        <v>2211</v>
+      </c>
+      <c r="V5">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6">
+        <v>866.4</v>
+      </c>
+      <c r="S6">
+        <v>1259.5</v>
+      </c>
+      <c r="T6">
+        <v>1215.9000000000001</v>
+      </c>
+      <c r="U6">
+        <v>1864.6</v>
+      </c>
+      <c r="V6">
+        <v>1592.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>5828.8</v>
+      </c>
+      <c r="D7">
+        <v>3495.4</v>
+      </c>
+      <c r="E7">
+        <v>5238.2</v>
+      </c>
+      <c r="F7">
+        <v>5080.1000000000004</v>
+      </c>
+      <c r="G7">
+        <v>2730.9</v>
+      </c>
+      <c r="H7">
+        <v>2400.6</v>
+      </c>
+      <c r="I7">
+        <v>4878.3</v>
+      </c>
+      <c r="J7">
+        <v>4961.8999999999996</v>
+      </c>
+      <c r="K7">
+        <v>4439.2</v>
+      </c>
+      <c r="L7">
+        <v>5287.7</v>
+      </c>
+      <c r="M7">
+        <v>4814</v>
+      </c>
+      <c r="N7">
+        <v>3403.2</v>
+      </c>
+      <c r="O7">
+        <v>4070.5</v>
+      </c>
+      <c r="P7">
+        <v>4111.2</v>
+      </c>
+      <c r="Q7">
+        <v>3904.6</v>
+      </c>
+      <c r="R7">
+        <v>4078</v>
+      </c>
+      <c r="S7">
+        <v>3206.7</v>
+      </c>
+      <c r="T7">
+        <v>3327</v>
+      </c>
+      <c r="U7">
+        <v>4348.3</v>
+      </c>
+      <c r="V7">
+        <v>4808.3999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>2088.3000000000002</v>
+      </c>
+      <c r="D8">
+        <v>1157.0999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1756.1</v>
+      </c>
+      <c r="F8">
+        <v>2293.1</v>
+      </c>
+      <c r="G8">
+        <v>1091</v>
+      </c>
+      <c r="H8">
+        <v>877.7</v>
+      </c>
+      <c r="I8">
+        <v>2261.8000000000002</v>
+      </c>
+      <c r="J8">
+        <v>2384.1999999999998</v>
+      </c>
+      <c r="K8">
+        <v>2127.5</v>
+      </c>
+      <c r="L8">
+        <v>1963.9</v>
+      </c>
+      <c r="M8">
+        <v>2166.6</v>
+      </c>
+      <c r="N8">
+        <v>1119.5</v>
+      </c>
+      <c r="O8">
+        <v>1605.1</v>
+      </c>
+      <c r="P8">
+        <v>1222.5999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>2741.2</v>
+      </c>
+      <c r="R8">
+        <v>2043.5</v>
+      </c>
+      <c r="S8">
+        <v>1150.3</v>
+      </c>
+      <c r="T8">
+        <v>1417.8</v>
+      </c>
+      <c r="U8">
+        <v>2027.5</v>
+      </c>
+      <c r="V8">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>5438.1</v>
+      </c>
+      <c r="D9">
+        <v>2746.7</v>
+      </c>
+      <c r="E9">
+        <v>5404.4</v>
+      </c>
+      <c r="F9">
+        <v>3642.4</v>
+      </c>
+      <c r="G9">
+        <v>2607.3000000000002</v>
+      </c>
+      <c r="H9">
+        <v>2155.8000000000002</v>
+      </c>
+      <c r="I9">
+        <v>3886.2</v>
+      </c>
+      <c r="J9">
+        <v>4240.8999999999996</v>
+      </c>
+      <c r="K9">
+        <v>3723.5</v>
+      </c>
+      <c r="L9">
+        <v>4063.7</v>
+      </c>
+      <c r="M9">
+        <v>3673.6</v>
+      </c>
+      <c r="N9">
+        <v>3654.6</v>
+      </c>
+      <c r="O9">
+        <v>3303.6</v>
+      </c>
+      <c r="P9">
+        <v>3727</v>
+      </c>
+      <c r="Q9">
+        <v>3908.8</v>
+      </c>
+      <c r="R9">
+        <v>3768.2</v>
+      </c>
+      <c r="S9">
+        <v>2574</v>
+      </c>
+      <c r="T9">
+        <v>3151.6</v>
+      </c>
+      <c r="U9">
+        <v>3841.4</v>
+      </c>
+      <c r="V9">
+        <v>3857.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>4404.7</v>
+      </c>
+      <c r="D10">
+        <v>1958.1</v>
+      </c>
+      <c r="E10">
+        <v>2744</v>
+      </c>
+      <c r="F10">
+        <v>2862.1</v>
+      </c>
+      <c r="G10">
+        <v>1346.4</v>
+      </c>
+      <c r="H10">
+        <v>1192.5</v>
+      </c>
+      <c r="I10">
+        <v>2829.8</v>
+      </c>
+      <c r="J10">
+        <v>3027.8</v>
+      </c>
+      <c r="K10">
+        <v>2288.4</v>
+      </c>
+      <c r="L10">
+        <v>3015.9</v>
+      </c>
+      <c r="M10">
+        <v>2969.2</v>
+      </c>
+      <c r="N10">
+        <v>1669.2</v>
+      </c>
+      <c r="O10">
+        <v>2278.3000000000002</v>
+      </c>
+      <c r="P10">
+        <v>1758.6</v>
+      </c>
+      <c r="Q10">
+        <v>2910.3</v>
+      </c>
+      <c r="R10">
+        <v>2541.4</v>
+      </c>
+      <c r="S10">
+        <v>2147.3000000000002</v>
+      </c>
+      <c r="T10">
+        <v>2519.1999999999998</v>
+      </c>
+      <c r="U10">
+        <v>2431.6999999999998</v>
+      </c>
+      <c r="V10">
+        <v>2339.6999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>29215.600000000002</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>15831.6</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>26814.799999999996</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F10)</f>
+        <v>24623.200000000001</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G2:G10)</f>
+        <v>15357.9</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H2:H10)</f>
+        <v>12170.900000000001</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I2:I10)</f>
+        <v>27054.2</v>
+      </c>
+      <c r="J11">
+        <f>SUM(J2:J10)</f>
+        <v>28503.999999999996</v>
+      </c>
+      <c r="K11">
+        <f>SUM(K2:K10)</f>
+        <v>25106</v>
+      </c>
+      <c r="L11">
+        <f>SUM(L2:L10)</f>
+        <v>27986.600000000002</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M2:M10)</f>
+        <v>26427.8</v>
+      </c>
+      <c r="N11">
+        <f>SUM(N2:N10)</f>
+        <v>18071.899999999998</v>
+      </c>
+      <c r="O11">
+        <f>SUM(O2:O10)</f>
+        <v>22627.799999999996</v>
+      </c>
+      <c r="P11">
+        <f>SUM(P2:P10)</f>
+        <v>20874.699999999997</v>
+      </c>
+      <c r="Q11">
+        <f>SUM(Q2:Q10)</f>
+        <v>26413.5</v>
+      </c>
+      <c r="R11">
+        <f>SUM(R2:R10)</f>
+        <v>25354.9</v>
+      </c>
+      <c r="S11">
+        <f>SUM(S2:S10)</f>
+        <v>19745.999999999996</v>
+      </c>
+      <c r="T11">
+        <f>SUM(T2:T10)</f>
+        <v>19983.399999999998</v>
+      </c>
+      <c r="U11">
+        <f>SUM(U2:U10)</f>
+        <v>26142.500000000004</v>
+      </c>
+      <c r="V11">
+        <f>SUM(V2:V10)</f>
+        <v>25540.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>4364.2</v>
+      </c>
+      <c r="D14">
+        <v>3074.9</v>
+      </c>
+      <c r="E14">
+        <v>3093.4</v>
+      </c>
+      <c r="F14">
+        <v>4017.3</v>
+      </c>
+      <c r="G14">
+        <v>2196.5</v>
+      </c>
+      <c r="H14">
+        <v>2298.8000000000002</v>
+      </c>
+      <c r="I14">
+        <v>4192.3999999999996</v>
+      </c>
+      <c r="J14">
+        <v>5800.5</v>
+      </c>
+      <c r="K14">
+        <v>5330.8</v>
+      </c>
+      <c r="L14">
+        <v>5042.8</v>
+      </c>
+      <c r="M14">
+        <v>5886.7</v>
+      </c>
+      <c r="N14">
+        <v>5222</v>
+      </c>
+      <c r="O14">
+        <v>3654.6</v>
+      </c>
+      <c r="P14">
+        <v>3655.6</v>
+      </c>
+      <c r="Q14">
+        <v>5166.3</v>
+      </c>
+      <c r="R14">
+        <v>4966.1000000000004</v>
+      </c>
+      <c r="S14">
+        <v>3172.4</v>
+      </c>
+      <c r="T14">
+        <v>3413.3</v>
+      </c>
+      <c r="U14">
+        <v>4061.7</v>
+      </c>
+      <c r="V14">
+        <v>4362.3999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>3063.4</v>
+      </c>
+      <c r="D15">
+        <v>2333.9</v>
+      </c>
+      <c r="E15">
+        <v>1955.4</v>
+      </c>
+      <c r="F15">
+        <v>2206.4</v>
+      </c>
+      <c r="G15">
+        <v>1455.8</v>
+      </c>
+      <c r="H15">
+        <v>1479.2</v>
+      </c>
+      <c r="I15">
+        <v>2404.8000000000002</v>
+      </c>
+      <c r="J15">
+        <v>3004.8</v>
+      </c>
+      <c r="K15">
+        <v>3228.8</v>
+      </c>
+      <c r="L15">
+        <v>2822.4</v>
+      </c>
+      <c r="M15">
+        <v>3851.3</v>
+      </c>
+      <c r="N15">
+        <v>1797.8</v>
+      </c>
+      <c r="O15">
+        <v>1932.1</v>
+      </c>
+      <c r="P15">
+        <v>1725.3</v>
+      </c>
+      <c r="Q15">
+        <v>3090.9</v>
+      </c>
+      <c r="R15">
+        <v>2933.8</v>
+      </c>
+      <c r="S15">
+        <v>2191.1999999999998</v>
+      </c>
+      <c r="T15">
+        <v>1878</v>
+      </c>
+      <c r="U15">
+        <v>2293.4</v>
+      </c>
+      <c r="V15">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>1605.6</v>
+      </c>
+      <c r="D16">
+        <v>973</v>
+      </c>
+      <c r="E16">
+        <v>1244.7</v>
+      </c>
+      <c r="F16">
+        <v>1949.1</v>
+      </c>
+      <c r="G16">
+        <v>1080</v>
+      </c>
+      <c r="H16">
+        <v>513</v>
+      </c>
+      <c r="I16">
+        <v>1325.1</v>
+      </c>
+      <c r="J16">
+        <v>1784.4</v>
+      </c>
+      <c r="K16">
+        <v>1372.6</v>
+      </c>
+      <c r="L16">
+        <v>2203.6999999999998</v>
+      </c>
+      <c r="M16">
+        <v>1613.5</v>
+      </c>
+      <c r="N16">
+        <v>997.3</v>
+      </c>
+      <c r="O16">
+        <v>1182.4000000000001</v>
+      </c>
+      <c r="P16">
+        <v>605</v>
+      </c>
+      <c r="Q16">
+        <v>1660.8</v>
+      </c>
+      <c r="R16">
+        <v>1921.4</v>
+      </c>
+      <c r="S16">
+        <v>1154.2</v>
+      </c>
+      <c r="T16">
+        <v>1148</v>
+      </c>
+      <c r="U16">
+        <v>1452.8</v>
+      </c>
+      <c r="V16">
+        <v>955.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>1702.7</v>
+      </c>
+      <c r="H17">
+        <v>1723</v>
+      </c>
+      <c r="I17">
+        <v>2938.2</v>
+      </c>
+      <c r="J17">
+        <v>4696.7</v>
+      </c>
+      <c r="K17">
+        <v>4519.2</v>
+      </c>
+      <c r="L17">
+        <v>3847</v>
+      </c>
+      <c r="M17">
+        <v>4063.8</v>
+      </c>
+      <c r="N17">
+        <v>3588.9</v>
+      </c>
+      <c r="O17">
+        <v>2423.8000000000002</v>
+      </c>
+      <c r="P17">
+        <v>2548.3000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>3583.8</v>
+      </c>
+      <c r="R17">
+        <v>3535.1</v>
+      </c>
+      <c r="S17">
+        <v>2149.4</v>
+      </c>
+      <c r="T17">
+        <v>2317.4</v>
+      </c>
+      <c r="U17">
+        <v>3264.3</v>
+      </c>
+      <c r="V17">
+        <v>2641.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>2446.6999999999998</v>
+      </c>
+      <c r="D18">
+        <v>1603.6</v>
+      </c>
+      <c r="E18">
+        <v>1351.5</v>
+      </c>
+      <c r="F18">
+        <v>2979.7</v>
+      </c>
+      <c r="G18">
+        <v>1392.1</v>
+      </c>
+      <c r="H18">
+        <v>941.1</v>
+      </c>
+      <c r="I18">
+        <v>1411</v>
+      </c>
+      <c r="J18">
+        <v>2985.6</v>
+      </c>
+      <c r="K18">
+        <v>2317.8000000000002</v>
+      </c>
+      <c r="L18">
+        <v>2063.9</v>
+      </c>
+      <c r="M18">
+        <v>2510.6</v>
+      </c>
+      <c r="N18">
+        <v>1826.5</v>
+      </c>
+      <c r="O18">
+        <v>1532.5</v>
+      </c>
+      <c r="P18">
+        <v>1021.7</v>
+      </c>
+      <c r="Q18">
+        <v>2201.3000000000002</v>
+      </c>
+      <c r="R18">
+        <v>2580.5</v>
+      </c>
+      <c r="S18">
+        <v>1342.1</v>
+      </c>
+      <c r="T18">
+        <v>1790.3</v>
+      </c>
+      <c r="U18">
+        <v>1885.7</v>
+      </c>
+      <c r="V18">
+        <v>1854.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>2177.3000000000002</v>
+      </c>
+      <c r="D19">
+        <v>1390.4</v>
+      </c>
+      <c r="E19">
+        <v>1797</v>
+      </c>
+      <c r="F19">
+        <v>1981.2</v>
+      </c>
+      <c r="G19">
+        <v>1315.6</v>
+      </c>
+      <c r="H19">
+        <v>930.6</v>
+      </c>
+      <c r="I19">
+        <v>2260.6999999999998</v>
+      </c>
+      <c r="J19">
+        <v>2574.5</v>
+      </c>
+      <c r="K19">
+        <v>2171.9</v>
+      </c>
+      <c r="L19">
+        <v>2432.9</v>
+      </c>
+      <c r="M19">
+        <v>2477.8000000000002</v>
+      </c>
+      <c r="N19">
+        <v>1978.7</v>
+      </c>
+      <c r="O19">
+        <v>2054.4</v>
+      </c>
+      <c r="P19">
+        <v>1204.9000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>2202.5</v>
+      </c>
+      <c r="R19">
+        <v>2133</v>
+      </c>
+      <c r="S19">
+        <v>1466.1</v>
+      </c>
+      <c r="T19">
+        <v>1526.3</v>
+      </c>
+      <c r="U19">
+        <v>1522.3</v>
+      </c>
+      <c r="V19">
+        <v>1652.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C14:C19)</f>
+        <v>13657.2</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D14:D19)</f>
+        <v>9375.7999999999993</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E14:E19)</f>
+        <v>9442</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F14:F19)</f>
+        <v>13133.7</v>
+      </c>
+      <c r="G20">
+        <f>SUM(G14:G19)</f>
+        <v>9142.7000000000007</v>
+      </c>
+      <c r="H20">
+        <f>SUM(H14:H19)</f>
+        <v>7885.7000000000007</v>
+      </c>
+      <c r="I20">
+        <f>SUM(I14:I19)</f>
+        <v>14532.2</v>
+      </c>
+      <c r="J20">
+        <f>SUM(J14:J19)</f>
+        <v>20846.499999999996</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K14:K19)</f>
+        <v>18941.100000000002</v>
+      </c>
+      <c r="L20">
+        <f>SUM(L14:L19)</f>
+        <v>18412.7</v>
+      </c>
+      <c r="M20">
+        <f>SUM(M14:M19)</f>
+        <v>20403.699999999997</v>
+      </c>
+      <c r="N20">
+        <f>SUM(N14:N19)</f>
+        <v>15411.2</v>
+      </c>
+      <c r="O20">
+        <f>SUM(O14:O19)</f>
+        <v>12779.800000000001</v>
+      </c>
+      <c r="P20">
+        <f>SUM(P14:P19)</f>
+        <v>10760.800000000001</v>
+      </c>
+      <c r="Q20">
+        <f>SUM(Q14:Q19)</f>
+        <v>17905.599999999999</v>
+      </c>
+      <c r="R20">
+        <f>SUM(R14:R19)</f>
+        <v>18069.900000000001</v>
+      </c>
+      <c r="S20">
+        <f>SUM(S14:S19)</f>
+        <v>11475.400000000001</v>
+      </c>
+      <c r="T20">
+        <f>SUM(T14:T19)</f>
+        <v>12073.3</v>
+      </c>
+      <c r="U20">
+        <f>SUM(U14:U19)</f>
+        <v>14480.2</v>
+      </c>
+      <c r="V20">
+        <f>SUM(V14:V19)</f>
+        <v>14034.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>2650.3</v>
+      </c>
+      <c r="D23">
+        <v>3100</v>
+      </c>
+      <c r="E23">
+        <v>2327.1</v>
+      </c>
+      <c r="F23">
+        <v>2494.6</v>
+      </c>
+      <c r="G23">
+        <v>1613.9</v>
+      </c>
+      <c r="H23">
+        <v>1881.5</v>
+      </c>
+      <c r="I23">
+        <v>1549.5</v>
+      </c>
+      <c r="J23">
+        <v>2339.1</v>
+      </c>
+      <c r="K23">
+        <v>1690.1</v>
+      </c>
+      <c r="L23">
+        <v>2139.8000000000002</v>
+      </c>
+      <c r="M23">
+        <v>2004.5</v>
+      </c>
+      <c r="N23">
+        <v>1854.3</v>
+      </c>
+      <c r="O23">
+        <v>2421.1999999999998</v>
+      </c>
+      <c r="P23">
+        <v>2597</v>
+      </c>
+      <c r="Q23">
+        <v>2938.4</v>
+      </c>
+      <c r="R23">
+        <v>2098.1</v>
+      </c>
+      <c r="S23">
+        <v>1489</v>
+      </c>
+      <c r="T23">
+        <v>1480.1</v>
+      </c>
+      <c r="U23">
+        <v>2723.8</v>
+      </c>
+      <c r="V23">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>2433.9</v>
+      </c>
+      <c r="D24">
+        <v>2763.6</v>
+      </c>
+      <c r="E24">
+        <v>1569</v>
+      </c>
+      <c r="F24">
+        <v>2556.5</v>
+      </c>
+      <c r="G24">
+        <v>1037.5</v>
+      </c>
+      <c r="H24">
+        <v>1326</v>
+      </c>
+      <c r="I24">
+        <v>1439.5</v>
+      </c>
+      <c r="J24">
+        <v>2821.4</v>
+      </c>
+      <c r="K24">
+        <v>2045.5</v>
+      </c>
+      <c r="L24">
+        <v>2194</v>
+      </c>
+      <c r="M24">
+        <v>2591.3000000000002</v>
+      </c>
+      <c r="N24">
+        <v>1756.3</v>
+      </c>
+      <c r="O24">
+        <v>2160.6999999999998</v>
+      </c>
+      <c r="P24">
+        <v>1796.7</v>
+      </c>
+      <c r="Q24">
+        <v>2196.6999999999998</v>
+      </c>
+      <c r="R24">
+        <v>1688.2</v>
+      </c>
+      <c r="S24">
+        <v>1942</v>
+      </c>
+      <c r="T24">
+        <v>1344</v>
+      </c>
+      <c r="U24">
+        <v>3103.5</v>
+      </c>
+      <c r="V24">
+        <v>1124.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>1840.1</v>
+      </c>
+      <c r="D25">
+        <v>2135.1999999999998</v>
+      </c>
+      <c r="E25">
+        <v>1754.4</v>
+      </c>
+      <c r="F25">
+        <v>2106.5</v>
+      </c>
+      <c r="G25">
+        <v>1212.0999999999999</v>
+      </c>
+      <c r="H25">
+        <v>898.5</v>
+      </c>
+      <c r="I25">
+        <v>1107.9000000000001</v>
+      </c>
+      <c r="J25">
+        <v>3148.5</v>
+      </c>
+      <c r="K25">
+        <v>1867.2</v>
+      </c>
+      <c r="L25">
+        <v>2207.3000000000002</v>
+      </c>
+      <c r="M25">
+        <v>1950</v>
+      </c>
+      <c r="N25">
+        <v>1366.6</v>
+      </c>
+      <c r="O25">
+        <v>1779.2</v>
+      </c>
+      <c r="P25">
+        <v>1218.8</v>
+      </c>
+      <c r="Q25">
+        <v>2425.6999999999998</v>
+      </c>
+      <c r="R25">
+        <v>1688.5</v>
+      </c>
+      <c r="S25">
+        <v>1268.0999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1481</v>
+      </c>
+      <c r="U25">
+        <v>2720.9</v>
+      </c>
+      <c r="V25">
+        <v>1195.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C23:C25)</f>
+        <v>6924.3000000000011</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D23:D25)</f>
+        <v>7998.8</v>
+      </c>
+      <c r="E26">
+        <f>SUM(E23:E25)</f>
+        <v>5650.5</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F23:F25)</f>
+        <v>7157.6</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G23:G25)</f>
+        <v>3863.5</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H23:H25)</f>
+        <v>4106</v>
+      </c>
+      <c r="I26">
+        <f>SUM(I23:I25)</f>
+        <v>4096.8999999999996</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J23:J25)</f>
+        <v>8309</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K23:K25)</f>
+        <v>5602.8</v>
+      </c>
+      <c r="L26">
+        <f>SUM(L23:L25)</f>
+        <v>6541.1</v>
+      </c>
+      <c r="M26">
+        <f>SUM(M23:M25)</f>
+        <v>6545.8</v>
+      </c>
+      <c r="N26">
+        <f>SUM(N23:N25)</f>
+        <v>4977.2</v>
+      </c>
+      <c r="O26">
+        <f>SUM(O23:O25)</f>
+        <v>6361.0999999999995</v>
+      </c>
+      <c r="P26">
+        <f>SUM(P23:P25)</f>
+        <v>5612.5</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(Q23:Q25)</f>
+        <v>7560.8</v>
+      </c>
+      <c r="R26">
+        <f>SUM(R23:R25)</f>
+        <v>5474.8</v>
+      </c>
+      <c r="S26">
+        <f>SUM(S23:S25)</f>
+        <v>4699.1000000000004</v>
+      </c>
+      <c r="T26">
+        <f>SUM(T23:T25)</f>
+        <v>4305.1000000000004</v>
+      </c>
+      <c r="U26">
+        <f>SUM(U23:U25)</f>
+        <v>8548.2000000000007</v>
+      </c>
+      <c r="V26">
+        <f>SUM(V23:V25)</f>
+        <v>4039.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>3324.3</v>
+      </c>
+      <c r="D29">
+        <v>2132.4</v>
+      </c>
+      <c r="E29">
+        <v>2487.1</v>
+      </c>
+      <c r="F29">
+        <v>2161.6</v>
+      </c>
+      <c r="G29">
+        <v>2086.1</v>
+      </c>
+      <c r="H29">
+        <v>1912.3</v>
+      </c>
+      <c r="I29">
+        <v>1814.6</v>
+      </c>
+      <c r="J29">
+        <v>1877.9</v>
+      </c>
+      <c r="K29">
+        <v>1936.8</v>
+      </c>
+      <c r="L29">
+        <v>2302.5</v>
+      </c>
+      <c r="M29">
+        <v>1718.3</v>
+      </c>
+      <c r="N29">
+        <v>1814.1</v>
+      </c>
+      <c r="O29">
+        <v>2042.4</v>
+      </c>
+      <c r="P29">
+        <v>2720.6</v>
+      </c>
+      <c r="Q29">
+        <v>2473.3000000000002</v>
+      </c>
+      <c r="R29">
+        <v>1972</v>
+      </c>
+      <c r="S29">
+        <v>1653.6</v>
+      </c>
+      <c r="T29">
+        <v>1506.8</v>
+      </c>
+      <c r="U29">
+        <v>3475.2</v>
+      </c>
+      <c r="V29">
+        <v>2048.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>2847.4</v>
+      </c>
+      <c r="D30">
+        <v>2405.1</v>
+      </c>
+      <c r="E30">
+        <v>2425.4</v>
+      </c>
+      <c r="F30">
+        <v>2214.1</v>
+      </c>
+      <c r="G30">
+        <v>1702.1</v>
+      </c>
+      <c r="H30">
+        <v>2186.4</v>
+      </c>
+      <c r="I30">
+        <v>2166.4</v>
+      </c>
+      <c r="J30">
+        <v>3530.5</v>
+      </c>
+      <c r="K30">
+        <v>2473.8000000000002</v>
+      </c>
+      <c r="L30">
+        <v>2755.4</v>
+      </c>
+      <c r="M30">
+        <v>2081.5</v>
+      </c>
+      <c r="N30">
+        <v>2684.8</v>
+      </c>
+      <c r="O30">
+        <v>2529.9</v>
+      </c>
+      <c r="P30">
+        <v>2687.2</v>
+      </c>
+      <c r="Q30">
+        <v>3031.1</v>
+      </c>
+      <c r="R30">
+        <v>2563.3000000000002</v>
+      </c>
+      <c r="S30">
+        <v>1263.8</v>
+      </c>
+      <c r="T30">
+        <v>1915.4</v>
+      </c>
+      <c r="U30">
+        <v>3336</v>
+      </c>
+      <c r="V30">
+        <v>2190.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>4341.3999999999996</v>
+      </c>
+      <c r="D31">
+        <v>2908.5</v>
+      </c>
+      <c r="E31">
+        <v>3242.1</v>
+      </c>
+      <c r="F31">
+        <v>3390.9</v>
+      </c>
+      <c r="G31">
+        <v>2778.5</v>
+      </c>
+      <c r="H31">
+        <v>3126.5</v>
+      </c>
+      <c r="I31">
+        <v>2187</v>
+      </c>
+      <c r="J31">
+        <v>2655.5</v>
+      </c>
+      <c r="K31">
+        <v>2917.5</v>
+      </c>
+      <c r="L31">
+        <v>2829</v>
+      </c>
+      <c r="M31">
+        <v>3017.6</v>
+      </c>
+      <c r="N31">
+        <v>2320</v>
+      </c>
+      <c r="O31">
+        <v>2950.4</v>
+      </c>
+      <c r="P31">
+        <v>3605.7</v>
+      </c>
+      <c r="Q31">
+        <v>3254</v>
+      </c>
+      <c r="R31">
+        <v>3318.3</v>
+      </c>
+      <c r="S31">
+        <v>2960.3</v>
+      </c>
+      <c r="T31">
+        <v>2693.7</v>
+      </c>
+      <c r="U31">
+        <v>3684.1</v>
+      </c>
+      <c r="V31">
+        <v>2993.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>7205.1</v>
+      </c>
+      <c r="D32">
+        <v>3952.1</v>
+      </c>
+      <c r="E32">
+        <v>6595.7</v>
+      </c>
+      <c r="F32">
+        <v>5105.3</v>
+      </c>
+      <c r="G32">
+        <v>2662.3</v>
+      </c>
+      <c r="H32">
+        <v>2698.6</v>
+      </c>
+      <c r="I32">
+        <v>3207.1</v>
+      </c>
+      <c r="J32">
+        <v>4075.8</v>
+      </c>
+      <c r="K32">
+        <v>4548.3</v>
+      </c>
+      <c r="L32">
+        <v>5466.3</v>
+      </c>
+      <c r="M32">
+        <v>3990.9</v>
+      </c>
+      <c r="N32">
+        <v>4682.3</v>
+      </c>
+      <c r="O32">
+        <v>4738.2</v>
+      </c>
+      <c r="P32">
+        <v>4443.8</v>
+      </c>
+      <c r="Q32">
+        <v>4732.8999999999996</v>
+      </c>
+      <c r="R32">
+        <v>4265.1000000000004</v>
+      </c>
+      <c r="S32">
+        <v>2723.4</v>
+      </c>
+      <c r="T32">
+        <v>4069.1</v>
+      </c>
+      <c r="U32">
+        <v>4724.1000000000004</v>
+      </c>
+      <c r="V32">
+        <v>4765.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>3557.5</v>
+      </c>
+      <c r="D33">
+        <v>1677</v>
+      </c>
+      <c r="E33">
+        <v>2460.5</v>
+      </c>
+      <c r="F33">
+        <v>2568.5</v>
+      </c>
+      <c r="G33">
+        <v>1062.3</v>
+      </c>
+      <c r="H33">
+        <v>1348.5</v>
+      </c>
+      <c r="I33">
+        <v>1983</v>
+      </c>
+      <c r="J33">
+        <v>2777</v>
+      </c>
+      <c r="K33">
+        <v>1901</v>
+      </c>
+      <c r="L33">
+        <v>2525.5</v>
+      </c>
+      <c r="M33">
+        <v>2312</v>
+      </c>
+      <c r="N33">
+        <v>2535.6</v>
+      </c>
+      <c r="O33">
+        <v>1769.3</v>
+      </c>
+      <c r="P33">
+        <v>2199.5</v>
+      </c>
+      <c r="Q33">
+        <v>2303</v>
+      </c>
+      <c r="R33">
+        <v>1970.9</v>
+      </c>
+      <c r="S33">
+        <v>1226.5999999999999</v>
+      </c>
+      <c r="T33">
+        <v>1784.6</v>
+      </c>
+      <c r="U33">
+        <v>3109.2</v>
+      </c>
+      <c r="V33">
+        <v>1948.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>2418.9</v>
+      </c>
+      <c r="D34">
+        <v>2107.1999999999998</v>
+      </c>
+      <c r="E34">
+        <v>2105.6999999999998</v>
+      </c>
+      <c r="F34">
+        <v>1933.1</v>
+      </c>
+      <c r="G34">
+        <v>1560.6</v>
+      </c>
+      <c r="H34">
+        <v>1674.1</v>
+      </c>
+      <c r="I34">
+        <v>1445.6</v>
+      </c>
+      <c r="J34">
+        <v>1577.1</v>
+      </c>
+      <c r="K34">
+        <v>1772.3</v>
+      </c>
+      <c r="L34">
+        <v>1732.3</v>
+      </c>
+      <c r="M34">
+        <v>1642.4</v>
+      </c>
+      <c r="N34">
+        <v>1380.9</v>
+      </c>
+      <c r="O34">
+        <v>1973.8</v>
+      </c>
+      <c r="P34">
+        <v>2510.6</v>
+      </c>
+      <c r="Q34">
+        <v>2118.1999999999998</v>
+      </c>
+      <c r="R34">
+        <v>1867.8</v>
+      </c>
+      <c r="S34">
+        <v>1194.2</v>
+      </c>
+      <c r="T34">
+        <v>1222.8</v>
+      </c>
+      <c r="U34">
+        <v>2852.5</v>
+      </c>
+      <c r="V34">
+        <v>1971.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>4945.3</v>
+      </c>
+      <c r="D35">
+        <v>2196.9</v>
+      </c>
+      <c r="E35">
+        <v>4211.8</v>
+      </c>
+      <c r="F35">
+        <v>3521.9</v>
+      </c>
+      <c r="G35">
+        <v>1651.3</v>
+      </c>
+      <c r="H35">
+        <v>1412.7</v>
+      </c>
+      <c r="I35">
+        <v>2556.5</v>
+      </c>
+      <c r="J35">
+        <v>3329.8</v>
+      </c>
+      <c r="K35">
+        <v>2730.4</v>
+      </c>
+      <c r="L35">
+        <v>3115.1</v>
+      </c>
+      <c r="M35">
+        <v>2846</v>
+      </c>
+      <c r="N35">
+        <v>2930.2</v>
+      </c>
+      <c r="O35">
+        <v>2542.4</v>
+      </c>
+      <c r="P35">
+        <v>2781.9</v>
+      </c>
+      <c r="Q35">
+        <v>2916.1</v>
+      </c>
+      <c r="R35">
+        <v>2552.8000000000002</v>
+      </c>
+      <c r="S35">
+        <v>2095</v>
+      </c>
+      <c r="T35">
+        <v>2579.4</v>
+      </c>
+      <c r="U35">
+        <v>2678</v>
+      </c>
+      <c r="V35">
+        <v>3327.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <f>SUM(C29:C35)</f>
+        <v>28639.9</v>
+      </c>
+      <c r="D36">
+        <f>SUM(D29:D35)</f>
+        <v>17379.2</v>
+      </c>
+      <c r="E36">
+        <f>SUM(E29:E35)</f>
+        <v>23528.3</v>
+      </c>
+      <c r="F36">
+        <f>SUM(F29:F35)</f>
+        <v>20895.400000000001</v>
+      </c>
+      <c r="G36">
+        <f>SUM(G29:G35)</f>
+        <v>13503.199999999999</v>
+      </c>
+      <c r="H36">
+        <f>SUM(H29:H35)</f>
+        <v>14359.1</v>
+      </c>
+      <c r="I36">
+        <f>SUM(I29:I35)</f>
+        <v>15360.2</v>
+      </c>
+      <c r="J36">
+        <f>SUM(J29:J35)</f>
+        <v>19823.599999999999</v>
+      </c>
+      <c r="K36">
+        <f>SUM(K29:K35)</f>
+        <v>18280.100000000002</v>
+      </c>
+      <c r="L36">
+        <f>SUM(L29:L35)</f>
+        <v>20726.099999999999</v>
+      </c>
+      <c r="M36">
+        <f>SUM(M29:M35)</f>
+        <v>17608.699999999997</v>
+      </c>
+      <c r="N36">
+        <f>SUM(N29:N35)</f>
+        <v>18347.900000000001</v>
+      </c>
+      <c r="O36">
+        <f>SUM(O29:O35)</f>
+        <v>18546.400000000001</v>
+      </c>
+      <c r="P36">
+        <f>SUM(P29:P35)</f>
+        <v>20949.3</v>
+      </c>
+      <c r="Q36">
+        <f>SUM(Q29:Q35)</f>
+        <v>20828.599999999999</v>
+      </c>
+      <c r="R36">
+        <f>SUM(R29:R35)</f>
+        <v>18510.2</v>
+      </c>
+      <c r="S36">
+        <f>SUM(S29:S35)</f>
+        <v>13116.900000000001</v>
+      </c>
+      <c r="T36">
+        <f>SUM(T29:T35)</f>
+        <v>15771.8</v>
+      </c>
+      <c r="U36">
+        <f>SUM(U29:U35)</f>
+        <v>23859.1</v>
+      </c>
+      <c r="V36">
+        <f>SUM(V29:V35)</f>
+        <v>19246.100000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>1689.3</v>
+      </c>
+      <c r="D39">
+        <v>1309.2</v>
+      </c>
+      <c r="E39">
+        <v>1023.3</v>
+      </c>
+      <c r="F39">
+        <v>1270</v>
+      </c>
+      <c r="G39">
+        <v>769.5</v>
+      </c>
+      <c r="H39">
+        <v>619.5</v>
+      </c>
+      <c r="I39">
+        <v>1457.5</v>
+      </c>
+      <c r="J39">
+        <v>1781</v>
+      </c>
+      <c r="K39">
+        <v>1244.5</v>
+      </c>
+      <c r="L39">
+        <v>1065.8</v>
+      </c>
+      <c r="M39">
+        <v>1096.9000000000001</v>
+      </c>
+      <c r="N39">
+        <v>1197.3</v>
+      </c>
+      <c r="O39">
+        <v>770.2</v>
+      </c>
+      <c r="P39">
+        <v>933</v>
+      </c>
+      <c r="Q39">
+        <v>895</v>
+      </c>
+      <c r="R39">
+        <v>970.8</v>
+      </c>
+      <c r="S39">
+        <v>658</v>
+      </c>
+      <c r="T39">
+        <v>1468.8</v>
+      </c>
+      <c r="U39">
+        <v>1922.1</v>
+      </c>
+      <c r="V39">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40">
+        <v>935</v>
+      </c>
+      <c r="J40">
+        <v>1502</v>
+      </c>
+      <c r="K40">
+        <v>1544.5</v>
+      </c>
+      <c r="L40">
+        <v>994.1</v>
+      </c>
+      <c r="M40">
+        <v>1025.2</v>
+      </c>
+      <c r="N40">
+        <v>884.3</v>
+      </c>
+      <c r="O40">
+        <v>972.6</v>
+      </c>
+      <c r="P40">
+        <v>780.3</v>
+      </c>
+      <c r="Q40">
+        <v>893</v>
+      </c>
+      <c r="R40">
+        <v>1400.8</v>
+      </c>
+      <c r="S40">
+        <v>905.8</v>
+      </c>
+      <c r="T40">
+        <v>1109.5999999999999</v>
+      </c>
+      <c r="U40">
+        <v>1873.1</v>
+      </c>
+      <c r="V40">
+        <v>649.20000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41">
+        <v>1015.8</v>
+      </c>
+      <c r="J41">
+        <v>1208</v>
+      </c>
+      <c r="K41">
+        <v>1468.5</v>
+      </c>
+      <c r="L41">
+        <v>1088.7</v>
+      </c>
+      <c r="M41">
+        <v>1059</v>
+      </c>
+      <c r="N41">
+        <v>1170.5999999999999</v>
+      </c>
+      <c r="O41">
+        <v>1206.2</v>
+      </c>
+      <c r="P41">
+        <v>792.8</v>
+      </c>
+      <c r="Q41">
+        <v>1914.4</v>
+      </c>
+      <c r="R41">
+        <v>1033.4000000000001</v>
+      </c>
+      <c r="S41">
+        <v>908.2</v>
+      </c>
+      <c r="T41">
+        <v>1026.8</v>
+      </c>
+      <c r="U41">
+        <v>1354.9</v>
+      </c>
+      <c r="V41">
+        <v>1250.5999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>1258.4000000000001</v>
+      </c>
+      <c r="D42">
+        <v>1054.5999999999999</v>
+      </c>
+      <c r="E42">
+        <v>1144</v>
+      </c>
+      <c r="F42">
+        <v>1459.7</v>
+      </c>
+      <c r="G42">
+        <v>940.6</v>
+      </c>
+      <c r="H42">
+        <v>786.1</v>
+      </c>
+      <c r="I42">
+        <v>1215.5999999999999</v>
+      </c>
+      <c r="J42">
+        <v>1589.5</v>
+      </c>
+      <c r="K42">
+        <v>1506.8</v>
+      </c>
+      <c r="L42">
+        <v>979.4</v>
+      </c>
+      <c r="M42">
+        <v>1512.6</v>
+      </c>
+      <c r="N42">
+        <v>969.8</v>
+      </c>
+      <c r="O42">
+        <v>688.2</v>
+      </c>
+      <c r="P42">
+        <v>609.4</v>
+      </c>
+      <c r="Q42">
+        <v>921.9</v>
+      </c>
+      <c r="R42">
+        <v>947</v>
+      </c>
+      <c r="S42">
+        <v>819.5</v>
+      </c>
+      <c r="T42">
+        <v>1752.7</v>
+      </c>
+      <c r="U42">
+        <v>1795.4</v>
+      </c>
+      <c r="V42">
+        <v>953.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C39:C42)</f>
+        <v>2947.7</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:I43" si="0">SUM(D39:D42)</f>
+        <v>2363.8000000000002</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>2167.3000000000002</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>2729.7</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>1710.1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1405.6</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>4623.8999999999996</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43" si="1">SUM(J39:J42)</f>
+        <v>6080.5</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43" si="2">SUM(K39:K42)</f>
+        <v>5764.3</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43" si="3">SUM(L39:L42)</f>
+        <v>4128</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43" si="4">SUM(M39:M42)</f>
+        <v>4693.7000000000007</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43" si="5">SUM(N39:N42)</f>
+        <v>4222</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43" si="6">SUM(O39:O42)</f>
+        <v>3637.2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ref="P43" si="7">SUM(P39:P42)</f>
+        <v>3115.5</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ref="Q43" si="8">SUM(Q39:Q42)</f>
+        <v>4624.3</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ref="R43" si="9">SUM(R39:R42)</f>
+        <v>4352</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ref="S43" si="10">SUM(S39:S42)</f>
+        <v>3291.5</v>
+      </c>
+      <c r="T43">
+        <f t="shared" ref="T43" si="11">SUM(T39:T42)</f>
+        <v>5357.9</v>
+      </c>
+      <c r="U43">
+        <f t="shared" ref="U43" si="12">SUM(U39:U42)</f>
+        <v>6945.5</v>
+      </c>
+      <c r="V43">
+        <f t="shared" ref="V43" si="13">SUM(V39:V42)</f>
+        <v>3668.6000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="156" windowWidth="19176" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="150" windowWidth="19170" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181103year_gp2" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="56">
   <si>
     <t>阿里山</t>
   </si>
@@ -208,6 +208,9 @@
   <si>
     <t>合計</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市</t>
   </si>
 </sst>
 </file>
@@ -1003,11 +1006,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217975808"/>
-        <c:axId val="145017088"/>
+        <c:axId val="45667328"/>
+        <c:axId val="136383296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217975808"/>
+        <c:axId val="45667328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1029,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145017088"/>
+        <c:crossAx val="136383296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145017088"/>
+        <c:axId val="136383296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1058,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217975808"/>
+        <c:crossAx val="45667328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1415,9 +1418,9 @@
       <selection activeCell="D547" sqref="D547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1998</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>4364.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>6046.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1998</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>2446.6999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>2847.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>1689.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1998</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>2650.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1998</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>2088.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>3557.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1998</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>5438.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1998</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>4341.3999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>1258.4000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1998</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>7205.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>3063.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>2177.3000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1998</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>1840.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>4404.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>2418.9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1998</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>2865.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>1605.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1998</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>4945.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1998</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>5828.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1999</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>3074.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1999</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>3788.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1999</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>2132.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1999</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>1603.6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>2405.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1999</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>1309.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1999</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1999</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>1157.0999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1999</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>2763.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1999</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>2746.7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1999</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>2908.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1999</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1999</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>1312.8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1999</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>3952.1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1999</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>2333.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1999</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>1390.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1999</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>2135.1999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1999</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>1958.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1999</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>2107.1999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1999</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>1373.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1999</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1999</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>2196.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1999</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>3495.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2000</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>3093.4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>6592.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2000</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>2487.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2000</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>1351.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2000</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>2425.4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2000</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>1023.3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>2327.1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2000</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>1756.1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2000</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>2460.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2000</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2000</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>5404.4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2000</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>3242.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2000</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2000</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>2435.9</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2000</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>6595.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2000</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>1955.4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2000</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2000</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>1754.4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2000</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2000</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>2105.6999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2000</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>2643.7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2000</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>1244.7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2000</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>4211.8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2000</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>5238.2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2001</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>4017.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2001</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>5714.2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2001</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>2161.6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2001</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>2979.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2001</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>2214.1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2001</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2001</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>2494.6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2001</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>2293.1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2001</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>2568.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2001</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>2556.5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2001</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>3642.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2001</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>3390.9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2001</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>1459.7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2001</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>2352.3000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2001</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>5105.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2001</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2001</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>1981.2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2001</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2001</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>2862.1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2001</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>1933.1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2001</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2001</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>1949.1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2001</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>3521.9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2001</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>5080.1000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2002</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>2196.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2002</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>3113.7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2002</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>1325.7</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2002</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>2086.1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2002</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>1392.1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2002</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>1702.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2002</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>769.5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2002</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>1613.9</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2002</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2002</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>1062.3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2002</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>1037.5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2002</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2002</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>2778.5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2002</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>940.6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2002</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>1965.1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2002</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>2662.3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2002</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>1455.8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2002</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>1315.6</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2002</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>1212.0999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2002</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>1346.4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2002</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>1560.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2002</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>1177.8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2002</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2002</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>1651.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2002</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>1702.7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2002</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>2730.9</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2003</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>2298.8000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2003</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>2514.1999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2003</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>1191.2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2003</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>1912.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2003</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>941.1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2003</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>2186.4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2003</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>619.5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2003</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>1881.5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2003</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>877.7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2003</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>1348.5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2003</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2003</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>2155.8000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2003</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>3126.5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2003</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>786.1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2003</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>871.3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2003</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>2698.6</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2003</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>1479.2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2003</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>930.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2003</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>898.5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2003</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>1192.5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2003</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>1674.1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2003</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>967.6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2003</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2003</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>1412.7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2003</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2003</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>2400.6</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2004</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>4192.3999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2004</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>5976.6</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2004</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>2992.3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2004</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>1814.6</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2004</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2004</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>2166.4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2004</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>1457.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2004</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>1549.5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2004</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>2261.8000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2004</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2004</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2004</v>
       </c>
@@ -3188,7 +3191,7 @@
         <v>3886.2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2004</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2004</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2004</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>1015.8</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2004</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>1215.5999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2004</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>1927.4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2004</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>3207.1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2004</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>2404.8000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2004</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>2260.6999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2004</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>1107.9000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2004</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>2829.8</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2004</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>1445.6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2004</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>2301.8000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2004</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>1325.1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2004</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>2556.5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2004</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>2938.2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2004</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>4878.3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2005</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>5800.5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2005</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>5356.5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2005</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>3099.4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2005</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>1877.9</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2005</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>2985.6</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2005</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>3530.5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2005</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>2339.1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>2384.1999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>2821.4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>4240.8999999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>2655.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>1589.5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>2655.8</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>4075.8</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>3004.8</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>2574.5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2005</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>3148.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2005</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>3027.8</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2005</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>1577.1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2005</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>2777.5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2005</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>1784.4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2005</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>3329.8</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2005</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>4696.7</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2005</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>4961.8999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2006</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>5330.8</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2006</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>5367.7</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2006</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>2285.3000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2006</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>1936.8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2006</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>2317.8000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2006</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>2473.8000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2006</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>1244.5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2006</v>
       </c>
@@ -3760,7 +3763,7 @@
         <v>1690.1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2006</v>
       </c>
@@ -3771,7 +3774,7 @@
         <v>2127.5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2006</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2006</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>2045.5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2006</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>3723.5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2006</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>1544.5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2006</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>2917.5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2006</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>1468.5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2006</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>1506.8</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2006</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>2283.9</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2006</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>4548.3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2006</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>3228.8</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2006</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>2171.9</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>2288.4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>1772.3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>2590.5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>1372.6</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>2730.4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>4519.2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>4439.2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2007</v>
       </c>
@@ -3991,7 +3994,7 @@
         <v>5042.8</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2007</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>5889.1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2007</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>3018.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2007</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>2302.5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2007</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>2063.9</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2007</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>2755.4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2007</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>1065.8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2007</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2007</v>
       </c>
@@ -4079,7 +4082,7 @@
         <v>1963.9</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2007</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>2525.5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2007</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2007</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>4063.7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2007</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>994.1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2007</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2007</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>1088.7</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2007</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>979.4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2007</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2007</v>
       </c>
@@ -4178,7 +4181,7 @@
         <v>5466.3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2007</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>2822.4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2007</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>2432.9</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2007</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>2207.3000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2007</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>3015.9</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2007</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>1732.3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2007</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>2672.6</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2007</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>2203.6999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2007</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>3115.1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2007</v>
       </c>
@@ -4277,7 +4280,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2007</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>5287.7</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2008</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>5886.7</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2008</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>5355.3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2008</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>2720.4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2008</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>1718.3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2008</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>2510.6</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2008</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>2081.5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2008</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>1096.9000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2008</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>2004.5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2008</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>2166.6</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2008</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2008</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>2591.3000000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2008</v>
       </c>
@@ -4420,7 +4423,7 @@
         <v>3673.6</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2008</v>
       </c>
@@ -4431,7 +4434,7 @@
         <v>1025.2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2008</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>3017.6</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2008</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2008</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>1512.6</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2008</v>
       </c>
@@ -4475,7 +4478,7 @@
         <v>2153.1999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2008</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>3990.9</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2008</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>3851.3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2008</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>2477.8000000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2008</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2008</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>2969.2</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2008</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>1642.4</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2008</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>2575.5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2008</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>1613.5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2008</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2008</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>4063.8</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2008</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2009</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2009</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>3860.5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2009</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>1616.5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2009</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>1814.1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2009</v>
       </c>
@@ -4651,7 +4654,7 @@
         <v>1826.5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2009</v>
       </c>
@@ -4662,7 +4665,7 @@
         <v>2684.8</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2009</v>
       </c>
@@ -4673,7 +4676,7 @@
         <v>1197.3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2009</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>1854.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2009</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>1119.5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2009</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>2535.6</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2009</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>1756.3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2009</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>3654.6</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2009</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>884.3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2009</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2009</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>1170.5999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2009</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>969.8</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2009</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>1426.8</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2009</v>
       </c>
@@ -4794,7 +4797,7 @@
         <v>4682.3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2009</v>
       </c>
@@ -4805,7 +4808,7 @@
         <v>1797.8</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2009</v>
       </c>
@@ -4816,7 +4819,7 @@
         <v>1978.7</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2009</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>1366.6</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2009</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>1669.2</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2009</v>
       </c>
@@ -4849,7 +4852,7 @@
         <v>1380.9</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2009</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>1321.6</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2009</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>997.3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2009</v>
       </c>
@@ -4882,7 +4885,7 @@
         <v>2930.2</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2009</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>3588.9</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2009</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>3403.2</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2010</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>3654.6</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2010</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>4915.1000000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2010</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2010</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>2042.4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2010</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>1532.5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2010</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>2529.9</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2010</v>
       </c>
@@ -4981,7 +4984,7 @@
         <v>770.2</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2010</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>2421.1999999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2010</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>1605.1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2010</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>1769.3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2010</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>2160.6999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2010</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>3303.6</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2010</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>972.6</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2010</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>2950.4</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2010</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>1206.2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2010</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>688.2</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2010</v>
       </c>
@@ -5091,7 +5094,7 @@
         <v>2093.9</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2010</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>4738.2</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2010</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>1932.1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2010</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>2054.4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2010</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>1779.2</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2010</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>2278.3000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2010</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>1973.8</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2010</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>2070.3000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2010</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>1182.4000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2010</v>
       </c>
@@ -5190,7 +5193,7 @@
         <v>2542.4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2010</v>
       </c>
@@ -5201,7 +5204,7 @@
         <v>2423.8000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2010</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>4070.5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2011</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>3655.6</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2011</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>4879</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2011</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2011</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>2720.6</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2011</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>1021.7</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2011</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>2687.2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2011</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2011</v>
       </c>
@@ -5300,7 +5303,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2011</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>1222.5999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2011</v>
       </c>
@@ -5322,7 +5325,7 @@
         <v>2199.5</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2011</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>1796.7</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2011</v>
       </c>
@@ -5344,7 +5347,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2011</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>780.3</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2011</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>3605.7</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2011</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>792.8</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2011</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>609.4</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2011</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>1553.5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2011</v>
       </c>
@@ -5410,7 +5413,7 @@
         <v>4443.8</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2011</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>1725.3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2011</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>1204.9000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2011</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>1218.8</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2011</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>1758.6</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2011</v>
       </c>
@@ -5465,7 +5468,7 @@
         <v>2510.6</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2011</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>1713.8</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2011</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2011</v>
       </c>
@@ -5498,7 +5501,7 @@
         <v>2781.9</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2011</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>2548.3000000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2011</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>4111.2</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2012</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>5166.3</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2012</v>
       </c>
@@ -5542,7 +5545,7 @@
         <v>4911.5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2012</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>3083.3</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2012</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>2473.3000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2012</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>2201.3000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2012</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>3031.1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2012</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2012</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>2938.4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2012</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>2741.2</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2012</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2012</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>2196.6999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2012</v>
       </c>
@@ -5652,7 +5655,7 @@
         <v>3908.8</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2012</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2012</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2012</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>1914.4</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2012</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>921.9</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2012</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>1960.3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2012</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>4732.8999999999996</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2012</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>3090.9</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2012</v>
       </c>
@@ -5740,7 +5743,7 @@
         <v>2202.5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2012</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>2425.6999999999998</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2012</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>2910.3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2012</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>2118.1999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2012</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>2993.5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2012</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>1660.8</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2012</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>2916.1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2012</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>3583.8</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2012</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>3904.6</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2013</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>4966.1000000000004</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2013</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>5205.5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2013</v>
       </c>
@@ -5861,7 +5864,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2013</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2013</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>2580.5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2013</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>2563.3000000000002</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2013</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>970.8</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2013</v>
       </c>
@@ -5916,7 +5919,7 @@
         <v>2098.1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2013</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>2043.5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2013</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>1970.9</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2013</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>1688.2</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2013</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>3768.2</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2013</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v>1400.8</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2013</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v>3318.3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2013</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>1033.4000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2013</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2013</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>2020.4</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2013</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>4265.1000000000004</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2013</v>
       </c>
@@ -6037,7 +6040,7 @@
         <v>2933.8</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2013</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2013</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>1688.5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2013</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>2541.4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2013</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>1867.8</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2013</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>2343.5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2013</v>
       </c>
@@ -6103,7 +6106,7 @@
         <v>1921.4</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2013</v>
       </c>
@@ -6114,7 +6117,7 @@
         <v>866.4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2013</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v>2552.8000000000002</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2013</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>3535.1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2013</v>
       </c>
@@ -6147,7 +6150,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2014</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>3172.4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2014</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>3887.7</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2014</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>2369.1999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2014</v>
       </c>
@@ -6191,7 +6194,7 @@
         <v>1653.6</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2014</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>1342.1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2014</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>1263.8</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2014</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2014</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2014</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>1150.3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2014</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>1226.5999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2014</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2014</v>
       </c>
@@ -6279,7 +6282,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2014</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>905.8</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2014</v>
       </c>
@@ -6301,7 +6304,7 @@
         <v>2960.3</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2014</v>
       </c>
@@ -6312,7 +6315,7 @@
         <v>908.2</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2014</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>819.5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2014</v>
       </c>
@@ -6334,7 +6337,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2014</v>
       </c>
@@ -6345,7 +6348,7 @@
         <v>2723.4</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2014</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>2191.1999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2014</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>1466.1</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2014</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>1268.0999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2014</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>2147.3000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2014</v>
       </c>
@@ -6400,7 +6403,7 @@
         <v>1194.2</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2014</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>1893.3</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2014</v>
       </c>
@@ -6422,7 +6425,7 @@
         <v>1154.2</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2014</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>1259.5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2014</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2014</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>2149.4</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2014</v>
       </c>
@@ -6466,7 +6469,7 @@
         <v>3206.7</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2015</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>3413.3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2015</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>3500.1</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2015</v>
       </c>
@@ -6499,7 +6502,7 @@
         <v>2132.1999999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2015</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>1506.8</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2015</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>1790.3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2015</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>1915.4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2015</v>
       </c>
@@ -6543,7 +6546,7 @@
         <v>1468.8</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2015</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>1480.1</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2015</v>
       </c>
@@ -6565,7 +6568,7 @@
         <v>1417.8</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2015</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>1784.6</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2015</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2015</v>
       </c>
@@ -6598,7 +6601,7 @@
         <v>3151.6</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2015</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>1109.5999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2015</v>
       </c>
@@ -6620,7 +6623,7 @@
         <v>2693.7</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2015</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>1026.8</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2015</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>1752.7</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2015</v>
       </c>
@@ -6653,7 +6656,7 @@
         <v>1148.5999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2015</v>
       </c>
@@ -6664,7 +6667,7 @@
         <v>4069.1</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2015</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2015</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>1526.3</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2015</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2015</v>
       </c>
@@ -6708,7 +6711,7 @@
         <v>2519.1999999999998</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2015</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>1222.8</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2015</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2015</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2015</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>1215.9000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2015</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>2579.4</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2015</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>2317.4</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2015</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2016</v>
       </c>
@@ -6796,7 +6799,7 @@
         <v>4061.7</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2016</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>4756.5</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2016</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2016</v>
       </c>
@@ -6829,7 +6832,7 @@
         <v>3475.2</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2016</v>
       </c>
@@ -6840,7 +6843,7 @@
         <v>1885.7</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2016</v>
       </c>
@@ -6851,7 +6854,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2016</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>1922.1</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2016</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2016</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>2027.5</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2016</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>3109.2</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2016</v>
       </c>
@@ -6906,7 +6909,7 @@
         <v>3103.5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2016</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>3841.4</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2016</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2016</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>3684.1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2016</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>1354.9</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2016</v>
       </c>
@@ -6961,7 +6964,7 @@
         <v>1795.4</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2016</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>1820.5</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2016</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>4724.1000000000004</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2016</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>2293.4</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2016</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>1522.3</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2016</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>2720.9</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2016</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>2431.6999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2016</v>
       </c>
@@ -7038,7 +7041,7 @@
         <v>2852.5</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2016</v>
       </c>
@@ -7049,7 +7052,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2016</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2016</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>1864.6</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2016</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2016</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>3264.3</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2016</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>4348.3</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2017</v>
       </c>
@@ -7115,7 +7118,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2017</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2017</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2017</v>
       </c>
@@ -7148,7 +7151,7 @@
         <v>2048.9</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2017</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>1854.8</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2017</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>2190.6</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2017</v>
       </c>
@@ -7181,7 +7184,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2017</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2017</v>
       </c>
@@ -7203,7 +7206,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2017</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>1948.2</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2017</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2017</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>3857.6</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2017</v>
       </c>
@@ -7247,7 +7250,7 @@
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2017</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>2993.7</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2017</v>
       </c>
@@ -7269,7 +7272,7 @@
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2017</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>953.8</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2017</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>1613.1</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>2017</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>4765.3</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>2017</v>
       </c>
@@ -7313,7 +7316,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>2017</v>
       </c>
@@ -7324,7 +7327,7 @@
         <v>1652.2</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>2017</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>2017</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>2017</v>
       </c>
@@ -7357,7 +7360,7 @@
         <v>1971.5</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>2017</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>2017</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>2017</v>
       </c>
@@ -7390,7 +7393,7 @@
         <v>1592.2</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>2017</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>3327.9</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>2017</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>2641.5</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>2017</v>
       </c>
@@ -7434,16 +7437,16 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7579,7 +7582,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7647,7 +7650,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -7703,7 +7706,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -7771,7 +7774,7 @@
         <v>2048.9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7839,7 +7842,7 @@
         <v>2190.6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7907,7 +7910,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>2993.7</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -8111,7 +8114,7 @@
         <v>1613.1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>4765.3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8247,7 +8250,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -8315,7 +8318,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -8383,7 +8386,7 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>1592.2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>2641.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>4808.3999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -8598,7 +8601,7 @@
         <v>1854.8</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -8666,7 +8669,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>1948.2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -8802,7 +8805,7 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -8870,7 +8873,7 @@
         <v>3857.6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -8920,7 +8923,7 @@
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -8970,7 +8973,7 @@
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -9038,7 +9041,7 @@
         <v>953.8</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -9106,7 +9109,7 @@
         <v>1652.2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -9242,7 +9245,7 @@
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v>1971.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>3327.9</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>2294.1034482758614</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>25540.2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -9602,7 +9605,7 @@
         <v>14034.4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -9610,67 +9613,67 @@
         <v>47</v>
       </c>
       <c r="C34">
-        <v>6924.3000000000011</v>
+        <v>8182.7000000000007</v>
       </c>
       <c r="D34">
-        <v>7998.8</v>
+        <v>9053.4</v>
       </c>
       <c r="E34">
-        <v>5650.5</v>
+        <v>6794.5</v>
       </c>
       <c r="F34">
-        <v>7157.6</v>
+        <v>8617.3000000000011</v>
       </c>
       <c r="G34">
-        <v>3863.5</v>
+        <v>4804.1000000000004</v>
       </c>
       <c r="H34">
-        <v>4106</v>
+        <v>4892.1000000000004</v>
       </c>
       <c r="I34">
-        <v>4096.8999999999996</v>
+        <v>5312.5</v>
       </c>
       <c r="J34">
-        <v>8309</v>
+        <v>9898.5</v>
       </c>
       <c r="K34">
-        <v>5602.8</v>
+        <v>7109.6</v>
       </c>
       <c r="L34">
-        <v>6541.1</v>
+        <v>7520.5</v>
       </c>
       <c r="M34">
-        <v>6545.8</v>
+        <v>8058.4</v>
       </c>
       <c r="N34">
-        <v>4977.2</v>
+        <v>5947</v>
       </c>
       <c r="O34">
-        <v>6361.0999999999995</v>
+        <v>7049.2999999999993</v>
       </c>
       <c r="P34">
-        <v>5612.5</v>
+        <v>6221.9</v>
       </c>
       <c r="Q34">
-        <v>7560.8</v>
+        <v>8482.7000000000007</v>
       </c>
       <c r="R34">
-        <v>5474.8</v>
+        <v>6421.8</v>
       </c>
       <c r="S34">
-        <v>4699.1000000000004</v>
+        <v>5518.6</v>
       </c>
       <c r="T34">
-        <v>4305.1000000000004</v>
+        <v>6057.8</v>
       </c>
       <c r="U34">
-        <v>8548.2000000000007</v>
+        <v>10343.6</v>
       </c>
       <c r="V34">
-        <v>4039.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+        <v>4993.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -9738,7 +9741,7 @@
         <v>19246.100000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -9746,87 +9749,67 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <f>SUM(C32:C35)</f>
-        <v>78437</v>
+        <v>1689.3</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:V36" si="1">SUM(D32:D35)</f>
-        <v>50585.400000000009</v>
+        <v>1309.2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>65435.599999999991</v>
+        <v>1023.3</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>65809.899999999994</v>
+        <v>1270</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>41867.299999999996</v>
+        <v>769.5</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
-        <v>38521.700000000004</v>
+        <v>619.5</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
-        <v>61043.5</v>
+        <v>3408.3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>77483.099999999991</v>
+        <v>4491</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
-        <v>67930.000000000015</v>
+        <v>4257.5</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
-        <v>73666.5</v>
+        <v>3148.6000000000004</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
-        <v>70986</v>
+        <v>3181.1000000000004</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
-        <v>56808.2</v>
+        <v>3252.2</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
-        <v>60315.1</v>
+        <v>2949</v>
       </c>
       <c r="P36">
-        <f t="shared" si="1"/>
-        <v>58197.3</v>
+        <v>2506.1</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="1"/>
-        <v>72708.5</v>
+        <v>3702.4</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
-        <v>67409.8</v>
+        <v>3405</v>
       </c>
       <c r="S36">
-        <f t="shared" si="1"/>
-        <v>49037.4</v>
+        <v>2472</v>
       </c>
       <c r="T36">
-        <f t="shared" si="1"/>
-        <v>52133.599999999991</v>
+        <v>3605.2</v>
       </c>
       <c r="U36">
-        <f t="shared" si="1"/>
-        <v>73030</v>
+        <v>5150.1000000000004</v>
       </c>
       <c r="V36">
-        <f t="shared" si="1"/>
-        <v>62860.399999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2714.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
   </sheetData>
@@ -9844,12 +9827,12 @@
       <selection activeCell="C8" sqref="B8:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -9917,7 +9900,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -10005,7 +9988,7 @@
         <v>43009.799999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -10105,13 +10088,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" activeCellId="4" sqref="C11:V11 C20:V20 C27:V27 C37:V37 C43:V43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -10179,7 +10162,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10247,7 +10230,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -10303,7 +10286,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -10371,7 +10354,7 @@
         <v>1613.1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -10439,7 +10422,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -10462,7 +10445,7 @@
         <v>1592.2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -10530,7 +10513,7 @@
         <v>4808.3999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10598,7 +10581,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -10666,7 +10649,7 @@
         <v>3857.6</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -10734,97 +10717,97 @@
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
       <c r="C11">
-        <f>SUM(C2:C10)</f>
+        <f t="shared" ref="C11:V11" si="0">SUM(C2:C10)</f>
         <v>29215.600000000002</v>
       </c>
       <c r="D11">
-        <f>SUM(D2:D10)</f>
+        <f t="shared" si="0"/>
         <v>15831.6</v>
       </c>
       <c r="E11">
-        <f>SUM(E2:E10)</f>
+        <f t="shared" si="0"/>
         <v>26814.799999999996</v>
       </c>
       <c r="F11">
-        <f>SUM(F2:F10)</f>
+        <f t="shared" si="0"/>
         <v>24623.200000000001</v>
       </c>
       <c r="G11">
-        <f>SUM(G2:G10)</f>
+        <f t="shared" si="0"/>
         <v>15357.9</v>
       </c>
       <c r="H11">
-        <f>SUM(H2:H10)</f>
+        <f t="shared" si="0"/>
         <v>12170.900000000001</v>
       </c>
       <c r="I11">
-        <f>SUM(I2:I10)</f>
+        <f t="shared" si="0"/>
         <v>27054.2</v>
       </c>
       <c r="J11">
-        <f>SUM(J2:J10)</f>
+        <f t="shared" si="0"/>
         <v>28503.999999999996</v>
       </c>
       <c r="K11">
-        <f>SUM(K2:K10)</f>
+        <f t="shared" si="0"/>
         <v>25106</v>
       </c>
       <c r="L11">
-        <f>SUM(L2:L10)</f>
+        <f t="shared" si="0"/>
         <v>27986.600000000002</v>
       </c>
       <c r="M11">
-        <f>SUM(M2:M10)</f>
+        <f t="shared" si="0"/>
         <v>26427.8</v>
       </c>
       <c r="N11">
-        <f>SUM(N2:N10)</f>
+        <f t="shared" si="0"/>
         <v>18071.899999999998</v>
       </c>
       <c r="O11">
-        <f>SUM(O2:O10)</f>
+        <f t="shared" si="0"/>
         <v>22627.799999999996</v>
       </c>
       <c r="P11">
-        <f>SUM(P2:P10)</f>
+        <f t="shared" si="0"/>
         <v>20874.699999999997</v>
       </c>
       <c r="Q11">
-        <f>SUM(Q2:Q10)</f>
+        <f t="shared" si="0"/>
         <v>26413.5</v>
       </c>
       <c r="R11">
-        <f>SUM(R2:R10)</f>
+        <f t="shared" si="0"/>
         <v>25354.9</v>
       </c>
       <c r="S11">
-        <f>SUM(S2:S10)</f>
+        <f t="shared" si="0"/>
         <v>19745.999999999996</v>
       </c>
       <c r="T11">
-        <f>SUM(T2:T10)</f>
+        <f t="shared" si="0"/>
         <v>19983.399999999998</v>
       </c>
       <c r="U11">
-        <f>SUM(U2:U10)</f>
+        <f t="shared" si="0"/>
         <v>26142.500000000004</v>
       </c>
       <c r="V11">
-        <f>SUM(V2:V10)</f>
+        <f t="shared" si="0"/>
         <v>25540.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -10892,7 +10875,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -10960,7 +10943,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -11028,7 +11011,7 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -11084,7 +11067,7 @@
         <v>2641.5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -11152,7 +11135,7 @@
         <v>1854.8</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -11220,97 +11203,97 @@
         <v>1652.2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
       <c r="C20">
-        <f>SUM(C14:C19)</f>
+        <f t="shared" ref="C20:V20" si="1">SUM(C14:C19)</f>
         <v>13657.2</v>
       </c>
       <c r="D20">
-        <f>SUM(D14:D19)</f>
+        <f t="shared" si="1"/>
         <v>9375.7999999999993</v>
       </c>
       <c r="E20">
-        <f>SUM(E14:E19)</f>
+        <f t="shared" si="1"/>
         <v>9442</v>
       </c>
       <c r="F20">
-        <f>SUM(F14:F19)</f>
+        <f t="shared" si="1"/>
         <v>13133.7</v>
       </c>
       <c r="G20">
-        <f>SUM(G14:G19)</f>
+        <f t="shared" si="1"/>
         <v>9142.7000000000007</v>
       </c>
       <c r="H20">
-        <f>SUM(H14:H19)</f>
+        <f t="shared" si="1"/>
         <v>7885.7000000000007</v>
       </c>
       <c r="I20">
-        <f>SUM(I14:I19)</f>
+        <f t="shared" si="1"/>
         <v>14532.2</v>
       </c>
       <c r="J20">
-        <f>SUM(J14:J19)</f>
+        <f t="shared" si="1"/>
         <v>20846.499999999996</v>
       </c>
       <c r="K20">
-        <f>SUM(K14:K19)</f>
+        <f t="shared" si="1"/>
         <v>18941.100000000002</v>
       </c>
       <c r="L20">
-        <f>SUM(L14:L19)</f>
+        <f t="shared" si="1"/>
         <v>18412.7</v>
       </c>
       <c r="M20">
-        <f>SUM(M14:M19)</f>
+        <f t="shared" si="1"/>
         <v>20403.699999999997</v>
       </c>
       <c r="N20">
-        <f>SUM(N14:N19)</f>
+        <f t="shared" si="1"/>
         <v>15411.2</v>
       </c>
       <c r="O20">
-        <f>SUM(O14:O19)</f>
+        <f t="shared" si="1"/>
         <v>12779.800000000001</v>
       </c>
       <c r="P20">
-        <f>SUM(P14:P19)</f>
+        <f t="shared" si="1"/>
         <v>10760.800000000001</v>
       </c>
       <c r="Q20">
-        <f>SUM(Q14:Q19)</f>
+        <f t="shared" si="1"/>
         <v>17905.599999999999</v>
       </c>
       <c r="R20">
-        <f>SUM(R14:R19)</f>
+        <f t="shared" si="1"/>
         <v>18069.900000000001</v>
       </c>
       <c r="S20">
-        <f>SUM(S14:S19)</f>
+        <f t="shared" si="1"/>
         <v>11475.400000000001</v>
       </c>
       <c r="T20">
-        <f>SUM(T14:T19)</f>
+        <f t="shared" si="1"/>
         <v>12073.3</v>
       </c>
       <c r="U20">
-        <f>SUM(U14:U19)</f>
+        <f t="shared" si="1"/>
         <v>14480.2</v>
       </c>
       <c r="V20">
-        <f>SUM(V14:V19)</f>
+        <f t="shared" si="1"/>
         <v>14034.4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -11378,7 +11361,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -11446,7 +11429,7 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -11514,984 +11497,984 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>1258.4000000000001</v>
+      </c>
+      <c r="D26">
+        <v>1054.5999999999999</v>
+      </c>
+      <c r="E26">
+        <v>1144</v>
+      </c>
+      <c r="F26">
+        <v>1459.7</v>
+      </c>
+      <c r="G26">
+        <v>940.6</v>
+      </c>
+      <c r="H26">
+        <v>786.1</v>
+      </c>
+      <c r="I26">
+        <v>1215.5999999999999</v>
+      </c>
+      <c r="J26">
+        <v>1589.5</v>
+      </c>
+      <c r="K26">
+        <v>1506.8</v>
+      </c>
+      <c r="L26">
+        <v>979.4</v>
+      </c>
+      <c r="M26">
+        <v>1512.6</v>
+      </c>
+      <c r="N26">
+        <v>969.8</v>
+      </c>
+      <c r="O26">
+        <v>688.2</v>
+      </c>
+      <c r="P26">
+        <v>609.4</v>
+      </c>
+      <c r="Q26">
+        <v>921.9</v>
+      </c>
+      <c r="R26">
+        <v>947</v>
+      </c>
+      <c r="S26">
+        <v>819.5</v>
+      </c>
+      <c r="T26">
+        <v>1752.7</v>
+      </c>
+      <c r="U26">
+        <v>1795.4</v>
+      </c>
+      <c r="V26">
+        <v>953.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="C26">
-        <f>SUM(C23:C25)</f>
-        <v>6924.3000000000011</v>
-      </c>
-      <c r="D26">
-        <f>SUM(D23:D25)</f>
-        <v>7998.8</v>
-      </c>
-      <c r="E26">
-        <f>SUM(E23:E25)</f>
-        <v>5650.5</v>
-      </c>
-      <c r="F26">
-        <f>SUM(F23:F25)</f>
-        <v>7157.6</v>
-      </c>
-      <c r="G26">
-        <f>SUM(G23:G25)</f>
-        <v>3863.5</v>
-      </c>
-      <c r="H26">
-        <f>SUM(H23:H25)</f>
-        <v>4106</v>
-      </c>
-      <c r="I26">
-        <f>SUM(I23:I25)</f>
-        <v>4096.8999999999996</v>
-      </c>
-      <c r="J26">
-        <f>SUM(J23:J25)</f>
-        <v>8309</v>
-      </c>
-      <c r="K26">
-        <f>SUM(K23:K25)</f>
-        <v>5602.8</v>
-      </c>
-      <c r="L26">
-        <f>SUM(L23:L25)</f>
-        <v>6541.1</v>
-      </c>
-      <c r="M26">
-        <f>SUM(M23:M25)</f>
-        <v>6545.8</v>
-      </c>
-      <c r="N26">
-        <f>SUM(N23:N25)</f>
-        <v>4977.2</v>
-      </c>
-      <c r="O26">
-        <f>SUM(O23:O25)</f>
-        <v>6361.0999999999995</v>
-      </c>
-      <c r="P26">
-        <f>SUM(P23:P25)</f>
-        <v>5612.5</v>
-      </c>
-      <c r="Q26">
-        <f>SUM(Q23:Q25)</f>
-        <v>7560.8</v>
-      </c>
-      <c r="R26">
-        <f>SUM(R23:R25)</f>
-        <v>5474.8</v>
-      </c>
-      <c r="S26">
-        <f>SUM(S23:S25)</f>
-        <v>4699.1000000000004</v>
-      </c>
-      <c r="T26">
-        <f>SUM(T23:T25)</f>
-        <v>4305.1000000000004</v>
-      </c>
-      <c r="U26">
-        <f>SUM(U23:U25)</f>
-        <v>8548.2000000000007</v>
-      </c>
-      <c r="V26">
-        <f>SUM(V23:V25)</f>
-        <v>4039.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C27">
+        <f>SUM(C23:C26)</f>
+        <v>8182.7000000000007</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:V27" si="2">SUM(D23:D26)</f>
+        <v>9053.4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>6794.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>8617.3000000000011</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>4804.1000000000004</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>4892.1000000000004</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>5312.5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>9898.5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>7109.6</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>7520.5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>8058.4</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>5947</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>7049.2999999999993</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>6221.9</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>8482.7000000000007</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>6421.8</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>5518.6</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>6057.8</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>10343.6</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>4993.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>3324.3</v>
-      </c>
-      <c r="D29">
-        <v>2132.4</v>
-      </c>
-      <c r="E29">
-        <v>2487.1</v>
-      </c>
-      <c r="F29">
-        <v>2161.6</v>
-      </c>
-      <c r="G29">
-        <v>2086.1</v>
-      </c>
-      <c r="H29">
-        <v>1912.3</v>
-      </c>
-      <c r="I29">
-        <v>1814.6</v>
-      </c>
-      <c r="J29">
-        <v>1877.9</v>
-      </c>
-      <c r="K29">
-        <v>1936.8</v>
-      </c>
-      <c r="L29">
-        <v>2302.5</v>
-      </c>
-      <c r="M29">
-        <v>1718.3</v>
-      </c>
-      <c r="N29">
-        <v>1814.1</v>
-      </c>
-      <c r="O29">
-        <v>2042.4</v>
-      </c>
-      <c r="P29">
-        <v>2720.6</v>
-      </c>
-      <c r="Q29">
-        <v>2473.3000000000002</v>
-      </c>
-      <c r="R29">
-        <v>1972</v>
-      </c>
-      <c r="S29">
-        <v>1653.6</v>
-      </c>
-      <c r="T29">
-        <v>1506.8</v>
-      </c>
-      <c r="U29">
-        <v>3475.2</v>
-      </c>
-      <c r="V29">
-        <v>2048.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C30">
-        <v>2847.4</v>
+        <v>3324.3</v>
       </c>
       <c r="D30">
-        <v>2405.1</v>
+        <v>2132.4</v>
       </c>
       <c r="E30">
-        <v>2425.4</v>
+        <v>2487.1</v>
       </c>
       <c r="F30">
-        <v>2214.1</v>
+        <v>2161.6</v>
       </c>
       <c r="G30">
-        <v>1702.1</v>
+        <v>2086.1</v>
       </c>
       <c r="H30">
-        <v>2186.4</v>
+        <v>1912.3</v>
       </c>
       <c r="I30">
-        <v>2166.4</v>
+        <v>1814.6</v>
       </c>
       <c r="J30">
-        <v>3530.5</v>
+        <v>1877.9</v>
       </c>
       <c r="K30">
-        <v>2473.8000000000002</v>
+        <v>1936.8</v>
       </c>
       <c r="L30">
-        <v>2755.4</v>
+        <v>2302.5</v>
       </c>
       <c r="M30">
-        <v>2081.5</v>
+        <v>1718.3</v>
       </c>
       <c r="N30">
-        <v>2684.8</v>
+        <v>1814.1</v>
       </c>
       <c r="O30">
-        <v>2529.9</v>
+        <v>2042.4</v>
       </c>
       <c r="P30">
-        <v>2687.2</v>
+        <v>2720.6</v>
       </c>
       <c r="Q30">
-        <v>3031.1</v>
+        <v>2473.3000000000002</v>
       </c>
       <c r="R30">
-        <v>2563.3000000000002</v>
+        <v>1972</v>
       </c>
       <c r="S30">
-        <v>1263.8</v>
+        <v>1653.6</v>
       </c>
       <c r="T30">
-        <v>1915.4</v>
+        <v>1506.8</v>
       </c>
       <c r="U30">
-        <v>3336</v>
+        <v>3475.2</v>
       </c>
       <c r="V30">
-        <v>2190.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2048.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C31">
-        <v>4341.3999999999996</v>
+        <v>2847.4</v>
       </c>
       <c r="D31">
-        <v>2908.5</v>
+        <v>2405.1</v>
       </c>
       <c r="E31">
-        <v>3242.1</v>
+        <v>2425.4</v>
       </c>
       <c r="F31">
-        <v>3390.9</v>
+        <v>2214.1</v>
       </c>
       <c r="G31">
-        <v>2778.5</v>
+        <v>1702.1</v>
       </c>
       <c r="H31">
-        <v>3126.5</v>
+        <v>2186.4</v>
       </c>
       <c r="I31">
-        <v>2187</v>
+        <v>2166.4</v>
       </c>
       <c r="J31">
-        <v>2655.5</v>
+        <v>3530.5</v>
       </c>
       <c r="K31">
-        <v>2917.5</v>
+        <v>2473.8000000000002</v>
       </c>
       <c r="L31">
-        <v>2829</v>
+        <v>2755.4</v>
       </c>
       <c r="M31">
-        <v>3017.6</v>
+        <v>2081.5</v>
       </c>
       <c r="N31">
-        <v>2320</v>
+        <v>2684.8</v>
       </c>
       <c r="O31">
-        <v>2950.4</v>
+        <v>2529.9</v>
       </c>
       <c r="P31">
-        <v>3605.7</v>
+        <v>2687.2</v>
       </c>
       <c r="Q31">
-        <v>3254</v>
+        <v>3031.1</v>
       </c>
       <c r="R31">
-        <v>3318.3</v>
+        <v>2563.3000000000002</v>
       </c>
       <c r="S31">
-        <v>2960.3</v>
+        <v>1263.8</v>
       </c>
       <c r="T31">
-        <v>2693.7</v>
+        <v>1915.4</v>
       </c>
       <c r="U31">
-        <v>3684.1</v>
+        <v>3336</v>
       </c>
       <c r="V31">
-        <v>2993.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2190.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C32">
+        <v>4341.3999999999996</v>
+      </c>
+      <c r="D32">
+        <v>2908.5</v>
+      </c>
+      <c r="E32">
+        <v>3242.1</v>
+      </c>
+      <c r="F32">
+        <v>3390.9</v>
+      </c>
+      <c r="G32">
+        <v>2778.5</v>
+      </c>
+      <c r="H32">
+        <v>3126.5</v>
+      </c>
+      <c r="I32">
+        <v>2187</v>
+      </c>
+      <c r="J32">
+        <v>2655.5</v>
+      </c>
+      <c r="K32">
+        <v>2917.5</v>
+      </c>
+      <c r="L32">
+        <v>2829</v>
+      </c>
+      <c r="M32">
+        <v>3017.6</v>
+      </c>
+      <c r="N32">
+        <v>2320</v>
+      </c>
+      <c r="O32">
+        <v>2950.4</v>
+      </c>
+      <c r="P32">
+        <v>3605.7</v>
+      </c>
+      <c r="Q32">
+        <v>3254</v>
+      </c>
+      <c r="R32">
+        <v>3318.3</v>
+      </c>
+      <c r="S32">
+        <v>2960.3</v>
+      </c>
+      <c r="T32">
+        <v>2693.7</v>
+      </c>
+      <c r="U32">
+        <v>3684.1</v>
+      </c>
+      <c r="V32">
+        <v>2993.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
         <v>7205.1</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>3952.1</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>6595.7</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>5105.3</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>2662.3</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>2698.6</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>3207.1</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>4075.8</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>4548.3</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>5466.3</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>3990.9</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>4682.3</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>4738.2</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <v>4443.8</v>
       </c>
-      <c r="Q32">
+      <c r="Q33">
         <v>4732.8999999999996</v>
       </c>
-      <c r="R32">
+      <c r="R33">
         <v>4265.1000000000004</v>
       </c>
-      <c r="S32">
+      <c r="S33">
         <v>2723.4</v>
       </c>
-      <c r="T32">
+      <c r="T33">
         <v>4069.1</v>
       </c>
-      <c r="U32">
+      <c r="U33">
         <v>4724.1000000000004</v>
       </c>
-      <c r="V32">
+      <c r="V33">
         <v>4765.3</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>3557.5</v>
-      </c>
-      <c r="D33">
-        <v>1677</v>
-      </c>
-      <c r="E33">
-        <v>2460.5</v>
-      </c>
-      <c r="F33">
-        <v>2568.5</v>
-      </c>
-      <c r="G33">
-        <v>1062.3</v>
-      </c>
-      <c r="H33">
-        <v>1348.5</v>
-      </c>
-      <c r="I33">
-        <v>1983</v>
-      </c>
-      <c r="J33">
-        <v>2777</v>
-      </c>
-      <c r="K33">
-        <v>1901</v>
-      </c>
-      <c r="L33">
-        <v>2525.5</v>
-      </c>
-      <c r="M33">
-        <v>2312</v>
-      </c>
-      <c r="N33">
-        <v>2535.6</v>
-      </c>
-      <c r="O33">
-        <v>1769.3</v>
-      </c>
-      <c r="P33">
-        <v>2199.5</v>
-      </c>
-      <c r="Q33">
-        <v>2303</v>
-      </c>
-      <c r="R33">
-        <v>1970.9</v>
-      </c>
-      <c r="S33">
-        <v>1226.5999999999999</v>
-      </c>
-      <c r="T33">
-        <v>1784.6</v>
-      </c>
-      <c r="U33">
-        <v>3109.2</v>
-      </c>
-      <c r="V33">
-        <v>1948.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2418.9</v>
+        <v>3557.5</v>
       </c>
       <c r="D34">
-        <v>2107.1999999999998</v>
+        <v>1677</v>
       </c>
       <c r="E34">
-        <v>2105.6999999999998</v>
+        <v>2460.5</v>
       </c>
       <c r="F34">
-        <v>1933.1</v>
+        <v>2568.5</v>
       </c>
       <c r="G34">
-        <v>1560.6</v>
+        <v>1062.3</v>
       </c>
       <c r="H34">
-        <v>1674.1</v>
+        <v>1348.5</v>
       </c>
       <c r="I34">
-        <v>1445.6</v>
+        <v>1983</v>
       </c>
       <c r="J34">
-        <v>1577.1</v>
+        <v>2777</v>
       </c>
       <c r="K34">
-        <v>1772.3</v>
+        <v>1901</v>
       </c>
       <c r="L34">
-        <v>1732.3</v>
+        <v>2525.5</v>
       </c>
       <c r="M34">
-        <v>1642.4</v>
+        <v>2312</v>
       </c>
       <c r="N34">
-        <v>1380.9</v>
+        <v>2535.6</v>
       </c>
       <c r="O34">
-        <v>1973.8</v>
+        <v>1769.3</v>
       </c>
       <c r="P34">
-        <v>2510.6</v>
+        <v>2199.5</v>
       </c>
       <c r="Q34">
-        <v>2118.1999999999998</v>
+        <v>2303</v>
       </c>
       <c r="R34">
-        <v>1867.8</v>
+        <v>1970.9</v>
       </c>
       <c r="S34">
-        <v>1194.2</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="T34">
-        <v>1222.8</v>
+        <v>1784.6</v>
       </c>
       <c r="U34">
-        <v>2852.5</v>
+        <v>3109.2</v>
       </c>
       <c r="V34">
-        <v>1971.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1948.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
       </c>
       <c r="C35">
+        <v>2418.9</v>
+      </c>
+      <c r="D35">
+        <v>2107.1999999999998</v>
+      </c>
+      <c r="E35">
+        <v>2105.6999999999998</v>
+      </c>
+      <c r="F35">
+        <v>1933.1</v>
+      </c>
+      <c r="G35">
+        <v>1560.6</v>
+      </c>
+      <c r="H35">
+        <v>1674.1</v>
+      </c>
+      <c r="I35">
+        <v>1445.6</v>
+      </c>
+      <c r="J35">
+        <v>1577.1</v>
+      </c>
+      <c r="K35">
+        <v>1772.3</v>
+      </c>
+      <c r="L35">
+        <v>1732.3</v>
+      </c>
+      <c r="M35">
+        <v>1642.4</v>
+      </c>
+      <c r="N35">
+        <v>1380.9</v>
+      </c>
+      <c r="O35">
+        <v>1973.8</v>
+      </c>
+      <c r="P35">
+        <v>2510.6</v>
+      </c>
+      <c r="Q35">
+        <v>2118.1999999999998</v>
+      </c>
+      <c r="R35">
+        <v>1867.8</v>
+      </c>
+      <c r="S35">
+        <v>1194.2</v>
+      </c>
+      <c r="T35">
+        <v>1222.8</v>
+      </c>
+      <c r="U35">
+        <v>2852.5</v>
+      </c>
+      <c r="V35">
+        <v>1971.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
         <v>4945.3</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>2196.9</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>4211.8</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>3521.9</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>1651.3</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>1412.7</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>2556.5</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>3329.8</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>2730.4</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>3115.1</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <v>2846</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>2930.2</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>2542.4</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <v>2781.9</v>
       </c>
-      <c r="Q35">
+      <c r="Q36">
         <v>2916.1</v>
       </c>
-      <c r="R35">
+      <c r="R36">
         <v>2552.8000000000002</v>
       </c>
-      <c r="S35">
+      <c r="S36">
         <v>2095</v>
       </c>
-      <c r="T35">
+      <c r="T36">
         <v>2579.4</v>
       </c>
-      <c r="U35">
+      <c r="U36">
         <v>2678</v>
       </c>
-      <c r="V35">
+      <c r="V36">
         <v>3327.9</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="C36">
-        <f>SUM(C29:C35)</f>
+      <c r="C37">
+        <f t="shared" ref="C37:V37" si="3">SUM(C30:C36)</f>
         <v>28639.9</v>
       </c>
-      <c r="D36">
-        <f>SUM(D29:D35)</f>
+      <c r="D37">
+        <f t="shared" si="3"/>
         <v>17379.2</v>
       </c>
-      <c r="E36">
-        <f>SUM(E29:E35)</f>
+      <c r="E37">
+        <f t="shared" si="3"/>
         <v>23528.3</v>
       </c>
-      <c r="F36">
-        <f>SUM(F29:F35)</f>
+      <c r="F37">
+        <f t="shared" si="3"/>
         <v>20895.400000000001</v>
       </c>
-      <c r="G36">
-        <f>SUM(G29:G35)</f>
+      <c r="G37">
+        <f t="shared" si="3"/>
         <v>13503.199999999999</v>
       </c>
-      <c r="H36">
-        <f>SUM(H29:H35)</f>
+      <c r="H37">
+        <f t="shared" si="3"/>
         <v>14359.1</v>
       </c>
-      <c r="I36">
-        <f>SUM(I29:I35)</f>
+      <c r="I37">
+        <f t="shared" si="3"/>
         <v>15360.2</v>
       </c>
-      <c r="J36">
-        <f>SUM(J29:J35)</f>
+      <c r="J37">
+        <f t="shared" si="3"/>
         <v>19823.599999999999</v>
       </c>
-      <c r="K36">
-        <f>SUM(K29:K35)</f>
+      <c r="K37">
+        <f t="shared" si="3"/>
         <v>18280.100000000002</v>
       </c>
-      <c r="L36">
-        <f>SUM(L29:L35)</f>
+      <c r="L37">
+        <f t="shared" si="3"/>
         <v>20726.099999999999</v>
       </c>
-      <c r="M36">
-        <f>SUM(M29:M35)</f>
+      <c r="M37">
+        <f t="shared" si="3"/>
         <v>17608.699999999997</v>
       </c>
-      <c r="N36">
-        <f>SUM(N29:N35)</f>
+      <c r="N37">
+        <f t="shared" si="3"/>
         <v>18347.900000000001</v>
       </c>
-      <c r="O36">
-        <f>SUM(O29:O35)</f>
+      <c r="O37">
+        <f t="shared" si="3"/>
         <v>18546.400000000001</v>
       </c>
-      <c r="P36">
-        <f>SUM(P29:P35)</f>
+      <c r="P37">
+        <f t="shared" si="3"/>
         <v>20949.3</v>
       </c>
-      <c r="Q36">
-        <f>SUM(Q29:Q35)</f>
+      <c r="Q37">
+        <f t="shared" si="3"/>
         <v>20828.599999999999</v>
       </c>
-      <c r="R36">
-        <f>SUM(R29:R35)</f>
+      <c r="R37">
+        <f t="shared" si="3"/>
         <v>18510.2</v>
       </c>
-      <c r="S36">
-        <f>SUM(S29:S35)</f>
+      <c r="S37">
+        <f t="shared" si="3"/>
         <v>13116.900000000001</v>
       </c>
-      <c r="T36">
-        <f>SUM(T29:T35)</f>
+      <c r="T37">
+        <f t="shared" si="3"/>
         <v>15771.8</v>
       </c>
-      <c r="U36">
-        <f>SUM(U29:U35)</f>
+      <c r="U37">
+        <f t="shared" si="3"/>
         <v>23859.1</v>
       </c>
-      <c r="V36">
-        <f>SUM(V29:V35)</f>
+      <c r="V37">
+        <f t="shared" si="3"/>
         <v>19246.100000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>1689.3</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>1309.2</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>1023.3</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>1270</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>769.5</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>619.5</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>1457.5</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>1781</v>
       </c>
-      <c r="K39">
+      <c r="K40">
         <v>1244.5</v>
       </c>
-      <c r="L39">
+      <c r="L40">
         <v>1065.8</v>
       </c>
-      <c r="M39">
+      <c r="M40">
         <v>1096.9000000000001</v>
       </c>
-      <c r="N39">
+      <c r="N40">
         <v>1197.3</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>770.2</v>
       </c>
-      <c r="P39">
+      <c r="P40">
         <v>933</v>
       </c>
-      <c r="Q39">
+      <c r="Q40">
         <v>895</v>
       </c>
-      <c r="R39">
+      <c r="R40">
         <v>970.8</v>
       </c>
-      <c r="S39">
+      <c r="S40">
         <v>658</v>
       </c>
-      <c r="T39">
+      <c r="T40">
         <v>1468.8</v>
       </c>
-      <c r="U39">
+      <c r="U40">
         <v>1922.1</v>
       </c>
-      <c r="V39">
+      <c r="V40">
         <v>815</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40">
-        <v>935</v>
-      </c>
-      <c r="J40">
-        <v>1502</v>
-      </c>
-      <c r="K40">
-        <v>1544.5</v>
-      </c>
-      <c r="L40">
-        <v>994.1</v>
-      </c>
-      <c r="M40">
-        <v>1025.2</v>
-      </c>
-      <c r="N40">
-        <v>884.3</v>
-      </c>
-      <c r="O40">
-        <v>972.6</v>
-      </c>
-      <c r="P40">
-        <v>780.3</v>
-      </c>
-      <c r="Q40">
-        <v>893</v>
-      </c>
-      <c r="R40">
-        <v>1400.8</v>
-      </c>
-      <c r="S40">
-        <v>905.8</v>
-      </c>
-      <c r="T40">
-        <v>1109.5999999999999</v>
-      </c>
-      <c r="U40">
-        <v>1873.1</v>
-      </c>
-      <c r="V40">
-        <v>649.20000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>27</v>
       </c>
       <c r="B41" t="s">
         <v>31</v>
       </c>
       <c r="I41">
-        <v>1015.8</v>
+        <v>935</v>
       </c>
       <c r="J41">
-        <v>1208</v>
+        <v>1502</v>
       </c>
       <c r="K41">
-        <v>1468.5</v>
+        <v>1544.5</v>
       </c>
       <c r="L41">
-        <v>1088.7</v>
+        <v>994.1</v>
       </c>
       <c r="M41">
-        <v>1059</v>
+        <v>1025.2</v>
       </c>
       <c r="N41">
-        <v>1170.5999999999999</v>
+        <v>884.3</v>
       </c>
       <c r="O41">
-        <v>1206.2</v>
+        <v>972.6</v>
       </c>
       <c r="P41">
-        <v>792.8</v>
+        <v>780.3</v>
       </c>
       <c r="Q41">
-        <v>1914.4</v>
+        <v>893</v>
       </c>
       <c r="R41">
-        <v>1033.4000000000001</v>
+        <v>1400.8</v>
       </c>
       <c r="S41">
-        <v>908.2</v>
+        <v>905.8</v>
       </c>
       <c r="T41">
-        <v>1026.8</v>
+        <v>1109.5999999999999</v>
       </c>
       <c r="U41">
-        <v>1354.9</v>
+        <v>1873.1</v>
       </c>
       <c r="V41">
-        <v>1250.5999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+        <v>649.20000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42">
-        <v>1258.4000000000001</v>
-      </c>
-      <c r="D42">
-        <v>1054.5999999999999</v>
-      </c>
-      <c r="E42">
-        <v>1144</v>
-      </c>
-      <c r="F42">
-        <v>1459.7</v>
-      </c>
-      <c r="G42">
-        <v>940.6</v>
-      </c>
-      <c r="H42">
-        <v>786.1</v>
-      </c>
       <c r="I42">
-        <v>1215.5999999999999</v>
+        <v>1015.8</v>
       </c>
       <c r="J42">
-        <v>1589.5</v>
+        <v>1208</v>
       </c>
       <c r="K42">
-        <v>1506.8</v>
+        <v>1468.5</v>
       </c>
       <c r="L42">
-        <v>979.4</v>
+        <v>1088.7</v>
       </c>
       <c r="M42">
-        <v>1512.6</v>
+        <v>1059</v>
       </c>
       <c r="N42">
-        <v>969.8</v>
+        <v>1170.5999999999999</v>
       </c>
       <c r="O42">
-        <v>688.2</v>
+        <v>1206.2</v>
       </c>
       <c r="P42">
-        <v>609.4</v>
+        <v>792.8</v>
       </c>
       <c r="Q42">
-        <v>921.9</v>
+        <v>1914.4</v>
       </c>
       <c r="R42">
-        <v>947</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="S42">
-        <v>819.5</v>
+        <v>908.2</v>
       </c>
       <c r="T42">
-        <v>1752.7</v>
+        <v>1026.8</v>
       </c>
       <c r="U42">
-        <v>1795.4</v>
+        <v>1354.9</v>
       </c>
       <c r="V42">
-        <v>953.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1250.5999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
       <c r="C43">
-        <f>SUM(C39:C42)</f>
-        <v>2947.7</v>
+        <f>SUM(C40:C42)</f>
+        <v>1689.3</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:I43" si="0">SUM(D39:D42)</f>
-        <v>2363.8000000000002</v>
+        <f>SUM(D40:D42)</f>
+        <v>1309.2</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>2167.3000000000002</v>
+        <f>SUM(E40:E42)</f>
+        <v>1023.3</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>2729.7</v>
+        <f>SUM(F40:F42)</f>
+        <v>1270</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
-        <v>1710.1</v>
+        <f>SUM(G40:G42)</f>
+        <v>769.5</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
-        <v>1405.6</v>
+        <f>SUM(H40:H42)</f>
+        <v>619.5</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
-        <v>4623.8999999999996</v>
+        <f>SUM(I40:I42)</f>
+        <v>3408.3</v>
       </c>
       <c r="J43">
-        <f t="shared" ref="J43" si="1">SUM(J39:J42)</f>
-        <v>6080.5</v>
+        <f>SUM(J40:J42)</f>
+        <v>4491</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43" si="2">SUM(K39:K42)</f>
-        <v>5764.3</v>
+        <f>SUM(K40:K42)</f>
+        <v>4257.5</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43" si="3">SUM(L39:L42)</f>
-        <v>4128</v>
+        <f>SUM(L40:L42)</f>
+        <v>3148.6000000000004</v>
       </c>
       <c r="M43">
-        <f t="shared" ref="M43" si="4">SUM(M39:M42)</f>
-        <v>4693.7000000000007</v>
+        <f>SUM(M40:M42)</f>
+        <v>3181.1000000000004</v>
       </c>
       <c r="N43">
-        <f t="shared" ref="N43" si="5">SUM(N39:N42)</f>
-        <v>4222</v>
+        <f>SUM(N40:N42)</f>
+        <v>3252.2</v>
       </c>
       <c r="O43">
-        <f t="shared" ref="O43" si="6">SUM(O39:O42)</f>
-        <v>3637.2</v>
+        <f>SUM(O40:O42)</f>
+        <v>2949</v>
       </c>
       <c r="P43">
-        <f t="shared" ref="P43" si="7">SUM(P39:P42)</f>
-        <v>3115.5</v>
+        <f>SUM(P40:P42)</f>
+        <v>2506.1</v>
       </c>
       <c r="Q43">
-        <f t="shared" ref="Q43" si="8">SUM(Q39:Q42)</f>
-        <v>4624.3</v>
+        <f>SUM(Q40:Q42)</f>
+        <v>3702.4</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43" si="9">SUM(R39:R42)</f>
-        <v>4352</v>
+        <f>SUM(R40:R42)</f>
+        <v>3405</v>
       </c>
       <c r="S43">
-        <f t="shared" ref="S43" si="10">SUM(S39:S42)</f>
-        <v>3291.5</v>
+        <f>SUM(S40:S42)</f>
+        <v>2472</v>
       </c>
       <c r="T43">
-        <f t="shared" ref="T43" si="11">SUM(T39:T42)</f>
-        <v>5357.9</v>
+        <f>SUM(T40:T42)</f>
+        <v>3605.2</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43" si="12">SUM(U39:U42)</f>
-        <v>6945.5</v>
+        <f>SUM(U40:U42)</f>
+        <v>5150.1000000000004</v>
       </c>
       <c r="V43">
-        <f t="shared" ref="V43" si="13">SUM(V39:V42)</f>
-        <v>3668.6000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(V40:V42)</f>
+        <v>2714.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -12508,7 +12491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -12525,7 +12508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -12542,7 +12525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -12559,21 +12542,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -12584,7 +12567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -12595,7 +12578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -12603,12 +12586,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>

--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="150" windowWidth="19170" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="150" windowWidth="19170" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20181103year_gp2" sheetId="1" r:id="rId1"/>
     <sheet name="20181103year_gp3" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
     <sheet name="區域整理" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1006,11 +1007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45667328"/>
-        <c:axId val="136383296"/>
+        <c:axId val="262046720"/>
+        <c:axId val="227264768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45667328"/>
+        <c:axId val="262046720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1030,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136383296"/>
+        <c:crossAx val="227264768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1037,7 +1038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136383296"/>
+        <c:axId val="227264768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1059,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45667328"/>
+        <c:crossAx val="262046720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,6 +1078,284 @@
           <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>台灣地區歷年各區降雨量平均</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'20181103year_gp3'!$C$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20181103year_gp3'!$C$31:$V$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2806.3689655172411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1825.8344827586204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2331.1344827586204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2363.4344827586201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1502.6689655172415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1376.8034482758617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2264.3931034482757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2881.5034482758624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2541.1827586206891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2682.5689655172414</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2609.6448275862062</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2104.4896551724132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2205.251724137931</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2114.2344827586207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2666.6482758620691</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2474.5448275862068</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1804.4448275862069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1982.4655172413793</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2757.7758620689651</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2294.1034482758614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="332296192"/>
+        <c:axId val="338879040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="332296192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338879040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338879040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="332296192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1109,6 +1388,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="圖表 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1414,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C546"/>
   <sheetViews>
-    <sheetView topLeftCell="A523" workbookViewId="0">
+    <sheetView topLeftCell="A481" workbookViewId="0">
       <selection activeCell="D547" sqref="D547"/>
     </sheetView>
   </sheetViews>
@@ -7436,8 +7752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12394,83 +12710,83 @@
         <v>54</v>
       </c>
       <c r="C43">
-        <f>SUM(C40:C42)</f>
+        <f t="shared" ref="C43:V43" si="4">SUM(C40:C42)</f>
         <v>1689.3</v>
       </c>
       <c r="D43">
-        <f>SUM(D40:D42)</f>
+        <f t="shared" si="4"/>
         <v>1309.2</v>
       </c>
       <c r="E43">
-        <f>SUM(E40:E42)</f>
+        <f t="shared" si="4"/>
         <v>1023.3</v>
       </c>
       <c r="F43">
-        <f>SUM(F40:F42)</f>
+        <f t="shared" si="4"/>
         <v>1270</v>
       </c>
       <c r="G43">
-        <f>SUM(G40:G42)</f>
+        <f t="shared" si="4"/>
         <v>769.5</v>
       </c>
       <c r="H43">
-        <f>SUM(H40:H42)</f>
+        <f t="shared" si="4"/>
         <v>619.5</v>
       </c>
       <c r="I43">
-        <f>SUM(I40:I42)</f>
+        <f t="shared" si="4"/>
         <v>3408.3</v>
       </c>
       <c r="J43">
-        <f>SUM(J40:J42)</f>
+        <f t="shared" si="4"/>
         <v>4491</v>
       </c>
       <c r="K43">
-        <f>SUM(K40:K42)</f>
+        <f t="shared" si="4"/>
         <v>4257.5</v>
       </c>
       <c r="L43">
-        <f>SUM(L40:L42)</f>
+        <f t="shared" si="4"/>
         <v>3148.6000000000004</v>
       </c>
       <c r="M43">
-        <f>SUM(M40:M42)</f>
+        <f t="shared" si="4"/>
         <v>3181.1000000000004</v>
       </c>
       <c r="N43">
-        <f>SUM(N40:N42)</f>
+        <f t="shared" si="4"/>
         <v>3252.2</v>
       </c>
       <c r="O43">
-        <f>SUM(O40:O42)</f>
+        <f t="shared" si="4"/>
         <v>2949</v>
       </c>
       <c r="P43">
-        <f>SUM(P40:P42)</f>
+        <f t="shared" si="4"/>
         <v>2506.1</v>
       </c>
       <c r="Q43">
-        <f>SUM(Q40:Q42)</f>
+        <f t="shared" si="4"/>
         <v>3702.4</v>
       </c>
       <c r="R43">
-        <f>SUM(R40:R42)</f>
+        <f t="shared" si="4"/>
         <v>3405</v>
       </c>
       <c r="S43">
-        <f>SUM(S40:S42)</f>
+        <f t="shared" si="4"/>
         <v>2472</v>
       </c>
       <c r="T43">
-        <f>SUM(T40:T42)</f>
+        <f t="shared" si="4"/>
         <v>3605.2</v>
       </c>
       <c r="U43">
-        <f>SUM(U40:U42)</f>
+        <f t="shared" si="4"/>
         <v>5150.1000000000004</v>
       </c>
       <c r="V43">
-        <f>SUM(V40:V42)</f>
+        <f t="shared" si="4"/>
         <v>2714.8</v>
       </c>
     </row>
@@ -12601,4 +12917,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="150" windowWidth="19170" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="396" yWindow="156" windowWidth="19176" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181103year_gp2" sheetId="1" r:id="rId1"/>
     <sheet name="20181103year_gp3" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
     <sheet name="區域整理" sheetId="5" r:id="rId4"/>
-    <sheet name="工作表2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="67">
   <si>
     <t>阿里山</t>
   </si>
@@ -155,10 +154,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>全台各測站平均</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>北部</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -176,10 +171,6 @@
   </si>
   <si>
     <t>離島</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>區域</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -212,6 +203,58 @@
   </si>
   <si>
     <t>縣市</t>
+  </si>
+  <si>
+    <t>「地區分色」(Y軸請勿選取)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市(可搭配Color選取「地區分色」)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域(可搭配Color選取「地區分色」)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域(可搭配Color選取「地區分色」)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域(可搭配Color選取「地區分色」)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市(可搭配Color選取「地區分色」)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基準線</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>「地區分色」(Y軸請勿選取)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>「地區分色」(Y軸請勿選取)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他測站</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他測站</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全台各測站平均</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全台各測站平均</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1007,11 +1050,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="262046720"/>
-        <c:axId val="227264768"/>
+        <c:axId val="133818880"/>
+        <c:axId val="266108224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262046720"/>
+        <c:axId val="133818880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1073,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227264768"/>
+        <c:crossAx val="266108224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1038,7 +1081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227264768"/>
+        <c:axId val="266108224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1102,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262046720"/>
+        <c:crossAx val="133818880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,284 +1121,6 @@
           <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
-              <a:t>台灣地區歷年各區降雨量平均</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>'20181103year_gp3'!$C$1:$V$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'20181103year_gp3'!$C$31:$V$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2806.3689655172411</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1825.8344827586204</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2331.1344827586204</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2363.4344827586201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1502.6689655172415</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1376.8034482758617</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2264.3931034482757</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2881.5034482758624</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2541.1827586206891</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2682.5689655172414</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2609.6448275862062</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2104.4896551724132</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2205.251724137931</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2114.2344827586207</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2666.6482758620691</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2474.5448275862068</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1804.4448275862069</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1982.4655172413793</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2757.7758620689651</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2294.1034482758614</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="332296192"/>
-        <c:axId val="338879040"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="332296192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338879040"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="338879040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="332296192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1388,43 +1153,6 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="圖表 1"/>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1730,13 +1458,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C546"/>
   <sheetViews>
-    <sheetView topLeftCell="A481" workbookViewId="0">
+    <sheetView topLeftCell="A445" workbookViewId="0">
       <selection activeCell="D547" sqref="D547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1747,7 +1475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1998</v>
       </c>
@@ -1758,7 +1486,7 @@
         <v>4364.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -1769,7 +1497,7 @@
         <v>6046.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1998</v>
       </c>
@@ -1780,7 +1508,7 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -1791,7 +1519,7 @@
         <v>2446.6999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1802,7 +1530,7 @@
         <v>2847.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -1813,7 +1541,7 @@
         <v>1689.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1998</v>
       </c>
@@ -1824,7 +1552,7 @@
         <v>2650.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1998</v>
       </c>
@@ -1835,7 +1563,7 @@
         <v>2088.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -1846,7 +1574,7 @@
         <v>3557.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1998</v>
       </c>
@@ -1857,7 +1585,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -1868,7 +1596,7 @@
         <v>5438.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1998</v>
       </c>
@@ -1879,7 +1607,7 @@
         <v>4341.3999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -1890,7 +1618,7 @@
         <v>1258.4000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -1901,7 +1629,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1998</v>
       </c>
@@ -1912,7 +1640,7 @@
         <v>7205.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -1923,7 +1651,7 @@
         <v>3063.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -1934,7 +1662,7 @@
         <v>2177.3000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1998</v>
       </c>
@@ -1945,7 +1673,7 @@
         <v>1840.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -1956,7 +1684,7 @@
         <v>4404.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -1967,7 +1695,7 @@
         <v>2418.9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1998</v>
       </c>
@@ -1978,7 +1706,7 @@
         <v>2865.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1989,7 +1717,7 @@
         <v>1605.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1998</v>
       </c>
@@ -2000,7 +1728,7 @@
         <v>4945.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1998</v>
       </c>
@@ -2011,7 +1739,7 @@
         <v>5828.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1999</v>
       </c>
@@ -2022,7 +1750,7 @@
         <v>3074.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1999</v>
       </c>
@@ -2033,7 +1761,7 @@
         <v>3788.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1999</v>
       </c>
@@ -2044,7 +1772,7 @@
         <v>2132.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1999</v>
       </c>
@@ -2055,7 +1783,7 @@
         <v>1603.6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -2066,7 +1794,7 @@
         <v>2405.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1999</v>
       </c>
@@ -2077,7 +1805,7 @@
         <v>1309.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1999</v>
       </c>
@@ -2088,7 +1816,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1999</v>
       </c>
@@ -2099,7 +1827,7 @@
         <v>1157.0999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -2110,7 +1838,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1999</v>
       </c>
@@ -2121,7 +1849,7 @@
         <v>2763.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1999</v>
       </c>
@@ -2132,7 +1860,7 @@
         <v>2746.7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1999</v>
       </c>
@@ -2143,7 +1871,7 @@
         <v>2908.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1999</v>
       </c>
@@ -2154,7 +1882,7 @@
         <v>1054.5999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1999</v>
       </c>
@@ -2165,7 +1893,7 @@
         <v>1312.8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1999</v>
       </c>
@@ -2176,7 +1904,7 @@
         <v>3952.1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1999</v>
       </c>
@@ -2187,7 +1915,7 @@
         <v>2333.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1999</v>
       </c>
@@ -2198,7 +1926,7 @@
         <v>1390.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1999</v>
       </c>
@@ -2209,7 +1937,7 @@
         <v>2135.1999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1999</v>
       </c>
@@ -2220,7 +1948,7 @@
         <v>1958.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1999</v>
       </c>
@@ -2231,7 +1959,7 @@
         <v>2107.1999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1999</v>
       </c>
@@ -2242,7 +1970,7 @@
         <v>1373.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1999</v>
       </c>
@@ -2253,7 +1981,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1999</v>
       </c>
@@ -2264,7 +1992,7 @@
         <v>2196.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1999</v>
       </c>
@@ -2275,7 +2003,7 @@
         <v>3495.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2000</v>
       </c>
@@ -2286,7 +2014,7 @@
         <v>3093.4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -2297,7 +2025,7 @@
         <v>6592.5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2000</v>
       </c>
@@ -2308,7 +2036,7 @@
         <v>2487.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2000</v>
       </c>
@@ -2319,7 +2047,7 @@
         <v>1351.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2000</v>
       </c>
@@ -2330,7 +2058,7 @@
         <v>2425.4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2000</v>
       </c>
@@ -2341,7 +2069,7 @@
         <v>1023.3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2000</v>
       </c>
@@ -2352,7 +2080,7 @@
         <v>2327.1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2000</v>
       </c>
@@ -2363,7 +2091,7 @@
         <v>1756.1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2000</v>
       </c>
@@ -2374,7 +2102,7 @@
         <v>2460.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2000</v>
       </c>
@@ -2385,7 +2113,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2000</v>
       </c>
@@ -2396,7 +2124,7 @@
         <v>5404.4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2000</v>
       </c>
@@ -2407,7 +2135,7 @@
         <v>3242.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2000</v>
       </c>
@@ -2418,7 +2146,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2000</v>
       </c>
@@ -2429,7 +2157,7 @@
         <v>2435.9</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2000</v>
       </c>
@@ -2440,7 +2168,7 @@
         <v>6595.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2000</v>
       </c>
@@ -2451,7 +2179,7 @@
         <v>1955.4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2000</v>
       </c>
@@ -2462,7 +2190,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2000</v>
       </c>
@@ -2473,7 +2201,7 @@
         <v>1754.4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2000</v>
       </c>
@@ -2484,7 +2212,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2000</v>
       </c>
@@ -2495,7 +2223,7 @@
         <v>2105.6999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2000</v>
       </c>
@@ -2506,7 +2234,7 @@
         <v>2643.7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2000</v>
       </c>
@@ -2517,7 +2245,7 @@
         <v>1244.7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2000</v>
       </c>
@@ -2528,7 +2256,7 @@
         <v>4211.8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2000</v>
       </c>
@@ -2539,7 +2267,7 @@
         <v>5238.2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2001</v>
       </c>
@@ -2550,7 +2278,7 @@
         <v>4017.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2001</v>
       </c>
@@ -2561,7 +2289,7 @@
         <v>5714.2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2001</v>
       </c>
@@ -2572,7 +2300,7 @@
         <v>2161.6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2001</v>
       </c>
@@ -2583,7 +2311,7 @@
         <v>2979.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2001</v>
       </c>
@@ -2594,7 +2322,7 @@
         <v>2214.1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2001</v>
       </c>
@@ -2605,7 +2333,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2001</v>
       </c>
@@ -2616,7 +2344,7 @@
         <v>2494.6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2001</v>
       </c>
@@ -2627,7 +2355,7 @@
         <v>2293.1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2001</v>
       </c>
@@ -2638,7 +2366,7 @@
         <v>2568.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2001</v>
       </c>
@@ -2649,7 +2377,7 @@
         <v>2556.5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2001</v>
       </c>
@@ -2660,7 +2388,7 @@
         <v>3642.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2001</v>
       </c>
@@ -2671,7 +2399,7 @@
         <v>3390.9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2001</v>
       </c>
@@ -2682,7 +2410,7 @@
         <v>1459.7</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2001</v>
       </c>
@@ -2693,7 +2421,7 @@
         <v>2352.3000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2001</v>
       </c>
@@ -2704,7 +2432,7 @@
         <v>5105.3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2001</v>
       </c>
@@ -2715,7 +2443,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2001</v>
       </c>
@@ -2726,7 +2454,7 @@
         <v>1981.2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2001</v>
       </c>
@@ -2737,7 +2465,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2001</v>
       </c>
@@ -2748,7 +2476,7 @@
         <v>2862.1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2001</v>
       </c>
@@ -2759,7 +2487,7 @@
         <v>1933.1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2001</v>
       </c>
@@ -2770,7 +2498,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2001</v>
       </c>
@@ -2781,7 +2509,7 @@
         <v>1949.1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2001</v>
       </c>
@@ -2792,7 +2520,7 @@
         <v>3521.9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2001</v>
       </c>
@@ -2803,7 +2531,7 @@
         <v>5080.1000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2002</v>
       </c>
@@ -2814,7 +2542,7 @@
         <v>2196.5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2002</v>
       </c>
@@ -2825,7 +2553,7 @@
         <v>3113.7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2002</v>
       </c>
@@ -2836,7 +2564,7 @@
         <v>1325.7</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2002</v>
       </c>
@@ -2847,7 +2575,7 @@
         <v>2086.1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2002</v>
       </c>
@@ -2858,7 +2586,7 @@
         <v>1392.1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2002</v>
       </c>
@@ -2869,7 +2597,7 @@
         <v>1702.1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2002</v>
       </c>
@@ -2880,7 +2608,7 @@
         <v>769.5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2002</v>
       </c>
@@ -2891,7 +2619,7 @@
         <v>1613.9</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2002</v>
       </c>
@@ -2902,7 +2630,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2002</v>
       </c>
@@ -2913,7 +2641,7 @@
         <v>1062.3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2002</v>
       </c>
@@ -2924,7 +2652,7 @@
         <v>1037.5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2002</v>
       </c>
@@ -2935,7 +2663,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2002</v>
       </c>
@@ -2946,7 +2674,7 @@
         <v>2778.5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2002</v>
       </c>
@@ -2957,7 +2685,7 @@
         <v>940.6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2002</v>
       </c>
@@ -2968,7 +2696,7 @@
         <v>1965.1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2002</v>
       </c>
@@ -2979,7 +2707,7 @@
         <v>2662.3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2002</v>
       </c>
@@ -2990,7 +2718,7 @@
         <v>1455.8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2002</v>
       </c>
@@ -3001,7 +2729,7 @@
         <v>1315.6</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2002</v>
       </c>
@@ -3012,7 +2740,7 @@
         <v>1212.0999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2002</v>
       </c>
@@ -3023,7 +2751,7 @@
         <v>1346.4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2002</v>
       </c>
@@ -3034,7 +2762,7 @@
         <v>1560.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2002</v>
       </c>
@@ -3045,7 +2773,7 @@
         <v>1177.8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2002</v>
       </c>
@@ -3056,7 +2784,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2002</v>
       </c>
@@ -3067,7 +2795,7 @@
         <v>1651.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2002</v>
       </c>
@@ -3078,7 +2806,7 @@
         <v>1702.7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2002</v>
       </c>
@@ -3089,7 +2817,7 @@
         <v>2730.9</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2003</v>
       </c>
@@ -3100,7 +2828,7 @@
         <v>2298.8000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2003</v>
       </c>
@@ -3111,7 +2839,7 @@
         <v>2514.1999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2003</v>
       </c>
@@ -3122,7 +2850,7 @@
         <v>1191.2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2003</v>
       </c>
@@ -3133,7 +2861,7 @@
         <v>1912.3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2003</v>
       </c>
@@ -3144,7 +2872,7 @@
         <v>941.1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2003</v>
       </c>
@@ -3155,7 +2883,7 @@
         <v>2186.4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2003</v>
       </c>
@@ -3166,7 +2894,7 @@
         <v>619.5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2003</v>
       </c>
@@ -3177,7 +2905,7 @@
         <v>1881.5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2003</v>
       </c>
@@ -3188,7 +2916,7 @@
         <v>877.7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2003</v>
       </c>
@@ -3199,7 +2927,7 @@
         <v>1348.5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2003</v>
       </c>
@@ -3210,7 +2938,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2003</v>
       </c>
@@ -3221,7 +2949,7 @@
         <v>2155.8000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2003</v>
       </c>
@@ -3232,7 +2960,7 @@
         <v>3126.5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2003</v>
       </c>
@@ -3243,7 +2971,7 @@
         <v>786.1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2003</v>
       </c>
@@ -3254,7 +2982,7 @@
         <v>871.3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2003</v>
       </c>
@@ -3265,7 +2993,7 @@
         <v>2698.6</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2003</v>
       </c>
@@ -3276,7 +3004,7 @@
         <v>1479.2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2003</v>
       </c>
@@ -3287,7 +3015,7 @@
         <v>930.6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2003</v>
       </c>
@@ -3298,7 +3026,7 @@
         <v>898.5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2003</v>
       </c>
@@ -3309,7 +3037,7 @@
         <v>1192.5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2003</v>
       </c>
@@ -3320,7 +3048,7 @@
         <v>1674.1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2003</v>
       </c>
@@ -3331,7 +3059,7 @@
         <v>967.6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2003</v>
       </c>
@@ -3342,7 +3070,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2003</v>
       </c>
@@ -3353,7 +3081,7 @@
         <v>1412.7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2003</v>
       </c>
@@ -3364,7 +3092,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2003</v>
       </c>
@@ -3375,7 +3103,7 @@
         <v>2400.6</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2004</v>
       </c>
@@ -3386,7 +3114,7 @@
         <v>4192.3999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2004</v>
       </c>
@@ -3397,7 +3125,7 @@
         <v>5976.6</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2004</v>
       </c>
@@ -3408,7 +3136,7 @@
         <v>2992.3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2004</v>
       </c>
@@ -3419,7 +3147,7 @@
         <v>1814.6</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2004</v>
       </c>
@@ -3430,7 +3158,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2004</v>
       </c>
@@ -3441,7 +3169,7 @@
         <v>2166.4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2004</v>
       </c>
@@ -3452,7 +3180,7 @@
         <v>1457.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2004</v>
       </c>
@@ -3463,7 +3191,7 @@
         <v>1549.5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2004</v>
       </c>
@@ -3474,7 +3202,7 @@
         <v>2261.8000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2004</v>
       </c>
@@ -3485,7 +3213,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2004</v>
       </c>
@@ -3496,7 +3224,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2004</v>
       </c>
@@ -3507,7 +3235,7 @@
         <v>3886.2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2004</v>
       </c>
@@ -3518,7 +3246,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2004</v>
       </c>
@@ -3529,7 +3257,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2004</v>
       </c>
@@ -3540,7 +3268,7 @@
         <v>1015.8</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2004</v>
       </c>
@@ -3551,7 +3279,7 @@
         <v>1215.5999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2004</v>
       </c>
@@ -3562,7 +3290,7 @@
         <v>1927.4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2004</v>
       </c>
@@ -3573,7 +3301,7 @@
         <v>3207.1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2004</v>
       </c>
@@ -3584,7 +3312,7 @@
         <v>2404.8000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2004</v>
       </c>
@@ -3595,7 +3323,7 @@
         <v>2260.6999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2004</v>
       </c>
@@ -3606,7 +3334,7 @@
         <v>1107.9000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2004</v>
       </c>
@@ -3617,7 +3345,7 @@
         <v>2829.8</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2004</v>
       </c>
@@ -3628,7 +3356,7 @@
         <v>1445.6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2004</v>
       </c>
@@ -3639,7 +3367,7 @@
         <v>2301.8000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2004</v>
       </c>
@@ -3650,7 +3378,7 @@
         <v>1325.1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2004</v>
       </c>
@@ -3661,7 +3389,7 @@
         <v>2556.5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2004</v>
       </c>
@@ -3672,7 +3400,7 @@
         <v>2938.2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2004</v>
       </c>
@@ -3683,7 +3411,7 @@
         <v>4878.3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2005</v>
       </c>
@@ -3694,7 +3422,7 @@
         <v>5800.5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2005</v>
       </c>
@@ -3705,7 +3433,7 @@
         <v>5356.5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2005</v>
       </c>
@@ -3716,7 +3444,7 @@
         <v>3099.4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2005</v>
       </c>
@@ -3727,7 +3455,7 @@
         <v>1877.9</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2005</v>
       </c>
@@ -3738,7 +3466,7 @@
         <v>2985.6</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2005</v>
       </c>
@@ -3749,7 +3477,7 @@
         <v>3530.5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2005</v>
       </c>
@@ -3760,7 +3488,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2005</v>
       </c>
@@ -3771,7 +3499,7 @@
         <v>2339.1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2005</v>
       </c>
@@ -3782,7 +3510,7 @@
         <v>2384.1999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2005</v>
       </c>
@@ -3793,7 +3521,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2005</v>
       </c>
@@ -3804,7 +3532,7 @@
         <v>2821.4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2005</v>
       </c>
@@ -3815,7 +3543,7 @@
         <v>4240.8999999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2005</v>
       </c>
@@ -3826,7 +3554,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2005</v>
       </c>
@@ -3837,7 +3565,7 @@
         <v>2655.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2005</v>
       </c>
@@ -3848,7 +3576,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2005</v>
       </c>
@@ -3859,7 +3587,7 @@
         <v>1589.5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2005</v>
       </c>
@@ -3870,7 +3598,7 @@
         <v>2655.8</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2005</v>
       </c>
@@ -3881,7 +3609,7 @@
         <v>4075.8</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2005</v>
       </c>
@@ -3892,7 +3620,7 @@
         <v>3004.8</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -3903,7 +3631,7 @@
         <v>2574.5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2005</v>
       </c>
@@ -3914,7 +3642,7 @@
         <v>3148.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2005</v>
       </c>
@@ -3925,7 +3653,7 @@
         <v>3027.8</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2005</v>
       </c>
@@ -3936,7 +3664,7 @@
         <v>1577.1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2005</v>
       </c>
@@ -3947,7 +3675,7 @@
         <v>2777.5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2005</v>
       </c>
@@ -3958,7 +3686,7 @@
         <v>1784.4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2005</v>
       </c>
@@ -3969,7 +3697,7 @@
         <v>3329.8</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2005</v>
       </c>
@@ -3980,7 +3708,7 @@
         <v>4696.7</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2005</v>
       </c>
@@ -3991,7 +3719,7 @@
         <v>4961.8999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2006</v>
       </c>
@@ -4002,7 +3730,7 @@
         <v>5330.8</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2006</v>
       </c>
@@ -4013,7 +3741,7 @@
         <v>5367.7</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2006</v>
       </c>
@@ -4024,7 +3752,7 @@
         <v>2285.3000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2006</v>
       </c>
@@ -4035,7 +3763,7 @@
         <v>1936.8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2006</v>
       </c>
@@ -4046,7 +3774,7 @@
         <v>2317.8000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2006</v>
       </c>
@@ -4057,7 +3785,7 @@
         <v>2473.8000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2006</v>
       </c>
@@ -4068,7 +3796,7 @@
         <v>1244.5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2006</v>
       </c>
@@ -4079,7 +3807,7 @@
         <v>1690.1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2006</v>
       </c>
@@ -4090,7 +3818,7 @@
         <v>2127.5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2006</v>
       </c>
@@ -4101,7 +3829,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2006</v>
       </c>
@@ -4112,7 +3840,7 @@
         <v>2045.5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2006</v>
       </c>
@@ -4123,7 +3851,7 @@
         <v>3723.5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2006</v>
       </c>
@@ -4134,7 +3862,7 @@
         <v>1544.5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2006</v>
       </c>
@@ -4145,7 +3873,7 @@
         <v>2917.5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2006</v>
       </c>
@@ -4156,7 +3884,7 @@
         <v>1468.5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2006</v>
       </c>
@@ -4167,7 +3895,7 @@
         <v>1506.8</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2006</v>
       </c>
@@ -4178,7 +3906,7 @@
         <v>2283.9</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2006</v>
       </c>
@@ -4189,7 +3917,7 @@
         <v>4548.3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2006</v>
       </c>
@@ -4200,7 +3928,7 @@
         <v>3228.8</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2006</v>
       </c>
@@ -4211,7 +3939,7 @@
         <v>2171.9</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -4222,7 +3950,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -4233,7 +3961,7 @@
         <v>2288.4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -4244,7 +3972,7 @@
         <v>1772.3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -4255,7 +3983,7 @@
         <v>2590.5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -4266,7 +3994,7 @@
         <v>1372.6</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -4277,7 +4005,7 @@
         <v>2730.4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -4288,7 +4016,7 @@
         <v>4519.2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -4299,7 +4027,7 @@
         <v>4439.2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2007</v>
       </c>
@@ -4310,7 +4038,7 @@
         <v>5042.8</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2007</v>
       </c>
@@ -4321,7 +4049,7 @@
         <v>5889.1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2007</v>
       </c>
@@ -4332,7 +4060,7 @@
         <v>3018.7</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2007</v>
       </c>
@@ -4343,7 +4071,7 @@
         <v>2302.5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2007</v>
       </c>
@@ -4354,7 +4082,7 @@
         <v>2063.9</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2007</v>
       </c>
@@ -4365,7 +4093,7 @@
         <v>2755.4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2007</v>
       </c>
@@ -4376,7 +4104,7 @@
         <v>1065.8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2007</v>
       </c>
@@ -4387,7 +4115,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2007</v>
       </c>
@@ -4398,7 +4126,7 @@
         <v>1963.9</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2007</v>
       </c>
@@ -4409,7 +4137,7 @@
         <v>2525.5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2007</v>
       </c>
@@ -4420,7 +4148,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2007</v>
       </c>
@@ -4431,7 +4159,7 @@
         <v>4063.7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2007</v>
       </c>
@@ -4442,7 +4170,7 @@
         <v>994.1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2007</v>
       </c>
@@ -4453,7 +4181,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2007</v>
       </c>
@@ -4464,7 +4192,7 @@
         <v>1088.7</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2007</v>
       </c>
@@ -4475,7 +4203,7 @@
         <v>979.4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2007</v>
       </c>
@@ -4486,7 +4214,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2007</v>
       </c>
@@ -4497,7 +4225,7 @@
         <v>5466.3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2007</v>
       </c>
@@ -4508,7 +4236,7 @@
         <v>2822.4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2007</v>
       </c>
@@ -4519,7 +4247,7 @@
         <v>2432.9</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2007</v>
       </c>
@@ -4530,7 +4258,7 @@
         <v>2207.3000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2007</v>
       </c>
@@ -4541,7 +4269,7 @@
         <v>3015.9</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2007</v>
       </c>
@@ -4552,7 +4280,7 @@
         <v>1732.3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2007</v>
       </c>
@@ -4563,7 +4291,7 @@
         <v>2672.6</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2007</v>
       </c>
@@ -4574,7 +4302,7 @@
         <v>2203.6999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2007</v>
       </c>
@@ -4585,7 +4313,7 @@
         <v>3115.1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2007</v>
       </c>
@@ -4596,7 +4324,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2007</v>
       </c>
@@ -4607,7 +4335,7 @@
         <v>5287.7</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2008</v>
       </c>
@@ -4618,7 +4346,7 @@
         <v>5886.7</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2008</v>
       </c>
@@ -4629,7 +4357,7 @@
         <v>5355.3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2008</v>
       </c>
@@ -4640,7 +4368,7 @@
         <v>2720.4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2008</v>
       </c>
@@ -4651,7 +4379,7 @@
         <v>1718.3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2008</v>
       </c>
@@ -4662,7 +4390,7 @@
         <v>2510.6</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2008</v>
       </c>
@@ -4673,7 +4401,7 @@
         <v>2081.5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2008</v>
       </c>
@@ -4684,7 +4412,7 @@
         <v>1096.9000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2008</v>
       </c>
@@ -4695,7 +4423,7 @@
         <v>2004.5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2008</v>
       </c>
@@ -4706,7 +4434,7 @@
         <v>2166.6</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2008</v>
       </c>
@@ -4717,7 +4445,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2008</v>
       </c>
@@ -4728,7 +4456,7 @@
         <v>2591.3000000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2008</v>
       </c>
@@ -4739,7 +4467,7 @@
         <v>3673.6</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2008</v>
       </c>
@@ -4750,7 +4478,7 @@
         <v>1025.2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2008</v>
       </c>
@@ -4761,7 +4489,7 @@
         <v>3017.6</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2008</v>
       </c>
@@ -4772,7 +4500,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2008</v>
       </c>
@@ -4783,7 +4511,7 @@
         <v>1512.6</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2008</v>
       </c>
@@ -4794,7 +4522,7 @@
         <v>2153.1999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2008</v>
       </c>
@@ -4805,7 +4533,7 @@
         <v>3990.9</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2008</v>
       </c>
@@ -4816,7 +4544,7 @@
         <v>3851.3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2008</v>
       </c>
@@ -4827,7 +4555,7 @@
         <v>2477.8000000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2008</v>
       </c>
@@ -4838,7 +4566,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2008</v>
       </c>
@@ -4849,7 +4577,7 @@
         <v>2969.2</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2008</v>
       </c>
@@ -4860,7 +4588,7 @@
         <v>1642.4</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2008</v>
       </c>
@@ -4871,7 +4599,7 @@
         <v>2575.5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2008</v>
       </c>
@@ -4882,7 +4610,7 @@
         <v>1613.5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2008</v>
       </c>
@@ -4893,7 +4621,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2008</v>
       </c>
@@ -4904,7 +4632,7 @@
         <v>4063.8</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2008</v>
       </c>
@@ -4915,7 +4643,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2009</v>
       </c>
@@ -4926,7 +4654,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2009</v>
       </c>
@@ -4937,7 +4665,7 @@
         <v>3860.5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2009</v>
       </c>
@@ -4948,7 +4676,7 @@
         <v>1616.5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2009</v>
       </c>
@@ -4959,7 +4687,7 @@
         <v>1814.1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2009</v>
       </c>
@@ -4970,7 +4698,7 @@
         <v>1826.5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2009</v>
       </c>
@@ -4981,7 +4709,7 @@
         <v>2684.8</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2009</v>
       </c>
@@ -4992,7 +4720,7 @@
         <v>1197.3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2009</v>
       </c>
@@ -5003,7 +4731,7 @@
         <v>1854.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2009</v>
       </c>
@@ -5014,7 +4742,7 @@
         <v>1119.5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2009</v>
       </c>
@@ -5025,7 +4753,7 @@
         <v>2535.6</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2009</v>
       </c>
@@ -5036,7 +4764,7 @@
         <v>1756.3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2009</v>
       </c>
@@ -5047,7 +4775,7 @@
         <v>3654.6</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2009</v>
       </c>
@@ -5058,7 +4786,7 @@
         <v>884.3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2009</v>
       </c>
@@ -5069,7 +4797,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2009</v>
       </c>
@@ -5080,7 +4808,7 @@
         <v>1170.5999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2009</v>
       </c>
@@ -5091,7 +4819,7 @@
         <v>969.8</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2009</v>
       </c>
@@ -5102,7 +4830,7 @@
         <v>1426.8</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2009</v>
       </c>
@@ -5113,7 +4841,7 @@
         <v>4682.3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2009</v>
       </c>
@@ -5124,7 +4852,7 @@
         <v>1797.8</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2009</v>
       </c>
@@ -5135,7 +4863,7 @@
         <v>1978.7</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2009</v>
       </c>
@@ -5146,7 +4874,7 @@
         <v>1366.6</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2009</v>
       </c>
@@ -5157,7 +4885,7 @@
         <v>1669.2</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2009</v>
       </c>
@@ -5168,7 +4896,7 @@
         <v>1380.9</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2009</v>
       </c>
@@ -5179,7 +4907,7 @@
         <v>1321.6</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2009</v>
       </c>
@@ -5190,7 +4918,7 @@
         <v>997.3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2009</v>
       </c>
@@ -5201,7 +4929,7 @@
         <v>2930.2</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2009</v>
       </c>
@@ -5212,7 +4940,7 @@
         <v>3588.9</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2009</v>
       </c>
@@ -5223,7 +4951,7 @@
         <v>3403.2</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2010</v>
       </c>
@@ -5234,7 +4962,7 @@
         <v>3654.6</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2010</v>
       </c>
@@ -5245,7 +4973,7 @@
         <v>4915.1000000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2010</v>
       </c>
@@ -5256,7 +4984,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2010</v>
       </c>
@@ -5267,7 +4995,7 @@
         <v>2042.4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2010</v>
       </c>
@@ -5278,7 +5006,7 @@
         <v>1532.5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2010</v>
       </c>
@@ -5289,7 +5017,7 @@
         <v>2529.9</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2010</v>
       </c>
@@ -5300,7 +5028,7 @@
         <v>770.2</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2010</v>
       </c>
@@ -5311,7 +5039,7 @@
         <v>2421.1999999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2010</v>
       </c>
@@ -5322,7 +5050,7 @@
         <v>1605.1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2010</v>
       </c>
@@ -5333,7 +5061,7 @@
         <v>1769.3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2010</v>
       </c>
@@ -5344,7 +5072,7 @@
         <v>2160.6999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2010</v>
       </c>
@@ -5355,7 +5083,7 @@
         <v>3303.6</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2010</v>
       </c>
@@ -5366,7 +5094,7 @@
         <v>972.6</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2010</v>
       </c>
@@ -5377,7 +5105,7 @@
         <v>2950.4</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2010</v>
       </c>
@@ -5388,7 +5116,7 @@
         <v>1206.2</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2010</v>
       </c>
@@ -5399,7 +5127,7 @@
         <v>688.2</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2010</v>
       </c>
@@ -5410,7 +5138,7 @@
         <v>2093.9</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2010</v>
       </c>
@@ -5421,7 +5149,7 @@
         <v>4738.2</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2010</v>
       </c>
@@ -5432,7 +5160,7 @@
         <v>1932.1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2010</v>
       </c>
@@ -5443,7 +5171,7 @@
         <v>2054.4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2010</v>
       </c>
@@ -5454,7 +5182,7 @@
         <v>1779.2</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2010</v>
       </c>
@@ -5465,7 +5193,7 @@
         <v>2278.3000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2010</v>
       </c>
@@ -5476,7 +5204,7 @@
         <v>1973.8</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2010</v>
       </c>
@@ -5487,7 +5215,7 @@
         <v>2070.3000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2010</v>
       </c>
@@ -5498,7 +5226,7 @@
         <v>1182.4000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2010</v>
       </c>
@@ -5509,7 +5237,7 @@
         <v>2542.4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2010</v>
       </c>
@@ -5520,7 +5248,7 @@
         <v>2423.8000000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2010</v>
       </c>
@@ -5531,7 +5259,7 @@
         <v>4070.5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2011</v>
       </c>
@@ -5542,7 +5270,7 @@
         <v>3655.6</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2011</v>
       </c>
@@ -5553,7 +5281,7 @@
         <v>4879</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2011</v>
       </c>
@@ -5564,7 +5292,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2011</v>
       </c>
@@ -5575,7 +5303,7 @@
         <v>2720.6</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2011</v>
       </c>
@@ -5586,7 +5314,7 @@
         <v>1021.7</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2011</v>
       </c>
@@ -5597,7 +5325,7 @@
         <v>2687.2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2011</v>
       </c>
@@ -5608,7 +5336,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2011</v>
       </c>
@@ -5619,7 +5347,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2011</v>
       </c>
@@ -5630,7 +5358,7 @@
         <v>1222.5999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2011</v>
       </c>
@@ -5641,7 +5369,7 @@
         <v>2199.5</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2011</v>
       </c>
@@ -5652,7 +5380,7 @@
         <v>1796.7</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2011</v>
       </c>
@@ -5663,7 +5391,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2011</v>
       </c>
@@ -5674,7 +5402,7 @@
         <v>780.3</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2011</v>
       </c>
@@ -5685,7 +5413,7 @@
         <v>3605.7</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2011</v>
       </c>
@@ -5696,7 +5424,7 @@
         <v>792.8</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2011</v>
       </c>
@@ -5707,7 +5435,7 @@
         <v>609.4</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2011</v>
       </c>
@@ -5718,7 +5446,7 @@
         <v>1553.5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2011</v>
       </c>
@@ -5729,7 +5457,7 @@
         <v>4443.8</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2011</v>
       </c>
@@ -5740,7 +5468,7 @@
         <v>1725.3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2011</v>
       </c>
@@ -5751,7 +5479,7 @@
         <v>1204.9000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2011</v>
       </c>
@@ -5762,7 +5490,7 @@
         <v>1218.8</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2011</v>
       </c>
@@ -5773,7 +5501,7 @@
         <v>1758.6</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2011</v>
       </c>
@@ -5784,7 +5512,7 @@
         <v>2510.6</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2011</v>
       </c>
@@ -5795,7 +5523,7 @@
         <v>1713.8</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2011</v>
       </c>
@@ -5806,7 +5534,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2011</v>
       </c>
@@ -5817,7 +5545,7 @@
         <v>2781.9</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2011</v>
       </c>
@@ -5828,7 +5556,7 @@
         <v>2548.3000000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2011</v>
       </c>
@@ -5839,7 +5567,7 @@
         <v>4111.2</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2012</v>
       </c>
@@ -5850,7 +5578,7 @@
         <v>5166.3</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2012</v>
       </c>
@@ -5861,7 +5589,7 @@
         <v>4911.5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2012</v>
       </c>
@@ -5872,7 +5600,7 @@
         <v>3083.3</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2012</v>
       </c>
@@ -5883,7 +5611,7 @@
         <v>2473.3000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2012</v>
       </c>
@@ -5894,7 +5622,7 @@
         <v>2201.3000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2012</v>
       </c>
@@ -5905,7 +5633,7 @@
         <v>3031.1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2012</v>
       </c>
@@ -5916,7 +5644,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2012</v>
       </c>
@@ -5927,7 +5655,7 @@
         <v>2938.4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2012</v>
       </c>
@@ -5938,7 +5666,7 @@
         <v>2741.2</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2012</v>
       </c>
@@ -5949,7 +5677,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2012</v>
       </c>
@@ -5960,7 +5688,7 @@
         <v>2196.6999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2012</v>
       </c>
@@ -5971,7 +5699,7 @@
         <v>3908.8</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2012</v>
       </c>
@@ -5982,7 +5710,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2012</v>
       </c>
@@ -5993,7 +5721,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2012</v>
       </c>
@@ -6004,7 +5732,7 @@
         <v>1914.4</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2012</v>
       </c>
@@ -6015,7 +5743,7 @@
         <v>921.9</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2012</v>
       </c>
@@ -6026,7 +5754,7 @@
         <v>1960.3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2012</v>
       </c>
@@ -6037,7 +5765,7 @@
         <v>4732.8999999999996</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2012</v>
       </c>
@@ -6048,7 +5776,7 @@
         <v>3090.9</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2012</v>
       </c>
@@ -6059,7 +5787,7 @@
         <v>2202.5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2012</v>
       </c>
@@ -6070,7 +5798,7 @@
         <v>2425.6999999999998</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2012</v>
       </c>
@@ -6081,7 +5809,7 @@
         <v>2910.3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2012</v>
       </c>
@@ -6092,7 +5820,7 @@
         <v>2118.1999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2012</v>
       </c>
@@ -6103,7 +5831,7 @@
         <v>2993.5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2012</v>
       </c>
@@ -6114,7 +5842,7 @@
         <v>1660.8</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2012</v>
       </c>
@@ -6125,7 +5853,7 @@
         <v>2916.1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2012</v>
       </c>
@@ -6136,7 +5864,7 @@
         <v>3583.8</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2012</v>
       </c>
@@ -6147,7 +5875,7 @@
         <v>3904.6</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2013</v>
       </c>
@@ -6158,7 +5886,7 @@
         <v>4966.1000000000004</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2013</v>
       </c>
@@ -6169,7 +5897,7 @@
         <v>5205.5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2013</v>
       </c>
@@ -6180,7 +5908,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2013</v>
       </c>
@@ -6191,7 +5919,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2013</v>
       </c>
@@ -6202,7 +5930,7 @@
         <v>2580.5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2013</v>
       </c>
@@ -6213,7 +5941,7 @@
         <v>2563.3000000000002</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2013</v>
       </c>
@@ -6224,7 +5952,7 @@
         <v>970.8</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2013</v>
       </c>
@@ -6235,7 +5963,7 @@
         <v>2098.1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2013</v>
       </c>
@@ -6246,7 +5974,7 @@
         <v>2043.5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2013</v>
       </c>
@@ -6257,7 +5985,7 @@
         <v>1970.9</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2013</v>
       </c>
@@ -6268,7 +5996,7 @@
         <v>1688.2</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2013</v>
       </c>
@@ -6279,7 +6007,7 @@
         <v>3768.2</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2013</v>
       </c>
@@ -6290,7 +6018,7 @@
         <v>1400.8</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2013</v>
       </c>
@@ -6301,7 +6029,7 @@
         <v>3318.3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2013</v>
       </c>
@@ -6312,7 +6040,7 @@
         <v>1033.4000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2013</v>
       </c>
@@ -6323,7 +6051,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2013</v>
       </c>
@@ -6334,7 +6062,7 @@
         <v>2020.4</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2013</v>
       </c>
@@ -6345,7 +6073,7 @@
         <v>4265.1000000000004</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2013</v>
       </c>
@@ -6356,7 +6084,7 @@
         <v>2933.8</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2013</v>
       </c>
@@ -6367,7 +6095,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2013</v>
       </c>
@@ -6378,7 +6106,7 @@
         <v>1688.5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2013</v>
       </c>
@@ -6389,7 +6117,7 @@
         <v>2541.4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2013</v>
       </c>
@@ -6400,7 +6128,7 @@
         <v>1867.8</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2013</v>
       </c>
@@ -6411,7 +6139,7 @@
         <v>2343.5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2013</v>
       </c>
@@ -6422,7 +6150,7 @@
         <v>1921.4</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2013</v>
       </c>
@@ -6433,7 +6161,7 @@
         <v>866.4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2013</v>
       </c>
@@ -6444,7 +6172,7 @@
         <v>2552.8000000000002</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2013</v>
       </c>
@@ -6455,7 +6183,7 @@
         <v>3535.1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2013</v>
       </c>
@@ -6466,7 +6194,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2014</v>
       </c>
@@ -6477,7 +6205,7 @@
         <v>3172.4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2014</v>
       </c>
@@ -6488,7 +6216,7 @@
         <v>3887.7</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2014</v>
       </c>
@@ -6499,7 +6227,7 @@
         <v>2369.1999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2014</v>
       </c>
@@ -6510,7 +6238,7 @@
         <v>1653.6</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2014</v>
       </c>
@@ -6521,7 +6249,7 @@
         <v>1342.1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2014</v>
       </c>
@@ -6532,7 +6260,7 @@
         <v>1263.8</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2014</v>
       </c>
@@ -6543,7 +6271,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2014</v>
       </c>
@@ -6554,7 +6282,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2014</v>
       </c>
@@ -6565,7 +6293,7 @@
         <v>1150.3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2014</v>
       </c>
@@ -6576,7 +6304,7 @@
         <v>1226.5999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2014</v>
       </c>
@@ -6587,7 +6315,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2014</v>
       </c>
@@ -6598,7 +6326,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2014</v>
       </c>
@@ -6609,7 +6337,7 @@
         <v>905.8</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2014</v>
       </c>
@@ -6620,7 +6348,7 @@
         <v>2960.3</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2014</v>
       </c>
@@ -6631,7 +6359,7 @@
         <v>908.2</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2014</v>
       </c>
@@ -6642,7 +6370,7 @@
         <v>819.5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2014</v>
       </c>
@@ -6653,7 +6381,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2014</v>
       </c>
@@ -6664,7 +6392,7 @@
         <v>2723.4</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2014</v>
       </c>
@@ -6675,7 +6403,7 @@
         <v>2191.1999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2014</v>
       </c>
@@ -6686,7 +6414,7 @@
         <v>1466.1</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2014</v>
       </c>
@@ -6697,7 +6425,7 @@
         <v>1268.0999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2014</v>
       </c>
@@ -6708,7 +6436,7 @@
         <v>2147.3000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2014</v>
       </c>
@@ -6719,7 +6447,7 @@
         <v>1194.2</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2014</v>
       </c>
@@ -6730,7 +6458,7 @@
         <v>1893.3</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2014</v>
       </c>
@@ -6741,7 +6469,7 @@
         <v>1154.2</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2014</v>
       </c>
@@ -6752,7 +6480,7 @@
         <v>1259.5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2014</v>
       </c>
@@ -6763,7 +6491,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2014</v>
       </c>
@@ -6774,7 +6502,7 @@
         <v>2149.4</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2014</v>
       </c>
@@ -6785,7 +6513,7 @@
         <v>3206.7</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2015</v>
       </c>
@@ -6796,7 +6524,7 @@
         <v>3413.3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2015</v>
       </c>
@@ -6807,7 +6535,7 @@
         <v>3500.1</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2015</v>
       </c>
@@ -6818,7 +6546,7 @@
         <v>2132.1999999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2015</v>
       </c>
@@ -6829,7 +6557,7 @@
         <v>1506.8</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2015</v>
       </c>
@@ -6840,7 +6568,7 @@
         <v>1790.3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2015</v>
       </c>
@@ -6851,7 +6579,7 @@
         <v>1915.4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2015</v>
       </c>
@@ -6862,7 +6590,7 @@
         <v>1468.8</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2015</v>
       </c>
@@ -6873,7 +6601,7 @@
         <v>1480.1</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2015</v>
       </c>
@@ -6884,7 +6612,7 @@
         <v>1417.8</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2015</v>
       </c>
@@ -6895,7 +6623,7 @@
         <v>1784.6</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2015</v>
       </c>
@@ -6906,7 +6634,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2015</v>
       </c>
@@ -6917,7 +6645,7 @@
         <v>3151.6</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2015</v>
       </c>
@@ -6928,7 +6656,7 @@
         <v>1109.5999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2015</v>
       </c>
@@ -6939,7 +6667,7 @@
         <v>2693.7</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2015</v>
       </c>
@@ -6950,7 +6678,7 @@
         <v>1026.8</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2015</v>
       </c>
@@ -6961,7 +6689,7 @@
         <v>1752.7</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2015</v>
       </c>
@@ -6972,7 +6700,7 @@
         <v>1148.5999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2015</v>
       </c>
@@ -6983,7 +6711,7 @@
         <v>4069.1</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2015</v>
       </c>
@@ -6994,7 +6722,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2015</v>
       </c>
@@ -7005,7 +6733,7 @@
         <v>1526.3</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2015</v>
       </c>
@@ -7016,7 +6744,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2015</v>
       </c>
@@ -7027,7 +6755,7 @@
         <v>2519.1999999999998</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2015</v>
       </c>
@@ -7038,7 +6766,7 @@
         <v>1222.8</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2015</v>
       </c>
@@ -7049,7 +6777,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2015</v>
       </c>
@@ -7060,7 +6788,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2015</v>
       </c>
@@ -7071,7 +6799,7 @@
         <v>1215.9000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2015</v>
       </c>
@@ -7082,7 +6810,7 @@
         <v>2579.4</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2015</v>
       </c>
@@ -7093,7 +6821,7 @@
         <v>2317.4</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2015</v>
       </c>
@@ -7104,7 +6832,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2016</v>
       </c>
@@ -7115,7 +6843,7 @@
         <v>4061.7</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2016</v>
       </c>
@@ -7126,7 +6854,7 @@
         <v>4756.5</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2016</v>
       </c>
@@ -7137,7 +6865,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2016</v>
       </c>
@@ -7148,7 +6876,7 @@
         <v>3475.2</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2016</v>
       </c>
@@ -7159,7 +6887,7 @@
         <v>1885.7</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2016</v>
       </c>
@@ -7170,7 +6898,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2016</v>
       </c>
@@ -7181,7 +6909,7 @@
         <v>1922.1</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2016</v>
       </c>
@@ -7192,7 +6920,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2016</v>
       </c>
@@ -7203,7 +6931,7 @@
         <v>2027.5</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2016</v>
       </c>
@@ -7214,7 +6942,7 @@
         <v>3109.2</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2016</v>
       </c>
@@ -7225,7 +6953,7 @@
         <v>3103.5</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2016</v>
       </c>
@@ -7236,7 +6964,7 @@
         <v>3841.4</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2016</v>
       </c>
@@ -7247,7 +6975,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2016</v>
       </c>
@@ -7258,7 +6986,7 @@
         <v>3684.1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2016</v>
       </c>
@@ -7269,7 +6997,7 @@
         <v>1354.9</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2016</v>
       </c>
@@ -7280,7 +7008,7 @@
         <v>1795.4</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2016</v>
       </c>
@@ -7291,7 +7019,7 @@
         <v>1820.5</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2016</v>
       </c>
@@ -7302,7 +7030,7 @@
         <v>4724.1000000000004</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2016</v>
       </c>
@@ -7313,7 +7041,7 @@
         <v>2293.4</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2016</v>
       </c>
@@ -7324,7 +7052,7 @@
         <v>1522.3</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2016</v>
       </c>
@@ -7335,7 +7063,7 @@
         <v>2720.9</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2016</v>
       </c>
@@ -7346,7 +7074,7 @@
         <v>2431.6999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2016</v>
       </c>
@@ -7357,7 +7085,7 @@
         <v>2852.5</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2016</v>
       </c>
@@ -7368,7 +7096,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2016</v>
       </c>
@@ -7379,7 +7107,7 @@
         <v>1452.8</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2016</v>
       </c>
@@ -7390,7 +7118,7 @@
         <v>1864.6</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2016</v>
       </c>
@@ -7401,7 +7129,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2016</v>
       </c>
@@ -7412,7 +7140,7 @@
         <v>3264.3</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2016</v>
       </c>
@@ -7423,7 +7151,7 @@
         <v>4348.3</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2017</v>
       </c>
@@ -7434,7 +7162,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2017</v>
       </c>
@@ -7445,7 +7173,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2017</v>
       </c>
@@ -7456,7 +7184,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2017</v>
       </c>
@@ -7467,7 +7195,7 @@
         <v>2048.9</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2017</v>
       </c>
@@ -7478,7 +7206,7 @@
         <v>1854.8</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2017</v>
       </c>
@@ -7489,7 +7217,7 @@
         <v>2190.6</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2017</v>
       </c>
@@ -7500,7 +7228,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2017</v>
       </c>
@@ -7511,7 +7239,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2017</v>
       </c>
@@ -7522,7 +7250,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2017</v>
       </c>
@@ -7533,7 +7261,7 @@
         <v>1948.2</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2017</v>
       </c>
@@ -7544,7 +7272,7 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2017</v>
       </c>
@@ -7555,7 +7283,7 @@
         <v>3857.6</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2017</v>
       </c>
@@ -7566,7 +7294,7 @@
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2017</v>
       </c>
@@ -7577,7 +7305,7 @@
         <v>2993.7</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2017</v>
       </c>
@@ -7588,7 +7316,7 @@
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2017</v>
       </c>
@@ -7599,7 +7327,7 @@
         <v>953.8</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2017</v>
       </c>
@@ -7610,7 +7338,7 @@
         <v>1613.1</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2017</v>
       </c>
@@ -7621,7 +7349,7 @@
         <v>4765.3</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2017</v>
       </c>
@@ -7632,7 +7360,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2017</v>
       </c>
@@ -7643,7 +7371,7 @@
         <v>1652.2</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2017</v>
       </c>
@@ -7654,7 +7382,7 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2017</v>
       </c>
@@ -7665,7 +7393,7 @@
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2017</v>
       </c>
@@ -7676,7 +7404,7 @@
         <v>1971.5</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2017</v>
       </c>
@@ -7687,7 +7415,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2017</v>
       </c>
@@ -7698,7 +7426,7 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2017</v>
       </c>
@@ -7709,7 +7437,7 @@
         <v>1592.2</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2017</v>
       </c>
@@ -7720,7 +7448,7 @@
         <v>3327.9</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2017</v>
       </c>
@@ -7731,7 +7459,7 @@
         <v>2641.5</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2017</v>
       </c>
@@ -7750,19 +7478,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -7830,7 +7558,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7898,7 +7626,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7966,7 +7694,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -8022,7 +7750,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -8090,7 +7818,7 @@
         <v>2048.9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8158,7 +7886,7 @@
         <v>2190.6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8226,7 +7954,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8294,12 +8022,12 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>4341.3999999999996</v>
@@ -8362,7 +8090,7 @@
         <v>2993.7</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -8430,7 +8158,7 @@
         <v>1613.1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -8498,7 +8226,7 @@
         <v>4765.3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8566,7 +8294,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -8634,7 +8362,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -8702,7 +8430,7 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -8725,7 +8453,7 @@
         <v>1592.2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -8781,7 +8509,7 @@
         <v>2641.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -8849,12 +8577,12 @@
         <v>4808.3999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>2446.6999999999998</v>
@@ -8917,12 +8645,12 @@
         <v>1854.8</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>2088.3000000000002</v>
@@ -8985,12 +8713,12 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>3557.5</v>
@@ -9053,12 +8781,12 @@
         <v>1948.2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>2433.9</v>
@@ -9121,12 +8849,12 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>5438.1</v>
@@ -9189,12 +8917,12 @@
         <v>3857.6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I23">
         <v>935</v>
@@ -9239,12 +8967,12 @@
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I24">
         <v>1015.8</v>
@@ -9289,12 +9017,12 @@
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>1258.4000000000001</v>
@@ -9357,12 +9085,12 @@
         <v>953.8</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>2177.3000000000002</v>
@@ -9425,12 +9153,12 @@
         <v>1652.2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>1840.1</v>
@@ -9493,12 +9221,12 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>4404.7</v>
@@ -9561,12 +9289,12 @@
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>2418.9</v>
@@ -9629,12 +9357,12 @@
         <v>1971.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>4945.3</v>
@@ -9697,12 +9425,12 @@
         <v>3327.9</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31:V31" si="0">SUM(C2:C30)/29</f>
@@ -9785,12 +9513,12 @@
         <v>2294.1034482758614</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>29215.600000000002</v>
@@ -9853,12 +9581,12 @@
         <v>25540.2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>13657.2</v>
@@ -9921,12 +9649,12 @@
         <v>14034.4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>8182.7000000000007</v>
@@ -9989,12 +9717,12 @@
         <v>4993.5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>28639.9</v>
@@ -10057,12 +9785,12 @@
         <v>19246.100000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <v>1689.3</v>
@@ -10125,8 +9853,1509 @@
         <v>2714.8</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="U43">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>4</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>4</v>
+      </c>
+      <c r="V49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <v>4</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+      <c r="U50">
+        <v>4</v>
+      </c>
+      <c r="V50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <v>5</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -10143,12 +11372,12 @@
       <selection activeCell="C8" sqref="B8:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -10216,7 +11445,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -10304,7 +11533,7 @@
         <v>43009.799999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -10408,14 +11637,14 @@
       <selection activeCell="C43" activeCellId="4" sqref="C11:V11 C20:V20 C27:V27 C37:V37 C43:V43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1">
         <v>87</v>
@@ -10478,7 +11707,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10546,7 +11775,7 @@
         <v>5375.1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -10602,7 +11831,7 @@
         <v>2254.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -10670,7 +11899,7 @@
         <v>1613.1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -10738,7 +11967,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -10761,7 +11990,7 @@
         <v>1592.2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -10829,7 +12058,7 @@
         <v>4808.3999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10897,7 +12126,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -10965,7 +12194,7 @@
         <v>3857.6</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -11033,9 +12262,9 @@
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:V11" si="0">SUM(C2:C10)</f>
@@ -11118,12 +12347,12 @@
         <v>25540.2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -11191,7 +12420,7 @@
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -11259,7 +12488,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -11327,7 +12556,7 @@
         <v>955.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -11383,7 +12612,7 @@
         <v>2641.5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -11451,7 +12680,7 @@
         <v>1854.8</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -11519,9 +12748,9 @@
         <v>1652.2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:V20" si="1">SUM(C14:C19)</f>
@@ -11604,12 +12833,12 @@
         <v>14034.4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -11677,7 +12906,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -11745,7 +12974,7 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -11813,12 +13042,12 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>1258.4000000000001</v>
@@ -11881,9 +13110,9 @@
         <v>953.8</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <f>SUM(C23:C26)</f>
@@ -11966,12 +13195,12 @@
         <v>4993.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -12039,7 +13268,7 @@
         <v>2048.9</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -12107,7 +13336,7 @@
         <v>2190.6</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -12175,7 +13404,7 @@
         <v>2993.7</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -12243,7 +13472,7 @@
         <v>4765.3</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -12311,7 +13540,7 @@
         <v>1948.2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -12379,7 +13608,7 @@
         <v>1971.5</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -12447,9 +13676,9 @@
         <v>3327.9</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <f t="shared" ref="C37:V37" si="3">SUM(C30:C36)</f>
@@ -12532,12 +13761,12 @@
         <v>19246.100000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -12605,7 +13834,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -12655,7 +13884,7 @@
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -12705,9 +13934,9 @@
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <f t="shared" ref="C43:V43" si="4">SUM(C40:C42)</f>
@@ -12790,24 +14019,24 @@
         <v>2714.8</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>50</v>
       </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -12824,7 +14053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -12841,7 +14070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -12858,7 +14087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -12872,7 +14101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -12883,7 +14112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -12894,7 +14123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -12902,12 +14131,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -12917,20 +14146,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -12,12 +12,15 @@
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
     <sheet name="區域整理" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20181103year_gp3'!$D$1:$D$59</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="65">
   <si>
     <t>阿里山</t>
   </si>
@@ -205,55 +208,47 @@
     <t>縣市</t>
   </si>
   <si>
-    <t>「地區分色」(Y軸請勿選取)</t>
+    <t>地區分色</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>縣市(可搭配Color選取「地區分色」)</t>
+    <t>南部</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>區域(可搭配Color選取「地區分色」)</t>
+    <t>北部</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>區域(可搭配Color選取「地區分色」)</t>
+    <t>東部</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>區域(可搭配Color選取「地區分色」)</t>
+    <t>中部</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>縣市(可搭配Color選取「地區分色」)</t>
+    <t>縣市</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>基準線</t>
+    <t>離島</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>「地區分色」(Y軸請勿選取)</t>
+    <t>區域</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>「地區分色」(Y軸請勿選取)</t>
+    <t>臺灣</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>其他測站</t>
+    <t>全台各測站</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>其他測站</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>全台各測站平均</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>全台各測站平均</t>
+    <t>其他地區測站</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +928,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1050,11 +1044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133818880"/>
-        <c:axId val="266108224"/>
+        <c:axId val="248579072"/>
+        <c:axId val="162310400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133818880"/>
+        <c:axId val="248579072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1067,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266108224"/>
+        <c:crossAx val="162310400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1081,7 +1075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266108224"/>
+        <c:axId val="162310400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,14 +1096,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133818880"/>
+        <c:crossAx val="248579072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7478,3883 +7471,2487 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1">
         <v>87</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>88</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>89</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>90</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>91</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>92</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>93</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>94</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>95</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>96</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>97</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>98</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>99</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>100</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>101</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>102</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>103</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>104</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>105</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
         <v>4364.2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3074.9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3093.4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4017.3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2196.5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2298.8000000000002</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4192.3999999999996</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5800.5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5330.8</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5042.8</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5886.7</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5222</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3654.6</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3655.6</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5166.3</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4966.1000000000004</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3172.4</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3413.3</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4061.7</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
         <v>6046.6</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3788.3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6592.5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5714.2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3113.7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2514.1999999999998</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5976.6</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5356.5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5367.7</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5889.1</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5355.3</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3860.5</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>4915.1000000000004</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>4879</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>4911.5</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5205.5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>3887.7</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>3500.1</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>4756.5</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>5375.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
         <v>1325.7</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1191.2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2992.3</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3099.4</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2285.3000000000002</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3018.7</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2720.4</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1616.5</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2291</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1909</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3083.3</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2488</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2369.1999999999998</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2132.1999999999998</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2841</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2254.1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
         <v>3324.3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2132.4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2487.1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2161.6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2086.1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1912.3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1814.6</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1877.9</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1936.8</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2302.5</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1718.3</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1814.1</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2042.4</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2720.6</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2473.3000000000002</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1972</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1653.6</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1506.8</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3475.2</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2048.9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
         <v>2847.4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2405.1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2425.4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2214.1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1702.1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2186.4</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2166.4</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3530.5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2473.8000000000002</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2755.4</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2081.5</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2684.8</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2529.9</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2687.2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3031.1</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2563.3000000000002</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1263.8</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1915.4</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3336</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2190.6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
         <v>1689.3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1309.2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1023.3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1270</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>769.5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>619.5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1457.5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1781</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1244.5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1065.8</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1096.9000000000001</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1197.3</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>770.2</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>933</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>895</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>970.8</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>658</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1468.8</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1922.1</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>815</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
         <v>2650.3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3100</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2327.1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2494.6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1613.9</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1881.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1549.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2339.1</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1690.1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2139.8000000000002</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2004.5</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1854.3</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2421.1999999999998</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2597</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2938.4</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2098.1</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1489</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1480.1</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2723.8</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
         <v>4341.3999999999996</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2908.5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3242.1</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3390.9</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2778.5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3126.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2187</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2655.5</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2917.5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2829</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3017.6</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2320</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2950.4</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3605.7</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>3254</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>3318.3</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2960.3</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2693.7</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>3684.1</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2993.7</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
         <v>2544</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1312.8</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2435.9</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2352.3000000000002</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1965.1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>871.3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1927.4</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2655.8</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2283.9</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2075</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2153.1999999999998</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1426.8</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2093.9</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1553.5</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1960.3</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2020.4</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1258</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1148.5999999999999</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1820.5</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1613.1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
         <v>7205.1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3952.1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6595.7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5105.3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2662.3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2698.6</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3207.1</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4075.8</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4548.3</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5466.3</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3990.9</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4682.3</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4738.2</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4443.8</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>4732.8999999999996</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4265.1000000000004</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2723.4</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>4069.1</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4724.1000000000004</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>4765.3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
         <v>3063.4</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2333.9</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1955.4</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2206.4</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1455.8</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1479.2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2404.8000000000002</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3004.8</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3228.8</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2822.4</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3851.3</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1797.8</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1932.1</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1725.3</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3090.9</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2933.8</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2191.1999999999998</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1878</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2293.4</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2568</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
         <v>2865.1</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1373.2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2643.7</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2679</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1177.8</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>967.6</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2301.8000000000002</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2777.5</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2590.5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2672.6</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2575.5</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1321.6</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2070.3000000000002</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1713.8</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2993.5</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2343.5</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1893.3</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1571</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2211</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>2306</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
         <v>1605.6</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>973</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1244.7</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1949.1</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1080</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>513</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1325.1</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1784.4</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1372.6</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2203.6999999999998</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1613.5</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>997.3</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1182.4000000000001</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>605</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1660.8</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1921.4</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1154.2</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1148</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1452.8</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>955.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15">
         <v>866.4</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1259.5</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1215.9000000000001</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1864.6</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1592.2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
         <v>1702.7</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1723</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2938.2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>4696.7</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4519.2</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3847</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4063.8</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3588.9</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2423.8000000000002</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2548.3000000000002</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3583.8</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3535.1</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2149.4</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2317.4</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>3264.3</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2641.5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
         <v>5828.8</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>3495.4</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5238.2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5080.1000000000004</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2730.9</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2400.6</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4878.3</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4961.8999999999996</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>4439.2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5287.7</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>4814</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>3403.2</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>4070.5</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>4111.2</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3904.6</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4078</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>3206.7</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>3327</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>4348.3</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>4808.3999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
         <v>2446.6999999999998</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1603.6</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1351.5</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2979.7</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1392.1</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>941.1</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1411</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2985.6</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2317.8000000000002</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2063.9</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2510.6</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1826.5</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1532.5</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1021.7</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2201.3000000000002</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2580.5</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1342.1</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1790.3</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1885.7</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1854.8</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
         <v>2088.3000000000002</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1157.0999999999999</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1756.1</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2293.1</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1091</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>877.7</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2261.8000000000002</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2384.1999999999998</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2127.5</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1963.9</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2166.6</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1119.5</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1605.1</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1222.5999999999999</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2741.2</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2043.5</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1150.3</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1417.8</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2027.5</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1394</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
         <v>3557.5</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1677</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2460.5</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2568.5</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1062.3</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1348.5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1983</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2777</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1901</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2525.5</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2312</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2535.6</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1769.3</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2199.5</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2303</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1970.9</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1226.5999999999999</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1784.6</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>3109.2</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1948.2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
         <v>2433.9</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>2763.6</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1569</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2556.5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1037.5</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1326</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1439.5</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2821.4</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2045.5</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2194</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2591.3000000000002</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1756.3</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2160.6999999999998</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1796.7</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2196.6999999999998</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1688.2</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1942</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1344</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>3103.5</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>1124.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
         <v>5438.1</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2746.7</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5404.4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3642.4</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2607.3000000000002</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2155.8000000000002</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3886.2</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>4240.8999999999996</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3723.5</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4063.7</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3673.6</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>3654.6</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3303.6</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3727</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>3908.8</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>3768.2</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2574</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>3151.6</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>3841.4</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>3857.6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23">
         <v>935</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1502</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1544.5</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>994.1</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1025.2</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>884.3</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>972.6</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>780.3</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>893</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1400.8</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>905.8</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1109.5999999999999</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1873.1</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24">
         <v>1015.8</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1208</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1468.5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1088.7</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1059</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1170.5999999999999</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1206.2</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>792.8</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1914.4</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1033.4000000000001</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>908.2</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1026.8</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1354.9</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
         <v>1258.4000000000001</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1054.5999999999999</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1144</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1459.7</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>940.6</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>786.1</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1215.5999999999999</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1589.5</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1506.8</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>979.4</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1512.6</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>969.8</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>688.2</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>609.4</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>921.9</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>947</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>819.5</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1752.7</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1795.4</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>953.8</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
         <v>2177.3000000000002</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1390.4</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1797</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1981.2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1315.6</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>930.6</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2260.6999999999998</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2574.5</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2171.9</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2432.9</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2477.8000000000002</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1978.7</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2054.4</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1204.9000000000001</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2202.5</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2133</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1466.1</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1526.3</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1522.3</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1652.2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
         <v>1840.1</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2135.1999999999998</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1754.4</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2106.5</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1212.0999999999999</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>898.5</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1107.9000000000001</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>3148.5</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1867.2</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2207.3000000000002</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1950</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1366.6</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1779.2</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1218.8</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2425.6999999999998</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1688.5</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1268.0999999999999</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1481</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2720.9</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1195.2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
         <v>4404.7</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1958.1</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2744</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2862.1</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1346.4</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1192.5</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2829.8</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>3027.8</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2288.4</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3015.9</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2969.2</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1669.2</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2278.3000000000002</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1758.6</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2910.3</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2541.4</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2147.3000000000002</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2519.1999999999998</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>2431.6999999999998</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29">
         <v>2418.9</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2107.1999999999998</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2105.6999999999998</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1933.1</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1560.6</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1674.1</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1445.6</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1577.1</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1772.3</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1732.3</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1642.4</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1380.9</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1973.8</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2510.6</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2118.1999999999998</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1867.8</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1194.2</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1222.8</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>2852.5</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1971.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
         <v>4945.3</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2196.9</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>4211.8</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3521.9</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1651.3</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1412.7</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2556.5</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3329.8</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2730.4</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>3115.1</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2846</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2930.2</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2542.4</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2781.9</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2916.1</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2552.8000000000002</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2095</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2579.4</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>2678</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3327.9</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:V31" si="0">SUM(C2:C30)/29</f>
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:W31" si="0">SUM(D2:D30)/29</f>
         <v>2806.3689655172411</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>1825.8344827586204</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>2331.1344827586204</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="0"/>
         <v>2363.4344827586201</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>1502.6689655172415</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>1376.8034482758617</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>2264.3931034482757</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="0"/>
         <v>2881.5034482758624</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <f t="shared" si="0"/>
         <v>2541.1827586206891</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f t="shared" si="0"/>
         <v>2682.5689655172414</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <f t="shared" si="0"/>
         <v>2609.6448275862062</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <f t="shared" si="0"/>
         <v>2104.4896551724132</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <f t="shared" si="0"/>
         <v>2205.251724137931</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <f t="shared" si="0"/>
         <v>2114.2344827586207</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f t="shared" si="0"/>
         <v>2666.6482758620691</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="0"/>
         <v>2474.5448275862068</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f t="shared" si="0"/>
         <v>1804.4448275862069</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="0"/>
         <v>1982.4655172413793</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <f t="shared" si="0"/>
         <v>2757.7758620689651</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <f t="shared" si="0"/>
         <v>2294.1034482758614</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
         <v>29215.600000000002</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>15831.6</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>26814.799999999996</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>24623.200000000001</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>15357.9</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>12170.900000000001</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>27054.2</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>28503.999999999996</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>25106</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>27986.600000000002</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>26427.8</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>18071.899999999998</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>22627.799999999996</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>20874.699999999997</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>26413.5</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>25354.9</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>19745.999999999996</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>19983.399999999998</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>26142.500000000004</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>25540.2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33">
         <v>13657.2</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>9375.7999999999993</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>9442</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>13133.7</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>9142.7000000000007</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>7885.7000000000007</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>14532.2</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>20846.499999999996</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>18941.100000000002</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>18412.7</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>20403.699999999997</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>15411.2</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>12779.800000000001</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>10760.800000000001</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>17905.599999999999</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>18069.900000000001</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>11475.400000000001</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>12073.3</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>14480.2</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>14034.4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34">
         <v>8182.7000000000007</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>9053.4</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>6794.5</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>8617.3000000000011</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>4804.1000000000004</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4892.1000000000004</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5312.5</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>9898.5</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>7109.6</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>7520.5</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>8058.4</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>5947</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>7049.2999999999993</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>6221.9</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>8482.7000000000007</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>6421.8</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>5518.6</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>6057.8</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>10343.6</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>4993.5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
         <v>28639.9</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>17379.2</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>23528.3</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>20895.400000000001</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>13503.199999999999</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>14359.1</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>15360.2</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>19823.599999999999</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>18280.100000000002</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>20726.099999999999</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>17608.699999999997</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>18347.900000000001</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>18546.400000000001</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>20949.3</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>20828.599999999999</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>18510.2</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>13116.900000000001</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>15771.8</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>23859.1</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>19246.100000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
         <v>1689.3</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1309.2</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1023.3</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1270</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>769.5</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>619.5</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>3408.3</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>4491</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>4257.5</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>3148.6000000000004</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>3181.1000000000004</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>3252.2</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2949</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>2506.1</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>3702.4</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>3405</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2472</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>3605.2</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>5150.1000000000004</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>2714.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>2</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-      <c r="O38">
-        <v>2</v>
-      </c>
-      <c r="P38">
-        <v>2</v>
-      </c>
-      <c r="Q38">
-        <v>2</v>
-      </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
-        <v>2</v>
-      </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39">
-        <v>3</v>
-      </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>3</v>
-      </c>
-      <c r="M39">
-        <v>3</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
-      </c>
-      <c r="Q39">
-        <v>3</v>
-      </c>
-      <c r="R39">
-        <v>3</v>
-      </c>
-      <c r="S39">
-        <v>3</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>3</v>
-      </c>
-      <c r="V39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41">
-        <v>4</v>
-      </c>
-      <c r="K41">
-        <v>4</v>
-      </c>
-      <c r="L41">
-        <v>4</v>
-      </c>
-      <c r="M41">
-        <v>4</v>
-      </c>
-      <c r="N41">
-        <v>4</v>
-      </c>
-      <c r="O41">
-        <v>4</v>
-      </c>
-      <c r="P41">
-        <v>4</v>
-      </c>
-      <c r="Q41">
-        <v>4</v>
-      </c>
-      <c r="R41">
-        <v>4</v>
-      </c>
-      <c r="S41">
-        <v>4</v>
-      </c>
-      <c r="T41">
-        <v>4</v>
-      </c>
-      <c r="U41">
-        <v>4</v>
-      </c>
-      <c r="V41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-      <c r="J42">
-        <v>5</v>
-      </c>
-      <c r="K42">
-        <v>5</v>
-      </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-      <c r="M42">
-        <v>5</v>
-      </c>
-      <c r="N42">
-        <v>5</v>
-      </c>
-      <c r="O42">
-        <v>5</v>
-      </c>
-      <c r="P42">
-        <v>5</v>
-      </c>
-      <c r="Q42">
-        <v>5</v>
-      </c>
-      <c r="R42">
-        <v>5</v>
-      </c>
-      <c r="S42">
-        <v>5</v>
-      </c>
-      <c r="T42">
-        <v>5</v>
-      </c>
-      <c r="U42">
-        <v>5</v>
-      </c>
-      <c r="V42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
-      </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="L43">
-        <v>5</v>
-      </c>
-      <c r="M43">
-        <v>5</v>
-      </c>
-      <c r="N43">
-        <v>5</v>
-      </c>
-      <c r="O43">
-        <v>5</v>
-      </c>
-      <c r="P43">
-        <v>5</v>
-      </c>
-      <c r="Q43">
-        <v>5</v>
-      </c>
-      <c r="R43">
-        <v>5</v>
-      </c>
-      <c r="S43">
-        <v>5</v>
-      </c>
-      <c r="T43">
-        <v>5</v>
-      </c>
-      <c r="U43">
-        <v>5</v>
-      </c>
-      <c r="V43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="M45">
-        <v>2</v>
-      </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
-      <c r="P45">
-        <v>2</v>
-      </c>
-      <c r="Q45">
-        <v>2</v>
-      </c>
-      <c r="R45">
-        <v>2</v>
-      </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>2</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46">
-        <v>1</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47">
-        <v>4</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
-      <c r="I47">
-        <v>4</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47">
-        <v>4</v>
-      </c>
-      <c r="L47">
-        <v>4</v>
-      </c>
-      <c r="M47">
-        <v>4</v>
-      </c>
-      <c r="N47">
-        <v>4</v>
-      </c>
-      <c r="O47">
-        <v>4</v>
-      </c>
-      <c r="P47">
-        <v>4</v>
-      </c>
-      <c r="Q47">
-        <v>4</v>
-      </c>
-      <c r="R47">
-        <v>4</v>
-      </c>
-      <c r="S47">
-        <v>4</v>
-      </c>
-      <c r="T47">
-        <v>4</v>
-      </c>
-      <c r="U47">
-        <v>4</v>
-      </c>
-      <c r="V47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48">
-        <v>3</v>
-      </c>
-      <c r="K48">
-        <v>3</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-      <c r="M48">
-        <v>3</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <v>3</v>
-      </c>
-      <c r="P48">
-        <v>3</v>
-      </c>
-      <c r="Q48">
-        <v>3</v>
-      </c>
-      <c r="R48">
-        <v>3</v>
-      </c>
-      <c r="S48">
-        <v>3</v>
-      </c>
-      <c r="T48">
-        <v>3</v>
-      </c>
-      <c r="U48">
-        <v>3</v>
-      </c>
-      <c r="V48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="J49">
-        <v>4</v>
-      </c>
-      <c r="K49">
-        <v>4</v>
-      </c>
-      <c r="L49">
-        <v>4</v>
-      </c>
-      <c r="M49">
-        <v>4</v>
-      </c>
-      <c r="N49">
-        <v>4</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="P49">
-        <v>4</v>
-      </c>
-      <c r="Q49">
-        <v>4</v>
-      </c>
-      <c r="R49">
-        <v>4</v>
-      </c>
-      <c r="S49">
-        <v>4</v>
-      </c>
-      <c r="T49">
-        <v>4</v>
-      </c>
-      <c r="U49">
-        <v>4</v>
-      </c>
-      <c r="V49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
-      </c>
-      <c r="J50">
-        <v>4</v>
-      </c>
-      <c r="K50">
-        <v>4</v>
-      </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
-      <c r="M50">
-        <v>4</v>
-      </c>
-      <c r="N50">
-        <v>4</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
-      <c r="P50">
-        <v>4</v>
-      </c>
-      <c r="Q50">
-        <v>4</v>
-      </c>
-      <c r="R50">
-        <v>4</v>
-      </c>
-      <c r="S50">
-        <v>4</v>
-      </c>
-      <c r="T50">
-        <v>4</v>
-      </c>
-      <c r="U50">
-        <v>4</v>
-      </c>
-      <c r="V50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-      <c r="K51">
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <v>2</v>
-      </c>
-      <c r="M51">
-        <v>2</v>
-      </c>
-      <c r="N51">
-        <v>2</v>
-      </c>
-      <c r="O51">
-        <v>2</v>
-      </c>
-      <c r="P51">
-        <v>2</v>
-      </c>
-      <c r="Q51">
-        <v>2</v>
-      </c>
-      <c r="R51">
-        <v>2</v>
-      </c>
-      <c r="S51">
-        <v>2</v>
-      </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
-      <c r="U51">
-        <v>2</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
-      </c>
-      <c r="J53">
-        <v>3</v>
-      </c>
-      <c r="K53">
-        <v>3</v>
-      </c>
-      <c r="L53">
-        <v>3</v>
-      </c>
-      <c r="M53">
-        <v>3</v>
-      </c>
-      <c r="N53">
-        <v>3</v>
-      </c>
-      <c r="O53">
-        <v>3</v>
-      </c>
-      <c r="P53">
-        <v>3</v>
-      </c>
-      <c r="Q53">
-        <v>3</v>
-      </c>
-      <c r="R53">
-        <v>3</v>
-      </c>
-      <c r="S53">
-        <v>3</v>
-      </c>
-      <c r="T53">
-        <v>3</v>
-      </c>
-      <c r="U53">
-        <v>3</v>
-      </c>
-      <c r="V53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-      <c r="F54">
-        <v>5</v>
-      </c>
-      <c r="G54">
-        <v>5</v>
-      </c>
-      <c r="H54">
-        <v>5</v>
-      </c>
-      <c r="I54">
-        <v>5</v>
-      </c>
-      <c r="J54">
-        <v>5</v>
-      </c>
-      <c r="K54">
-        <v>5</v>
-      </c>
-      <c r="L54">
-        <v>5</v>
-      </c>
-      <c r="M54">
-        <v>5</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>5</v>
-      </c>
-      <c r="P54">
-        <v>5</v>
-      </c>
-      <c r="Q54">
-        <v>5</v>
-      </c>
-      <c r="R54">
-        <v>5</v>
-      </c>
-      <c r="S54">
-        <v>5</v>
-      </c>
-      <c r="T54">
-        <v>5</v>
-      </c>
-      <c r="U54">
-        <v>5</v>
-      </c>
-      <c r="V54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -11453,83 +10050,83 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <f>SUM('20181103year_gp3'!C2:C17)</f>
+        <f>SUM('20181103year_gp3'!D2:D17)</f>
         <v>48375.5</v>
       </c>
       <c r="D2">
-        <f>SUM('20181103year_gp3'!D2:D17)</f>
+        <f>SUM('20181103year_gp3'!E2:E17)</f>
         <v>32158.800000000003</v>
       </c>
       <c r="E2">
-        <f>SUM('20181103year_gp3'!E2:E17)</f>
+        <f>SUM('20181103year_gp3'!F2:F17)</f>
         <v>41304.499999999993</v>
       </c>
       <c r="F2">
-        <f>SUM('20181103year_gp3'!F2:F17)</f>
+        <f>SUM('20181103year_gp3'!G2:G17)</f>
         <v>40634.899999999994</v>
       </c>
       <c r="G2">
-        <f>SUM('20181103year_gp3'!G2:G17)</f>
+        <f>SUM('20181103year_gp3'!H2:H17)</f>
         <v>28360.6</v>
       </c>
       <c r="H2">
-        <f>SUM('20181103year_gp3'!H2:H17)</f>
+        <f>SUM('20181103year_gp3'!I2:I17)</f>
         <v>26383.699999999997</v>
       </c>
       <c r="I2">
-        <f>SUM('20181103year_gp3'!I2:I17)</f>
+        <f>SUM('20181103year_gp3'!J2:J17)</f>
         <v>41319</v>
       </c>
       <c r="J2">
-        <f>SUM('20181103year_gp3'!J2:J17)</f>
+        <f>SUM('20181103year_gp3'!K2:K17)</f>
         <v>50397.3</v>
       </c>
       <c r="K2">
-        <f>SUM('20181103year_gp3'!K2:K17)</f>
+        <f>SUM('20181103year_gp3'!L2:L17)</f>
         <v>46228.999999999993</v>
       </c>
       <c r="L2">
-        <f>SUM('20181103year_gp3'!L2:L17)</f>
+        <f>SUM('20181103year_gp3'!M2:M17)</f>
         <v>49417.799999999996</v>
       </c>
       <c r="M2">
-        <f>SUM('20181103year_gp3'!M2:M17)</f>
+        <f>SUM('20181103year_gp3'!N2:N17)</f>
         <v>46943.4</v>
       </c>
       <c r="N2">
-        <f>SUM('20181103year_gp3'!N2:N17)</f>
+        <f>SUM('20181103year_gp3'!O2:O17)</f>
         <v>37787.399999999994</v>
       </c>
       <c r="O2">
-        <f>SUM('20181103year_gp3'!O2:O17)</f>
+        <f>SUM('20181103year_gp3'!P2:P17)</f>
         <v>40086.000000000007</v>
       </c>
       <c r="P2">
-        <f>SUM('20181103year_gp3'!P2:P17)</f>
+        <f>SUM('20181103year_gp3'!Q2:Q17)</f>
         <v>39688</v>
       </c>
       <c r="Q2">
-        <f>SUM('20181103year_gp3'!Q2:Q17)</f>
+        <f>SUM('20181103year_gp3'!R2:R17)</f>
         <v>47679.700000000004</v>
       </c>
       <c r="R2">
-        <f>SUM('20181103year_gp3'!R2:R17)</f>
+        <f>SUM('20181103year_gp3'!S2:S17)</f>
         <v>45545.8</v>
       </c>
       <c r="S2">
-        <f>SUM('20181103year_gp3'!S2:S17)</f>
+        <f>SUM('20181103year_gp3'!T2:T17)</f>
         <v>33289.700000000004</v>
       </c>
       <c r="T2">
-        <f>SUM('20181103year_gp3'!T2:T17)</f>
+        <f>SUM('20181103year_gp3'!U2:U17)</f>
         <v>34785.399999999994</v>
       </c>
       <c r="U2">
-        <f>SUM('20181103year_gp3'!U2:U17)</f>
+        <f>SUM('20181103year_gp3'!V2:V17)</f>
         <v>48779.400000000009</v>
       </c>
       <c r="V2">
-        <f>SUM('20181103year_gp3'!V2:V17)</f>
+        <f>SUM('20181103year_gp3'!W2:W17)</f>
         <v>43009.799999999996</v>
       </c>
     </row>

--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -4,23 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="156" windowWidth="19176" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="156" windowWidth="19176" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20181103year_gp2" sheetId="1" r:id="rId1"/>
     <sheet name="20181103year_gp3" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
     <sheet name="區域整理" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表2" sheetId="6" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20181103year_gp3'!$D$1:$D$59</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="67">
   <si>
     <t>阿里山</t>
   </si>
@@ -208,47 +206,55 @@
     <t>縣市</t>
   </si>
   <si>
-    <t>地區分色</t>
+    <t>「地區分色」(Y軸請勿選取)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>南部</t>
+    <t>縣市(可搭配Color選取「地區分色」)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>北部</t>
+    <t>區域(可搭配Color選取「地區分色」)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>東部</t>
+    <t>區域(可搭配Color選取「地區分色」)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>中部</t>
+    <t>區域(可搭配Color選取「地區分色」)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>縣市</t>
+    <t>縣市(可搭配Color選取「地區分色」)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>離島</t>
+    <t>基準線</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>區域</t>
+    <t>「地區分色」(Y軸請勿選取)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>「地區分色」(Y軸請勿選取)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>全台各測站</t>
+    <t>其他測站</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>其他地區測站</t>
+    <t>其他測站</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全台各測站平均</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全台各測站平均</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -928,6 +934,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1103,6 +1110,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7471,2487 +7479,3883 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
+      <c r="C1">
+        <v>87</v>
       </c>
       <c r="D1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V1">
-        <v>105</v>
-      </c>
-      <c r="W1">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>4364.2</v>
       </c>
       <c r="D2">
-        <v>4364.2</v>
+        <v>3074.9</v>
       </c>
       <c r="E2">
-        <v>3074.9</v>
+        <v>3093.4</v>
       </c>
       <c r="F2">
-        <v>3093.4</v>
+        <v>4017.3</v>
       </c>
       <c r="G2">
-        <v>4017.3</v>
+        <v>2196.5</v>
       </c>
       <c r="H2">
-        <v>2196.5</v>
+        <v>2298.8000000000002</v>
       </c>
       <c r="I2">
-        <v>2298.8000000000002</v>
+        <v>4192.3999999999996</v>
       </c>
       <c r="J2">
-        <v>4192.3999999999996</v>
+        <v>5800.5</v>
       </c>
       <c r="K2">
-        <v>5800.5</v>
+        <v>5330.8</v>
       </c>
       <c r="L2">
-        <v>5330.8</v>
+        <v>5042.8</v>
       </c>
       <c r="M2">
-        <v>5042.8</v>
+        <v>5886.7</v>
       </c>
       <c r="N2">
-        <v>5886.7</v>
+        <v>5222</v>
       </c>
       <c r="O2">
-        <v>5222</v>
+        <v>3654.6</v>
       </c>
       <c r="P2">
-        <v>3654.6</v>
+        <v>3655.6</v>
       </c>
       <c r="Q2">
-        <v>3655.6</v>
+        <v>5166.3</v>
       </c>
       <c r="R2">
-        <v>5166.3</v>
+        <v>4966.1000000000004</v>
       </c>
       <c r="S2">
-        <v>4966.1000000000004</v>
+        <v>3172.4</v>
       </c>
       <c r="T2">
-        <v>3172.4</v>
+        <v>3413.3</v>
       </c>
       <c r="U2">
-        <v>3413.3</v>
+        <v>4061.7</v>
       </c>
       <c r="V2">
-        <v>4061.7</v>
-      </c>
-      <c r="W2">
         <v>4362.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>6046.6</v>
       </c>
       <c r="D3">
-        <v>6046.6</v>
+        <v>3788.3</v>
       </c>
       <c r="E3">
-        <v>3788.3</v>
+        <v>6592.5</v>
       </c>
       <c r="F3">
-        <v>6592.5</v>
+        <v>5714.2</v>
       </c>
       <c r="G3">
-        <v>5714.2</v>
+        <v>3113.7</v>
       </c>
       <c r="H3">
-        <v>3113.7</v>
+        <v>2514.1999999999998</v>
       </c>
       <c r="I3">
-        <v>2514.1999999999998</v>
+        <v>5976.6</v>
       </c>
       <c r="J3">
-        <v>5976.6</v>
+        <v>5356.5</v>
       </c>
       <c r="K3">
-        <v>5356.5</v>
+        <v>5367.7</v>
       </c>
       <c r="L3">
-        <v>5367.7</v>
+        <v>5889.1</v>
       </c>
       <c r="M3">
-        <v>5889.1</v>
+        <v>5355.3</v>
       </c>
       <c r="N3">
-        <v>5355.3</v>
+        <v>3860.5</v>
       </c>
       <c r="O3">
-        <v>3860.5</v>
+        <v>4915.1000000000004</v>
       </c>
       <c r="P3">
-        <v>4915.1000000000004</v>
+        <v>4879</v>
       </c>
       <c r="Q3">
-        <v>4879</v>
+        <v>4911.5</v>
       </c>
       <c r="R3">
-        <v>4911.5</v>
+        <v>5205.5</v>
       </c>
       <c r="S3">
-        <v>5205.5</v>
+        <v>3887.7</v>
       </c>
       <c r="T3">
-        <v>3887.7</v>
+        <v>3500.1</v>
       </c>
       <c r="U3">
-        <v>3500.1</v>
+        <v>4756.5</v>
       </c>
       <c r="V3">
-        <v>4756.5</v>
-      </c>
-      <c r="W3">
         <v>5375.1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>1325.7</v>
       </c>
       <c r="H4">
-        <v>1325.7</v>
+        <v>1191.2</v>
       </c>
       <c r="I4">
-        <v>1191.2</v>
+        <v>2992.3</v>
       </c>
       <c r="J4">
-        <v>2992.3</v>
+        <v>3099.4</v>
       </c>
       <c r="K4">
-        <v>3099.4</v>
+        <v>2285.3000000000002</v>
       </c>
       <c r="L4">
-        <v>2285.3000000000002</v>
+        <v>3018.7</v>
       </c>
       <c r="M4">
-        <v>3018.7</v>
+        <v>2720.4</v>
       </c>
       <c r="N4">
-        <v>2720.4</v>
+        <v>1616.5</v>
       </c>
       <c r="O4">
-        <v>1616.5</v>
+        <v>2291</v>
       </c>
       <c r="P4">
-        <v>2291</v>
+        <v>1909</v>
       </c>
       <c r="Q4">
-        <v>1909</v>
+        <v>3083.3</v>
       </c>
       <c r="R4">
-        <v>3083.3</v>
+        <v>2488</v>
       </c>
       <c r="S4">
-        <v>2488</v>
+        <v>2369.1999999999998</v>
       </c>
       <c r="T4">
-        <v>2369.1999999999998</v>
+        <v>2132.1999999999998</v>
       </c>
       <c r="U4">
-        <v>2132.1999999999998</v>
+        <v>2841</v>
       </c>
       <c r="V4">
-        <v>2841</v>
-      </c>
-      <c r="W4">
         <v>2254.1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>3324.3</v>
       </c>
       <c r="D5">
-        <v>3324.3</v>
+        <v>2132.4</v>
       </c>
       <c r="E5">
-        <v>2132.4</v>
+        <v>2487.1</v>
       </c>
       <c r="F5">
-        <v>2487.1</v>
+        <v>2161.6</v>
       </c>
       <c r="G5">
-        <v>2161.6</v>
+        <v>2086.1</v>
       </c>
       <c r="H5">
-        <v>2086.1</v>
+        <v>1912.3</v>
       </c>
       <c r="I5">
-        <v>1912.3</v>
+        <v>1814.6</v>
       </c>
       <c r="J5">
-        <v>1814.6</v>
+        <v>1877.9</v>
       </c>
       <c r="K5">
-        <v>1877.9</v>
+        <v>1936.8</v>
       </c>
       <c r="L5">
-        <v>1936.8</v>
+        <v>2302.5</v>
       </c>
       <c r="M5">
-        <v>2302.5</v>
+        <v>1718.3</v>
       </c>
       <c r="N5">
-        <v>1718.3</v>
+        <v>1814.1</v>
       </c>
       <c r="O5">
-        <v>1814.1</v>
+        <v>2042.4</v>
       </c>
       <c r="P5">
-        <v>2042.4</v>
+        <v>2720.6</v>
       </c>
       <c r="Q5">
-        <v>2720.6</v>
+        <v>2473.3000000000002</v>
       </c>
       <c r="R5">
-        <v>2473.3000000000002</v>
+        <v>1972</v>
       </c>
       <c r="S5">
-        <v>1972</v>
+        <v>1653.6</v>
       </c>
       <c r="T5">
-        <v>1653.6</v>
+        <v>1506.8</v>
       </c>
       <c r="U5">
-        <v>1506.8</v>
+        <v>3475.2</v>
       </c>
       <c r="V5">
-        <v>3475.2</v>
-      </c>
-      <c r="W5">
         <v>2048.9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>2847.4</v>
       </c>
       <c r="D6">
-        <v>2847.4</v>
+        <v>2405.1</v>
       </c>
       <c r="E6">
-        <v>2405.1</v>
+        <v>2425.4</v>
       </c>
       <c r="F6">
-        <v>2425.4</v>
+        <v>2214.1</v>
       </c>
       <c r="G6">
-        <v>2214.1</v>
+        <v>1702.1</v>
       </c>
       <c r="H6">
-        <v>1702.1</v>
+        <v>2186.4</v>
       </c>
       <c r="I6">
-        <v>2186.4</v>
+        <v>2166.4</v>
       </c>
       <c r="J6">
-        <v>2166.4</v>
+        <v>3530.5</v>
       </c>
       <c r="K6">
-        <v>3530.5</v>
+        <v>2473.8000000000002</v>
       </c>
       <c r="L6">
-        <v>2473.8000000000002</v>
+        <v>2755.4</v>
       </c>
       <c r="M6">
-        <v>2755.4</v>
+        <v>2081.5</v>
       </c>
       <c r="N6">
-        <v>2081.5</v>
+        <v>2684.8</v>
       </c>
       <c r="O6">
-        <v>2684.8</v>
+        <v>2529.9</v>
       </c>
       <c r="P6">
-        <v>2529.9</v>
+        <v>2687.2</v>
       </c>
       <c r="Q6">
-        <v>2687.2</v>
+        <v>3031.1</v>
       </c>
       <c r="R6">
-        <v>3031.1</v>
+        <v>2563.3000000000002</v>
       </c>
       <c r="S6">
-        <v>2563.3000000000002</v>
+        <v>1263.8</v>
       </c>
       <c r="T6">
-        <v>1263.8</v>
+        <v>1915.4</v>
       </c>
       <c r="U6">
-        <v>1915.4</v>
+        <v>3336</v>
       </c>
       <c r="V6">
-        <v>3336</v>
-      </c>
-      <c r="W6">
         <v>2190.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>1689.3</v>
       </c>
       <c r="D7">
-        <v>1689.3</v>
+        <v>1309.2</v>
       </c>
       <c r="E7">
-        <v>1309.2</v>
+        <v>1023.3</v>
       </c>
       <c r="F7">
-        <v>1023.3</v>
+        <v>1270</v>
       </c>
       <c r="G7">
-        <v>1270</v>
+        <v>769.5</v>
       </c>
       <c r="H7">
-        <v>769.5</v>
+        <v>619.5</v>
       </c>
       <c r="I7">
-        <v>619.5</v>
+        <v>1457.5</v>
       </c>
       <c r="J7">
-        <v>1457.5</v>
+        <v>1781</v>
       </c>
       <c r="K7">
-        <v>1781</v>
+        <v>1244.5</v>
       </c>
       <c r="L7">
-        <v>1244.5</v>
+        <v>1065.8</v>
       </c>
       <c r="M7">
-        <v>1065.8</v>
+        <v>1096.9000000000001</v>
       </c>
       <c r="N7">
-        <v>1096.9000000000001</v>
+        <v>1197.3</v>
       </c>
       <c r="O7">
-        <v>1197.3</v>
+        <v>770.2</v>
       </c>
       <c r="P7">
-        <v>770.2</v>
+        <v>933</v>
       </c>
       <c r="Q7">
-        <v>933</v>
+        <v>895</v>
       </c>
       <c r="R7">
-        <v>895</v>
+        <v>970.8</v>
       </c>
       <c r="S7">
-        <v>970.8</v>
+        <v>658</v>
       </c>
       <c r="T7">
-        <v>658</v>
+        <v>1468.8</v>
       </c>
       <c r="U7">
-        <v>1468.8</v>
+        <v>1922.1</v>
       </c>
       <c r="V7">
-        <v>1922.1</v>
-      </c>
-      <c r="W7">
         <v>815</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>2650.3</v>
       </c>
       <c r="D8">
-        <v>2650.3</v>
+        <v>3100</v>
       </c>
       <c r="E8">
-        <v>3100</v>
+        <v>2327.1</v>
       </c>
       <c r="F8">
-        <v>2327.1</v>
+        <v>2494.6</v>
       </c>
       <c r="G8">
-        <v>2494.6</v>
+        <v>1613.9</v>
       </c>
       <c r="H8">
-        <v>1613.9</v>
+        <v>1881.5</v>
       </c>
       <c r="I8">
-        <v>1881.5</v>
+        <v>1549.5</v>
       </c>
       <c r="J8">
-        <v>1549.5</v>
+        <v>2339.1</v>
       </c>
       <c r="K8">
-        <v>2339.1</v>
+        <v>1690.1</v>
       </c>
       <c r="L8">
-        <v>1690.1</v>
+        <v>2139.8000000000002</v>
       </c>
       <c r="M8">
-        <v>2139.8000000000002</v>
+        <v>2004.5</v>
       </c>
       <c r="N8">
-        <v>2004.5</v>
+        <v>1854.3</v>
       </c>
       <c r="O8">
-        <v>1854.3</v>
+        <v>2421.1999999999998</v>
       </c>
       <c r="P8">
-        <v>2421.1999999999998</v>
+        <v>2597</v>
       </c>
       <c r="Q8">
-        <v>2597</v>
+        <v>2938.4</v>
       </c>
       <c r="R8">
-        <v>2938.4</v>
+        <v>2098.1</v>
       </c>
       <c r="S8">
-        <v>2098.1</v>
+        <v>1489</v>
       </c>
       <c r="T8">
-        <v>1489</v>
+        <v>1480.1</v>
       </c>
       <c r="U8">
-        <v>1480.1</v>
+        <v>2723.8</v>
       </c>
       <c r="V8">
-        <v>2723.8</v>
-      </c>
-      <c r="W8">
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>4341.3999999999996</v>
       </c>
       <c r="D9">
-        <v>4341.3999999999996</v>
+        <v>2908.5</v>
       </c>
       <c r="E9">
-        <v>2908.5</v>
+        <v>3242.1</v>
       </c>
       <c r="F9">
-        <v>3242.1</v>
+        <v>3390.9</v>
       </c>
       <c r="G9">
-        <v>3390.9</v>
+        <v>2778.5</v>
       </c>
       <c r="H9">
-        <v>2778.5</v>
+        <v>3126.5</v>
       </c>
       <c r="I9">
-        <v>3126.5</v>
+        <v>2187</v>
       </c>
       <c r="J9">
-        <v>2187</v>
+        <v>2655.5</v>
       </c>
       <c r="K9">
-        <v>2655.5</v>
+        <v>2917.5</v>
       </c>
       <c r="L9">
-        <v>2917.5</v>
+        <v>2829</v>
       </c>
       <c r="M9">
-        <v>2829</v>
+        <v>3017.6</v>
       </c>
       <c r="N9">
-        <v>3017.6</v>
+        <v>2320</v>
       </c>
       <c r="O9">
-        <v>2320</v>
+        <v>2950.4</v>
       </c>
       <c r="P9">
-        <v>2950.4</v>
+        <v>3605.7</v>
       </c>
       <c r="Q9">
-        <v>3605.7</v>
+        <v>3254</v>
       </c>
       <c r="R9">
-        <v>3254</v>
+        <v>3318.3</v>
       </c>
       <c r="S9">
-        <v>3318.3</v>
+        <v>2960.3</v>
       </c>
       <c r="T9">
-        <v>2960.3</v>
+        <v>2693.7</v>
       </c>
       <c r="U9">
-        <v>2693.7</v>
+        <v>3684.1</v>
       </c>
       <c r="V9">
-        <v>3684.1</v>
-      </c>
-      <c r="W9">
         <v>2993.7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>2544</v>
       </c>
       <c r="D10">
-        <v>2544</v>
+        <v>1312.8</v>
       </c>
       <c r="E10">
-        <v>1312.8</v>
+        <v>2435.9</v>
       </c>
       <c r="F10">
-        <v>2435.9</v>
+        <v>2352.3000000000002</v>
       </c>
       <c r="G10">
-        <v>2352.3000000000002</v>
+        <v>1965.1</v>
       </c>
       <c r="H10">
-        <v>1965.1</v>
+        <v>871.3</v>
       </c>
       <c r="I10">
-        <v>871.3</v>
+        <v>1927.4</v>
       </c>
       <c r="J10">
-        <v>1927.4</v>
+        <v>2655.8</v>
       </c>
       <c r="K10">
-        <v>2655.8</v>
+        <v>2283.9</v>
       </c>
       <c r="L10">
-        <v>2283.9</v>
+        <v>2075</v>
       </c>
       <c r="M10">
-        <v>2075</v>
+        <v>2153.1999999999998</v>
       </c>
       <c r="N10">
-        <v>2153.1999999999998</v>
+        <v>1426.8</v>
       </c>
       <c r="O10">
-        <v>1426.8</v>
+        <v>2093.9</v>
       </c>
       <c r="P10">
-        <v>2093.9</v>
+        <v>1553.5</v>
       </c>
       <c r="Q10">
-        <v>1553.5</v>
+        <v>1960.3</v>
       </c>
       <c r="R10">
-        <v>1960.3</v>
+        <v>2020.4</v>
       </c>
       <c r="S10">
-        <v>2020.4</v>
+        <v>1258</v>
       </c>
       <c r="T10">
-        <v>1258</v>
+        <v>1148.5999999999999</v>
       </c>
       <c r="U10">
-        <v>1148.5999999999999</v>
+        <v>1820.5</v>
       </c>
       <c r="V10">
-        <v>1820.5</v>
-      </c>
-      <c r="W10">
         <v>1613.1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>7205.1</v>
       </c>
       <c r="D11">
-        <v>7205.1</v>
+        <v>3952.1</v>
       </c>
       <c r="E11">
-        <v>3952.1</v>
+        <v>6595.7</v>
       </c>
       <c r="F11">
-        <v>6595.7</v>
+        <v>5105.3</v>
       </c>
       <c r="G11">
-        <v>5105.3</v>
+        <v>2662.3</v>
       </c>
       <c r="H11">
-        <v>2662.3</v>
+        <v>2698.6</v>
       </c>
       <c r="I11">
-        <v>2698.6</v>
+        <v>3207.1</v>
       </c>
       <c r="J11">
-        <v>3207.1</v>
+        <v>4075.8</v>
       </c>
       <c r="K11">
-        <v>4075.8</v>
+        <v>4548.3</v>
       </c>
       <c r="L11">
-        <v>4548.3</v>
+        <v>5466.3</v>
       </c>
       <c r="M11">
-        <v>5466.3</v>
+        <v>3990.9</v>
       </c>
       <c r="N11">
-        <v>3990.9</v>
+        <v>4682.3</v>
       </c>
       <c r="O11">
-        <v>4682.3</v>
+        <v>4738.2</v>
       </c>
       <c r="P11">
-        <v>4738.2</v>
+        <v>4443.8</v>
       </c>
       <c r="Q11">
-        <v>4443.8</v>
+        <v>4732.8999999999996</v>
       </c>
       <c r="R11">
-        <v>4732.8999999999996</v>
+        <v>4265.1000000000004</v>
       </c>
       <c r="S11">
-        <v>4265.1000000000004</v>
+        <v>2723.4</v>
       </c>
       <c r="T11">
-        <v>2723.4</v>
+        <v>4069.1</v>
       </c>
       <c r="U11">
-        <v>4069.1</v>
+        <v>4724.1000000000004</v>
       </c>
       <c r="V11">
-        <v>4724.1000000000004</v>
-      </c>
-      <c r="W11">
         <v>4765.3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>3063.4</v>
       </c>
       <c r="D12">
-        <v>3063.4</v>
+        <v>2333.9</v>
       </c>
       <c r="E12">
-        <v>2333.9</v>
+        <v>1955.4</v>
       </c>
       <c r="F12">
-        <v>1955.4</v>
+        <v>2206.4</v>
       </c>
       <c r="G12">
-        <v>2206.4</v>
+        <v>1455.8</v>
       </c>
       <c r="H12">
-        <v>1455.8</v>
+        <v>1479.2</v>
       </c>
       <c r="I12">
-        <v>1479.2</v>
+        <v>2404.8000000000002</v>
       </c>
       <c r="J12">
-        <v>2404.8000000000002</v>
+        <v>3004.8</v>
       </c>
       <c r="K12">
-        <v>3004.8</v>
+        <v>3228.8</v>
       </c>
       <c r="L12">
-        <v>3228.8</v>
+        <v>2822.4</v>
       </c>
       <c r="M12">
-        <v>2822.4</v>
+        <v>3851.3</v>
       </c>
       <c r="N12">
-        <v>3851.3</v>
+        <v>1797.8</v>
       </c>
       <c r="O12">
-        <v>1797.8</v>
+        <v>1932.1</v>
       </c>
       <c r="P12">
-        <v>1932.1</v>
+        <v>1725.3</v>
       </c>
       <c r="Q12">
-        <v>1725.3</v>
+        <v>3090.9</v>
       </c>
       <c r="R12">
-        <v>3090.9</v>
+        <v>2933.8</v>
       </c>
       <c r="S12">
-        <v>2933.8</v>
+        <v>2191.1999999999998</v>
       </c>
       <c r="T12">
-        <v>2191.1999999999998</v>
+        <v>1878</v>
       </c>
       <c r="U12">
-        <v>1878</v>
+        <v>2293.4</v>
       </c>
       <c r="V12">
-        <v>2293.4</v>
-      </c>
-      <c r="W12">
         <v>2568</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>2865.1</v>
       </c>
       <c r="D13">
-        <v>2865.1</v>
+        <v>1373.2</v>
       </c>
       <c r="E13">
-        <v>1373.2</v>
+        <v>2643.7</v>
       </c>
       <c r="F13">
-        <v>2643.7</v>
+        <v>2679</v>
       </c>
       <c r="G13">
-        <v>2679</v>
+        <v>1177.8</v>
       </c>
       <c r="H13">
-        <v>1177.8</v>
+        <v>967.6</v>
       </c>
       <c r="I13">
-        <v>967.6</v>
+        <v>2301.8000000000002</v>
       </c>
       <c r="J13">
-        <v>2301.8000000000002</v>
+        <v>2777.5</v>
       </c>
       <c r="K13">
-        <v>2777.5</v>
+        <v>2590.5</v>
       </c>
       <c r="L13">
-        <v>2590.5</v>
+        <v>2672.6</v>
       </c>
       <c r="M13">
-        <v>2672.6</v>
+        <v>2575.5</v>
       </c>
       <c r="N13">
-        <v>2575.5</v>
+        <v>1321.6</v>
       </c>
       <c r="O13">
-        <v>1321.6</v>
+        <v>2070.3000000000002</v>
       </c>
       <c r="P13">
-        <v>2070.3000000000002</v>
+        <v>1713.8</v>
       </c>
       <c r="Q13">
-        <v>1713.8</v>
+        <v>2993.5</v>
       </c>
       <c r="R13">
-        <v>2993.5</v>
+        <v>2343.5</v>
       </c>
       <c r="S13">
-        <v>2343.5</v>
+        <v>1893.3</v>
       </c>
       <c r="T13">
-        <v>1893.3</v>
+        <v>1571</v>
       </c>
       <c r="U13">
-        <v>1571</v>
+        <v>2211</v>
       </c>
       <c r="V13">
-        <v>2211</v>
-      </c>
-      <c r="W13">
         <v>2306</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>1605.6</v>
       </c>
       <c r="D14">
-        <v>1605.6</v>
+        <v>973</v>
       </c>
       <c r="E14">
-        <v>973</v>
+        <v>1244.7</v>
       </c>
       <c r="F14">
-        <v>1244.7</v>
+        <v>1949.1</v>
       </c>
       <c r="G14">
-        <v>1949.1</v>
+        <v>1080</v>
       </c>
       <c r="H14">
-        <v>1080</v>
+        <v>513</v>
       </c>
       <c r="I14">
-        <v>513</v>
+        <v>1325.1</v>
       </c>
       <c r="J14">
-        <v>1325.1</v>
+        <v>1784.4</v>
       </c>
       <c r="K14">
-        <v>1784.4</v>
+        <v>1372.6</v>
       </c>
       <c r="L14">
-        <v>1372.6</v>
+        <v>2203.6999999999998</v>
       </c>
       <c r="M14">
-        <v>2203.6999999999998</v>
+        <v>1613.5</v>
       </c>
       <c r="N14">
-        <v>1613.5</v>
+        <v>997.3</v>
       </c>
       <c r="O14">
-        <v>997.3</v>
+        <v>1182.4000000000001</v>
       </c>
       <c r="P14">
-        <v>1182.4000000000001</v>
+        <v>605</v>
       </c>
       <c r="Q14">
-        <v>605</v>
+        <v>1660.8</v>
       </c>
       <c r="R14">
-        <v>1660.8</v>
+        <v>1921.4</v>
       </c>
       <c r="S14">
-        <v>1921.4</v>
+        <v>1154.2</v>
       </c>
       <c r="T14">
-        <v>1154.2</v>
+        <v>1148</v>
       </c>
       <c r="U14">
-        <v>1148</v>
+        <v>1452.8</v>
       </c>
       <c r="V14">
-        <v>1452.8</v>
-      </c>
-      <c r="W14">
         <v>955.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="R15">
+        <v>866.4</v>
       </c>
       <c r="S15">
-        <v>866.4</v>
+        <v>1259.5</v>
       </c>
       <c r="T15">
-        <v>1259.5</v>
+        <v>1215.9000000000001</v>
       </c>
       <c r="U15">
-        <v>1215.9000000000001</v>
+        <v>1864.6</v>
       </c>
       <c r="V15">
-        <v>1864.6</v>
-      </c>
-      <c r="W15">
         <v>1592.2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>1702.7</v>
       </c>
       <c r="H16">
-        <v>1702.7</v>
+        <v>1723</v>
       </c>
       <c r="I16">
-        <v>1723</v>
+        <v>2938.2</v>
       </c>
       <c r="J16">
-        <v>2938.2</v>
+        <v>4696.7</v>
       </c>
       <c r="K16">
-        <v>4696.7</v>
+        <v>4519.2</v>
       </c>
       <c r="L16">
-        <v>4519.2</v>
+        <v>3847</v>
       </c>
       <c r="M16">
-        <v>3847</v>
+        <v>4063.8</v>
       </c>
       <c r="N16">
-        <v>4063.8</v>
+        <v>3588.9</v>
       </c>
       <c r="O16">
-        <v>3588.9</v>
+        <v>2423.8000000000002</v>
       </c>
       <c r="P16">
-        <v>2423.8000000000002</v>
+        <v>2548.3000000000002</v>
       </c>
       <c r="Q16">
-        <v>2548.3000000000002</v>
+        <v>3583.8</v>
       </c>
       <c r="R16">
-        <v>3583.8</v>
+        <v>3535.1</v>
       </c>
       <c r="S16">
-        <v>3535.1</v>
+        <v>2149.4</v>
       </c>
       <c r="T16">
-        <v>2149.4</v>
+        <v>2317.4</v>
       </c>
       <c r="U16">
-        <v>2317.4</v>
+        <v>3264.3</v>
       </c>
       <c r="V16">
-        <v>3264.3</v>
-      </c>
-      <c r="W16">
         <v>2641.5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>5828.8</v>
       </c>
       <c r="D17">
-        <v>5828.8</v>
+        <v>3495.4</v>
       </c>
       <c r="E17">
-        <v>3495.4</v>
+        <v>5238.2</v>
       </c>
       <c r="F17">
-        <v>5238.2</v>
+        <v>5080.1000000000004</v>
       </c>
       <c r="G17">
-        <v>5080.1000000000004</v>
+        <v>2730.9</v>
       </c>
       <c r="H17">
-        <v>2730.9</v>
+        <v>2400.6</v>
       </c>
       <c r="I17">
-        <v>2400.6</v>
+        <v>4878.3</v>
       </c>
       <c r="J17">
-        <v>4878.3</v>
+        <v>4961.8999999999996</v>
       </c>
       <c r="K17">
-        <v>4961.8999999999996</v>
+        <v>4439.2</v>
       </c>
       <c r="L17">
-        <v>4439.2</v>
+        <v>5287.7</v>
       </c>
       <c r="M17">
-        <v>5287.7</v>
+        <v>4814</v>
       </c>
       <c r="N17">
-        <v>4814</v>
+        <v>3403.2</v>
       </c>
       <c r="O17">
-        <v>3403.2</v>
+        <v>4070.5</v>
       </c>
       <c r="P17">
-        <v>4070.5</v>
+        <v>4111.2</v>
       </c>
       <c r="Q17">
-        <v>4111.2</v>
+        <v>3904.6</v>
       </c>
       <c r="R17">
-        <v>3904.6</v>
+        <v>4078</v>
       </c>
       <c r="S17">
-        <v>4078</v>
+        <v>3206.7</v>
       </c>
       <c r="T17">
-        <v>3206.7</v>
+        <v>3327</v>
       </c>
       <c r="U17">
-        <v>3327</v>
+        <v>4348.3</v>
       </c>
       <c r="V17">
-        <v>4348.3</v>
-      </c>
-      <c r="W17">
         <v>4808.3999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>2446.6999999999998</v>
       </c>
       <c r="D18">
-        <v>2446.6999999999998</v>
+        <v>1603.6</v>
       </c>
       <c r="E18">
-        <v>1603.6</v>
+        <v>1351.5</v>
       </c>
       <c r="F18">
-        <v>1351.5</v>
+        <v>2979.7</v>
       </c>
       <c r="G18">
-        <v>2979.7</v>
+        <v>1392.1</v>
       </c>
       <c r="H18">
-        <v>1392.1</v>
+        <v>941.1</v>
       </c>
       <c r="I18">
-        <v>941.1</v>
+        <v>1411</v>
       </c>
       <c r="J18">
-        <v>1411</v>
+        <v>2985.6</v>
       </c>
       <c r="K18">
-        <v>2985.6</v>
+        <v>2317.8000000000002</v>
       </c>
       <c r="L18">
-        <v>2317.8000000000002</v>
+        <v>2063.9</v>
       </c>
       <c r="M18">
-        <v>2063.9</v>
+        <v>2510.6</v>
       </c>
       <c r="N18">
-        <v>2510.6</v>
+        <v>1826.5</v>
       </c>
       <c r="O18">
-        <v>1826.5</v>
+        <v>1532.5</v>
       </c>
       <c r="P18">
-        <v>1532.5</v>
+        <v>1021.7</v>
       </c>
       <c r="Q18">
-        <v>1021.7</v>
+        <v>2201.3000000000002</v>
       </c>
       <c r="R18">
-        <v>2201.3000000000002</v>
+        <v>2580.5</v>
       </c>
       <c r="S18">
-        <v>2580.5</v>
+        <v>1342.1</v>
       </c>
       <c r="T18">
-        <v>1342.1</v>
+        <v>1790.3</v>
       </c>
       <c r="U18">
-        <v>1790.3</v>
+        <v>1885.7</v>
       </c>
       <c r="V18">
-        <v>1885.7</v>
-      </c>
-      <c r="W18">
         <v>1854.8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>2088.3000000000002</v>
       </c>
       <c r="D19">
-        <v>2088.3000000000002</v>
+        <v>1157.0999999999999</v>
       </c>
       <c r="E19">
-        <v>1157.0999999999999</v>
+        <v>1756.1</v>
       </c>
       <c r="F19">
-        <v>1756.1</v>
+        <v>2293.1</v>
       </c>
       <c r="G19">
-        <v>2293.1</v>
+        <v>1091</v>
       </c>
       <c r="H19">
-        <v>1091</v>
+        <v>877.7</v>
       </c>
       <c r="I19">
-        <v>877.7</v>
+        <v>2261.8000000000002</v>
       </c>
       <c r="J19">
-        <v>2261.8000000000002</v>
+        <v>2384.1999999999998</v>
       </c>
       <c r="K19">
-        <v>2384.1999999999998</v>
+        <v>2127.5</v>
       </c>
       <c r="L19">
-        <v>2127.5</v>
+        <v>1963.9</v>
       </c>
       <c r="M19">
-        <v>1963.9</v>
+        <v>2166.6</v>
       </c>
       <c r="N19">
-        <v>2166.6</v>
+        <v>1119.5</v>
       </c>
       <c r="O19">
-        <v>1119.5</v>
+        <v>1605.1</v>
       </c>
       <c r="P19">
-        <v>1605.1</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="Q19">
-        <v>1222.5999999999999</v>
+        <v>2741.2</v>
       </c>
       <c r="R19">
-        <v>2741.2</v>
+        <v>2043.5</v>
       </c>
       <c r="S19">
-        <v>2043.5</v>
+        <v>1150.3</v>
       </c>
       <c r="T19">
-        <v>1150.3</v>
+        <v>1417.8</v>
       </c>
       <c r="U19">
-        <v>1417.8</v>
+        <v>2027.5</v>
       </c>
       <c r="V19">
-        <v>2027.5</v>
-      </c>
-      <c r="W19">
         <v>1394</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>3557.5</v>
       </c>
       <c r="D20">
-        <v>3557.5</v>
+        <v>1677</v>
       </c>
       <c r="E20">
-        <v>1677</v>
+        <v>2460.5</v>
       </c>
       <c r="F20">
-        <v>2460.5</v>
+        <v>2568.5</v>
       </c>
       <c r="G20">
-        <v>2568.5</v>
+        <v>1062.3</v>
       </c>
       <c r="H20">
-        <v>1062.3</v>
+        <v>1348.5</v>
       </c>
       <c r="I20">
-        <v>1348.5</v>
+        <v>1983</v>
       </c>
       <c r="J20">
-        <v>1983</v>
+        <v>2777</v>
       </c>
       <c r="K20">
-        <v>2777</v>
+        <v>1901</v>
       </c>
       <c r="L20">
-        <v>1901</v>
+        <v>2525.5</v>
       </c>
       <c r="M20">
-        <v>2525.5</v>
+        <v>2312</v>
       </c>
       <c r="N20">
-        <v>2312</v>
+        <v>2535.6</v>
       </c>
       <c r="O20">
-        <v>2535.6</v>
+        <v>1769.3</v>
       </c>
       <c r="P20">
-        <v>1769.3</v>
+        <v>2199.5</v>
       </c>
       <c r="Q20">
-        <v>2199.5</v>
+        <v>2303</v>
       </c>
       <c r="R20">
-        <v>2303</v>
+        <v>1970.9</v>
       </c>
       <c r="S20">
-        <v>1970.9</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="T20">
-        <v>1226.5999999999999</v>
+        <v>1784.6</v>
       </c>
       <c r="U20">
-        <v>1784.6</v>
+        <v>3109.2</v>
       </c>
       <c r="V20">
-        <v>3109.2</v>
-      </c>
-      <c r="W20">
         <v>1948.2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>2433.9</v>
       </c>
       <c r="D21">
-        <v>2433.9</v>
+        <v>2763.6</v>
       </c>
       <c r="E21">
-        <v>2763.6</v>
+        <v>1569</v>
       </c>
       <c r="F21">
-        <v>1569</v>
+        <v>2556.5</v>
       </c>
       <c r="G21">
-        <v>2556.5</v>
+        <v>1037.5</v>
       </c>
       <c r="H21">
-        <v>1037.5</v>
+        <v>1326</v>
       </c>
       <c r="I21">
-        <v>1326</v>
+        <v>1439.5</v>
       </c>
       <c r="J21">
-        <v>1439.5</v>
+        <v>2821.4</v>
       </c>
       <c r="K21">
-        <v>2821.4</v>
+        <v>2045.5</v>
       </c>
       <c r="L21">
-        <v>2045.5</v>
+        <v>2194</v>
       </c>
       <c r="M21">
-        <v>2194</v>
+        <v>2591.3000000000002</v>
       </c>
       <c r="N21">
-        <v>2591.3000000000002</v>
+        <v>1756.3</v>
       </c>
       <c r="O21">
-        <v>1756.3</v>
+        <v>2160.6999999999998</v>
       </c>
       <c r="P21">
-        <v>2160.6999999999998</v>
+        <v>1796.7</v>
       </c>
       <c r="Q21">
-        <v>1796.7</v>
+        <v>2196.6999999999998</v>
       </c>
       <c r="R21">
-        <v>2196.6999999999998</v>
+        <v>1688.2</v>
       </c>
       <c r="S21">
-        <v>1688.2</v>
+        <v>1942</v>
       </c>
       <c r="T21">
-        <v>1942</v>
+        <v>1344</v>
       </c>
       <c r="U21">
-        <v>1344</v>
+        <v>3103.5</v>
       </c>
       <c r="V21">
-        <v>3103.5</v>
-      </c>
-      <c r="W21">
         <v>1124.5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>5438.1</v>
       </c>
       <c r="D22">
-        <v>5438.1</v>
+        <v>2746.7</v>
       </c>
       <c r="E22">
-        <v>2746.7</v>
+        <v>5404.4</v>
       </c>
       <c r="F22">
-        <v>5404.4</v>
+        <v>3642.4</v>
       </c>
       <c r="G22">
-        <v>3642.4</v>
+        <v>2607.3000000000002</v>
       </c>
       <c r="H22">
-        <v>2607.3000000000002</v>
+        <v>2155.8000000000002</v>
       </c>
       <c r="I22">
-        <v>2155.8000000000002</v>
+        <v>3886.2</v>
       </c>
       <c r="J22">
-        <v>3886.2</v>
+        <v>4240.8999999999996</v>
       </c>
       <c r="K22">
-        <v>4240.8999999999996</v>
+        <v>3723.5</v>
       </c>
       <c r="L22">
-        <v>3723.5</v>
+        <v>4063.7</v>
       </c>
       <c r="M22">
-        <v>4063.7</v>
+        <v>3673.6</v>
       </c>
       <c r="N22">
-        <v>3673.6</v>
+        <v>3654.6</v>
       </c>
       <c r="O22">
-        <v>3654.6</v>
+        <v>3303.6</v>
       </c>
       <c r="P22">
-        <v>3303.6</v>
+        <v>3727</v>
       </c>
       <c r="Q22">
-        <v>3727</v>
+        <v>3908.8</v>
       </c>
       <c r="R22">
-        <v>3908.8</v>
+        <v>3768.2</v>
       </c>
       <c r="S22">
-        <v>3768.2</v>
+        <v>2574</v>
       </c>
       <c r="T22">
-        <v>2574</v>
+        <v>3151.6</v>
       </c>
       <c r="U22">
-        <v>3151.6</v>
+        <v>3841.4</v>
       </c>
       <c r="V22">
-        <v>3841.4</v>
-      </c>
-      <c r="W22">
         <v>3857.6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="I23">
+        <v>935</v>
       </c>
       <c r="J23">
-        <v>935</v>
+        <v>1502</v>
       </c>
       <c r="K23">
-        <v>1502</v>
+        <v>1544.5</v>
       </c>
       <c r="L23">
-        <v>1544.5</v>
+        <v>994.1</v>
       </c>
       <c r="M23">
-        <v>994.1</v>
+        <v>1025.2</v>
       </c>
       <c r="N23">
-        <v>1025.2</v>
+        <v>884.3</v>
       </c>
       <c r="O23">
-        <v>884.3</v>
+        <v>972.6</v>
       </c>
       <c r="P23">
-        <v>972.6</v>
+        <v>780.3</v>
       </c>
       <c r="Q23">
-        <v>780.3</v>
+        <v>893</v>
       </c>
       <c r="R23">
-        <v>893</v>
+        <v>1400.8</v>
       </c>
       <c r="S23">
-        <v>1400.8</v>
+        <v>905.8</v>
       </c>
       <c r="T23">
-        <v>905.8</v>
+        <v>1109.5999999999999</v>
       </c>
       <c r="U23">
-        <v>1109.5999999999999</v>
+        <v>1873.1</v>
       </c>
       <c r="V23">
-        <v>1873.1</v>
-      </c>
-      <c r="W23">
         <v>649.20000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="I24">
+        <v>1015.8</v>
       </c>
       <c r="J24">
-        <v>1015.8</v>
+        <v>1208</v>
       </c>
       <c r="K24">
-        <v>1208</v>
+        <v>1468.5</v>
       </c>
       <c r="L24">
-        <v>1468.5</v>
+        <v>1088.7</v>
       </c>
       <c r="M24">
-        <v>1088.7</v>
+        <v>1059</v>
       </c>
       <c r="N24">
-        <v>1059</v>
+        <v>1170.5999999999999</v>
       </c>
       <c r="O24">
-        <v>1170.5999999999999</v>
+        <v>1206.2</v>
       </c>
       <c r="P24">
-        <v>1206.2</v>
+        <v>792.8</v>
       </c>
       <c r="Q24">
-        <v>792.8</v>
+        <v>1914.4</v>
       </c>
       <c r="R24">
-        <v>1914.4</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="S24">
-        <v>1033.4000000000001</v>
+        <v>908.2</v>
       </c>
       <c r="T24">
-        <v>908.2</v>
+        <v>1026.8</v>
       </c>
       <c r="U24">
-        <v>1026.8</v>
+        <v>1354.9</v>
       </c>
       <c r="V24">
-        <v>1354.9</v>
-      </c>
-      <c r="W24">
         <v>1250.5999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>1258.4000000000001</v>
       </c>
       <c r="D25">
-        <v>1258.4000000000001</v>
+        <v>1054.5999999999999</v>
       </c>
       <c r="E25">
-        <v>1054.5999999999999</v>
+        <v>1144</v>
       </c>
       <c r="F25">
-        <v>1144</v>
+        <v>1459.7</v>
       </c>
       <c r="G25">
-        <v>1459.7</v>
+        <v>940.6</v>
       </c>
       <c r="H25">
-        <v>940.6</v>
+        <v>786.1</v>
       </c>
       <c r="I25">
-        <v>786.1</v>
+        <v>1215.5999999999999</v>
       </c>
       <c r="J25">
-        <v>1215.5999999999999</v>
+        <v>1589.5</v>
       </c>
       <c r="K25">
-        <v>1589.5</v>
+        <v>1506.8</v>
       </c>
       <c r="L25">
-        <v>1506.8</v>
+        <v>979.4</v>
       </c>
       <c r="M25">
-        <v>979.4</v>
+        <v>1512.6</v>
       </c>
       <c r="N25">
-        <v>1512.6</v>
+        <v>969.8</v>
       </c>
       <c r="O25">
-        <v>969.8</v>
+        <v>688.2</v>
       </c>
       <c r="P25">
-        <v>688.2</v>
+        <v>609.4</v>
       </c>
       <c r="Q25">
-        <v>609.4</v>
+        <v>921.9</v>
       </c>
       <c r="R25">
-        <v>921.9</v>
+        <v>947</v>
       </c>
       <c r="S25">
-        <v>947</v>
+        <v>819.5</v>
       </c>
       <c r="T25">
-        <v>819.5</v>
+        <v>1752.7</v>
       </c>
       <c r="U25">
-        <v>1752.7</v>
+        <v>1795.4</v>
       </c>
       <c r="V25">
-        <v>1795.4</v>
-      </c>
-      <c r="W25">
         <v>953.8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>2177.3000000000002</v>
       </c>
       <c r="D26">
-        <v>2177.3000000000002</v>
+        <v>1390.4</v>
       </c>
       <c r="E26">
-        <v>1390.4</v>
+        <v>1797</v>
       </c>
       <c r="F26">
-        <v>1797</v>
+        <v>1981.2</v>
       </c>
       <c r="G26">
-        <v>1981.2</v>
+        <v>1315.6</v>
       </c>
       <c r="H26">
-        <v>1315.6</v>
+        <v>930.6</v>
       </c>
       <c r="I26">
-        <v>930.6</v>
+        <v>2260.6999999999998</v>
       </c>
       <c r="J26">
-        <v>2260.6999999999998</v>
+        <v>2574.5</v>
       </c>
       <c r="K26">
-        <v>2574.5</v>
+        <v>2171.9</v>
       </c>
       <c r="L26">
-        <v>2171.9</v>
+        <v>2432.9</v>
       </c>
       <c r="M26">
-        <v>2432.9</v>
+        <v>2477.8000000000002</v>
       </c>
       <c r="N26">
-        <v>2477.8000000000002</v>
+        <v>1978.7</v>
       </c>
       <c r="O26">
-        <v>1978.7</v>
+        <v>2054.4</v>
       </c>
       <c r="P26">
-        <v>2054.4</v>
+        <v>1204.9000000000001</v>
       </c>
       <c r="Q26">
-        <v>1204.9000000000001</v>
+        <v>2202.5</v>
       </c>
       <c r="R26">
-        <v>2202.5</v>
+        <v>2133</v>
       </c>
       <c r="S26">
-        <v>2133</v>
+        <v>1466.1</v>
       </c>
       <c r="T26">
-        <v>1466.1</v>
+        <v>1526.3</v>
       </c>
       <c r="U26">
-        <v>1526.3</v>
+        <v>1522.3</v>
       </c>
       <c r="V26">
-        <v>1522.3</v>
-      </c>
-      <c r="W26">
         <v>1652.2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>1840.1</v>
       </c>
       <c r="D27">
-        <v>1840.1</v>
+        <v>2135.1999999999998</v>
       </c>
       <c r="E27">
-        <v>2135.1999999999998</v>
+        <v>1754.4</v>
       </c>
       <c r="F27">
-        <v>1754.4</v>
+        <v>2106.5</v>
       </c>
       <c r="G27">
-        <v>2106.5</v>
+        <v>1212.0999999999999</v>
       </c>
       <c r="H27">
-        <v>1212.0999999999999</v>
+        <v>898.5</v>
       </c>
       <c r="I27">
-        <v>898.5</v>
+        <v>1107.9000000000001</v>
       </c>
       <c r="J27">
-        <v>1107.9000000000001</v>
+        <v>3148.5</v>
       </c>
       <c r="K27">
-        <v>3148.5</v>
+        <v>1867.2</v>
       </c>
       <c r="L27">
-        <v>1867.2</v>
+        <v>2207.3000000000002</v>
       </c>
       <c r="M27">
-        <v>2207.3000000000002</v>
+        <v>1950</v>
       </c>
       <c r="N27">
-        <v>1950</v>
+        <v>1366.6</v>
       </c>
       <c r="O27">
-        <v>1366.6</v>
+        <v>1779.2</v>
       </c>
       <c r="P27">
-        <v>1779.2</v>
+        <v>1218.8</v>
       </c>
       <c r="Q27">
-        <v>1218.8</v>
+        <v>2425.6999999999998</v>
       </c>
       <c r="R27">
-        <v>2425.6999999999998</v>
+        <v>1688.5</v>
       </c>
       <c r="S27">
-        <v>1688.5</v>
+        <v>1268.0999999999999</v>
       </c>
       <c r="T27">
-        <v>1268.0999999999999</v>
+        <v>1481</v>
       </c>
       <c r="U27">
-        <v>1481</v>
+        <v>2720.9</v>
       </c>
       <c r="V27">
-        <v>2720.9</v>
-      </c>
-      <c r="W27">
         <v>1195.2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>4404.7</v>
       </c>
       <c r="D28">
-        <v>4404.7</v>
+        <v>1958.1</v>
       </c>
       <c r="E28">
-        <v>1958.1</v>
+        <v>2744</v>
       </c>
       <c r="F28">
-        <v>2744</v>
+        <v>2862.1</v>
       </c>
       <c r="G28">
-        <v>2862.1</v>
+        <v>1346.4</v>
       </c>
       <c r="H28">
-        <v>1346.4</v>
+        <v>1192.5</v>
       </c>
       <c r="I28">
-        <v>1192.5</v>
+        <v>2829.8</v>
       </c>
       <c r="J28">
-        <v>2829.8</v>
+        <v>3027.8</v>
       </c>
       <c r="K28">
-        <v>3027.8</v>
+        <v>2288.4</v>
       </c>
       <c r="L28">
-        <v>2288.4</v>
+        <v>3015.9</v>
       </c>
       <c r="M28">
-        <v>3015.9</v>
+        <v>2969.2</v>
       </c>
       <c r="N28">
-        <v>2969.2</v>
+        <v>1669.2</v>
       </c>
       <c r="O28">
-        <v>1669.2</v>
+        <v>2278.3000000000002</v>
       </c>
       <c r="P28">
-        <v>2278.3000000000002</v>
+        <v>1758.6</v>
       </c>
       <c r="Q28">
-        <v>1758.6</v>
+        <v>2910.3</v>
       </c>
       <c r="R28">
-        <v>2910.3</v>
+        <v>2541.4</v>
       </c>
       <c r="S28">
-        <v>2541.4</v>
+        <v>2147.3000000000002</v>
       </c>
       <c r="T28">
-        <v>2147.3000000000002</v>
+        <v>2519.1999999999998</v>
       </c>
       <c r="U28">
-        <v>2519.1999999999998</v>
+        <v>2431.6999999999998</v>
       </c>
       <c r="V28">
-        <v>2431.6999999999998</v>
-      </c>
-      <c r="W28">
         <v>2339.6999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>2418.9</v>
       </c>
       <c r="D29">
-        <v>2418.9</v>
+        <v>2107.1999999999998</v>
       </c>
       <c r="E29">
-        <v>2107.1999999999998</v>
+        <v>2105.6999999999998</v>
       </c>
       <c r="F29">
-        <v>2105.6999999999998</v>
+        <v>1933.1</v>
       </c>
       <c r="G29">
-        <v>1933.1</v>
+        <v>1560.6</v>
       </c>
       <c r="H29">
-        <v>1560.6</v>
+        <v>1674.1</v>
       </c>
       <c r="I29">
-        <v>1674.1</v>
+        <v>1445.6</v>
       </c>
       <c r="J29">
-        <v>1445.6</v>
+        <v>1577.1</v>
       </c>
       <c r="K29">
-        <v>1577.1</v>
+        <v>1772.3</v>
       </c>
       <c r="L29">
-        <v>1772.3</v>
+        <v>1732.3</v>
       </c>
       <c r="M29">
-        <v>1732.3</v>
+        <v>1642.4</v>
       </c>
       <c r="N29">
-        <v>1642.4</v>
+        <v>1380.9</v>
       </c>
       <c r="O29">
-        <v>1380.9</v>
+        <v>1973.8</v>
       </c>
       <c r="P29">
-        <v>1973.8</v>
+        <v>2510.6</v>
       </c>
       <c r="Q29">
-        <v>2510.6</v>
+        <v>2118.1999999999998</v>
       </c>
       <c r="R29">
-        <v>2118.1999999999998</v>
+        <v>1867.8</v>
       </c>
       <c r="S29">
-        <v>1867.8</v>
+        <v>1194.2</v>
       </c>
       <c r="T29">
-        <v>1194.2</v>
+        <v>1222.8</v>
       </c>
       <c r="U29">
-        <v>1222.8</v>
+        <v>2852.5</v>
       </c>
       <c r="V29">
-        <v>2852.5</v>
-      </c>
-      <c r="W29">
         <v>1971.5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
-        <v>56</v>
+      <c r="C30">
+        <v>4945.3</v>
       </c>
       <c r="D30">
-        <v>4945.3</v>
+        <v>2196.9</v>
       </c>
       <c r="E30">
-        <v>2196.9</v>
+        <v>4211.8</v>
       </c>
       <c r="F30">
-        <v>4211.8</v>
+        <v>3521.9</v>
       </c>
       <c r="G30">
-        <v>3521.9</v>
+        <v>1651.3</v>
       </c>
       <c r="H30">
-        <v>1651.3</v>
+        <v>1412.7</v>
       </c>
       <c r="I30">
-        <v>1412.7</v>
+        <v>2556.5</v>
       </c>
       <c r="J30">
-        <v>2556.5</v>
+        <v>3329.8</v>
       </c>
       <c r="K30">
-        <v>3329.8</v>
+        <v>2730.4</v>
       </c>
       <c r="L30">
-        <v>2730.4</v>
+        <v>3115.1</v>
       </c>
       <c r="M30">
-        <v>3115.1</v>
+        <v>2846</v>
       </c>
       <c r="N30">
-        <v>2846</v>
+        <v>2930.2</v>
       </c>
       <c r="O30">
-        <v>2930.2</v>
+        <v>2542.4</v>
       </c>
       <c r="P30">
-        <v>2542.4</v>
+        <v>2781.9</v>
       </c>
       <c r="Q30">
-        <v>2781.9</v>
+        <v>2916.1</v>
       </c>
       <c r="R30">
-        <v>2916.1</v>
+        <v>2552.8000000000002</v>
       </c>
       <c r="S30">
-        <v>2552.8000000000002</v>
+        <v>2095</v>
       </c>
       <c r="T30">
-        <v>2095</v>
+        <v>2579.4</v>
       </c>
       <c r="U30">
-        <v>2579.4</v>
+        <v>2678</v>
       </c>
       <c r="V30">
-        <v>2678</v>
-      </c>
-      <c r="W30">
         <v>3327.9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:V31" si="0">SUM(C2:C30)/29</f>
+        <v>2806.3689655172411</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:W31" si="0">SUM(D2:D30)/29</f>
-        <v>2806.3689655172411</v>
+        <f t="shared" si="0"/>
+        <v>1825.8344827586204</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>1825.8344827586204</v>
+        <v>2331.1344827586204</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>2331.1344827586204</v>
+        <v>2363.4344827586201</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>2363.4344827586201</v>
+        <v>1502.6689655172415</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1502.6689655172415</v>
+        <v>1376.8034482758617</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>1376.8034482758617</v>
+        <v>2264.3931034482757</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>2264.3931034482757</v>
+        <v>2881.5034482758624</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>2881.5034482758624</v>
+        <v>2541.1827586206891</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>2541.1827586206891</v>
+        <v>2682.5689655172414</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>2682.5689655172414</v>
+        <v>2609.6448275862062</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>2609.6448275862062</v>
+        <v>2104.4896551724132</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>2104.4896551724132</v>
+        <v>2205.251724137931</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>2205.251724137931</v>
+        <v>2114.2344827586207</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>2114.2344827586207</v>
+        <v>2666.6482758620691</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>2666.6482758620691</v>
+        <v>2474.5448275862068</v>
       </c>
       <c r="S31">
         <f t="shared" si="0"/>
-        <v>2474.5448275862068</v>
+        <v>1804.4448275862069</v>
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>1804.4448275862069</v>
+        <v>1982.4655172413793</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>1982.4655172413793</v>
+        <v>2757.7758620689651</v>
       </c>
       <c r="V31">
         <f t="shared" si="0"/>
-        <v>2757.7758620689651</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="0"/>
         <v>2294.1034482758614</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>29215.600000000002</v>
       </c>
       <c r="D32">
-        <v>29215.600000000002</v>
+        <v>15831.6</v>
       </c>
       <c r="E32">
-        <v>15831.6</v>
+        <v>26814.799999999996</v>
       </c>
       <c r="F32">
-        <v>26814.799999999996</v>
+        <v>24623.200000000001</v>
       </c>
       <c r="G32">
-        <v>24623.200000000001</v>
+        <v>15357.9</v>
       </c>
       <c r="H32">
-        <v>15357.9</v>
+        <v>12170.900000000001</v>
       </c>
       <c r="I32">
-        <v>12170.900000000001</v>
+        <v>27054.2</v>
       </c>
       <c r="J32">
-        <v>27054.2</v>
+        <v>28503.999999999996</v>
       </c>
       <c r="K32">
-        <v>28503.999999999996</v>
+        <v>25106</v>
       </c>
       <c r="L32">
-        <v>25106</v>
+        <v>27986.600000000002</v>
       </c>
       <c r="M32">
-        <v>27986.600000000002</v>
+        <v>26427.8</v>
       </c>
       <c r="N32">
-        <v>26427.8</v>
+        <v>18071.899999999998</v>
       </c>
       <c r="O32">
-        <v>18071.899999999998</v>
+        <v>22627.799999999996</v>
       </c>
       <c r="P32">
-        <v>22627.799999999996</v>
+        <v>20874.699999999997</v>
       </c>
       <c r="Q32">
-        <v>20874.699999999997</v>
+        <v>26413.5</v>
       </c>
       <c r="R32">
-        <v>26413.5</v>
+        <v>25354.9</v>
       </c>
       <c r="S32">
-        <v>25354.9</v>
+        <v>19745.999999999996</v>
       </c>
       <c r="T32">
-        <v>19745.999999999996</v>
+        <v>19983.399999999998</v>
       </c>
       <c r="U32">
-        <v>19983.399999999998</v>
+        <v>26142.500000000004</v>
       </c>
       <c r="V32">
-        <v>26142.500000000004</v>
-      </c>
-      <c r="W32">
         <v>25540.2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>13657.2</v>
       </c>
       <c r="D33">
-        <v>13657.2</v>
+        <v>9375.7999999999993</v>
       </c>
       <c r="E33">
-        <v>9375.7999999999993</v>
+        <v>9442</v>
       </c>
       <c r="F33">
-        <v>9442</v>
+        <v>13133.7</v>
       </c>
       <c r="G33">
-        <v>13133.7</v>
+        <v>9142.7000000000007</v>
       </c>
       <c r="H33">
-        <v>9142.7000000000007</v>
+        <v>7885.7000000000007</v>
       </c>
       <c r="I33">
-        <v>7885.7000000000007</v>
+        <v>14532.2</v>
       </c>
       <c r="J33">
-        <v>14532.2</v>
+        <v>20846.499999999996</v>
       </c>
       <c r="K33">
-        <v>20846.499999999996</v>
+        <v>18941.100000000002</v>
       </c>
       <c r="L33">
-        <v>18941.100000000002</v>
+        <v>18412.7</v>
       </c>
       <c r="M33">
-        <v>18412.7</v>
+        <v>20403.699999999997</v>
       </c>
       <c r="N33">
-        <v>20403.699999999997</v>
+        <v>15411.2</v>
       </c>
       <c r="O33">
-        <v>15411.2</v>
+        <v>12779.800000000001</v>
       </c>
       <c r="P33">
-        <v>12779.800000000001</v>
+        <v>10760.800000000001</v>
       </c>
       <c r="Q33">
-        <v>10760.800000000001</v>
+        <v>17905.599999999999</v>
       </c>
       <c r="R33">
-        <v>17905.599999999999</v>
+        <v>18069.900000000001</v>
       </c>
       <c r="S33">
-        <v>18069.900000000001</v>
+        <v>11475.400000000001</v>
       </c>
       <c r="T33">
-        <v>11475.400000000001</v>
+        <v>12073.3</v>
       </c>
       <c r="U33">
-        <v>12073.3</v>
+        <v>14480.2</v>
       </c>
       <c r="V33">
-        <v>14480.2</v>
-      </c>
-      <c r="W33">
         <v>14034.4</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>8182.7000000000007</v>
       </c>
       <c r="D34">
-        <v>8182.7000000000007</v>
+        <v>9053.4</v>
       </c>
       <c r="E34">
-        <v>9053.4</v>
+        <v>6794.5</v>
       </c>
       <c r="F34">
-        <v>6794.5</v>
+        <v>8617.3000000000011</v>
       </c>
       <c r="G34">
-        <v>8617.3000000000011</v>
+        <v>4804.1000000000004</v>
       </c>
       <c r="H34">
-        <v>4804.1000000000004</v>
+        <v>4892.1000000000004</v>
       </c>
       <c r="I34">
-        <v>4892.1000000000004</v>
+        <v>5312.5</v>
       </c>
       <c r="J34">
-        <v>5312.5</v>
+        <v>9898.5</v>
       </c>
       <c r="K34">
-        <v>9898.5</v>
+        <v>7109.6</v>
       </c>
       <c r="L34">
-        <v>7109.6</v>
+        <v>7520.5</v>
       </c>
       <c r="M34">
-        <v>7520.5</v>
+        <v>8058.4</v>
       </c>
       <c r="N34">
-        <v>8058.4</v>
+        <v>5947</v>
       </c>
       <c r="O34">
-        <v>5947</v>
+        <v>7049.2999999999993</v>
       </c>
       <c r="P34">
-        <v>7049.2999999999993</v>
+        <v>6221.9</v>
       </c>
       <c r="Q34">
-        <v>6221.9</v>
+        <v>8482.7000000000007</v>
       </c>
       <c r="R34">
-        <v>8482.7000000000007</v>
+        <v>6421.8</v>
       </c>
       <c r="S34">
-        <v>6421.8</v>
+        <v>5518.6</v>
       </c>
       <c r="T34">
-        <v>5518.6</v>
+        <v>6057.8</v>
       </c>
       <c r="U34">
-        <v>6057.8</v>
+        <v>10343.6</v>
       </c>
       <c r="V34">
-        <v>10343.6</v>
-      </c>
-      <c r="W34">
         <v>4993.5</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>28639.9</v>
       </c>
       <c r="D35">
-        <v>28639.9</v>
+        <v>17379.2</v>
       </c>
       <c r="E35">
-        <v>17379.2</v>
+        <v>23528.3</v>
       </c>
       <c r="F35">
-        <v>23528.3</v>
+        <v>20895.400000000001</v>
       </c>
       <c r="G35">
-        <v>20895.400000000001</v>
+        <v>13503.199999999999</v>
       </c>
       <c r="H35">
-        <v>13503.199999999999</v>
+        <v>14359.1</v>
       </c>
       <c r="I35">
-        <v>14359.1</v>
+        <v>15360.2</v>
       </c>
       <c r="J35">
-        <v>15360.2</v>
+        <v>19823.599999999999</v>
       </c>
       <c r="K35">
-        <v>19823.599999999999</v>
+        <v>18280.100000000002</v>
       </c>
       <c r="L35">
-        <v>18280.100000000002</v>
+        <v>20726.099999999999</v>
       </c>
       <c r="M35">
-        <v>20726.099999999999</v>
+        <v>17608.699999999997</v>
       </c>
       <c r="N35">
-        <v>17608.699999999997</v>
+        <v>18347.900000000001</v>
       </c>
       <c r="O35">
-        <v>18347.900000000001</v>
+        <v>18546.400000000001</v>
       </c>
       <c r="P35">
-        <v>18546.400000000001</v>
+        <v>20949.3</v>
       </c>
       <c r="Q35">
-        <v>20949.3</v>
+        <v>20828.599999999999</v>
       </c>
       <c r="R35">
-        <v>20828.599999999999</v>
+        <v>18510.2</v>
       </c>
       <c r="S35">
-        <v>18510.2</v>
+        <v>13116.900000000001</v>
       </c>
       <c r="T35">
-        <v>13116.900000000001</v>
+        <v>15771.8</v>
       </c>
       <c r="U35">
-        <v>15771.8</v>
+        <v>23859.1</v>
       </c>
       <c r="V35">
-        <v>23859.1</v>
-      </c>
-      <c r="W35">
         <v>19246.100000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <v>1689.3</v>
+      </c>
+      <c r="D36">
+        <v>1309.2</v>
+      </c>
+      <c r="E36">
+        <v>1023.3</v>
+      </c>
+      <c r="F36">
+        <v>1270</v>
+      </c>
+      <c r="G36">
+        <v>769.5</v>
+      </c>
+      <c r="H36">
+        <v>619.5</v>
+      </c>
+      <c r="I36">
+        <v>3408.3</v>
+      </c>
+      <c r="J36">
+        <v>4491</v>
+      </c>
+      <c r="K36">
+        <v>4257.5</v>
+      </c>
+      <c r="L36">
+        <v>3148.6000000000004</v>
+      </c>
+      <c r="M36">
+        <v>3181.1000000000004</v>
+      </c>
+      <c r="N36">
+        <v>3252.2</v>
+      </c>
+      <c r="O36">
+        <v>2949</v>
+      </c>
+      <c r="P36">
+        <v>2506.1</v>
+      </c>
+      <c r="Q36">
+        <v>3702.4</v>
+      </c>
+      <c r="R36">
+        <v>3405</v>
+      </c>
+      <c r="S36">
+        <v>2472</v>
+      </c>
+      <c r="T36">
+        <v>3605.2</v>
+      </c>
+      <c r="U36">
+        <v>5150.1000000000004</v>
+      </c>
+      <c r="V36">
+        <v>2714.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="U43">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>4</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>4</v>
+      </c>
+      <c r="V49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <v>4</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+      <c r="U50">
+        <v>4</v>
+      </c>
+      <c r="V50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36">
-        <v>1689.3</v>
-      </c>
-      <c r="E36">
-        <v>1309.2</v>
-      </c>
-      <c r="F36">
-        <v>1023.3</v>
-      </c>
-      <c r="G36">
-        <v>1270</v>
-      </c>
-      <c r="H36">
-        <v>769.5</v>
-      </c>
-      <c r="I36">
-        <v>619.5</v>
-      </c>
-      <c r="J36">
-        <v>3408.3</v>
-      </c>
-      <c r="K36">
-        <v>4491</v>
-      </c>
-      <c r="L36">
-        <v>4257.5</v>
-      </c>
-      <c r="M36">
-        <v>3148.6000000000004</v>
-      </c>
-      <c r="N36">
-        <v>3181.1000000000004</v>
-      </c>
-      <c r="O36">
-        <v>3252.2</v>
-      </c>
-      <c r="P36">
-        <v>2949</v>
-      </c>
-      <c r="Q36">
-        <v>2506.1</v>
-      </c>
-      <c r="R36">
-        <v>3702.4</v>
-      </c>
-      <c r="S36">
-        <v>3405</v>
-      </c>
-      <c r="T36">
-        <v>2472</v>
-      </c>
-      <c r="U36">
-        <v>3605.2</v>
-      </c>
-      <c r="V36">
-        <v>5150.1000000000004</v>
-      </c>
-      <c r="W36">
-        <v>2714.8</v>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <v>5</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -9966,7 +11370,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="B8:C11"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10050,83 +11454,83 @@
         <v>36</v>
       </c>
       <c r="C2">
+        <f>SUM('20181103year_gp3'!C2:C17)</f>
+        <v>48375.5</v>
+      </c>
+      <c r="D2">
         <f>SUM('20181103year_gp3'!D2:D17)</f>
-        <v>48375.5</v>
-      </c>
-      <c r="D2">
+        <v>32158.800000000003</v>
+      </c>
+      <c r="E2">
         <f>SUM('20181103year_gp3'!E2:E17)</f>
-        <v>32158.800000000003</v>
-      </c>
-      <c r="E2">
+        <v>41304.499999999993</v>
+      </c>
+      <c r="F2">
         <f>SUM('20181103year_gp3'!F2:F17)</f>
-        <v>41304.499999999993</v>
-      </c>
-      <c r="F2">
+        <v>40634.899999999994</v>
+      </c>
+      <c r="G2">
         <f>SUM('20181103year_gp3'!G2:G17)</f>
-        <v>40634.899999999994</v>
-      </c>
-      <c r="G2">
+        <v>28360.6</v>
+      </c>
+      <c r="H2">
         <f>SUM('20181103year_gp3'!H2:H17)</f>
-        <v>28360.6</v>
-      </c>
-      <c r="H2">
+        <v>26383.699999999997</v>
+      </c>
+      <c r="I2">
         <f>SUM('20181103year_gp3'!I2:I17)</f>
-        <v>26383.699999999997</v>
-      </c>
-      <c r="I2">
+        <v>41319</v>
+      </c>
+      <c r="J2">
         <f>SUM('20181103year_gp3'!J2:J17)</f>
-        <v>41319</v>
-      </c>
-      <c r="J2">
+        <v>50397.3</v>
+      </c>
+      <c r="K2">
         <f>SUM('20181103year_gp3'!K2:K17)</f>
-        <v>50397.3</v>
-      </c>
-      <c r="K2">
+        <v>46228.999999999993</v>
+      </c>
+      <c r="L2">
         <f>SUM('20181103year_gp3'!L2:L17)</f>
-        <v>46228.999999999993</v>
-      </c>
-      <c r="L2">
+        <v>49417.799999999996</v>
+      </c>
+      <c r="M2">
         <f>SUM('20181103year_gp3'!M2:M17)</f>
-        <v>49417.799999999996</v>
-      </c>
-      <c r="M2">
+        <v>46943.4</v>
+      </c>
+      <c r="N2">
         <f>SUM('20181103year_gp3'!N2:N17)</f>
-        <v>46943.4</v>
-      </c>
-      <c r="N2">
+        <v>37787.399999999994</v>
+      </c>
+      <c r="O2">
         <f>SUM('20181103year_gp3'!O2:O17)</f>
-        <v>37787.399999999994</v>
-      </c>
-      <c r="O2">
+        <v>40086.000000000007</v>
+      </c>
+      <c r="P2">
         <f>SUM('20181103year_gp3'!P2:P17)</f>
-        <v>40086.000000000007</v>
-      </c>
-      <c r="P2">
+        <v>39688</v>
+      </c>
+      <c r="Q2">
         <f>SUM('20181103year_gp3'!Q2:Q17)</f>
-        <v>39688</v>
-      </c>
-      <c r="Q2">
+        <v>47679.700000000004</v>
+      </c>
+      <c r="R2">
         <f>SUM('20181103year_gp3'!R2:R17)</f>
-        <v>47679.700000000004</v>
-      </c>
-      <c r="R2">
+        <v>45545.8</v>
+      </c>
+      <c r="S2">
         <f>SUM('20181103year_gp3'!S2:S17)</f>
-        <v>45545.8</v>
-      </c>
-      <c r="S2">
+        <v>33289.700000000004</v>
+      </c>
+      <c r="T2">
         <f>SUM('20181103year_gp3'!T2:T17)</f>
-        <v>33289.700000000004</v>
-      </c>
-      <c r="T2">
+        <v>34785.399999999994</v>
+      </c>
+      <c r="U2">
         <f>SUM('20181103year_gp3'!U2:U17)</f>
-        <v>34785.399999999994</v>
-      </c>
-      <c r="U2">
+        <v>48779.400000000009</v>
+      </c>
+      <c r="V2">
         <f>SUM('20181103year_gp3'!V2:V17)</f>
-        <v>48779.400000000009</v>
-      </c>
-      <c r="V2">
-        <f>SUM('20181103year_gp3'!W2:W17)</f>
         <v>43009.799999999996</v>
       </c>
     </row>
@@ -12743,4 +14147,2576 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>7205.1</v>
+      </c>
+      <c r="B1">
+        <v>7205.1</v>
+      </c>
+      <c r="C1">
+        <v>7205.1</v>
+      </c>
+      <c r="D1">
+        <v>7205.1</v>
+      </c>
+      <c r="E1">
+        <v>7205.1</v>
+      </c>
+      <c r="F1">
+        <v>7205.1</v>
+      </c>
+      <c r="G1">
+        <v>7205.1</v>
+      </c>
+      <c r="H1">
+        <v>7205.1</v>
+      </c>
+      <c r="I1">
+        <v>7205.1</v>
+      </c>
+      <c r="J1">
+        <v>7205.1</v>
+      </c>
+      <c r="K1">
+        <v>7205.1</v>
+      </c>
+      <c r="L1">
+        <v>7205.1</v>
+      </c>
+      <c r="M1">
+        <v>7205.1</v>
+      </c>
+      <c r="N1">
+        <v>7205.1</v>
+      </c>
+      <c r="O1">
+        <v>7205.1</v>
+      </c>
+      <c r="P1">
+        <v>7205.1</v>
+      </c>
+      <c r="Q1">
+        <v>7205.1</v>
+      </c>
+      <c r="R1">
+        <v>7205.1</v>
+      </c>
+      <c r="S1">
+        <v>7205.1</v>
+      </c>
+      <c r="T1">
+        <v>7205.1</v>
+      </c>
+      <c r="U1">
+        <v>7205.1</v>
+      </c>
+      <c r="V1">
+        <v>7205.1</v>
+      </c>
+      <c r="W1">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7205.1</v>
+      </c>
+      <c r="B2">
+        <v>7205.1</v>
+      </c>
+      <c r="C2">
+        <v>7205.1</v>
+      </c>
+      <c r="D2">
+        <v>7205.1</v>
+      </c>
+      <c r="E2">
+        <v>7205.1</v>
+      </c>
+      <c r="F2">
+        <v>7205.1</v>
+      </c>
+      <c r="G2">
+        <v>7205.1</v>
+      </c>
+      <c r="H2">
+        <v>7205.1</v>
+      </c>
+      <c r="I2">
+        <v>7205.1</v>
+      </c>
+      <c r="J2">
+        <v>7205.1</v>
+      </c>
+      <c r="K2">
+        <v>7205.1</v>
+      </c>
+      <c r="L2">
+        <v>7205.1</v>
+      </c>
+      <c r="M2">
+        <v>7205.1</v>
+      </c>
+      <c r="N2">
+        <v>7205.1</v>
+      </c>
+      <c r="O2">
+        <v>7205.1</v>
+      </c>
+      <c r="P2">
+        <v>7205.1</v>
+      </c>
+      <c r="Q2">
+        <v>7205.1</v>
+      </c>
+      <c r="R2">
+        <v>7205.1</v>
+      </c>
+      <c r="S2">
+        <v>7205.1</v>
+      </c>
+      <c r="T2">
+        <v>7205.1</v>
+      </c>
+      <c r="U2">
+        <v>7205.1</v>
+      </c>
+      <c r="V2">
+        <v>7205.1</v>
+      </c>
+      <c r="W2">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7205.1</v>
+      </c>
+      <c r="B3">
+        <v>7205.1</v>
+      </c>
+      <c r="C3">
+        <v>7205.1</v>
+      </c>
+      <c r="D3">
+        <v>7205.1</v>
+      </c>
+      <c r="E3">
+        <v>7205.1</v>
+      </c>
+      <c r="F3">
+        <v>7205.1</v>
+      </c>
+      <c r="G3">
+        <v>7205.1</v>
+      </c>
+      <c r="H3">
+        <v>7205.1</v>
+      </c>
+      <c r="I3">
+        <v>7205.1</v>
+      </c>
+      <c r="J3">
+        <v>7205.1</v>
+      </c>
+      <c r="K3">
+        <v>7205.1</v>
+      </c>
+      <c r="L3">
+        <v>7205.1</v>
+      </c>
+      <c r="M3">
+        <v>7205.1</v>
+      </c>
+      <c r="N3">
+        <v>7205.1</v>
+      </c>
+      <c r="O3">
+        <v>7205.1</v>
+      </c>
+      <c r="P3">
+        <v>7205.1</v>
+      </c>
+      <c r="Q3">
+        <v>7205.1</v>
+      </c>
+      <c r="R3">
+        <v>7205.1</v>
+      </c>
+      <c r="S3">
+        <v>7205.1</v>
+      </c>
+      <c r="T3">
+        <v>7205.1</v>
+      </c>
+      <c r="U3">
+        <v>7205.1</v>
+      </c>
+      <c r="V3">
+        <v>7205.1</v>
+      </c>
+      <c r="W3">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7205.1</v>
+      </c>
+      <c r="B4">
+        <v>7205.1</v>
+      </c>
+      <c r="C4">
+        <v>7205.1</v>
+      </c>
+      <c r="D4">
+        <v>7205.1</v>
+      </c>
+      <c r="E4">
+        <v>7205.1</v>
+      </c>
+      <c r="F4">
+        <v>7205.1</v>
+      </c>
+      <c r="G4">
+        <v>7205.1</v>
+      </c>
+      <c r="H4">
+        <v>7205.1</v>
+      </c>
+      <c r="I4">
+        <v>7205.1</v>
+      </c>
+      <c r="J4">
+        <v>7205.1</v>
+      </c>
+      <c r="K4">
+        <v>7205.1</v>
+      </c>
+      <c r="L4">
+        <v>7205.1</v>
+      </c>
+      <c r="M4">
+        <v>7205.1</v>
+      </c>
+      <c r="N4">
+        <v>7205.1</v>
+      </c>
+      <c r="O4">
+        <v>7205.1</v>
+      </c>
+      <c r="P4">
+        <v>7205.1</v>
+      </c>
+      <c r="Q4">
+        <v>7205.1</v>
+      </c>
+      <c r="R4">
+        <v>7205.1</v>
+      </c>
+      <c r="S4">
+        <v>7205.1</v>
+      </c>
+      <c r="T4">
+        <v>7205.1</v>
+      </c>
+      <c r="U4">
+        <v>7205.1</v>
+      </c>
+      <c r="V4">
+        <v>7205.1</v>
+      </c>
+      <c r="W4">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7205.1</v>
+      </c>
+      <c r="B5">
+        <v>7205.1</v>
+      </c>
+      <c r="C5">
+        <v>7205.1</v>
+      </c>
+      <c r="D5">
+        <v>7205.1</v>
+      </c>
+      <c r="E5">
+        <v>7205.1</v>
+      </c>
+      <c r="F5">
+        <v>7205.1</v>
+      </c>
+      <c r="G5">
+        <v>7205.1</v>
+      </c>
+      <c r="H5">
+        <v>7205.1</v>
+      </c>
+      <c r="I5">
+        <v>7205.1</v>
+      </c>
+      <c r="J5">
+        <v>7205.1</v>
+      </c>
+      <c r="K5">
+        <v>7205.1</v>
+      </c>
+      <c r="L5">
+        <v>7205.1</v>
+      </c>
+      <c r="M5">
+        <v>7205.1</v>
+      </c>
+      <c r="N5">
+        <v>7205.1</v>
+      </c>
+      <c r="O5">
+        <v>7205.1</v>
+      </c>
+      <c r="P5">
+        <v>7205.1</v>
+      </c>
+      <c r="Q5">
+        <v>7205.1</v>
+      </c>
+      <c r="R5">
+        <v>7205.1</v>
+      </c>
+      <c r="S5">
+        <v>7205.1</v>
+      </c>
+      <c r="T5">
+        <v>7205.1</v>
+      </c>
+      <c r="U5">
+        <v>7205.1</v>
+      </c>
+      <c r="V5">
+        <v>7205.1</v>
+      </c>
+      <c r="W5">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7205.1</v>
+      </c>
+      <c r="B6">
+        <v>7205.1</v>
+      </c>
+      <c r="C6">
+        <v>7205.1</v>
+      </c>
+      <c r="D6">
+        <v>7205.1</v>
+      </c>
+      <c r="E6">
+        <v>7205.1</v>
+      </c>
+      <c r="F6">
+        <v>7205.1</v>
+      </c>
+      <c r="G6">
+        <v>7205.1</v>
+      </c>
+      <c r="H6">
+        <v>7205.1</v>
+      </c>
+      <c r="I6">
+        <v>7205.1</v>
+      </c>
+      <c r="J6">
+        <v>7205.1</v>
+      </c>
+      <c r="K6">
+        <v>7205.1</v>
+      </c>
+      <c r="L6">
+        <v>7205.1</v>
+      </c>
+      <c r="M6">
+        <v>7205.1</v>
+      </c>
+      <c r="N6">
+        <v>7205.1</v>
+      </c>
+      <c r="O6">
+        <v>7205.1</v>
+      </c>
+      <c r="P6">
+        <v>7205.1</v>
+      </c>
+      <c r="Q6">
+        <v>7205.1</v>
+      </c>
+      <c r="R6">
+        <v>7205.1</v>
+      </c>
+      <c r="S6">
+        <v>7205.1</v>
+      </c>
+      <c r="T6">
+        <v>7205.1</v>
+      </c>
+      <c r="U6">
+        <v>7205.1</v>
+      </c>
+      <c r="V6">
+        <v>7205.1</v>
+      </c>
+      <c r="W6">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7205.1</v>
+      </c>
+      <c r="B7">
+        <v>7205.1</v>
+      </c>
+      <c r="C7">
+        <v>7205.1</v>
+      </c>
+      <c r="D7">
+        <v>7205.1</v>
+      </c>
+      <c r="E7">
+        <v>7205.1</v>
+      </c>
+      <c r="F7">
+        <v>7205.1</v>
+      </c>
+      <c r="G7">
+        <v>7205.1</v>
+      </c>
+      <c r="H7">
+        <v>7205.1</v>
+      </c>
+      <c r="I7">
+        <v>7205.1</v>
+      </c>
+      <c r="J7">
+        <v>7205.1</v>
+      </c>
+      <c r="K7">
+        <v>7205.1</v>
+      </c>
+      <c r="L7">
+        <v>7205.1</v>
+      </c>
+      <c r="M7">
+        <v>7205.1</v>
+      </c>
+      <c r="N7">
+        <v>7205.1</v>
+      </c>
+      <c r="O7">
+        <v>7205.1</v>
+      </c>
+      <c r="P7">
+        <v>7205.1</v>
+      </c>
+      <c r="Q7">
+        <v>7205.1</v>
+      </c>
+      <c r="R7">
+        <v>7205.1</v>
+      </c>
+      <c r="S7">
+        <v>7205.1</v>
+      </c>
+      <c r="T7">
+        <v>7205.1</v>
+      </c>
+      <c r="U7">
+        <v>7205.1</v>
+      </c>
+      <c r="V7">
+        <v>7205.1</v>
+      </c>
+      <c r="W7">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7205.1</v>
+      </c>
+      <c r="B8">
+        <v>7205.1</v>
+      </c>
+      <c r="C8">
+        <v>7205.1</v>
+      </c>
+      <c r="D8">
+        <v>7205.1</v>
+      </c>
+      <c r="E8">
+        <v>7205.1</v>
+      </c>
+      <c r="F8">
+        <v>7205.1</v>
+      </c>
+      <c r="G8">
+        <v>7205.1</v>
+      </c>
+      <c r="H8">
+        <v>7205.1</v>
+      </c>
+      <c r="I8">
+        <v>7205.1</v>
+      </c>
+      <c r="J8">
+        <v>7205.1</v>
+      </c>
+      <c r="K8">
+        <v>7205.1</v>
+      </c>
+      <c r="L8">
+        <v>7205.1</v>
+      </c>
+      <c r="M8">
+        <v>7205.1</v>
+      </c>
+      <c r="N8">
+        <v>7205.1</v>
+      </c>
+      <c r="O8">
+        <v>7205.1</v>
+      </c>
+      <c r="P8">
+        <v>7205.1</v>
+      </c>
+      <c r="Q8">
+        <v>7205.1</v>
+      </c>
+      <c r="R8">
+        <v>7205.1</v>
+      </c>
+      <c r="S8">
+        <v>7205.1</v>
+      </c>
+      <c r="T8">
+        <v>7205.1</v>
+      </c>
+      <c r="U8">
+        <v>7205.1</v>
+      </c>
+      <c r="V8">
+        <v>7205.1</v>
+      </c>
+      <c r="W8">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7205.1</v>
+      </c>
+      <c r="B9">
+        <v>7205.1</v>
+      </c>
+      <c r="C9">
+        <v>7205.1</v>
+      </c>
+      <c r="D9">
+        <v>7205.1</v>
+      </c>
+      <c r="E9">
+        <v>7205.1</v>
+      </c>
+      <c r="F9">
+        <v>7205.1</v>
+      </c>
+      <c r="G9">
+        <v>7205.1</v>
+      </c>
+      <c r="H9">
+        <v>7205.1</v>
+      </c>
+      <c r="I9">
+        <v>7205.1</v>
+      </c>
+      <c r="J9">
+        <v>7205.1</v>
+      </c>
+      <c r="K9">
+        <v>7205.1</v>
+      </c>
+      <c r="L9">
+        <v>7205.1</v>
+      </c>
+      <c r="M9">
+        <v>7205.1</v>
+      </c>
+      <c r="N9">
+        <v>7205.1</v>
+      </c>
+      <c r="O9">
+        <v>7205.1</v>
+      </c>
+      <c r="P9">
+        <v>7205.1</v>
+      </c>
+      <c r="Q9">
+        <v>7205.1</v>
+      </c>
+      <c r="R9">
+        <v>7205.1</v>
+      </c>
+      <c r="S9">
+        <v>7205.1</v>
+      </c>
+      <c r="T9">
+        <v>7205.1</v>
+      </c>
+      <c r="U9">
+        <v>7205.1</v>
+      </c>
+      <c r="V9">
+        <v>7205.1</v>
+      </c>
+      <c r="W9">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7205.1</v>
+      </c>
+      <c r="B10">
+        <v>7205.1</v>
+      </c>
+      <c r="C10">
+        <v>7205.1</v>
+      </c>
+      <c r="D10">
+        <v>7205.1</v>
+      </c>
+      <c r="E10">
+        <v>7205.1</v>
+      </c>
+      <c r="F10">
+        <v>7205.1</v>
+      </c>
+      <c r="G10">
+        <v>7205.1</v>
+      </c>
+      <c r="H10">
+        <v>7205.1</v>
+      </c>
+      <c r="I10">
+        <v>7205.1</v>
+      </c>
+      <c r="J10">
+        <v>7205.1</v>
+      </c>
+      <c r="K10">
+        <v>7205.1</v>
+      </c>
+      <c r="L10">
+        <v>7205.1</v>
+      </c>
+      <c r="M10">
+        <v>7205.1</v>
+      </c>
+      <c r="N10">
+        <v>7205.1</v>
+      </c>
+      <c r="O10">
+        <v>7205.1</v>
+      </c>
+      <c r="P10">
+        <v>7205.1</v>
+      </c>
+      <c r="Q10">
+        <v>7205.1</v>
+      </c>
+      <c r="R10">
+        <v>7205.1</v>
+      </c>
+      <c r="S10">
+        <v>7205.1</v>
+      </c>
+      <c r="T10">
+        <v>7205.1</v>
+      </c>
+      <c r="U10">
+        <v>7205.1</v>
+      </c>
+      <c r="V10">
+        <v>7205.1</v>
+      </c>
+      <c r="W10">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7205.1</v>
+      </c>
+      <c r="B11">
+        <v>7205.1</v>
+      </c>
+      <c r="C11">
+        <v>7205.1</v>
+      </c>
+      <c r="D11">
+        <v>7205.1</v>
+      </c>
+      <c r="E11">
+        <v>7205.1</v>
+      </c>
+      <c r="F11">
+        <v>7205.1</v>
+      </c>
+      <c r="G11">
+        <v>7205.1</v>
+      </c>
+      <c r="H11">
+        <v>7205.1</v>
+      </c>
+      <c r="I11">
+        <v>7205.1</v>
+      </c>
+      <c r="J11">
+        <v>7205.1</v>
+      </c>
+      <c r="K11">
+        <v>7205.1</v>
+      </c>
+      <c r="L11">
+        <v>7205.1</v>
+      </c>
+      <c r="M11">
+        <v>7205.1</v>
+      </c>
+      <c r="N11">
+        <v>7205.1</v>
+      </c>
+      <c r="O11">
+        <v>7205.1</v>
+      </c>
+      <c r="P11">
+        <v>7205.1</v>
+      </c>
+      <c r="Q11">
+        <v>7205.1</v>
+      </c>
+      <c r="R11">
+        <v>7205.1</v>
+      </c>
+      <c r="S11">
+        <v>7205.1</v>
+      </c>
+      <c r="T11">
+        <v>7205.1</v>
+      </c>
+      <c r="U11">
+        <v>7205.1</v>
+      </c>
+      <c r="V11">
+        <v>7205.1</v>
+      </c>
+      <c r="W11">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7205.1</v>
+      </c>
+      <c r="B12">
+        <v>7205.1</v>
+      </c>
+      <c r="C12">
+        <v>7205.1</v>
+      </c>
+      <c r="D12">
+        <v>7205.1</v>
+      </c>
+      <c r="E12">
+        <v>7205.1</v>
+      </c>
+      <c r="F12">
+        <v>7205.1</v>
+      </c>
+      <c r="G12">
+        <v>7205.1</v>
+      </c>
+      <c r="H12">
+        <v>7205.1</v>
+      </c>
+      <c r="I12">
+        <v>7205.1</v>
+      </c>
+      <c r="J12">
+        <v>7205.1</v>
+      </c>
+      <c r="K12">
+        <v>7205.1</v>
+      </c>
+      <c r="L12">
+        <v>7205.1</v>
+      </c>
+      <c r="M12">
+        <v>7205.1</v>
+      </c>
+      <c r="N12">
+        <v>7205.1</v>
+      </c>
+      <c r="O12">
+        <v>7205.1</v>
+      </c>
+      <c r="P12">
+        <v>7205.1</v>
+      </c>
+      <c r="Q12">
+        <v>7205.1</v>
+      </c>
+      <c r="R12">
+        <v>7205.1</v>
+      </c>
+      <c r="S12">
+        <v>7205.1</v>
+      </c>
+      <c r="T12">
+        <v>7205.1</v>
+      </c>
+      <c r="U12">
+        <v>7205.1</v>
+      </c>
+      <c r="V12">
+        <v>7205.1</v>
+      </c>
+      <c r="W12">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7205.1</v>
+      </c>
+      <c r="B13">
+        <v>7205.1</v>
+      </c>
+      <c r="C13">
+        <v>7205.1</v>
+      </c>
+      <c r="D13">
+        <v>7205.1</v>
+      </c>
+      <c r="E13">
+        <v>7205.1</v>
+      </c>
+      <c r="F13">
+        <v>7205.1</v>
+      </c>
+      <c r="G13">
+        <v>7205.1</v>
+      </c>
+      <c r="H13">
+        <v>7205.1</v>
+      </c>
+      <c r="I13">
+        <v>7205.1</v>
+      </c>
+      <c r="J13">
+        <v>7205.1</v>
+      </c>
+      <c r="K13">
+        <v>7205.1</v>
+      </c>
+      <c r="L13">
+        <v>7205.1</v>
+      </c>
+      <c r="M13">
+        <v>7205.1</v>
+      </c>
+      <c r="N13">
+        <v>7205.1</v>
+      </c>
+      <c r="O13">
+        <v>7205.1</v>
+      </c>
+      <c r="P13">
+        <v>7205.1</v>
+      </c>
+      <c r="Q13">
+        <v>7205.1</v>
+      </c>
+      <c r="R13">
+        <v>7205.1</v>
+      </c>
+      <c r="S13">
+        <v>7205.1</v>
+      </c>
+      <c r="T13">
+        <v>7205.1</v>
+      </c>
+      <c r="U13">
+        <v>7205.1</v>
+      </c>
+      <c r="V13">
+        <v>7205.1</v>
+      </c>
+      <c r="W13">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7205.1</v>
+      </c>
+      <c r="B14">
+        <v>7205.1</v>
+      </c>
+      <c r="C14">
+        <v>7205.1</v>
+      </c>
+      <c r="D14">
+        <v>7205.1</v>
+      </c>
+      <c r="E14">
+        <v>7205.1</v>
+      </c>
+      <c r="F14">
+        <v>7205.1</v>
+      </c>
+      <c r="G14">
+        <v>7205.1</v>
+      </c>
+      <c r="H14">
+        <v>7205.1</v>
+      </c>
+      <c r="I14">
+        <v>7205.1</v>
+      </c>
+      <c r="J14">
+        <v>7205.1</v>
+      </c>
+      <c r="K14">
+        <v>7205.1</v>
+      </c>
+      <c r="L14">
+        <v>7205.1</v>
+      </c>
+      <c r="M14">
+        <v>7205.1</v>
+      </c>
+      <c r="N14">
+        <v>7205.1</v>
+      </c>
+      <c r="O14">
+        <v>7205.1</v>
+      </c>
+      <c r="P14">
+        <v>7205.1</v>
+      </c>
+      <c r="Q14">
+        <v>7205.1</v>
+      </c>
+      <c r="R14">
+        <v>7205.1</v>
+      </c>
+      <c r="S14">
+        <v>7205.1</v>
+      </c>
+      <c r="T14">
+        <v>7205.1</v>
+      </c>
+      <c r="U14">
+        <v>7205.1</v>
+      </c>
+      <c r="V14">
+        <v>7205.1</v>
+      </c>
+      <c r="W14">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7205.1</v>
+      </c>
+      <c r="B15">
+        <v>7205.1</v>
+      </c>
+      <c r="C15">
+        <v>7205.1</v>
+      </c>
+      <c r="D15">
+        <v>7205.1</v>
+      </c>
+      <c r="E15">
+        <v>7205.1</v>
+      </c>
+      <c r="F15">
+        <v>7205.1</v>
+      </c>
+      <c r="G15">
+        <v>7205.1</v>
+      </c>
+      <c r="H15">
+        <v>7205.1</v>
+      </c>
+      <c r="I15">
+        <v>7205.1</v>
+      </c>
+      <c r="J15">
+        <v>7205.1</v>
+      </c>
+      <c r="K15">
+        <v>7205.1</v>
+      </c>
+      <c r="L15">
+        <v>7205.1</v>
+      </c>
+      <c r="M15">
+        <v>7205.1</v>
+      </c>
+      <c r="N15">
+        <v>7205.1</v>
+      </c>
+      <c r="O15">
+        <v>7205.1</v>
+      </c>
+      <c r="P15">
+        <v>7205.1</v>
+      </c>
+      <c r="Q15">
+        <v>7205.1</v>
+      </c>
+      <c r="R15">
+        <v>7205.1</v>
+      </c>
+      <c r="S15">
+        <v>7205.1</v>
+      </c>
+      <c r="T15">
+        <v>7205.1</v>
+      </c>
+      <c r="U15">
+        <v>7205.1</v>
+      </c>
+      <c r="V15">
+        <v>7205.1</v>
+      </c>
+      <c r="W15">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7205.1</v>
+      </c>
+      <c r="B16">
+        <v>7205.1</v>
+      </c>
+      <c r="C16">
+        <v>7205.1</v>
+      </c>
+      <c r="D16">
+        <v>7205.1</v>
+      </c>
+      <c r="E16">
+        <v>7205.1</v>
+      </c>
+      <c r="F16">
+        <v>7205.1</v>
+      </c>
+      <c r="G16">
+        <v>7205.1</v>
+      </c>
+      <c r="H16">
+        <v>7205.1</v>
+      </c>
+      <c r="I16">
+        <v>7205.1</v>
+      </c>
+      <c r="J16">
+        <v>7205.1</v>
+      </c>
+      <c r="K16">
+        <v>7205.1</v>
+      </c>
+      <c r="L16">
+        <v>7205.1</v>
+      </c>
+      <c r="M16">
+        <v>7205.1</v>
+      </c>
+      <c r="N16">
+        <v>7205.1</v>
+      </c>
+      <c r="O16">
+        <v>7205.1</v>
+      </c>
+      <c r="P16">
+        <v>7205.1</v>
+      </c>
+      <c r="Q16">
+        <v>7205.1</v>
+      </c>
+      <c r="R16">
+        <v>7205.1</v>
+      </c>
+      <c r="S16">
+        <v>7205.1</v>
+      </c>
+      <c r="T16">
+        <v>7205.1</v>
+      </c>
+      <c r="U16">
+        <v>7205.1</v>
+      </c>
+      <c r="V16">
+        <v>7205.1</v>
+      </c>
+      <c r="W16">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7205.1</v>
+      </c>
+      <c r="B17">
+        <v>7205.1</v>
+      </c>
+      <c r="C17">
+        <v>7205.1</v>
+      </c>
+      <c r="D17">
+        <v>7205.1</v>
+      </c>
+      <c r="E17">
+        <v>7205.1</v>
+      </c>
+      <c r="F17">
+        <v>7205.1</v>
+      </c>
+      <c r="G17">
+        <v>7205.1</v>
+      </c>
+      <c r="H17">
+        <v>7205.1</v>
+      </c>
+      <c r="I17">
+        <v>7205.1</v>
+      </c>
+      <c r="J17">
+        <v>7205.1</v>
+      </c>
+      <c r="K17">
+        <v>7205.1</v>
+      </c>
+      <c r="L17">
+        <v>7205.1</v>
+      </c>
+      <c r="M17">
+        <v>7205.1</v>
+      </c>
+      <c r="N17">
+        <v>7205.1</v>
+      </c>
+      <c r="O17">
+        <v>7205.1</v>
+      </c>
+      <c r="P17">
+        <v>7205.1</v>
+      </c>
+      <c r="Q17">
+        <v>7205.1</v>
+      </c>
+      <c r="R17">
+        <v>7205.1</v>
+      </c>
+      <c r="S17">
+        <v>7205.1</v>
+      </c>
+      <c r="T17">
+        <v>7205.1</v>
+      </c>
+      <c r="U17">
+        <v>7205.1</v>
+      </c>
+      <c r="V17">
+        <v>7205.1</v>
+      </c>
+      <c r="W17">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7205.1</v>
+      </c>
+      <c r="B18">
+        <v>7205.1</v>
+      </c>
+      <c r="C18">
+        <v>7205.1</v>
+      </c>
+      <c r="D18">
+        <v>7205.1</v>
+      </c>
+      <c r="E18">
+        <v>7205.1</v>
+      </c>
+      <c r="F18">
+        <v>7205.1</v>
+      </c>
+      <c r="G18">
+        <v>7205.1</v>
+      </c>
+      <c r="H18">
+        <v>7205.1</v>
+      </c>
+      <c r="I18">
+        <v>7205.1</v>
+      </c>
+      <c r="J18">
+        <v>7205.1</v>
+      </c>
+      <c r="K18">
+        <v>7205.1</v>
+      </c>
+      <c r="L18">
+        <v>7205.1</v>
+      </c>
+      <c r="M18">
+        <v>7205.1</v>
+      </c>
+      <c r="N18">
+        <v>7205.1</v>
+      </c>
+      <c r="O18">
+        <v>7205.1</v>
+      </c>
+      <c r="P18">
+        <v>7205.1</v>
+      </c>
+      <c r="Q18">
+        <v>7205.1</v>
+      </c>
+      <c r="R18">
+        <v>7205.1</v>
+      </c>
+      <c r="S18">
+        <v>7205.1</v>
+      </c>
+      <c r="T18">
+        <v>7205.1</v>
+      </c>
+      <c r="U18">
+        <v>7205.1</v>
+      </c>
+      <c r="V18">
+        <v>7205.1</v>
+      </c>
+      <c r="W18">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7205.1</v>
+      </c>
+      <c r="B19">
+        <v>7205.1</v>
+      </c>
+      <c r="C19">
+        <v>7205.1</v>
+      </c>
+      <c r="D19">
+        <v>7205.1</v>
+      </c>
+      <c r="E19">
+        <v>7205.1</v>
+      </c>
+      <c r="F19">
+        <v>7205.1</v>
+      </c>
+      <c r="G19">
+        <v>7205.1</v>
+      </c>
+      <c r="H19">
+        <v>7205.1</v>
+      </c>
+      <c r="I19">
+        <v>7205.1</v>
+      </c>
+      <c r="J19">
+        <v>7205.1</v>
+      </c>
+      <c r="K19">
+        <v>7205.1</v>
+      </c>
+      <c r="L19">
+        <v>7205.1</v>
+      </c>
+      <c r="M19">
+        <v>7205.1</v>
+      </c>
+      <c r="N19">
+        <v>7205.1</v>
+      </c>
+      <c r="O19">
+        <v>7205.1</v>
+      </c>
+      <c r="P19">
+        <v>7205.1</v>
+      </c>
+      <c r="Q19">
+        <v>7205.1</v>
+      </c>
+      <c r="R19">
+        <v>7205.1</v>
+      </c>
+      <c r="S19">
+        <v>7205.1</v>
+      </c>
+      <c r="T19">
+        <v>7205.1</v>
+      </c>
+      <c r="U19">
+        <v>7205.1</v>
+      </c>
+      <c r="V19">
+        <v>7205.1</v>
+      </c>
+      <c r="W19">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7205.1</v>
+      </c>
+      <c r="B20">
+        <v>7205.1</v>
+      </c>
+      <c r="C20">
+        <v>7205.1</v>
+      </c>
+      <c r="D20">
+        <v>7205.1</v>
+      </c>
+      <c r="E20">
+        <v>7205.1</v>
+      </c>
+      <c r="F20">
+        <v>7205.1</v>
+      </c>
+      <c r="G20">
+        <v>7205.1</v>
+      </c>
+      <c r="H20">
+        <v>7205.1</v>
+      </c>
+      <c r="I20">
+        <v>7205.1</v>
+      </c>
+      <c r="J20">
+        <v>7205.1</v>
+      </c>
+      <c r="K20">
+        <v>7205.1</v>
+      </c>
+      <c r="L20">
+        <v>7205.1</v>
+      </c>
+      <c r="M20">
+        <v>7205.1</v>
+      </c>
+      <c r="N20">
+        <v>7205.1</v>
+      </c>
+      <c r="O20">
+        <v>7205.1</v>
+      </c>
+      <c r="P20">
+        <v>7205.1</v>
+      </c>
+      <c r="Q20">
+        <v>7205.1</v>
+      </c>
+      <c r="R20">
+        <v>7205.1</v>
+      </c>
+      <c r="S20">
+        <v>7205.1</v>
+      </c>
+      <c r="T20">
+        <v>7205.1</v>
+      </c>
+      <c r="U20">
+        <v>7205.1</v>
+      </c>
+      <c r="V20">
+        <v>7205.1</v>
+      </c>
+      <c r="W20">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7205.1</v>
+      </c>
+      <c r="B21">
+        <v>7205.1</v>
+      </c>
+      <c r="C21">
+        <v>7205.1</v>
+      </c>
+      <c r="D21">
+        <v>7205.1</v>
+      </c>
+      <c r="E21">
+        <v>7205.1</v>
+      </c>
+      <c r="F21">
+        <v>7205.1</v>
+      </c>
+      <c r="G21">
+        <v>7205.1</v>
+      </c>
+      <c r="H21">
+        <v>7205.1</v>
+      </c>
+      <c r="I21">
+        <v>7205.1</v>
+      </c>
+      <c r="J21">
+        <v>7205.1</v>
+      </c>
+      <c r="K21">
+        <v>7205.1</v>
+      </c>
+      <c r="L21">
+        <v>7205.1</v>
+      </c>
+      <c r="M21">
+        <v>7205.1</v>
+      </c>
+      <c r="N21">
+        <v>7205.1</v>
+      </c>
+      <c r="O21">
+        <v>7205.1</v>
+      </c>
+      <c r="P21">
+        <v>7205.1</v>
+      </c>
+      <c r="Q21">
+        <v>7205.1</v>
+      </c>
+      <c r="R21">
+        <v>7205.1</v>
+      </c>
+      <c r="S21">
+        <v>7205.1</v>
+      </c>
+      <c r="T21">
+        <v>7205.1</v>
+      </c>
+      <c r="U21">
+        <v>7205.1</v>
+      </c>
+      <c r="V21">
+        <v>7205.1</v>
+      </c>
+      <c r="W21">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7205.1</v>
+      </c>
+      <c r="B22">
+        <v>7205.1</v>
+      </c>
+      <c r="C22">
+        <v>7205.1</v>
+      </c>
+      <c r="D22">
+        <v>7205.1</v>
+      </c>
+      <c r="E22">
+        <v>7205.1</v>
+      </c>
+      <c r="F22">
+        <v>7205.1</v>
+      </c>
+      <c r="G22">
+        <v>7205.1</v>
+      </c>
+      <c r="H22">
+        <v>7205.1</v>
+      </c>
+      <c r="I22">
+        <v>7205.1</v>
+      </c>
+      <c r="J22">
+        <v>7205.1</v>
+      </c>
+      <c r="K22">
+        <v>7205.1</v>
+      </c>
+      <c r="L22">
+        <v>7205.1</v>
+      </c>
+      <c r="M22">
+        <v>7205.1</v>
+      </c>
+      <c r="N22">
+        <v>7205.1</v>
+      </c>
+      <c r="O22">
+        <v>7205.1</v>
+      </c>
+      <c r="P22">
+        <v>7205.1</v>
+      </c>
+      <c r="Q22">
+        <v>7205.1</v>
+      </c>
+      <c r="R22">
+        <v>7205.1</v>
+      </c>
+      <c r="S22">
+        <v>7205.1</v>
+      </c>
+      <c r="T22">
+        <v>7205.1</v>
+      </c>
+      <c r="U22">
+        <v>7205.1</v>
+      </c>
+      <c r="V22">
+        <v>7205.1</v>
+      </c>
+      <c r="W22">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7205.1</v>
+      </c>
+      <c r="B23">
+        <v>7205.1</v>
+      </c>
+      <c r="C23">
+        <v>7205.1</v>
+      </c>
+      <c r="D23">
+        <v>7205.1</v>
+      </c>
+      <c r="E23">
+        <v>7205.1</v>
+      </c>
+      <c r="F23">
+        <v>7205.1</v>
+      </c>
+      <c r="G23">
+        <v>7205.1</v>
+      </c>
+      <c r="H23">
+        <v>7205.1</v>
+      </c>
+      <c r="I23">
+        <v>7205.1</v>
+      </c>
+      <c r="J23">
+        <v>7205.1</v>
+      </c>
+      <c r="K23">
+        <v>7205.1</v>
+      </c>
+      <c r="L23">
+        <v>7205.1</v>
+      </c>
+      <c r="M23">
+        <v>7205.1</v>
+      </c>
+      <c r="N23">
+        <v>7205.1</v>
+      </c>
+      <c r="O23">
+        <v>7205.1</v>
+      </c>
+      <c r="P23">
+        <v>7205.1</v>
+      </c>
+      <c r="Q23">
+        <v>7205.1</v>
+      </c>
+      <c r="R23">
+        <v>7205.1</v>
+      </c>
+      <c r="S23">
+        <v>7205.1</v>
+      </c>
+      <c r="T23">
+        <v>7205.1</v>
+      </c>
+      <c r="U23">
+        <v>7205.1</v>
+      </c>
+      <c r="V23">
+        <v>7205.1</v>
+      </c>
+      <c r="W23">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7205.1</v>
+      </c>
+      <c r="B24">
+        <v>7205.1</v>
+      </c>
+      <c r="C24">
+        <v>7205.1</v>
+      </c>
+      <c r="D24">
+        <v>7205.1</v>
+      </c>
+      <c r="E24">
+        <v>7205.1</v>
+      </c>
+      <c r="F24">
+        <v>7205.1</v>
+      </c>
+      <c r="G24">
+        <v>7205.1</v>
+      </c>
+      <c r="H24">
+        <v>7205.1</v>
+      </c>
+      <c r="I24">
+        <v>7205.1</v>
+      </c>
+      <c r="J24">
+        <v>7205.1</v>
+      </c>
+      <c r="K24">
+        <v>7205.1</v>
+      </c>
+      <c r="L24">
+        <v>7205.1</v>
+      </c>
+      <c r="M24">
+        <v>7205.1</v>
+      </c>
+      <c r="N24">
+        <v>7205.1</v>
+      </c>
+      <c r="O24">
+        <v>7205.1</v>
+      </c>
+      <c r="P24">
+        <v>7205.1</v>
+      </c>
+      <c r="Q24">
+        <v>7205.1</v>
+      </c>
+      <c r="R24">
+        <v>7205.1</v>
+      </c>
+      <c r="S24">
+        <v>7205.1</v>
+      </c>
+      <c r="T24">
+        <v>7205.1</v>
+      </c>
+      <c r="U24">
+        <v>7205.1</v>
+      </c>
+      <c r="V24">
+        <v>7205.1</v>
+      </c>
+      <c r="W24">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7205.1</v>
+      </c>
+      <c r="B25">
+        <v>7205.1</v>
+      </c>
+      <c r="C25">
+        <v>7205.1</v>
+      </c>
+      <c r="D25">
+        <v>7205.1</v>
+      </c>
+      <c r="E25">
+        <v>7205.1</v>
+      </c>
+      <c r="F25">
+        <v>7205.1</v>
+      </c>
+      <c r="G25">
+        <v>7205.1</v>
+      </c>
+      <c r="H25">
+        <v>7205.1</v>
+      </c>
+      <c r="I25">
+        <v>7205.1</v>
+      </c>
+      <c r="J25">
+        <v>7205.1</v>
+      </c>
+      <c r="K25">
+        <v>7205.1</v>
+      </c>
+      <c r="L25">
+        <v>7205.1</v>
+      </c>
+      <c r="M25">
+        <v>7205.1</v>
+      </c>
+      <c r="N25">
+        <v>7205.1</v>
+      </c>
+      <c r="O25">
+        <v>7205.1</v>
+      </c>
+      <c r="P25">
+        <v>7205.1</v>
+      </c>
+      <c r="Q25">
+        <v>7205.1</v>
+      </c>
+      <c r="R25">
+        <v>7205.1</v>
+      </c>
+      <c r="S25">
+        <v>7205.1</v>
+      </c>
+      <c r="T25">
+        <v>7205.1</v>
+      </c>
+      <c r="U25">
+        <v>7205.1</v>
+      </c>
+      <c r="V25">
+        <v>7205.1</v>
+      </c>
+      <c r="W25">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7205.1</v>
+      </c>
+      <c r="B26">
+        <v>7205.1</v>
+      </c>
+      <c r="C26">
+        <v>7205.1</v>
+      </c>
+      <c r="D26">
+        <v>7205.1</v>
+      </c>
+      <c r="E26">
+        <v>7205.1</v>
+      </c>
+      <c r="F26">
+        <v>7205.1</v>
+      </c>
+      <c r="G26">
+        <v>7205.1</v>
+      </c>
+      <c r="H26">
+        <v>7205.1</v>
+      </c>
+      <c r="I26">
+        <v>7205.1</v>
+      </c>
+      <c r="J26">
+        <v>7205.1</v>
+      </c>
+      <c r="K26">
+        <v>7205.1</v>
+      </c>
+      <c r="L26">
+        <v>7205.1</v>
+      </c>
+      <c r="M26">
+        <v>7205.1</v>
+      </c>
+      <c r="N26">
+        <v>7205.1</v>
+      </c>
+      <c r="O26">
+        <v>7205.1</v>
+      </c>
+      <c r="P26">
+        <v>7205.1</v>
+      </c>
+      <c r="Q26">
+        <v>7205.1</v>
+      </c>
+      <c r="R26">
+        <v>7205.1</v>
+      </c>
+      <c r="S26">
+        <v>7205.1</v>
+      </c>
+      <c r="T26">
+        <v>7205.1</v>
+      </c>
+      <c r="U26">
+        <v>7205.1</v>
+      </c>
+      <c r="V26">
+        <v>7205.1</v>
+      </c>
+      <c r="W26">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7205.1</v>
+      </c>
+      <c r="B27">
+        <v>7205.1</v>
+      </c>
+      <c r="C27">
+        <v>7205.1</v>
+      </c>
+      <c r="D27">
+        <v>7205.1</v>
+      </c>
+      <c r="E27">
+        <v>7205.1</v>
+      </c>
+      <c r="F27">
+        <v>7205.1</v>
+      </c>
+      <c r="G27">
+        <v>7205.1</v>
+      </c>
+      <c r="H27">
+        <v>7205.1</v>
+      </c>
+      <c r="I27">
+        <v>7205.1</v>
+      </c>
+      <c r="J27">
+        <v>7205.1</v>
+      </c>
+      <c r="K27">
+        <v>7205.1</v>
+      </c>
+      <c r="L27">
+        <v>7205.1</v>
+      </c>
+      <c r="M27">
+        <v>7205.1</v>
+      </c>
+      <c r="N27">
+        <v>7205.1</v>
+      </c>
+      <c r="O27">
+        <v>7205.1</v>
+      </c>
+      <c r="P27">
+        <v>7205.1</v>
+      </c>
+      <c r="Q27">
+        <v>7205.1</v>
+      </c>
+      <c r="R27">
+        <v>7205.1</v>
+      </c>
+      <c r="S27">
+        <v>7205.1</v>
+      </c>
+      <c r="T27">
+        <v>7205.1</v>
+      </c>
+      <c r="U27">
+        <v>7205.1</v>
+      </c>
+      <c r="V27">
+        <v>7205.1</v>
+      </c>
+      <c r="W27">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7205.1</v>
+      </c>
+      <c r="B28">
+        <v>7205.1</v>
+      </c>
+      <c r="C28">
+        <v>7205.1</v>
+      </c>
+      <c r="D28">
+        <v>7205.1</v>
+      </c>
+      <c r="E28">
+        <v>7205.1</v>
+      </c>
+      <c r="F28">
+        <v>7205.1</v>
+      </c>
+      <c r="G28">
+        <v>7205.1</v>
+      </c>
+      <c r="H28">
+        <v>7205.1</v>
+      </c>
+      <c r="I28">
+        <v>7205.1</v>
+      </c>
+      <c r="J28">
+        <v>7205.1</v>
+      </c>
+      <c r="K28">
+        <v>7205.1</v>
+      </c>
+      <c r="L28">
+        <v>7205.1</v>
+      </c>
+      <c r="M28">
+        <v>7205.1</v>
+      </c>
+      <c r="N28">
+        <v>7205.1</v>
+      </c>
+      <c r="O28">
+        <v>7205.1</v>
+      </c>
+      <c r="P28">
+        <v>7205.1</v>
+      </c>
+      <c r="Q28">
+        <v>7205.1</v>
+      </c>
+      <c r="R28">
+        <v>7205.1</v>
+      </c>
+      <c r="S28">
+        <v>7205.1</v>
+      </c>
+      <c r="T28">
+        <v>7205.1</v>
+      </c>
+      <c r="U28">
+        <v>7205.1</v>
+      </c>
+      <c r="V28">
+        <v>7205.1</v>
+      </c>
+      <c r="W28">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7205.1</v>
+      </c>
+      <c r="B29">
+        <v>7205.1</v>
+      </c>
+      <c r="C29">
+        <v>7205.1</v>
+      </c>
+      <c r="D29">
+        <v>7205.1</v>
+      </c>
+      <c r="E29">
+        <v>7205.1</v>
+      </c>
+      <c r="F29">
+        <v>7205.1</v>
+      </c>
+      <c r="G29">
+        <v>7205.1</v>
+      </c>
+      <c r="H29">
+        <v>7205.1</v>
+      </c>
+      <c r="I29">
+        <v>7205.1</v>
+      </c>
+      <c r="J29">
+        <v>7205.1</v>
+      </c>
+      <c r="K29">
+        <v>7205.1</v>
+      </c>
+      <c r="L29">
+        <v>7205.1</v>
+      </c>
+      <c r="M29">
+        <v>7205.1</v>
+      </c>
+      <c r="N29">
+        <v>7205.1</v>
+      </c>
+      <c r="O29">
+        <v>7205.1</v>
+      </c>
+      <c r="P29">
+        <v>7205.1</v>
+      </c>
+      <c r="Q29">
+        <v>7205.1</v>
+      </c>
+      <c r="R29">
+        <v>7205.1</v>
+      </c>
+      <c r="S29">
+        <v>7205.1</v>
+      </c>
+      <c r="T29">
+        <v>7205.1</v>
+      </c>
+      <c r="U29">
+        <v>7205.1</v>
+      </c>
+      <c r="V29">
+        <v>7205.1</v>
+      </c>
+      <c r="W29">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>7205.1</v>
+      </c>
+      <c r="B30">
+        <v>7205.1</v>
+      </c>
+      <c r="C30">
+        <v>7205.1</v>
+      </c>
+      <c r="D30">
+        <v>7205.1</v>
+      </c>
+      <c r="E30">
+        <v>7205.1</v>
+      </c>
+      <c r="F30">
+        <v>7205.1</v>
+      </c>
+      <c r="G30">
+        <v>7205.1</v>
+      </c>
+      <c r="H30">
+        <v>7205.1</v>
+      </c>
+      <c r="I30">
+        <v>7205.1</v>
+      </c>
+      <c r="J30">
+        <v>7205.1</v>
+      </c>
+      <c r="K30">
+        <v>7205.1</v>
+      </c>
+      <c r="L30">
+        <v>7205.1</v>
+      </c>
+      <c r="M30">
+        <v>7205.1</v>
+      </c>
+      <c r="N30">
+        <v>7205.1</v>
+      </c>
+      <c r="O30">
+        <v>7205.1</v>
+      </c>
+      <c r="P30">
+        <v>7205.1</v>
+      </c>
+      <c r="Q30">
+        <v>7205.1</v>
+      </c>
+      <c r="R30">
+        <v>7205.1</v>
+      </c>
+      <c r="S30">
+        <v>7205.1</v>
+      </c>
+      <c r="T30">
+        <v>7205.1</v>
+      </c>
+      <c r="U30">
+        <v>7205.1</v>
+      </c>
+      <c r="V30">
+        <v>7205.1</v>
+      </c>
+      <c r="W30">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>7205.1</v>
+      </c>
+      <c r="B31">
+        <v>7205.1</v>
+      </c>
+      <c r="C31">
+        <v>7205.1</v>
+      </c>
+      <c r="D31">
+        <v>7205.1</v>
+      </c>
+      <c r="E31">
+        <v>7205.1</v>
+      </c>
+      <c r="F31">
+        <v>7205.1</v>
+      </c>
+      <c r="G31">
+        <v>7205.1</v>
+      </c>
+      <c r="H31">
+        <v>7205.1</v>
+      </c>
+      <c r="I31">
+        <v>7205.1</v>
+      </c>
+      <c r="J31">
+        <v>7205.1</v>
+      </c>
+      <c r="K31">
+        <v>7205.1</v>
+      </c>
+      <c r="L31">
+        <v>7205.1</v>
+      </c>
+      <c r="M31">
+        <v>7205.1</v>
+      </c>
+      <c r="N31">
+        <v>7205.1</v>
+      </c>
+      <c r="O31">
+        <v>7205.1</v>
+      </c>
+      <c r="P31">
+        <v>7205.1</v>
+      </c>
+      <c r="Q31">
+        <v>7205.1</v>
+      </c>
+      <c r="R31">
+        <v>7205.1</v>
+      </c>
+      <c r="S31">
+        <v>7205.1</v>
+      </c>
+      <c r="T31">
+        <v>7205.1</v>
+      </c>
+      <c r="U31">
+        <v>7205.1</v>
+      </c>
+      <c r="V31">
+        <v>7205.1</v>
+      </c>
+      <c r="W31">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>7205.1</v>
+      </c>
+      <c r="B32">
+        <v>7205.1</v>
+      </c>
+      <c r="C32">
+        <v>7205.1</v>
+      </c>
+      <c r="D32">
+        <v>7205.1</v>
+      </c>
+      <c r="E32">
+        <v>7205.1</v>
+      </c>
+      <c r="F32">
+        <v>7205.1</v>
+      </c>
+      <c r="G32">
+        <v>7205.1</v>
+      </c>
+      <c r="H32">
+        <v>7205.1</v>
+      </c>
+      <c r="I32">
+        <v>7205.1</v>
+      </c>
+      <c r="J32">
+        <v>7205.1</v>
+      </c>
+      <c r="K32">
+        <v>7205.1</v>
+      </c>
+      <c r="L32">
+        <v>7205.1</v>
+      </c>
+      <c r="M32">
+        <v>7205.1</v>
+      </c>
+      <c r="N32">
+        <v>7205.1</v>
+      </c>
+      <c r="O32">
+        <v>7205.1</v>
+      </c>
+      <c r="P32">
+        <v>7205.1</v>
+      </c>
+      <c r="Q32">
+        <v>7205.1</v>
+      </c>
+      <c r="R32">
+        <v>7205.1</v>
+      </c>
+      <c r="S32">
+        <v>7205.1</v>
+      </c>
+      <c r="T32">
+        <v>7205.1</v>
+      </c>
+      <c r="U32">
+        <v>7205.1</v>
+      </c>
+      <c r="V32">
+        <v>7205.1</v>
+      </c>
+      <c r="W32">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7205.1</v>
+      </c>
+      <c r="B33">
+        <v>7205.1</v>
+      </c>
+      <c r="C33">
+        <v>7205.1</v>
+      </c>
+      <c r="D33">
+        <v>7205.1</v>
+      </c>
+      <c r="E33">
+        <v>7205.1</v>
+      </c>
+      <c r="F33">
+        <v>7205.1</v>
+      </c>
+      <c r="G33">
+        <v>7205.1</v>
+      </c>
+      <c r="H33">
+        <v>7205.1</v>
+      </c>
+      <c r="I33">
+        <v>7205.1</v>
+      </c>
+      <c r="J33">
+        <v>7205.1</v>
+      </c>
+      <c r="K33">
+        <v>7205.1</v>
+      </c>
+      <c r="L33">
+        <v>7205.1</v>
+      </c>
+      <c r="M33">
+        <v>7205.1</v>
+      </c>
+      <c r="N33">
+        <v>7205.1</v>
+      </c>
+      <c r="O33">
+        <v>7205.1</v>
+      </c>
+      <c r="P33">
+        <v>7205.1</v>
+      </c>
+      <c r="Q33">
+        <v>7205.1</v>
+      </c>
+      <c r="R33">
+        <v>7205.1</v>
+      </c>
+      <c r="S33">
+        <v>7205.1</v>
+      </c>
+      <c r="T33">
+        <v>7205.1</v>
+      </c>
+      <c r="U33">
+        <v>7205.1</v>
+      </c>
+      <c r="V33">
+        <v>7205.1</v>
+      </c>
+      <c r="W33">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7205.1</v>
+      </c>
+      <c r="B34">
+        <v>7205.1</v>
+      </c>
+      <c r="C34">
+        <v>7205.1</v>
+      </c>
+      <c r="D34">
+        <v>7205.1</v>
+      </c>
+      <c r="E34">
+        <v>7205.1</v>
+      </c>
+      <c r="F34">
+        <v>7205.1</v>
+      </c>
+      <c r="G34">
+        <v>7205.1</v>
+      </c>
+      <c r="H34">
+        <v>7205.1</v>
+      </c>
+      <c r="I34">
+        <v>7205.1</v>
+      </c>
+      <c r="J34">
+        <v>7205.1</v>
+      </c>
+      <c r="K34">
+        <v>7205.1</v>
+      </c>
+      <c r="L34">
+        <v>7205.1</v>
+      </c>
+      <c r="M34">
+        <v>7205.1</v>
+      </c>
+      <c r="N34">
+        <v>7205.1</v>
+      </c>
+      <c r="O34">
+        <v>7205.1</v>
+      </c>
+      <c r="P34">
+        <v>7205.1</v>
+      </c>
+      <c r="Q34">
+        <v>7205.1</v>
+      </c>
+      <c r="R34">
+        <v>7205.1</v>
+      </c>
+      <c r="S34">
+        <v>7205.1</v>
+      </c>
+      <c r="T34">
+        <v>7205.1</v>
+      </c>
+      <c r="U34">
+        <v>7205.1</v>
+      </c>
+      <c r="V34">
+        <v>7205.1</v>
+      </c>
+      <c r="W34">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7205.1</v>
+      </c>
+      <c r="B35">
+        <v>7205.1</v>
+      </c>
+      <c r="C35">
+        <v>7205.1</v>
+      </c>
+      <c r="D35">
+        <v>7205.1</v>
+      </c>
+      <c r="E35">
+        <v>7205.1</v>
+      </c>
+      <c r="F35">
+        <v>7205.1</v>
+      </c>
+      <c r="G35">
+        <v>7205.1</v>
+      </c>
+      <c r="H35">
+        <v>7205.1</v>
+      </c>
+      <c r="I35">
+        <v>7205.1</v>
+      </c>
+      <c r="J35">
+        <v>7205.1</v>
+      </c>
+      <c r="K35">
+        <v>7205.1</v>
+      </c>
+      <c r="L35">
+        <v>7205.1</v>
+      </c>
+      <c r="M35">
+        <v>7205.1</v>
+      </c>
+      <c r="N35">
+        <v>7205.1</v>
+      </c>
+      <c r="O35">
+        <v>7205.1</v>
+      </c>
+      <c r="P35">
+        <v>7205.1</v>
+      </c>
+      <c r="Q35">
+        <v>7205.1</v>
+      </c>
+      <c r="R35">
+        <v>7205.1</v>
+      </c>
+      <c r="S35">
+        <v>7205.1</v>
+      </c>
+      <c r="T35">
+        <v>7205.1</v>
+      </c>
+      <c r="U35">
+        <v>7205.1</v>
+      </c>
+      <c r="V35">
+        <v>7205.1</v>
+      </c>
+      <c r="W35">
+        <v>7205.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>7205.1</v>
+      </c>
+      <c r="B36">
+        <v>7205.1</v>
+      </c>
+      <c r="C36">
+        <v>7205.1</v>
+      </c>
+      <c r="D36">
+        <v>7205.1</v>
+      </c>
+      <c r="E36">
+        <v>7205.1</v>
+      </c>
+      <c r="F36">
+        <v>7205.1</v>
+      </c>
+      <c r="G36">
+        <v>7205.1</v>
+      </c>
+      <c r="H36">
+        <v>7205.1</v>
+      </c>
+      <c r="I36">
+        <v>7205.1</v>
+      </c>
+      <c r="J36">
+        <v>7205.1</v>
+      </c>
+      <c r="K36">
+        <v>7205.1</v>
+      </c>
+      <c r="L36">
+        <v>7205.1</v>
+      </c>
+      <c r="M36">
+        <v>7205.1</v>
+      </c>
+      <c r="N36">
+        <v>7205.1</v>
+      </c>
+      <c r="O36">
+        <v>7205.1</v>
+      </c>
+      <c r="P36">
+        <v>7205.1</v>
+      </c>
+      <c r="Q36">
+        <v>7205.1</v>
+      </c>
+      <c r="R36">
+        <v>7205.1</v>
+      </c>
+      <c r="S36">
+        <v>7205.1</v>
+      </c>
+      <c r="T36">
+        <v>7205.1</v>
+      </c>
+      <c r="U36">
+        <v>7205.1</v>
+      </c>
+      <c r="V36">
+        <v>7205.1</v>
+      </c>
+      <c r="W36">
+        <v>7205.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/chart3/data/20181103year_gp3.xlsx
+++ b/chart3/data/20181103year_gp3.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="156" windowWidth="19176" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="396" yWindow="156" windowWidth="19176" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181103year_gp2" sheetId="1" r:id="rId1"/>
     <sheet name="20181103year_gp3" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
     <sheet name="區域整理" sheetId="5" r:id="rId4"/>
-    <sheet name="工作表2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1051,11 +1050,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="248579072"/>
-        <c:axId val="162310400"/>
+        <c:axId val="133818880"/>
+        <c:axId val="266108224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248579072"/>
+        <c:axId val="133818880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,7 +1073,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162310400"/>
+        <c:crossAx val="266108224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1082,7 +1081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162310400"/>
+        <c:axId val="266108224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1102,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248579072"/>
+        <c:crossAx val="133818880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7481,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -11370,7 +11369,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C8" sqref="B8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14147,2576 +14146,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>7205.1</v>
-      </c>
-      <c r="B1">
-        <v>7205.1</v>
-      </c>
-      <c r="C1">
-        <v>7205.1</v>
-      </c>
-      <c r="D1">
-        <v>7205.1</v>
-      </c>
-      <c r="E1">
-        <v>7205.1</v>
-      </c>
-      <c r="F1">
-        <v>7205.1</v>
-      </c>
-      <c r="G1">
-        <v>7205.1</v>
-      </c>
-      <c r="H1">
-        <v>7205.1</v>
-      </c>
-      <c r="I1">
-        <v>7205.1</v>
-      </c>
-      <c r="J1">
-        <v>7205.1</v>
-      </c>
-      <c r="K1">
-        <v>7205.1</v>
-      </c>
-      <c r="L1">
-        <v>7205.1</v>
-      </c>
-      <c r="M1">
-        <v>7205.1</v>
-      </c>
-      <c r="N1">
-        <v>7205.1</v>
-      </c>
-      <c r="O1">
-        <v>7205.1</v>
-      </c>
-      <c r="P1">
-        <v>7205.1</v>
-      </c>
-      <c r="Q1">
-        <v>7205.1</v>
-      </c>
-      <c r="R1">
-        <v>7205.1</v>
-      </c>
-      <c r="S1">
-        <v>7205.1</v>
-      </c>
-      <c r="T1">
-        <v>7205.1</v>
-      </c>
-      <c r="U1">
-        <v>7205.1</v>
-      </c>
-      <c r="V1">
-        <v>7205.1</v>
-      </c>
-      <c r="W1">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>7205.1</v>
-      </c>
-      <c r="B2">
-        <v>7205.1</v>
-      </c>
-      <c r="C2">
-        <v>7205.1</v>
-      </c>
-      <c r="D2">
-        <v>7205.1</v>
-      </c>
-      <c r="E2">
-        <v>7205.1</v>
-      </c>
-      <c r="F2">
-        <v>7205.1</v>
-      </c>
-      <c r="G2">
-        <v>7205.1</v>
-      </c>
-      <c r="H2">
-        <v>7205.1</v>
-      </c>
-      <c r="I2">
-        <v>7205.1</v>
-      </c>
-      <c r="J2">
-        <v>7205.1</v>
-      </c>
-      <c r="K2">
-        <v>7205.1</v>
-      </c>
-      <c r="L2">
-        <v>7205.1</v>
-      </c>
-      <c r="M2">
-        <v>7205.1</v>
-      </c>
-      <c r="N2">
-        <v>7205.1</v>
-      </c>
-      <c r="O2">
-        <v>7205.1</v>
-      </c>
-      <c r="P2">
-        <v>7205.1</v>
-      </c>
-      <c r="Q2">
-        <v>7205.1</v>
-      </c>
-      <c r="R2">
-        <v>7205.1</v>
-      </c>
-      <c r="S2">
-        <v>7205.1</v>
-      </c>
-      <c r="T2">
-        <v>7205.1</v>
-      </c>
-      <c r="U2">
-        <v>7205.1</v>
-      </c>
-      <c r="V2">
-        <v>7205.1</v>
-      </c>
-      <c r="W2">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>7205.1</v>
-      </c>
-      <c r="B3">
-        <v>7205.1</v>
-      </c>
-      <c r="C3">
-        <v>7205.1</v>
-      </c>
-      <c r="D3">
-        <v>7205.1</v>
-      </c>
-      <c r="E3">
-        <v>7205.1</v>
-      </c>
-      <c r="F3">
-        <v>7205.1</v>
-      </c>
-      <c r="G3">
-        <v>7205.1</v>
-      </c>
-      <c r="H3">
-        <v>7205.1</v>
-      </c>
-      <c r="I3">
-        <v>7205.1</v>
-      </c>
-      <c r="J3">
-        <v>7205.1</v>
-      </c>
-      <c r="K3">
-        <v>7205.1</v>
-      </c>
-      <c r="L3">
-        <v>7205.1</v>
-      </c>
-      <c r="M3">
-        <v>7205.1</v>
-      </c>
-      <c r="N3">
-        <v>7205.1</v>
-      </c>
-      <c r="O3">
-        <v>7205.1</v>
-      </c>
-      <c r="P3">
-        <v>7205.1</v>
-      </c>
-      <c r="Q3">
-        <v>7205.1</v>
-      </c>
-      <c r="R3">
-        <v>7205.1</v>
-      </c>
-      <c r="S3">
-        <v>7205.1</v>
-      </c>
-      <c r="T3">
-        <v>7205.1</v>
-      </c>
-      <c r="U3">
-        <v>7205.1</v>
-      </c>
-      <c r="V3">
-        <v>7205.1</v>
-      </c>
-      <c r="W3">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7205.1</v>
-      </c>
-      <c r="B4">
-        <v>7205.1</v>
-      </c>
-      <c r="C4">
-        <v>7205.1</v>
-      </c>
-      <c r="D4">
-        <v>7205.1</v>
-      </c>
-      <c r="E4">
-        <v>7205.1</v>
-      </c>
-      <c r="F4">
-        <v>7205.1</v>
-      </c>
-      <c r="G4">
-        <v>7205.1</v>
-      </c>
-      <c r="H4">
-        <v>7205.1</v>
-      </c>
-      <c r="I4">
-        <v>7205.1</v>
-      </c>
-      <c r="J4">
-        <v>7205.1</v>
-      </c>
-      <c r="K4">
-        <v>7205.1</v>
-      </c>
-      <c r="L4">
-        <v>7205.1</v>
-      </c>
-      <c r="M4">
-        <v>7205.1</v>
-      </c>
-      <c r="N4">
-        <v>7205.1</v>
-      </c>
-      <c r="O4">
-        <v>7205.1</v>
-      </c>
-      <c r="P4">
-        <v>7205.1</v>
-      </c>
-      <c r="Q4">
-        <v>7205.1</v>
-      </c>
-      <c r="R4">
-        <v>7205.1</v>
-      </c>
-      <c r="S4">
-        <v>7205.1</v>
-      </c>
-      <c r="T4">
-        <v>7205.1</v>
-      </c>
-      <c r="U4">
-        <v>7205.1</v>
-      </c>
-      <c r="V4">
-        <v>7205.1</v>
-      </c>
-      <c r="W4">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>7205.1</v>
-      </c>
-      <c r="B5">
-        <v>7205.1</v>
-      </c>
-      <c r="C5">
-        <v>7205.1</v>
-      </c>
-      <c r="D5">
-        <v>7205.1</v>
-      </c>
-      <c r="E5">
-        <v>7205.1</v>
-      </c>
-      <c r="F5">
-        <v>7205.1</v>
-      </c>
-      <c r="G5">
-        <v>7205.1</v>
-      </c>
-      <c r="H5">
-        <v>7205.1</v>
-      </c>
-      <c r="I5">
-        <v>7205.1</v>
-      </c>
-      <c r="J5">
-        <v>7205.1</v>
-      </c>
-      <c r="K5">
-        <v>7205.1</v>
-      </c>
-      <c r="L5">
-        <v>7205.1</v>
-      </c>
-      <c r="M5">
-        <v>7205.1</v>
-      </c>
-      <c r="N5">
-        <v>7205.1</v>
-      </c>
-      <c r="O5">
-        <v>7205.1</v>
-      </c>
-      <c r="P5">
-        <v>7205.1</v>
-      </c>
-      <c r="Q5">
-        <v>7205.1</v>
-      </c>
-      <c r="R5">
-        <v>7205.1</v>
-      </c>
-      <c r="S5">
-        <v>7205.1</v>
-      </c>
-      <c r="T5">
-        <v>7205.1</v>
-      </c>
-      <c r="U5">
-        <v>7205.1</v>
-      </c>
-      <c r="V5">
-        <v>7205.1</v>
-      </c>
-      <c r="W5">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7205.1</v>
-      </c>
-      <c r="B6">
-        <v>7205.1</v>
-      </c>
-      <c r="C6">
-        <v>7205.1</v>
-      </c>
-      <c r="D6">
-        <v>7205.1</v>
-      </c>
-      <c r="E6">
-        <v>7205.1</v>
-      </c>
-      <c r="F6">
-        <v>7205.1</v>
-      </c>
-      <c r="G6">
-        <v>7205.1</v>
-      </c>
-      <c r="H6">
-        <v>7205.1</v>
-      </c>
-      <c r="I6">
-        <v>7205.1</v>
-      </c>
-      <c r="J6">
-        <v>7205.1</v>
-      </c>
-      <c r="K6">
-        <v>7205.1</v>
-      </c>
-      <c r="L6">
-        <v>7205.1</v>
-      </c>
-      <c r="M6">
-        <v>7205.1</v>
-      </c>
-      <c r="N6">
-        <v>7205.1</v>
-      </c>
-      <c r="O6">
-        <v>7205.1</v>
-      </c>
-      <c r="P6">
-        <v>7205.1</v>
-      </c>
-      <c r="Q6">
-        <v>7205.1</v>
-      </c>
-      <c r="R6">
-        <v>7205.1</v>
-      </c>
-      <c r="S6">
-        <v>7205.1</v>
-      </c>
-      <c r="T6">
-        <v>7205.1</v>
-      </c>
-      <c r="U6">
-        <v>7205.1</v>
-      </c>
-      <c r="V6">
-        <v>7205.1</v>
-      </c>
-      <c r="W6">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7205.1</v>
-      </c>
-      <c r="B7">
-        <v>7205.1</v>
-      </c>
-      <c r="C7">
-        <v>7205.1</v>
-      </c>
-      <c r="D7">
-        <v>7205.1</v>
-      </c>
-      <c r="E7">
-        <v>7205.1</v>
-      </c>
-      <c r="F7">
-        <v>7205.1</v>
-      </c>
-      <c r="G7">
-        <v>7205.1</v>
-      </c>
-      <c r="H7">
-        <v>7205.1</v>
-      </c>
-      <c r="I7">
-        <v>7205.1</v>
-      </c>
-      <c r="J7">
-        <v>7205.1</v>
-      </c>
-      <c r="K7">
-        <v>7205.1</v>
-      </c>
-      <c r="L7">
-        <v>7205.1</v>
-      </c>
-      <c r="M7">
-        <v>7205.1</v>
-      </c>
-      <c r="N7">
-        <v>7205.1</v>
-      </c>
-      <c r="O7">
-        <v>7205.1</v>
-      </c>
-      <c r="P7">
-        <v>7205.1</v>
-      </c>
-      <c r="Q7">
-        <v>7205.1</v>
-      </c>
-      <c r="R7">
-        <v>7205.1</v>
-      </c>
-      <c r="S7">
-        <v>7205.1</v>
-      </c>
-      <c r="T7">
-        <v>7205.1</v>
-      </c>
-      <c r="U7">
-        <v>7205.1</v>
-      </c>
-      <c r="V7">
-        <v>7205.1</v>
-      </c>
-      <c r="W7">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7205.1</v>
-      </c>
-      <c r="B8">
-        <v>7205.1</v>
-      </c>
-      <c r="C8">
-        <v>7205.1</v>
-      </c>
-      <c r="D8">
-        <v>7205.1</v>
-      </c>
-      <c r="E8">
-        <v>7205.1</v>
-      </c>
-      <c r="F8">
-        <v>7205.1</v>
-      </c>
-      <c r="G8">
-        <v>7205.1</v>
-      </c>
-      <c r="H8">
-        <v>7205.1</v>
-      </c>
-      <c r="I8">
-        <v>7205.1</v>
-      </c>
-      <c r="J8">
-        <v>7205.1</v>
-      </c>
-      <c r="K8">
-        <v>7205.1</v>
-      </c>
-      <c r="L8">
-        <v>7205.1</v>
-      </c>
-      <c r="M8">
-        <v>7205.1</v>
-      </c>
-      <c r="N8">
-        <v>7205.1</v>
-      </c>
-      <c r="O8">
-        <v>7205.1</v>
-      </c>
-      <c r="P8">
-        <v>7205.1</v>
-      </c>
-      <c r="Q8">
-        <v>7205.1</v>
-      </c>
-      <c r="R8">
-        <v>7205.1</v>
-      </c>
-      <c r="S8">
-        <v>7205.1</v>
-      </c>
-      <c r="T8">
-        <v>7205.1</v>
-      </c>
-      <c r="U8">
-        <v>7205.1</v>
-      </c>
-      <c r="V8">
-        <v>7205.1</v>
-      </c>
-      <c r="W8">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7205.1</v>
-      </c>
-      <c r="B9">
-        <v>7205.1</v>
-      </c>
-      <c r="C9">
-        <v>7205.1</v>
-      </c>
-      <c r="D9">
-        <v>7205.1</v>
-      </c>
-      <c r="E9">
-        <v>7205.1</v>
-      </c>
-      <c r="F9">
-        <v>7205.1</v>
-      </c>
-      <c r="G9">
-        <v>7205.1</v>
-      </c>
-      <c r="H9">
-        <v>7205.1</v>
-      </c>
-      <c r="I9">
-        <v>7205.1</v>
-      </c>
-      <c r="J9">
-        <v>7205.1</v>
-      </c>
-      <c r="K9">
-        <v>7205.1</v>
-      </c>
-      <c r="L9">
-        <v>7205.1</v>
-      </c>
-      <c r="M9">
-        <v>7205.1</v>
-      </c>
-      <c r="N9">
-        <v>7205.1</v>
-      </c>
-      <c r="O9">
-        <v>7205.1</v>
-      </c>
-      <c r="P9">
-        <v>7205.1</v>
-      </c>
-      <c r="Q9">
-        <v>7205.1</v>
-      </c>
-      <c r="R9">
-        <v>7205.1</v>
-      </c>
-      <c r="S9">
-        <v>7205.1</v>
-      </c>
-      <c r="T9">
-        <v>7205.1</v>
-      </c>
-      <c r="U9">
-        <v>7205.1</v>
-      </c>
-      <c r="V9">
-        <v>7205.1</v>
-      </c>
-      <c r="W9">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7205.1</v>
-      </c>
-      <c r="B10">
-        <v>7205.1</v>
-      </c>
-      <c r="C10">
-        <v>7205.1</v>
-      </c>
-      <c r="D10">
-        <v>7205.1</v>
-      </c>
-      <c r="E10">
-        <v>7205.1</v>
-      </c>
-      <c r="F10">
-        <v>7205.1</v>
-      </c>
-      <c r="G10">
-        <v>7205.1</v>
-      </c>
-      <c r="H10">
-        <v>7205.1</v>
-      </c>
-      <c r="I10">
-        <v>7205.1</v>
-      </c>
-      <c r="J10">
-        <v>7205.1</v>
-      </c>
-      <c r="K10">
-        <v>7205.1</v>
-      </c>
-      <c r="L10">
-        <v>7205.1</v>
-      </c>
-      <c r="M10">
-        <v>7205.1</v>
-      </c>
-      <c r="N10">
-        <v>7205.1</v>
-      </c>
-      <c r="O10">
-        <v>7205.1</v>
-      </c>
-      <c r="P10">
-        <v>7205.1</v>
-      </c>
-      <c r="Q10">
-        <v>7205.1</v>
-      </c>
-      <c r="R10">
-        <v>7205.1</v>
-      </c>
-      <c r="S10">
-        <v>7205.1</v>
-      </c>
-      <c r="T10">
-        <v>7205.1</v>
-      </c>
-      <c r="U10">
-        <v>7205.1</v>
-      </c>
-      <c r="V10">
-        <v>7205.1</v>
-      </c>
-      <c r="W10">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7205.1</v>
-      </c>
-      <c r="B11">
-        <v>7205.1</v>
-      </c>
-      <c r="C11">
-        <v>7205.1</v>
-      </c>
-      <c r="D11">
-        <v>7205.1</v>
-      </c>
-      <c r="E11">
-        <v>7205.1</v>
-      </c>
-      <c r="F11">
-        <v>7205.1</v>
-      </c>
-      <c r="G11">
-        <v>7205.1</v>
-      </c>
-      <c r="H11">
-        <v>7205.1</v>
-      </c>
-      <c r="I11">
-        <v>7205.1</v>
-      </c>
-      <c r="J11">
-        <v>7205.1</v>
-      </c>
-      <c r="K11">
-        <v>7205.1</v>
-      </c>
-      <c r="L11">
-        <v>7205.1</v>
-      </c>
-      <c r="M11">
-        <v>7205.1</v>
-      </c>
-      <c r="N11">
-        <v>7205.1</v>
-      </c>
-      <c r="O11">
-        <v>7205.1</v>
-      </c>
-      <c r="P11">
-        <v>7205.1</v>
-      </c>
-      <c r="Q11">
-        <v>7205.1</v>
-      </c>
-      <c r="R11">
-        <v>7205.1</v>
-      </c>
-      <c r="S11">
-        <v>7205.1</v>
-      </c>
-      <c r="T11">
-        <v>7205.1</v>
-      </c>
-      <c r="U11">
-        <v>7205.1</v>
-      </c>
-      <c r="V11">
-        <v>7205.1</v>
-      </c>
-      <c r="W11">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>7205.1</v>
-      </c>
-      <c r="B12">
-        <v>7205.1</v>
-      </c>
-      <c r="C12">
-        <v>7205.1</v>
-      </c>
-      <c r="D12">
-        <v>7205.1</v>
-      </c>
-      <c r="E12">
-        <v>7205.1</v>
-      </c>
-      <c r="F12">
-        <v>7205.1</v>
-      </c>
-      <c r="G12">
-        <v>7205.1</v>
-      </c>
-      <c r="H12">
-        <v>7205.1</v>
-      </c>
-      <c r="I12">
-        <v>7205.1</v>
-      </c>
-      <c r="J12">
-        <v>7205.1</v>
-      </c>
-      <c r="K12">
-        <v>7205.1</v>
-      </c>
-      <c r="L12">
-        <v>7205.1</v>
-      </c>
-      <c r="M12">
-        <v>7205.1</v>
-      </c>
-      <c r="N12">
-        <v>7205.1</v>
-      </c>
-      <c r="O12">
-        <v>7205.1</v>
-      </c>
-      <c r="P12">
-        <v>7205.1</v>
-      </c>
-      <c r="Q12">
-        <v>7205.1</v>
-      </c>
-      <c r="R12">
-        <v>7205.1</v>
-      </c>
-      <c r="S12">
-        <v>7205.1</v>
-      </c>
-      <c r="T12">
-        <v>7205.1</v>
-      </c>
-      <c r="U12">
-        <v>7205.1</v>
-      </c>
-      <c r="V12">
-        <v>7205.1</v>
-      </c>
-      <c r="W12">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7205.1</v>
-      </c>
-      <c r="B13">
-        <v>7205.1</v>
-      </c>
-      <c r="C13">
-        <v>7205.1</v>
-      </c>
-      <c r="D13">
-        <v>7205.1</v>
-      </c>
-      <c r="E13">
-        <v>7205.1</v>
-      </c>
-      <c r="F13">
-        <v>7205.1</v>
-      </c>
-      <c r="G13">
-        <v>7205.1</v>
-      </c>
-      <c r="H13">
-        <v>7205.1</v>
-      </c>
-      <c r="I13">
-        <v>7205.1</v>
-      </c>
-      <c r="J13">
-        <v>7205.1</v>
-      </c>
-      <c r="K13">
-        <v>7205.1</v>
-      </c>
-      <c r="L13">
-        <v>7205.1</v>
-      </c>
-      <c r="M13">
-        <v>7205.1</v>
-      </c>
-      <c r="N13">
-        <v>7205.1</v>
-      </c>
-      <c r="O13">
-        <v>7205.1</v>
-      </c>
-      <c r="P13">
-        <v>7205.1</v>
-      </c>
-      <c r="Q13">
-        <v>7205.1</v>
-      </c>
-      <c r="R13">
-        <v>7205.1</v>
-      </c>
-      <c r="S13">
-        <v>7205.1</v>
-      </c>
-      <c r="T13">
-        <v>7205.1</v>
-      </c>
-      <c r="U13">
-        <v>7205.1</v>
-      </c>
-      <c r="V13">
-        <v>7205.1</v>
-      </c>
-      <c r="W13">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7205.1</v>
-      </c>
-      <c r="B14">
-        <v>7205.1</v>
-      </c>
-      <c r="C14">
-        <v>7205.1</v>
-      </c>
-      <c r="D14">
-        <v>7205.1</v>
-      </c>
-      <c r="E14">
-        <v>7205.1</v>
-      </c>
-      <c r="F14">
-        <v>7205.1</v>
-      </c>
-      <c r="G14">
-        <v>7205.1</v>
-      </c>
-      <c r="H14">
-        <v>7205.1</v>
-      </c>
-      <c r="I14">
-        <v>7205.1</v>
-      </c>
-      <c r="J14">
-        <v>7205.1</v>
-      </c>
-      <c r="K14">
-        <v>7205.1</v>
-      </c>
-      <c r="L14">
-        <v>7205.1</v>
-      </c>
-      <c r="M14">
-        <v>7205.1</v>
-      </c>
-      <c r="N14">
-        <v>7205.1</v>
-      </c>
-      <c r="O14">
-        <v>7205.1</v>
-      </c>
-      <c r="P14">
-        <v>7205.1</v>
-      </c>
-      <c r="Q14">
-        <v>7205.1</v>
-      </c>
-      <c r="R14">
-        <v>7205.1</v>
-      </c>
-      <c r="S14">
-        <v>7205.1</v>
-      </c>
-      <c r="T14">
-        <v>7205.1</v>
-      </c>
-      <c r="U14">
-        <v>7205.1</v>
-      </c>
-      <c r="V14">
-        <v>7205.1</v>
-      </c>
-      <c r="W14">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7205.1</v>
-      </c>
-      <c r="B15">
-        <v>7205.1</v>
-      </c>
-      <c r="C15">
-        <v>7205.1</v>
-      </c>
-      <c r="D15">
-        <v>7205.1</v>
-      </c>
-      <c r="E15">
-        <v>7205.1</v>
-      </c>
-      <c r="F15">
-        <v>7205.1</v>
-      </c>
-      <c r="G15">
-        <v>7205.1</v>
-      </c>
-      <c r="H15">
-        <v>7205.1</v>
-      </c>
-      <c r="I15">
-        <v>7205.1</v>
-      </c>
-      <c r="J15">
-        <v>7205.1</v>
-      </c>
-      <c r="K15">
-        <v>7205.1</v>
-      </c>
-      <c r="L15">
-        <v>7205.1</v>
-      </c>
-      <c r="M15">
-        <v>7205.1</v>
-      </c>
-      <c r="N15">
-        <v>7205.1</v>
-      </c>
-      <c r="O15">
-        <v>7205.1</v>
-      </c>
-      <c r="P15">
-        <v>7205.1</v>
-      </c>
-      <c r="Q15">
-        <v>7205.1</v>
-      </c>
-      <c r="R15">
-        <v>7205.1</v>
-      </c>
-      <c r="S15">
-        <v>7205.1</v>
-      </c>
-      <c r="T15">
-        <v>7205.1</v>
-      </c>
-      <c r="U15">
-        <v>7205.1</v>
-      </c>
-      <c r="V15">
-        <v>7205.1</v>
-      </c>
-      <c r="W15">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>7205.1</v>
-      </c>
-      <c r="B16">
-        <v>7205.1</v>
-      </c>
-      <c r="C16">
-        <v>7205.1</v>
-      </c>
-      <c r="D16">
-        <v>7205.1</v>
-      </c>
-      <c r="E16">
-        <v>7205.1</v>
-      </c>
-      <c r="F16">
-        <v>7205.1</v>
-      </c>
-      <c r="G16">
-        <v>7205.1</v>
-      </c>
-      <c r="H16">
-        <v>7205.1</v>
-      </c>
-      <c r="I16">
-        <v>7205.1</v>
-      </c>
-      <c r="J16">
-        <v>7205.1</v>
-      </c>
-      <c r="K16">
-        <v>7205.1</v>
-      </c>
-      <c r="L16">
-        <v>7205.1</v>
-      </c>
-      <c r="M16">
-        <v>7205.1</v>
-      </c>
-      <c r="N16">
-        <v>7205.1</v>
-      </c>
-      <c r="O16">
-        <v>7205.1</v>
-      </c>
-      <c r="P16">
-        <v>7205.1</v>
-      </c>
-      <c r="Q16">
-        <v>7205.1</v>
-      </c>
-      <c r="R16">
-        <v>7205.1</v>
-      </c>
-      <c r="S16">
-        <v>7205.1</v>
-      </c>
-      <c r="T16">
-        <v>7205.1</v>
-      </c>
-      <c r="U16">
-        <v>7205.1</v>
-      </c>
-      <c r="V16">
-        <v>7205.1</v>
-      </c>
-      <c r="W16">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7205.1</v>
-      </c>
-      <c r="B17">
-        <v>7205.1</v>
-      </c>
-      <c r="C17">
-        <v>7205.1</v>
-      </c>
-      <c r="D17">
-        <v>7205.1</v>
-      </c>
-      <c r="E17">
-        <v>7205.1</v>
-      </c>
-      <c r="F17">
-        <v>7205.1</v>
-      </c>
-      <c r="G17">
-        <v>7205.1</v>
-      </c>
-      <c r="H17">
-        <v>7205.1</v>
-      </c>
-      <c r="I17">
-        <v>7205.1</v>
-      </c>
-      <c r="J17">
-        <v>7205.1</v>
-      </c>
-      <c r="K17">
-        <v>7205.1</v>
-      </c>
-      <c r="L17">
-        <v>7205.1</v>
-      </c>
-      <c r="M17">
-        <v>7205.1</v>
-      </c>
-      <c r="N17">
-        <v>7205.1</v>
-      </c>
-      <c r="O17">
-        <v>7205.1</v>
-      </c>
-      <c r="P17">
-        <v>7205.1</v>
-      </c>
-      <c r="Q17">
-        <v>7205.1</v>
-      </c>
-      <c r="R17">
-        <v>7205.1</v>
-      </c>
-      <c r="S17">
-        <v>7205.1</v>
-      </c>
-      <c r="T17">
-        <v>7205.1</v>
-      </c>
-      <c r="U17">
-        <v>7205.1</v>
-      </c>
-      <c r="V17">
-        <v>7205.1</v>
-      </c>
-      <c r="W17">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>7205.1</v>
-      </c>
-      <c r="B18">
-        <v>7205.1</v>
-      </c>
-      <c r="C18">
-        <v>7205.1</v>
-      </c>
-      <c r="D18">
-        <v>7205.1</v>
-      </c>
-      <c r="E18">
-        <v>7205.1</v>
-      </c>
-      <c r="F18">
-        <v>7205.1</v>
-      </c>
-      <c r="G18">
-        <v>7205.1</v>
-      </c>
-      <c r="H18">
-        <v>7205.1</v>
-      </c>
-      <c r="I18">
-        <v>7205.1</v>
-      </c>
-      <c r="J18">
-        <v>7205.1</v>
-      </c>
-      <c r="K18">
-        <v>7205.1</v>
-      </c>
-      <c r="L18">
-        <v>7205.1</v>
-      </c>
-      <c r="M18">
-        <v>7205.1</v>
-      </c>
-      <c r="N18">
-        <v>7205.1</v>
-      </c>
-      <c r="O18">
-        <v>7205.1</v>
-      </c>
-      <c r="P18">
-        <v>7205.1</v>
-      </c>
-      <c r="Q18">
-        <v>7205.1</v>
-      </c>
-      <c r="R18">
-        <v>7205.1</v>
-      </c>
-      <c r="S18">
-        <v>7205.1</v>
-      </c>
-      <c r="T18">
-        <v>7205.1</v>
-      </c>
-      <c r="U18">
-        <v>7205.1</v>
-      </c>
-      <c r="V18">
-        <v>7205.1</v>
-      </c>
-      <c r="W18">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7205.1</v>
-      </c>
-      <c r="B19">
-        <v>7205.1</v>
-      </c>
-      <c r="C19">
-        <v>7205.1</v>
-      </c>
-      <c r="D19">
-        <v>7205.1</v>
-      </c>
-      <c r="E19">
-        <v>7205.1</v>
-      </c>
-      <c r="F19">
-        <v>7205.1</v>
-      </c>
-      <c r="G19">
-        <v>7205.1</v>
-      </c>
-      <c r="H19">
-        <v>7205.1</v>
-      </c>
-      <c r="I19">
-        <v>7205.1</v>
-      </c>
-      <c r="J19">
-        <v>7205.1</v>
-      </c>
-      <c r="K19">
-        <v>7205.1</v>
-      </c>
-      <c r="L19">
-        <v>7205.1</v>
-      </c>
-      <c r="M19">
-        <v>7205.1</v>
-      </c>
-      <c r="N19">
-        <v>7205.1</v>
-      </c>
-      <c r="O19">
-        <v>7205.1</v>
-      </c>
-      <c r="P19">
-        <v>7205.1</v>
-      </c>
-      <c r="Q19">
-        <v>7205.1</v>
-      </c>
-      <c r="R19">
-        <v>7205.1</v>
-      </c>
-      <c r="S19">
-        <v>7205.1</v>
-      </c>
-      <c r="T19">
-        <v>7205.1</v>
-      </c>
-      <c r="U19">
-        <v>7205.1</v>
-      </c>
-      <c r="V19">
-        <v>7205.1</v>
-      </c>
-      <c r="W19">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>7205.1</v>
-      </c>
-      <c r="B20">
-        <v>7205.1</v>
-      </c>
-      <c r="C20">
-        <v>7205.1</v>
-      </c>
-      <c r="D20">
-        <v>7205.1</v>
-      </c>
-      <c r="E20">
-        <v>7205.1</v>
-      </c>
-      <c r="F20">
-        <v>7205.1</v>
-      </c>
-      <c r="G20">
-        <v>7205.1</v>
-      </c>
-      <c r="H20">
-        <v>7205.1</v>
-      </c>
-      <c r="I20">
-        <v>7205.1</v>
-      </c>
-      <c r="J20">
-        <v>7205.1</v>
-      </c>
-      <c r="K20">
-        <v>7205.1</v>
-      </c>
-      <c r="L20">
-        <v>7205.1</v>
-      </c>
-      <c r="M20">
-        <v>7205.1</v>
-      </c>
-      <c r="N20">
-        <v>7205.1</v>
-      </c>
-      <c r="O20">
-        <v>7205.1</v>
-      </c>
-      <c r="P20">
-        <v>7205.1</v>
-      </c>
-      <c r="Q20">
-        <v>7205.1</v>
-      </c>
-      <c r="R20">
-        <v>7205.1</v>
-      </c>
-      <c r="S20">
-        <v>7205.1</v>
-      </c>
-      <c r="T20">
-        <v>7205.1</v>
-      </c>
-      <c r="U20">
-        <v>7205.1</v>
-      </c>
-      <c r="V20">
-        <v>7205.1</v>
-      </c>
-      <c r="W20">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>7205.1</v>
-      </c>
-      <c r="B21">
-        <v>7205.1</v>
-      </c>
-      <c r="C21">
-        <v>7205.1</v>
-      </c>
-      <c r="D21">
-        <v>7205.1</v>
-      </c>
-      <c r="E21">
-        <v>7205.1</v>
-      </c>
-      <c r="F21">
-        <v>7205.1</v>
-      </c>
-      <c r="G21">
-        <v>7205.1</v>
-      </c>
-      <c r="H21">
-        <v>7205.1</v>
-      </c>
-      <c r="I21">
-        <v>7205.1</v>
-      </c>
-      <c r="J21">
-        <v>7205.1</v>
-      </c>
-      <c r="K21">
-        <v>7205.1</v>
-      </c>
-      <c r="L21">
-        <v>7205.1</v>
-      </c>
-      <c r="M21">
-        <v>7205.1</v>
-      </c>
-      <c r="N21">
-        <v>7205.1</v>
-      </c>
-      <c r="O21">
-        <v>7205.1</v>
-      </c>
-      <c r="P21">
-        <v>7205.1</v>
-      </c>
-      <c r="Q21">
-        <v>7205.1</v>
-      </c>
-      <c r="R21">
-        <v>7205.1</v>
-      </c>
-      <c r="S21">
-        <v>7205.1</v>
-      </c>
-      <c r="T21">
-        <v>7205.1</v>
-      </c>
-      <c r="U21">
-        <v>7205.1</v>
-      </c>
-      <c r="V21">
-        <v>7205.1</v>
-      </c>
-      <c r="W21">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>7205.1</v>
-      </c>
-      <c r="B22">
-        <v>7205.1</v>
-      </c>
-      <c r="C22">
-        <v>7205.1</v>
-      </c>
-      <c r="D22">
-        <v>7205.1</v>
-      </c>
-      <c r="E22">
-        <v>7205.1</v>
-      </c>
-      <c r="F22">
-        <v>7205.1</v>
-      </c>
-      <c r="G22">
-        <v>7205.1</v>
-      </c>
-      <c r="H22">
-        <v>7205.1</v>
-      </c>
-      <c r="I22">
-        <v>7205.1</v>
-      </c>
-      <c r="J22">
-        <v>7205.1</v>
-      </c>
-      <c r="K22">
-        <v>7205.1</v>
-      </c>
-      <c r="L22">
-        <v>7205.1</v>
-      </c>
-      <c r="M22">
-        <v>7205.1</v>
-      </c>
-      <c r="N22">
-        <v>7205.1</v>
-      </c>
-      <c r="O22">
-        <v>7205.1</v>
-      </c>
-      <c r="P22">
-        <v>7205.1</v>
-      </c>
-      <c r="Q22">
-        <v>7205.1</v>
-      </c>
-      <c r="R22">
-        <v>7205.1</v>
-      </c>
-      <c r="S22">
-        <v>7205.1</v>
-      </c>
-      <c r="T22">
-        <v>7205.1</v>
-      </c>
-      <c r="U22">
-        <v>7205.1</v>
-      </c>
-      <c r="V22">
-        <v>7205.1</v>
-      </c>
-      <c r="W22">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>7205.1</v>
-      </c>
-      <c r="B23">
-        <v>7205.1</v>
-      </c>
-      <c r="C23">
-        <v>7205.1</v>
-      </c>
-      <c r="D23">
-        <v>7205.1</v>
-      </c>
-      <c r="E23">
-        <v>7205.1</v>
-      </c>
-      <c r="F23">
-        <v>7205.1</v>
-      </c>
-      <c r="G23">
-        <v>7205.1</v>
-      </c>
-      <c r="H23">
-        <v>7205.1</v>
-      </c>
-      <c r="I23">
-        <v>7205.1</v>
-      </c>
-      <c r="J23">
-        <v>7205.1</v>
-      </c>
-      <c r="K23">
-        <v>7205.1</v>
-      </c>
-      <c r="L23">
-        <v>7205.1</v>
-      </c>
-      <c r="M23">
-        <v>7205.1</v>
-      </c>
-      <c r="N23">
-        <v>7205.1</v>
-      </c>
-      <c r="O23">
-        <v>7205.1</v>
-      </c>
-      <c r="P23">
-        <v>7205.1</v>
-      </c>
-      <c r="Q23">
-        <v>7205.1</v>
-      </c>
-      <c r="R23">
-        <v>7205.1</v>
-      </c>
-      <c r="S23">
-        <v>7205.1</v>
-      </c>
-      <c r="T23">
-        <v>7205.1</v>
-      </c>
-      <c r="U23">
-        <v>7205.1</v>
-      </c>
-      <c r="V23">
-        <v>7205.1</v>
-      </c>
-      <c r="W23">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>7205.1</v>
-      </c>
-      <c r="B24">
-        <v>7205.1</v>
-      </c>
-      <c r="C24">
-        <v>7205.1</v>
-      </c>
-      <c r="D24">
-        <v>7205.1</v>
-      </c>
-      <c r="E24">
-        <v>7205.1</v>
-      </c>
-      <c r="F24">
-        <v>7205.1</v>
-      </c>
-      <c r="G24">
-        <v>7205.1</v>
-      </c>
-      <c r="H24">
-        <v>7205.1</v>
-      </c>
-      <c r="I24">
-        <v>7205.1</v>
-      </c>
-      <c r="J24">
-        <v>7205.1</v>
-      </c>
-      <c r="K24">
-        <v>7205.1</v>
-      </c>
-      <c r="L24">
-        <v>7205.1</v>
-      </c>
-      <c r="M24">
-        <v>7205.1</v>
-      </c>
-      <c r="N24">
-        <v>7205.1</v>
-      </c>
-      <c r="O24">
-        <v>7205.1</v>
-      </c>
-      <c r="P24">
-        <v>7205.1</v>
-      </c>
-      <c r="Q24">
-        <v>7205.1</v>
-      </c>
-      <c r="R24">
-        <v>7205.1</v>
-      </c>
-      <c r="S24">
-        <v>7205.1</v>
-      </c>
-      <c r="T24">
-        <v>7205.1</v>
-      </c>
-      <c r="U24">
-        <v>7205.1</v>
-      </c>
-      <c r="V24">
-        <v>7205.1</v>
-      </c>
-      <c r="W24">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>7205.1</v>
-      </c>
-      <c r="B25">
-        <v>7205.1</v>
-      </c>
-      <c r="C25">
-        <v>7205.1</v>
-      </c>
-      <c r="D25">
-        <v>7205.1</v>
-      </c>
-      <c r="E25">
-        <v>7205.1</v>
-      </c>
-      <c r="F25">
-        <v>7205.1</v>
-      </c>
-      <c r="G25">
-        <v>7205.1</v>
-      </c>
-      <c r="H25">
-        <v>7205.1</v>
-      </c>
-      <c r="I25">
-        <v>7205.1</v>
-      </c>
-      <c r="J25">
-        <v>7205.1</v>
-      </c>
-      <c r="K25">
-        <v>7205.1</v>
-      </c>
-      <c r="L25">
-        <v>7205.1</v>
-      </c>
-      <c r="M25">
-        <v>7205.1</v>
-      </c>
-      <c r="N25">
-        <v>7205.1</v>
-      </c>
-      <c r="O25">
-        <v>7205.1</v>
-      </c>
-      <c r="P25">
-        <v>7205.1</v>
-      </c>
-      <c r="Q25">
-        <v>7205.1</v>
-      </c>
-      <c r="R25">
-        <v>7205.1</v>
-      </c>
-      <c r="S25">
-        <v>7205.1</v>
-      </c>
-      <c r="T25">
-        <v>7205.1</v>
-      </c>
-      <c r="U25">
-        <v>7205.1</v>
-      </c>
-      <c r="V25">
-        <v>7205.1</v>
-      </c>
-      <c r="W25">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>7205.1</v>
-      </c>
-      <c r="B26">
-        <v>7205.1</v>
-      </c>
-      <c r="C26">
-        <v>7205.1</v>
-      </c>
-      <c r="D26">
-        <v>7205.1</v>
-      </c>
-      <c r="E26">
-        <v>7205.1</v>
-      </c>
-      <c r="F26">
-        <v>7205.1</v>
-      </c>
-      <c r="G26">
-        <v>7205.1</v>
-      </c>
-      <c r="H26">
-        <v>7205.1</v>
-      </c>
-      <c r="I26">
-        <v>7205.1</v>
-      </c>
-      <c r="J26">
-        <v>7205.1</v>
-      </c>
-      <c r="K26">
-        <v>7205.1</v>
-      </c>
-      <c r="L26">
-        <v>7205.1</v>
-      </c>
-      <c r="M26">
-        <v>7205.1</v>
-      </c>
-      <c r="N26">
-        <v>7205.1</v>
-      </c>
-      <c r="O26">
-        <v>7205.1</v>
-      </c>
-      <c r="P26">
-        <v>7205.1</v>
-      </c>
-      <c r="Q26">
-        <v>7205.1</v>
-      </c>
-      <c r="R26">
-        <v>7205.1</v>
-      </c>
-      <c r="S26">
-        <v>7205.1</v>
-      </c>
-      <c r="T26">
-        <v>7205.1</v>
-      </c>
-      <c r="U26">
-        <v>7205.1</v>
-      </c>
-      <c r="V26">
-        <v>7205.1</v>
-      </c>
-      <c r="W26">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>7205.1</v>
-      </c>
-      <c r="B27">
-        <v>7205.1</v>
-      </c>
-      <c r="C27">
-        <v>7205.1</v>
-      </c>
-      <c r="D27">
-        <v>7205.1</v>
-      </c>
-      <c r="E27">
-        <v>7205.1</v>
-      </c>
-      <c r="F27">
-        <v>7205.1</v>
-      </c>
-      <c r="G27">
-        <v>7205.1</v>
-      </c>
-      <c r="H27">
-        <v>7205.1</v>
-      </c>
-      <c r="I27">
-        <v>7205.1</v>
-      </c>
-      <c r="J27">
-        <v>7205.1</v>
-      </c>
-      <c r="K27">
-        <v>7205.1</v>
-      </c>
-      <c r="L27">
-        <v>7205.1</v>
-      </c>
-      <c r="M27">
-        <v>7205.1</v>
-      </c>
-      <c r="N27">
-        <v>7205.1</v>
-      </c>
-      <c r="O27">
-        <v>7205.1</v>
-      </c>
-      <c r="P27">
-        <v>7205.1</v>
-      </c>
-      <c r="Q27">
-        <v>7205.1</v>
-      </c>
-      <c r="R27">
-        <v>7205.1</v>
-      </c>
-      <c r="S27">
-        <v>7205.1</v>
-      </c>
-      <c r="T27">
-        <v>7205.1</v>
-      </c>
-      <c r="U27">
-        <v>7205.1</v>
-      </c>
-      <c r="V27">
-        <v>7205.1</v>
-      </c>
-      <c r="W27">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>7205.1</v>
-      </c>
-      <c r="B28">
-        <v>7205.1</v>
-      </c>
-      <c r="C28">
-        <v>7205.1</v>
-      </c>
-      <c r="D28">
-        <v>7205.1</v>
-      </c>
-      <c r="E28">
-        <v>7205.1</v>
-      </c>
-      <c r="F28">
-        <v>7205.1</v>
-      </c>
-      <c r="G28">
-        <v>7205.1</v>
-      </c>
-      <c r="H28">
-        <v>7205.1</v>
-      </c>
-      <c r="I28">
-        <v>7205.1</v>
-      </c>
-      <c r="J28">
-        <v>7205.1</v>
-      </c>
-      <c r="K28">
-        <v>7205.1</v>
-      </c>
-      <c r="L28">
-        <v>7205.1</v>
-      </c>
-      <c r="M28">
-        <v>7205.1</v>
-      </c>
-      <c r="N28">
-        <v>7205.1</v>
-      </c>
-      <c r="O28">
-        <v>7205.1</v>
-      </c>
-      <c r="P28">
-        <v>7205.1</v>
-      </c>
-      <c r="Q28">
-        <v>7205.1</v>
-      </c>
-      <c r="R28">
-        <v>7205.1</v>
-      </c>
-      <c r="S28">
-        <v>7205.1</v>
-      </c>
-      <c r="T28">
-        <v>7205.1</v>
-      </c>
-      <c r="U28">
-        <v>7205.1</v>
-      </c>
-      <c r="V28">
-        <v>7205.1</v>
-      </c>
-      <c r="W28">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>7205.1</v>
-      </c>
-      <c r="B29">
-        <v>7205.1</v>
-      </c>
-      <c r="C29">
-        <v>7205.1</v>
-      </c>
-      <c r="D29">
-        <v>7205.1</v>
-      </c>
-      <c r="E29">
-        <v>7205.1</v>
-      </c>
-      <c r="F29">
-        <v>7205.1</v>
-      </c>
-      <c r="G29">
-        <v>7205.1</v>
-      </c>
-      <c r="H29">
-        <v>7205.1</v>
-      </c>
-      <c r="I29">
-        <v>7205.1</v>
-      </c>
-      <c r="J29">
-        <v>7205.1</v>
-      </c>
-      <c r="K29">
-        <v>7205.1</v>
-      </c>
-      <c r="L29">
-        <v>7205.1</v>
-      </c>
-      <c r="M29">
-        <v>7205.1</v>
-      </c>
-      <c r="N29">
-        <v>7205.1</v>
-      </c>
-      <c r="O29">
-        <v>7205.1</v>
-      </c>
-      <c r="P29">
-        <v>7205.1</v>
-      </c>
-      <c r="Q29">
-        <v>7205.1</v>
-      </c>
-      <c r="R29">
-        <v>7205.1</v>
-      </c>
-      <c r="S29">
-        <v>7205.1</v>
-      </c>
-      <c r="T29">
-        <v>7205.1</v>
-      </c>
-      <c r="U29">
-        <v>7205.1</v>
-      </c>
-      <c r="V29">
-        <v>7205.1</v>
-      </c>
-      <c r="W29">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>7205.1</v>
-      </c>
-      <c r="B30">
-        <v>7205.1</v>
-      </c>
-      <c r="C30">
-        <v>7205.1</v>
-      </c>
-      <c r="D30">
-        <v>7205.1</v>
-      </c>
-      <c r="E30">
-        <v>7205.1</v>
-      </c>
-      <c r="F30">
-        <v>7205.1</v>
-      </c>
-      <c r="G30">
-        <v>7205.1</v>
-      </c>
-      <c r="H30">
-        <v>7205.1</v>
-      </c>
-      <c r="I30">
-        <v>7205.1</v>
-      </c>
-      <c r="J30">
-        <v>7205.1</v>
-      </c>
-      <c r="K30">
-        <v>7205.1</v>
-      </c>
-      <c r="L30">
-        <v>7205.1</v>
-      </c>
-      <c r="M30">
-        <v>7205.1</v>
-      </c>
-      <c r="N30">
-        <v>7205.1</v>
-      </c>
-      <c r="O30">
-        <v>7205.1</v>
-      </c>
-      <c r="P30">
-        <v>7205.1</v>
-      </c>
-      <c r="Q30">
-        <v>7205.1</v>
-      </c>
-      <c r="R30">
-        <v>7205.1</v>
-      </c>
-      <c r="S30">
-        <v>7205.1</v>
-      </c>
-      <c r="T30">
-        <v>7205.1</v>
-      </c>
-      <c r="U30">
-        <v>7205.1</v>
-      </c>
-      <c r="V30">
-        <v>7205.1</v>
-      </c>
-      <c r="W30">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>7205.1</v>
-      </c>
-      <c r="B31">
-        <v>7205.1</v>
-      </c>
-      <c r="C31">
-        <v>7205.1</v>
-      </c>
-      <c r="D31">
-        <v>7205.1</v>
-      </c>
-      <c r="E31">
-        <v>7205.1</v>
-      </c>
-      <c r="F31">
-        <v>7205.1</v>
-      </c>
-      <c r="G31">
-        <v>7205.1</v>
-      </c>
-      <c r="H31">
-        <v>7205.1</v>
-      </c>
-      <c r="I31">
-        <v>7205.1</v>
-      </c>
-      <c r="J31">
-        <v>7205.1</v>
-      </c>
-      <c r="K31">
-        <v>7205.1</v>
-      </c>
-      <c r="L31">
-        <v>7205.1</v>
-      </c>
-      <c r="M31">
-        <v>7205.1</v>
-      </c>
-      <c r="N31">
-        <v>7205.1</v>
-      </c>
-      <c r="O31">
-        <v>7205.1</v>
-      </c>
-      <c r="P31">
-        <v>7205.1</v>
-      </c>
-      <c r="Q31">
-        <v>7205.1</v>
-      </c>
-      <c r="R31">
-        <v>7205.1</v>
-      </c>
-      <c r="S31">
-        <v>7205.1</v>
-      </c>
-      <c r="T31">
-        <v>7205.1</v>
-      </c>
-      <c r="U31">
-        <v>7205.1</v>
-      </c>
-      <c r="V31">
-        <v>7205.1</v>
-      </c>
-      <c r="W31">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>7205.1</v>
-      </c>
-      <c r="B32">
-        <v>7205.1</v>
-      </c>
-      <c r="C32">
-        <v>7205.1</v>
-      </c>
-      <c r="D32">
-        <v>7205.1</v>
-      </c>
-      <c r="E32">
-        <v>7205.1</v>
-      </c>
-      <c r="F32">
-        <v>7205.1</v>
-      </c>
-      <c r="G32">
-        <v>7205.1</v>
-      </c>
-      <c r="H32">
-        <v>7205.1</v>
-      </c>
-      <c r="I32">
-        <v>7205.1</v>
-      </c>
-      <c r="J32">
-        <v>7205.1</v>
-      </c>
-      <c r="K32">
-        <v>7205.1</v>
-      </c>
-      <c r="L32">
-        <v>7205.1</v>
-      </c>
-      <c r="M32">
-        <v>7205.1</v>
-      </c>
-      <c r="N32">
-        <v>7205.1</v>
-      </c>
-      <c r="O32">
-        <v>7205.1</v>
-      </c>
-      <c r="P32">
-        <v>7205.1</v>
-      </c>
-      <c r="Q32">
-        <v>7205.1</v>
-      </c>
-      <c r="R32">
-        <v>7205.1</v>
-      </c>
-      <c r="S32">
-        <v>7205.1</v>
-      </c>
-      <c r="T32">
-        <v>7205.1</v>
-      </c>
-      <c r="U32">
-        <v>7205.1</v>
-      </c>
-      <c r="V32">
-        <v>7205.1</v>
-      </c>
-      <c r="W32">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>7205.1</v>
-      </c>
-      <c r="B33">
-        <v>7205.1</v>
-      </c>
-      <c r="C33">
-        <v>7205.1</v>
-      </c>
-      <c r="D33">
-        <v>7205.1</v>
-      </c>
-      <c r="E33">
-        <v>7205.1</v>
-      </c>
-      <c r="F33">
-        <v>7205.1</v>
-      </c>
-      <c r="G33">
-        <v>7205.1</v>
-      </c>
-      <c r="H33">
-        <v>7205.1</v>
-      </c>
-      <c r="I33">
-        <v>7205.1</v>
-      </c>
-      <c r="J33">
-        <v>7205.1</v>
-      </c>
-      <c r="K33">
-        <v>7205.1</v>
-      </c>
-      <c r="L33">
-        <v>7205.1</v>
-      </c>
-      <c r="M33">
-        <v>7205.1</v>
-      </c>
-      <c r="N33">
-        <v>7205.1</v>
-      </c>
-      <c r="O33">
-        <v>7205.1</v>
-      </c>
-      <c r="P33">
-        <v>7205.1</v>
-      </c>
-      <c r="Q33">
-        <v>7205.1</v>
-      </c>
-      <c r="R33">
-        <v>7205.1</v>
-      </c>
-      <c r="S33">
-        <v>7205.1</v>
-      </c>
-      <c r="T33">
-        <v>7205.1</v>
-      </c>
-      <c r="U33">
-        <v>7205.1</v>
-      </c>
-      <c r="V33">
-        <v>7205.1</v>
-      </c>
-      <c r="W33">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>7205.1</v>
-      </c>
-      <c r="B34">
-        <v>7205.1</v>
-      </c>
-      <c r="C34">
-        <v>7205.1</v>
-      </c>
-      <c r="D34">
-        <v>7205.1</v>
-      </c>
-      <c r="E34">
-        <v>7205.1</v>
-      </c>
-      <c r="F34">
-        <v>7205.1</v>
-      </c>
-      <c r="G34">
-        <v>7205.1</v>
-      </c>
-      <c r="H34">
-        <v>7205.1</v>
-      </c>
-      <c r="I34">
-        <v>7205.1</v>
-      </c>
-      <c r="J34">
-        <v>7205.1</v>
-      </c>
-      <c r="K34">
-        <v>7205.1</v>
-      </c>
-      <c r="L34">
-        <v>7205.1</v>
-      </c>
-      <c r="M34">
-        <v>7205.1</v>
-      </c>
-      <c r="N34">
-        <v>7205.1</v>
-      </c>
-      <c r="O34">
-        <v>7205.1</v>
-      </c>
-      <c r="P34">
-        <v>7205.1</v>
-      </c>
-      <c r="Q34">
-        <v>7205.1</v>
-      </c>
-      <c r="R34">
-        <v>7205.1</v>
-      </c>
-      <c r="S34">
-        <v>7205.1</v>
-      </c>
-      <c r="T34">
-        <v>7205.1</v>
-      </c>
-      <c r="U34">
-        <v>7205.1</v>
-      </c>
-      <c r="V34">
-        <v>7205.1</v>
-      </c>
-      <c r="W34">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>7205.1</v>
-      </c>
-      <c r="B35">
-        <v>7205.1</v>
-      </c>
-      <c r="C35">
-        <v>7205.1</v>
-      </c>
-      <c r="D35">
-        <v>7205.1</v>
-      </c>
-      <c r="E35">
-        <v>7205.1</v>
-      </c>
-      <c r="F35">
-        <v>7205.1</v>
-      </c>
-      <c r="G35">
-        <v>7205.1</v>
-      </c>
-      <c r="H35">
-        <v>7205.1</v>
-      </c>
-      <c r="I35">
-        <v>7205.1</v>
-      </c>
-      <c r="J35">
-        <v>7205.1</v>
-      </c>
-      <c r="K35">
-        <v>7205.1</v>
-      </c>
-      <c r="L35">
-        <v>7205.1</v>
-      </c>
-      <c r="M35">
-        <v>7205.1</v>
-      </c>
-      <c r="N35">
-        <v>7205.1</v>
-      </c>
-      <c r="O35">
-        <v>7205.1</v>
-      </c>
-      <c r="P35">
-        <v>7205.1</v>
-      </c>
-      <c r="Q35">
-        <v>7205.1</v>
-      </c>
-      <c r="R35">
-        <v>7205.1</v>
-      </c>
-      <c r="S35">
-        <v>7205.1</v>
-      </c>
-      <c r="T35">
-        <v>7205.1</v>
-      </c>
-      <c r="U35">
-        <v>7205.1</v>
-      </c>
-      <c r="V35">
-        <v>7205.1</v>
-      </c>
-      <c r="W35">
-        <v>7205.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>7205.1</v>
-      </c>
-      <c r="B36">
-        <v>7205.1</v>
-      </c>
-      <c r="C36">
-        <v>7205.1</v>
-      </c>
-      <c r="D36">
-        <v>7205.1</v>
-      </c>
-      <c r="E36">
-        <v>7205.1</v>
-      </c>
-      <c r="F36">
-        <v>7205.1</v>
-      </c>
-      <c r="G36">
-        <v>7205.1</v>
-      </c>
-      <c r="H36">
-        <v>7205.1</v>
-      </c>
-      <c r="I36">
-        <v>7205.1</v>
-      </c>
-      <c r="J36">
-        <v>7205.1</v>
-      </c>
-      <c r="K36">
-        <v>7205.1</v>
-      </c>
-      <c r="L36">
-        <v>7205.1</v>
-      </c>
-      <c r="M36">
-        <v>7205.1</v>
-      </c>
-      <c r="N36">
-        <v>7205.1</v>
-      </c>
-      <c r="O36">
-        <v>7205.1</v>
-      </c>
-      <c r="P36">
-        <v>7205.1</v>
-      </c>
-      <c r="Q36">
-        <v>7205.1</v>
-      </c>
-      <c r="R36">
-        <v>7205.1</v>
-      </c>
-      <c r="S36">
-        <v>7205.1</v>
-      </c>
-      <c r="T36">
-        <v>7205.1</v>
-      </c>
-      <c r="U36">
-        <v>7205.1</v>
-      </c>
-      <c r="V36">
-        <v>7205.1</v>
-      </c>
-      <c r="W36">
-        <v>7205.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>